--- a/Version_on_pcloud/Data_processing_notebooks/Notebook_Compiled_data/Standards_only_NoPDcalcs.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Notebook_Compiled_data/Standards_only_NoPDcalcs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:UZ23"/>
+  <dimension ref="A1:WL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,1932 +1365,2122 @@
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
+          <t>Al2O3_Ol</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
           <t>CaO_Ol</t>
         </is>
       </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>Cr2O3_Ol</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>FeOt_Ol</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>MgO_Ol</t>
         </is>
       </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>MnO_Ol</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
         <is>
           <t>NiO_Ol</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="GL1" s="1" t="inlineStr">
         <is>
           <t>SiO2_Ol</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>TiO2_Ol</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_CaO_Ol</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="GO1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_FeOt_Ol</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="GP1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MgO_Ol</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MnO_Ol</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_NiO_Ol</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_SiO2_Ol</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_norm_Ol</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
         <is>
           <t>CaO_norm_Ol</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>Cr2O3_norm_Ol</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>FeOt_norm_Ol</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>MgO_norm_Ol</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>MnO_norm_Ol</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>NiO_norm_Ol</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>SiO2_norm_Ol</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>TiO2_norm_Ol</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ca_Ol</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Fe_Ol</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mg_Ol</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mn_Ol</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ni_Ol</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>Wt%_O_Ol</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Si_Ol</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ca_Ol</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Fe_Ol</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mg_Ol</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mn_Ol</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ni_Ol</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Si_Ol</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ca_Ol</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Fe_Ol</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mg_Ol</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mn_Ol</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ni_Ol</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_O_Ol</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Si_Ol</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
         <is>
           <t>Beam Current (nA)_Ni_Ol</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ca_Ol</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Fe_Ol</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mg_Ol</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mn_Ol</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ni_Ol</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Si_Ol</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
         <is>
           <t>Oxide_CaO_Ol</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Oxide_FeOt_Ol</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MgO_Ol</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MnO_Ol</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Oxide_NiO_Ol</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Oxide_SiO2_Ol</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ca_Ol</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Fe_Ol</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mg_Ol</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mn_Ol</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ni_Ol</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Si_Ol</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ca_Ol</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Fe_Ol</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mg_Ol</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mn_Ol</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ni_Ol</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Si_Ol</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Fe_Ol</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Mg_Ol</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Ni_Ol</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Si_Ol</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ca_Ol</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Fe_Ol</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mg_Ol</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mn_Ol</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ni_Ol</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Si_Ol</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mg_Ol</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Si_Ol</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ca_Ol</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mn_Ol</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Fe_Ol</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ni_Ol</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mg_Ol</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Si_Ol</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ca_Ol</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mn_Ol</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Fe_Ol</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ni_Ol</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>Line_O_Ol</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
         <is>
           <t>Line_Mg_Ol</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Line_Si_Ol</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Line_Ca_Ol</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Line_Mn_Ol</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Line_Fe_Ol</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Line_Ni_Ol</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>SampleID_Ol</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
         <is>
           <t>Fo_Ol</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="KA1" s="1" t="inlineStr">
         <is>
           <t>Na2O_Gl</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_Gl</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>P2O5_Gl</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>CaO_Gl</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>K2O_Gl</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>TiO2_Gl</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>SiO2_Gl</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
         <is>
           <t>MgO_Gl</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KI1" s="1" t="inlineStr">
         <is>
           <t>FeOt_Gl</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>MnO_Gl</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>SO2_Gl</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Cl_Gl</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Total_wt%_Gl</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>Mg#_Gl</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Na2O_STD_Gl</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_STD_Gl</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
         <is>
           <t>P2O5_STD_Gl</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="KR1" s="1" t="inlineStr">
         <is>
           <t>CaO_STD_Gl</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>K2O_STD_Gl</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>TiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>SiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>MgO_STD_Gl</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>FeOt_STD_Gl</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>MnO_STD_Gl</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>SO2_STD_Gl</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>Cl_STD_Gl</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>Total_wt%_STD_Gl</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>averaged?_Gl</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>Total_Oxide%_Gl</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Al2O3_Gl</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_CaO_Gl</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_FeOt_Gl</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_K2O_Gl</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MgO_Gl</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MnO_Gl</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Na2O_Gl</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_P2O5_Gl</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_S_Gl</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_SiO2_Gl</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_TiO2_Gl</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_norm_Gl</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>CaO_norm_Gl</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>FeOt_norm_Gl</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>K2O_norm_Gl</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>MgO_norm_Gl</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>MnO_norm_Gl</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Na2O_norm_Gl</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>P2O5_norm_Gl</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>SO2_norm_Gl</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>SiO2_norm_Gl</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>TiO2_norm_Gl</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Al_Gl</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ca_Gl</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Fe_Gl</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Wt%_K_Gl</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mg_Gl</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mn_Gl</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Na_Gl</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Wt%_O_Gl</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Wt%_P_Gl</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Wt%_S_Gl</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Si_Gl</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ti_Gl</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Al_Gl</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ca_Gl</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Fe_Gl</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_K_Gl</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mg_Gl</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mn_Gl</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Na_Gl</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_P_Gl</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_S_Gl</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Si_Gl</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ti_Gl</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Al_Gl</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ca_Gl</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Fe_Gl</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_K_Gl</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mg_Gl</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mn_Gl</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Na_Gl</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_O_Gl</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_P_Gl</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_S_Gl</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Si_Gl</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ti_Gl</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Al_Gl</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ca_Gl</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Fe_Gl</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_K_Gl</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mg_Gl</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mn_Gl</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Na_Gl</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_P_Gl</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_S_Gl</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Si_Gl</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ti_Gl</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>Oxide_Al2O3_Gl</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Oxide_CaO_Gl</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Oxide_FeOt_Gl</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Oxide_K2O_Gl</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MgO_Gl</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MnO_Gl</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Oxide_Na2O_Gl</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Oxide_P2O5_Gl</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Oxide_S_Gl</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Oxide_SiO2_Gl</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Oxide_TiO2_Gl</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Al_Gl</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ca_Gl</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Fe_Gl</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_K_Gl</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mg_Gl</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mn_Gl</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Na_Gl</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_P_Gl</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_S_Gl</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Si_Gl</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ti_Gl</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Al_Gl</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ca_Gl</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Fe_Gl</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_K_Gl</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mg_Gl</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mn_Gl</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Na_Gl</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_P_Gl</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_S_Gl</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Si_Gl</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ti_Gl</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Fe_Gl</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Mg_Gl</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Si_Gl</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Al_Gl</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ca_Gl</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Fe_Gl</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_K_Gl</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mg_Gl</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mn_Gl</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Na_Gl</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_P_Gl</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_S_Gl</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Si_Gl</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ti_Gl</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Na_Gl</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mg_Gl</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Al_Gl</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Si_Gl</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_P_Gl</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_S_Gl</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_K_Gl</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ca_Gl</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ti_Gl</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mn_Gl</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Fe_Gl</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Na_Gl</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mg_Gl</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Al_Gl</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Si_Gl</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_P_Gl</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_S_Gl</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_K_Gl</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ca_Gl</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ti_Gl</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mn_Gl</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Fe_Gl</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Line_O_Gl</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Line_Na_Gl</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Line_Mg_Gl</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>Line_Al_Gl</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Line_Si_Gl</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Line_P_Gl</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Line_S_Gl</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Line_K_Gl</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Line_Ca_Gl</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Line_Ti_Gl</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Line_Mn_Gl</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Line_Fe_Gl</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>SampleID_Gl</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Total_Oxide%_STD_Gl</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Al2O3_STD_Gl</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_CaO_STD_Gl</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_FeOt_STD_Gl</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_K2O_STD_Gl</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MgO_STD_Gl</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MnO_STD_Gl</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Na2O_STD_Gl</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_P2O5_STD_Gl</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_S_STD_Gl</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_SiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_TiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>CaO_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="RL1" s="1" t="inlineStr">
         <is>
           <t>FeOt_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RJ1" s="1" t="inlineStr">
+      <c r="RM1" s="1" t="inlineStr">
         <is>
           <t>K2O_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RK1" s="1" t="inlineStr">
+      <c r="RN1" s="1" t="inlineStr">
         <is>
           <t>MgO_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RL1" s="1" t="inlineStr">
+      <c r="RO1" s="1" t="inlineStr">
         <is>
           <t>MnO_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
+      <c r="RP1" s="1" t="inlineStr">
         <is>
           <t>Na2O_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RN1" s="1" t="inlineStr">
+      <c r="RQ1" s="1" t="inlineStr">
         <is>
           <t>P2O5_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
+      <c r="RR1" s="1" t="inlineStr">
         <is>
           <t>SO2_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RP1" s="1" t="inlineStr">
+      <c r="RS1" s="1" t="inlineStr">
         <is>
           <t>SiO2_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RQ1" s="1" t="inlineStr">
+      <c r="RT1" s="1" t="inlineStr">
         <is>
           <t>TiO2_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RR1" s="1" t="inlineStr">
+      <c r="RU1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="RS1" s="1" t="inlineStr">
+      <c r="RV1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="RT1" s="1" t="inlineStr">
+      <c r="RW1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="RU1" s="1" t="inlineStr">
+      <c r="RX1" s="1" t="inlineStr">
         <is>
           <t>Wt%_K_STD_Gl</t>
         </is>
       </c>
-      <c r="RV1" s="1" t="inlineStr">
+      <c r="RY1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="RW1" s="1" t="inlineStr">
+      <c r="RZ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="RX1" s="1" t="inlineStr">
+      <c r="SA1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="RY1" s="1" t="inlineStr">
+      <c r="SB1" s="1" t="inlineStr">
         <is>
           <t>Wt%_O_STD_Gl</t>
         </is>
       </c>
-      <c r="RZ1" s="1" t="inlineStr">
+      <c r="SC1" s="1" t="inlineStr">
         <is>
           <t>Wt%_P_STD_Gl</t>
         </is>
       </c>
-      <c r="SA1" s="1" t="inlineStr">
+      <c r="SD1" s="1" t="inlineStr">
         <is>
           <t>Wt%_S_STD_Gl</t>
         </is>
       </c>
-      <c r="SB1" s="1" t="inlineStr">
+      <c r="SE1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="SC1" s="1" t="inlineStr">
+      <c r="SF1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="SD1" s="1" t="inlineStr">
+      <c r="SG1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="SE1" s="1" t="inlineStr">
+      <c r="SH1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="SF1" s="1" t="inlineStr">
+      <c r="SI1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="SG1" s="1" t="inlineStr">
+      <c r="SJ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_K_STD_Gl</t>
         </is>
       </c>
-      <c r="SH1" s="1" t="inlineStr">
+      <c r="SK1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="SI1" s="1" t="inlineStr">
+      <c r="SL1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="SJ1" s="1" t="inlineStr">
+      <c r="SM1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
+      <c r="SN1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_P_STD_Gl</t>
         </is>
       </c>
-      <c r="SL1" s="1" t="inlineStr">
+      <c r="SO1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_S_STD_Gl</t>
         </is>
       </c>
-      <c r="SM1" s="1" t="inlineStr">
+      <c r="SP1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="SN1" s="1" t="inlineStr">
+      <c r="SQ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
+      <c r="SR1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="SP1" s="1" t="inlineStr">
+      <c r="SS1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="SQ1" s="1" t="inlineStr">
+      <c r="ST1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="SR1" s="1" t="inlineStr">
+      <c r="SU1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_K_STD_Gl</t>
         </is>
       </c>
-      <c r="SS1" s="1" t="inlineStr">
+      <c r="SV1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="ST1" s="1" t="inlineStr">
+      <c r="SW1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="SU1" s="1" t="inlineStr">
+      <c r="SX1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="SV1" s="1" t="inlineStr">
+      <c r="SY1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_O_STD_Gl</t>
         </is>
       </c>
-      <c r="SW1" s="1" t="inlineStr">
+      <c r="SZ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_P_STD_Gl</t>
         </is>
       </c>
-      <c r="SX1" s="1" t="inlineStr">
+      <c r="TA1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_S_STD_Gl</t>
         </is>
       </c>
-      <c r="SY1" s="1" t="inlineStr">
+      <c r="TB1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="SZ1" s="1" t="inlineStr">
+      <c r="TC1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="TA1" s="1" t="inlineStr">
+      <c r="TD1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="TB1" s="1" t="inlineStr">
+      <c r="TE1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="TC1" s="1" t="inlineStr">
+      <c r="TF1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="TD1" s="1" t="inlineStr">
+      <c r="TG1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_K_STD_Gl</t>
         </is>
       </c>
-      <c r="TE1" s="1" t="inlineStr">
+      <c r="TH1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="TF1" s="1" t="inlineStr">
+      <c r="TI1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_P_STD_Gl</t>
         </is>
       </c>
-      <c r="TI1" s="1" t="inlineStr">
+      <c r="TL1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_S_STD_Gl</t>
         </is>
       </c>
-      <c r="TJ1" s="1" t="inlineStr">
+      <c r="TM1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="TK1" s="1" t="inlineStr">
+      <c r="TN1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="TL1" s="1" t="inlineStr">
+      <c r="TO1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
+      <c r="TQ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="TO1" s="1" t="inlineStr">
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_K_STD_Gl</t>
         </is>
       </c>
-      <c r="TP1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="TQ1" s="1" t="inlineStr">
+      <c r="TT1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="TR1" s="1" t="inlineStr">
+      <c r="TU1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="TS1" s="1" t="inlineStr">
+      <c r="TV1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_P_STD_Gl</t>
         </is>
       </c>
-      <c r="TT1" s="1" t="inlineStr">
+      <c r="TW1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_S_STD_Gl</t>
         </is>
       </c>
-      <c r="TU1" s="1" t="inlineStr">
+      <c r="TX1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="TV1" s="1" t="inlineStr">
+      <c r="TY1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="TW1" s="1" t="inlineStr">
+      <c r="TZ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="TX1" s="1" t="inlineStr">
+      <c r="UA1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="TY1" s="1" t="inlineStr">
+      <c r="UB1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="TZ1" s="1" t="inlineStr">
+      <c r="UC1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="UA1" s="1" t="inlineStr">
+      <c r="UD1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_P_STD_Gl</t>
         </is>
       </c>
-      <c r="UB1" s="1" t="inlineStr">
+      <c r="UE1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_S_STD_Gl</t>
         </is>
       </c>
-      <c r="UC1" s="1" t="inlineStr">
+      <c r="UF1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_K_STD_Gl</t>
         </is>
       </c>
-      <c r="UD1" s="1" t="inlineStr">
+      <c r="UG1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="UE1" s="1" t="inlineStr">
+      <c r="UH1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="UF1" s="1" t="inlineStr">
+      <c r="UI1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="UG1" s="1" t="inlineStr">
+      <c r="UJ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="UH1" s="1" t="inlineStr">
+      <c r="UK1" s="1" t="inlineStr">
         <is>
           <t>Mg#_STD_Gl</t>
         </is>
       </c>
-      <c r="UI1" s="1" t="inlineStr">
+      <c r="UL1" s="1" t="inlineStr">
         <is>
           <t>EBSD_filename</t>
         </is>
       </c>
-      <c r="UJ1" s="1" t="inlineStr">
+      <c r="UM1" s="1" t="inlineStr">
         <is>
           <t>EBSDname+grainID_EBSDdata</t>
         </is>
       </c>
-      <c r="UK1" s="1" t="inlineStr">
+      <c r="UN1" s="1" t="inlineStr">
         <is>
           <t>GOS</t>
         </is>
       </c>
-      <c r="UL1" s="1" t="inlineStr">
+      <c r="UO1" s="1" t="inlineStr">
         <is>
           <t>Grain Size (pixels)</t>
         </is>
       </c>
-      <c r="UM1" s="1" t="inlineStr">
+      <c r="UP1" s="1" t="inlineStr">
         <is>
           <t>Grain Size (um2)</t>
         </is>
       </c>
-      <c r="UN1" s="1" t="inlineStr">
+      <c r="UQ1" s="1" t="inlineStr">
         <is>
           <t>subBoundaryLength (um)</t>
         </is>
       </c>
-      <c r="UO1" s="1" t="inlineStr">
+      <c r="UR1" s="1" t="inlineStr">
         <is>
           <t>equivalentRadius (um)</t>
         </is>
       </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="US1" s="1" t="inlineStr">
         <is>
           <t>GB Length/Sqrt Size</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
+      <c r="UT1" s="1" t="inlineStr">
         <is>
           <t>Total GB length</t>
         </is>
       </c>
-      <c r="UR1" s="1" t="inlineStr">
+      <c r="UU1" s="1" t="inlineStr">
         <is>
           <t>Tilt length</t>
         </is>
       </c>
-      <c r="US1" s="1" t="inlineStr">
+      <c r="UV1" s="1" t="inlineStr">
         <is>
           <t>Twist length</t>
         </is>
       </c>
-      <c r="UT1" s="1" t="inlineStr">
+      <c r="UW1" s="1" t="inlineStr">
         <is>
           <t>Perc Tilt</t>
         </is>
       </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="UX1" s="1" t="inlineStr">
         <is>
           <t>Perc Twist</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
+      <c r="UY1" s="1" t="inlineStr">
         <is>
           <t>Perc unclassified</t>
         </is>
       </c>
-      <c r="UW1" s="1" t="inlineStr">
+      <c r="UZ1" s="1" t="inlineStr">
         <is>
           <t>Divangle</t>
         </is>
       </c>
-      <c r="UX1" s="1" t="inlineStr">
+      <c r="VA1" s="1" t="inlineStr">
         <is>
           <t>Deformed</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
+      <c r="VB1" s="1" t="inlineStr">
         <is>
           <t>Day_EBSDdata</t>
         </is>
       </c>
-      <c r="UZ1" s="1" t="inlineStr">
+      <c r="VC1" s="1" t="inlineStr">
         <is>
           <t>Standard</t>
+        </is>
+      </c>
+      <c r="VD1" s="1" t="inlineStr">
+        <is>
+          <t>Name_on_EPMA</t>
+        </is>
+      </c>
+      <c r="VE1" s="1" t="inlineStr">
+        <is>
+          <t>Number order_Ol</t>
+        </is>
+      </c>
+      <c r="VF1" s="1" t="inlineStr">
+        <is>
+          <t>MOUNT_Ol</t>
+        </is>
+      </c>
+      <c r="VG1" s="1" t="inlineStr">
+        <is>
+          <t>Probe no._Ol</t>
+        </is>
+      </c>
+      <c r="VH1" s="1" t="inlineStr">
+        <is>
+          <t>old_name_Ol</t>
+        </is>
+      </c>
+      <c r="VI1" s="1" t="inlineStr">
+        <is>
+          <t>Comments_Ol</t>
+        </is>
+      </c>
+      <c r="VJ1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Ol</t>
+        </is>
+      </c>
+      <c r="VK1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Ca _Ol</t>
+        </is>
+      </c>
+      <c r="VL1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Ti _Ol</t>
+        </is>
+      </c>
+      <c r="VM1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Si _Ol</t>
+        </is>
+      </c>
+      <c r="VN1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Al _Ol</t>
+        </is>
+      </c>
+      <c r="VO1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Mg _Ol</t>
+        </is>
+      </c>
+      <c r="VP1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Fe _Ol</t>
+        </is>
+      </c>
+      <c r="VQ1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Mn _Ol</t>
+        </is>
+      </c>
+      <c r="VR1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Ni _Ol</t>
+        </is>
+      </c>
+      <c r="VS1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      Cr _Ol</t>
+        </is>
+      </c>
+      <c r="VT1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Total  _Ol</t>
+        </is>
+      </c>
+      <c r="VU1" s="1" t="inlineStr">
+        <is>
+          <t>Ca(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="VV1" s="1" t="inlineStr">
+        <is>
+          <t>Ti(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="VW1" s="1" t="inlineStr">
+        <is>
+          <t>Si(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>Al(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>Mg(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>Fe(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>Mn(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>Ni(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>Cr(Error%)_Ol</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>Ca(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>Ti(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>Si(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>Al(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>Mg(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>Fe(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>Mn(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>Ni(D.L.)_Ol</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>Cr(D.L.)_Ol</t>
         </is>
       </c>
     </row>
@@ -4063,6 +4253,44 @@
       <c r="UX2" t="inlineStr"/>
       <c r="UY2" t="inlineStr"/>
       <c r="UZ2" t="inlineStr"/>
+      <c r="VA2" t="inlineStr"/>
+      <c r="VB2" t="inlineStr"/>
+      <c r="VC2" t="inlineStr"/>
+      <c r="VD2" t="inlineStr"/>
+      <c r="VE2" t="inlineStr"/>
+      <c r="VF2" t="inlineStr"/>
+      <c r="VG2" t="inlineStr"/>
+      <c r="VH2" t="inlineStr"/>
+      <c r="VI2" t="inlineStr"/>
+      <c r="VJ2" t="inlineStr"/>
+      <c r="VK2" t="inlineStr"/>
+      <c r="VL2" t="inlineStr"/>
+      <c r="VM2" t="inlineStr"/>
+      <c r="VN2" t="inlineStr"/>
+      <c r="VO2" t="inlineStr"/>
+      <c r="VP2" t="inlineStr"/>
+      <c r="VQ2" t="inlineStr"/>
+      <c r="VR2" t="inlineStr"/>
+      <c r="VS2" t="inlineStr"/>
+      <c r="VT2" t="inlineStr"/>
+      <c r="VU2" t="inlineStr"/>
+      <c r="VV2" t="inlineStr"/>
+      <c r="VW2" t="inlineStr"/>
+      <c r="VX2" t="inlineStr"/>
+      <c r="VY2" t="inlineStr"/>
+      <c r="VZ2" t="inlineStr"/>
+      <c r="WA2" t="inlineStr"/>
+      <c r="WB2" t="inlineStr"/>
+      <c r="WC2" t="inlineStr"/>
+      <c r="WD2" t="inlineStr"/>
+      <c r="WE2" t="inlineStr"/>
+      <c r="WF2" t="inlineStr"/>
+      <c r="WG2" t="inlineStr"/>
+      <c r="WH2" t="inlineStr"/>
+      <c r="WI2" t="inlineStr"/>
+      <c r="WJ2" t="inlineStr"/>
+      <c r="WK2" t="inlineStr"/>
+      <c r="WL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -4839,6 +5067,44 @@
       <c r="UX3" t="inlineStr"/>
       <c r="UY3" t="inlineStr"/>
       <c r="UZ3" t="inlineStr"/>
+      <c r="VA3" t="inlineStr"/>
+      <c r="VB3" t="inlineStr"/>
+      <c r="VC3" t="inlineStr"/>
+      <c r="VD3" t="inlineStr"/>
+      <c r="VE3" t="inlineStr"/>
+      <c r="VF3" t="inlineStr"/>
+      <c r="VG3" t="inlineStr"/>
+      <c r="VH3" t="inlineStr"/>
+      <c r="VI3" t="inlineStr"/>
+      <c r="VJ3" t="inlineStr"/>
+      <c r="VK3" t="inlineStr"/>
+      <c r="VL3" t="inlineStr"/>
+      <c r="VM3" t="inlineStr"/>
+      <c r="VN3" t="inlineStr"/>
+      <c r="VO3" t="inlineStr"/>
+      <c r="VP3" t="inlineStr"/>
+      <c r="VQ3" t="inlineStr"/>
+      <c r="VR3" t="inlineStr"/>
+      <c r="VS3" t="inlineStr"/>
+      <c r="VT3" t="inlineStr"/>
+      <c r="VU3" t="inlineStr"/>
+      <c r="VV3" t="inlineStr"/>
+      <c r="VW3" t="inlineStr"/>
+      <c r="VX3" t="inlineStr"/>
+      <c r="VY3" t="inlineStr"/>
+      <c r="VZ3" t="inlineStr"/>
+      <c r="WA3" t="inlineStr"/>
+      <c r="WB3" t="inlineStr"/>
+      <c r="WC3" t="inlineStr"/>
+      <c r="WD3" t="inlineStr"/>
+      <c r="WE3" t="inlineStr"/>
+      <c r="WF3" t="inlineStr"/>
+      <c r="WG3" t="inlineStr"/>
+      <c r="WH3" t="inlineStr"/>
+      <c r="WI3" t="inlineStr"/>
+      <c r="WJ3" t="inlineStr"/>
+      <c r="WK3" t="inlineStr"/>
+      <c r="WL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5615,6 +5881,44 @@
       <c r="UX4" t="inlineStr"/>
       <c r="UY4" t="inlineStr"/>
       <c r="UZ4" t="inlineStr"/>
+      <c r="VA4" t="inlineStr"/>
+      <c r="VB4" t="inlineStr"/>
+      <c r="VC4" t="inlineStr"/>
+      <c r="VD4" t="inlineStr"/>
+      <c r="VE4" t="inlineStr"/>
+      <c r="VF4" t="inlineStr"/>
+      <c r="VG4" t="inlineStr"/>
+      <c r="VH4" t="inlineStr"/>
+      <c r="VI4" t="inlineStr"/>
+      <c r="VJ4" t="inlineStr"/>
+      <c r="VK4" t="inlineStr"/>
+      <c r="VL4" t="inlineStr"/>
+      <c r="VM4" t="inlineStr"/>
+      <c r="VN4" t="inlineStr"/>
+      <c r="VO4" t="inlineStr"/>
+      <c r="VP4" t="inlineStr"/>
+      <c r="VQ4" t="inlineStr"/>
+      <c r="VR4" t="inlineStr"/>
+      <c r="VS4" t="inlineStr"/>
+      <c r="VT4" t="inlineStr"/>
+      <c r="VU4" t="inlineStr"/>
+      <c r="VV4" t="inlineStr"/>
+      <c r="VW4" t="inlineStr"/>
+      <c r="VX4" t="inlineStr"/>
+      <c r="VY4" t="inlineStr"/>
+      <c r="VZ4" t="inlineStr"/>
+      <c r="WA4" t="inlineStr"/>
+      <c r="WB4" t="inlineStr"/>
+      <c r="WC4" t="inlineStr"/>
+      <c r="WD4" t="inlineStr"/>
+      <c r="WE4" t="inlineStr"/>
+      <c r="WF4" t="inlineStr"/>
+      <c r="WG4" t="inlineStr"/>
+      <c r="WH4" t="inlineStr"/>
+      <c r="WI4" t="inlineStr"/>
+      <c r="WJ4" t="inlineStr"/>
+      <c r="WK4" t="inlineStr"/>
+      <c r="WL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6391,6 +6695,44 @@
       <c r="UX5" t="inlineStr"/>
       <c r="UY5" t="inlineStr"/>
       <c r="UZ5" t="inlineStr"/>
+      <c r="VA5" t="inlineStr"/>
+      <c r="VB5" t="inlineStr"/>
+      <c r="VC5" t="inlineStr"/>
+      <c r="VD5" t="inlineStr"/>
+      <c r="VE5" t="inlineStr"/>
+      <c r="VF5" t="inlineStr"/>
+      <c r="VG5" t="inlineStr"/>
+      <c r="VH5" t="inlineStr"/>
+      <c r="VI5" t="inlineStr"/>
+      <c r="VJ5" t="inlineStr"/>
+      <c r="VK5" t="inlineStr"/>
+      <c r="VL5" t="inlineStr"/>
+      <c r="VM5" t="inlineStr"/>
+      <c r="VN5" t="inlineStr"/>
+      <c r="VO5" t="inlineStr"/>
+      <c r="VP5" t="inlineStr"/>
+      <c r="VQ5" t="inlineStr"/>
+      <c r="VR5" t="inlineStr"/>
+      <c r="VS5" t="inlineStr"/>
+      <c r="VT5" t="inlineStr"/>
+      <c r="VU5" t="inlineStr"/>
+      <c r="VV5" t="inlineStr"/>
+      <c r="VW5" t="inlineStr"/>
+      <c r="VX5" t="inlineStr"/>
+      <c r="VY5" t="inlineStr"/>
+      <c r="VZ5" t="inlineStr"/>
+      <c r="WA5" t="inlineStr"/>
+      <c r="WB5" t="inlineStr"/>
+      <c r="WC5" t="inlineStr"/>
+      <c r="WD5" t="inlineStr"/>
+      <c r="WE5" t="inlineStr"/>
+      <c r="WF5" t="inlineStr"/>
+      <c r="WG5" t="inlineStr"/>
+      <c r="WH5" t="inlineStr"/>
+      <c r="WI5" t="inlineStr"/>
+      <c r="WJ5" t="inlineStr"/>
+      <c r="WK5" t="inlineStr"/>
+      <c r="WL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7167,6 +7509,44 @@
       <c r="UX6" t="inlineStr"/>
       <c r="UY6" t="inlineStr"/>
       <c r="UZ6" t="inlineStr"/>
+      <c r="VA6" t="inlineStr"/>
+      <c r="VB6" t="inlineStr"/>
+      <c r="VC6" t="inlineStr"/>
+      <c r="VD6" t="inlineStr"/>
+      <c r="VE6" t="inlineStr"/>
+      <c r="VF6" t="inlineStr"/>
+      <c r="VG6" t="inlineStr"/>
+      <c r="VH6" t="inlineStr"/>
+      <c r="VI6" t="inlineStr"/>
+      <c r="VJ6" t="inlineStr"/>
+      <c r="VK6" t="inlineStr"/>
+      <c r="VL6" t="inlineStr"/>
+      <c r="VM6" t="inlineStr"/>
+      <c r="VN6" t="inlineStr"/>
+      <c r="VO6" t="inlineStr"/>
+      <c r="VP6" t="inlineStr"/>
+      <c r="VQ6" t="inlineStr"/>
+      <c r="VR6" t="inlineStr"/>
+      <c r="VS6" t="inlineStr"/>
+      <c r="VT6" t="inlineStr"/>
+      <c r="VU6" t="inlineStr"/>
+      <c r="VV6" t="inlineStr"/>
+      <c r="VW6" t="inlineStr"/>
+      <c r="VX6" t="inlineStr"/>
+      <c r="VY6" t="inlineStr"/>
+      <c r="VZ6" t="inlineStr"/>
+      <c r="WA6" t="inlineStr"/>
+      <c r="WB6" t="inlineStr"/>
+      <c r="WC6" t="inlineStr"/>
+      <c r="WD6" t="inlineStr"/>
+      <c r="WE6" t="inlineStr"/>
+      <c r="WF6" t="inlineStr"/>
+      <c r="WG6" t="inlineStr"/>
+      <c r="WH6" t="inlineStr"/>
+      <c r="WI6" t="inlineStr"/>
+      <c r="WJ6" t="inlineStr"/>
+      <c r="WK6" t="inlineStr"/>
+      <c r="WL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -7937,6 +8317,44 @@
       <c r="UX7" t="inlineStr"/>
       <c r="UY7" t="inlineStr"/>
       <c r="UZ7" t="inlineStr"/>
+      <c r="VA7" t="inlineStr"/>
+      <c r="VB7" t="inlineStr"/>
+      <c r="VC7" t="inlineStr"/>
+      <c r="VD7" t="inlineStr"/>
+      <c r="VE7" t="inlineStr"/>
+      <c r="VF7" t="inlineStr"/>
+      <c r="VG7" t="inlineStr"/>
+      <c r="VH7" t="inlineStr"/>
+      <c r="VI7" t="inlineStr"/>
+      <c r="VJ7" t="inlineStr"/>
+      <c r="VK7" t="inlineStr"/>
+      <c r="VL7" t="inlineStr"/>
+      <c r="VM7" t="inlineStr"/>
+      <c r="VN7" t="inlineStr"/>
+      <c r="VO7" t="inlineStr"/>
+      <c r="VP7" t="inlineStr"/>
+      <c r="VQ7" t="inlineStr"/>
+      <c r="VR7" t="inlineStr"/>
+      <c r="VS7" t="inlineStr"/>
+      <c r="VT7" t="inlineStr"/>
+      <c r="VU7" t="inlineStr"/>
+      <c r="VV7" t="inlineStr"/>
+      <c r="VW7" t="inlineStr"/>
+      <c r="VX7" t="inlineStr"/>
+      <c r="VY7" t="inlineStr"/>
+      <c r="VZ7" t="inlineStr"/>
+      <c r="WA7" t="inlineStr"/>
+      <c r="WB7" t="inlineStr"/>
+      <c r="WC7" t="inlineStr"/>
+      <c r="WD7" t="inlineStr"/>
+      <c r="WE7" t="inlineStr"/>
+      <c r="WF7" t="inlineStr"/>
+      <c r="WG7" t="inlineStr"/>
+      <c r="WH7" t="inlineStr"/>
+      <c r="WI7" t="inlineStr"/>
+      <c r="WJ7" t="inlineStr"/>
+      <c r="WK7" t="inlineStr"/>
+      <c r="WL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -8713,6 +9131,44 @@
       <c r="UX8" t="inlineStr"/>
       <c r="UY8" t="inlineStr"/>
       <c r="UZ8" t="inlineStr"/>
+      <c r="VA8" t="inlineStr"/>
+      <c r="VB8" t="inlineStr"/>
+      <c r="VC8" t="inlineStr"/>
+      <c r="VD8" t="inlineStr"/>
+      <c r="VE8" t="inlineStr"/>
+      <c r="VF8" t="inlineStr"/>
+      <c r="VG8" t="inlineStr"/>
+      <c r="VH8" t="inlineStr"/>
+      <c r="VI8" t="inlineStr"/>
+      <c r="VJ8" t="inlineStr"/>
+      <c r="VK8" t="inlineStr"/>
+      <c r="VL8" t="inlineStr"/>
+      <c r="VM8" t="inlineStr"/>
+      <c r="VN8" t="inlineStr"/>
+      <c r="VO8" t="inlineStr"/>
+      <c r="VP8" t="inlineStr"/>
+      <c r="VQ8" t="inlineStr"/>
+      <c r="VR8" t="inlineStr"/>
+      <c r="VS8" t="inlineStr"/>
+      <c r="VT8" t="inlineStr"/>
+      <c r="VU8" t="inlineStr"/>
+      <c r="VV8" t="inlineStr"/>
+      <c r="VW8" t="inlineStr"/>
+      <c r="VX8" t="inlineStr"/>
+      <c r="VY8" t="inlineStr"/>
+      <c r="VZ8" t="inlineStr"/>
+      <c r="WA8" t="inlineStr"/>
+      <c r="WB8" t="inlineStr"/>
+      <c r="WC8" t="inlineStr"/>
+      <c r="WD8" t="inlineStr"/>
+      <c r="WE8" t="inlineStr"/>
+      <c r="WF8" t="inlineStr"/>
+      <c r="WG8" t="inlineStr"/>
+      <c r="WH8" t="inlineStr"/>
+      <c r="WI8" t="inlineStr"/>
+      <c r="WJ8" t="inlineStr"/>
+      <c r="WK8" t="inlineStr"/>
+      <c r="WL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -9495,6 +9951,44 @@
       <c r="UX9" t="inlineStr"/>
       <c r="UY9" t="inlineStr"/>
       <c r="UZ9" t="inlineStr"/>
+      <c r="VA9" t="inlineStr"/>
+      <c r="VB9" t="inlineStr"/>
+      <c r="VC9" t="inlineStr"/>
+      <c r="VD9" t="inlineStr"/>
+      <c r="VE9" t="inlineStr"/>
+      <c r="VF9" t="inlineStr"/>
+      <c r="VG9" t="inlineStr"/>
+      <c r="VH9" t="inlineStr"/>
+      <c r="VI9" t="inlineStr"/>
+      <c r="VJ9" t="inlineStr"/>
+      <c r="VK9" t="inlineStr"/>
+      <c r="VL9" t="inlineStr"/>
+      <c r="VM9" t="inlineStr"/>
+      <c r="VN9" t="inlineStr"/>
+      <c r="VO9" t="inlineStr"/>
+      <c r="VP9" t="inlineStr"/>
+      <c r="VQ9" t="inlineStr"/>
+      <c r="VR9" t="inlineStr"/>
+      <c r="VS9" t="inlineStr"/>
+      <c r="VT9" t="inlineStr"/>
+      <c r="VU9" t="inlineStr"/>
+      <c r="VV9" t="inlineStr"/>
+      <c r="VW9" t="inlineStr"/>
+      <c r="VX9" t="inlineStr"/>
+      <c r="VY9" t="inlineStr"/>
+      <c r="VZ9" t="inlineStr"/>
+      <c r="WA9" t="inlineStr"/>
+      <c r="WB9" t="inlineStr"/>
+      <c r="WC9" t="inlineStr"/>
+      <c r="WD9" t="inlineStr"/>
+      <c r="WE9" t="inlineStr"/>
+      <c r="WF9" t="inlineStr"/>
+      <c r="WG9" t="inlineStr"/>
+      <c r="WH9" t="inlineStr"/>
+      <c r="WI9" t="inlineStr"/>
+      <c r="WJ9" t="inlineStr"/>
+      <c r="WK9" t="inlineStr"/>
+      <c r="WL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -10277,6 +10771,44 @@
       <c r="UX10" t="inlineStr"/>
       <c r="UY10" t="inlineStr"/>
       <c r="UZ10" t="inlineStr"/>
+      <c r="VA10" t="inlineStr"/>
+      <c r="VB10" t="inlineStr"/>
+      <c r="VC10" t="inlineStr"/>
+      <c r="VD10" t="inlineStr"/>
+      <c r="VE10" t="inlineStr"/>
+      <c r="VF10" t="inlineStr"/>
+      <c r="VG10" t="inlineStr"/>
+      <c r="VH10" t="inlineStr"/>
+      <c r="VI10" t="inlineStr"/>
+      <c r="VJ10" t="inlineStr"/>
+      <c r="VK10" t="inlineStr"/>
+      <c r="VL10" t="inlineStr"/>
+      <c r="VM10" t="inlineStr"/>
+      <c r="VN10" t="inlineStr"/>
+      <c r="VO10" t="inlineStr"/>
+      <c r="VP10" t="inlineStr"/>
+      <c r="VQ10" t="inlineStr"/>
+      <c r="VR10" t="inlineStr"/>
+      <c r="VS10" t="inlineStr"/>
+      <c r="VT10" t="inlineStr"/>
+      <c r="VU10" t="inlineStr"/>
+      <c r="VV10" t="inlineStr"/>
+      <c r="VW10" t="inlineStr"/>
+      <c r="VX10" t="inlineStr"/>
+      <c r="VY10" t="inlineStr"/>
+      <c r="VZ10" t="inlineStr"/>
+      <c r="WA10" t="inlineStr"/>
+      <c r="WB10" t="inlineStr"/>
+      <c r="WC10" t="inlineStr"/>
+      <c r="WD10" t="inlineStr"/>
+      <c r="WE10" t="inlineStr"/>
+      <c r="WF10" t="inlineStr"/>
+      <c r="WG10" t="inlineStr"/>
+      <c r="WH10" t="inlineStr"/>
+      <c r="WI10" t="inlineStr"/>
+      <c r="WJ10" t="inlineStr"/>
+      <c r="WK10" t="inlineStr"/>
+      <c r="WL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -11053,6 +11585,44 @@
       <c r="UX11" t="inlineStr"/>
       <c r="UY11" t="inlineStr"/>
       <c r="UZ11" t="inlineStr"/>
+      <c r="VA11" t="inlineStr"/>
+      <c r="VB11" t="inlineStr"/>
+      <c r="VC11" t="inlineStr"/>
+      <c r="VD11" t="inlineStr"/>
+      <c r="VE11" t="inlineStr"/>
+      <c r="VF11" t="inlineStr"/>
+      <c r="VG11" t="inlineStr"/>
+      <c r="VH11" t="inlineStr"/>
+      <c r="VI11" t="inlineStr"/>
+      <c r="VJ11" t="inlineStr"/>
+      <c r="VK11" t="inlineStr"/>
+      <c r="VL11" t="inlineStr"/>
+      <c r="VM11" t="inlineStr"/>
+      <c r="VN11" t="inlineStr"/>
+      <c r="VO11" t="inlineStr"/>
+      <c r="VP11" t="inlineStr"/>
+      <c r="VQ11" t="inlineStr"/>
+      <c r="VR11" t="inlineStr"/>
+      <c r="VS11" t="inlineStr"/>
+      <c r="VT11" t="inlineStr"/>
+      <c r="VU11" t="inlineStr"/>
+      <c r="VV11" t="inlineStr"/>
+      <c r="VW11" t="inlineStr"/>
+      <c r="VX11" t="inlineStr"/>
+      <c r="VY11" t="inlineStr"/>
+      <c r="VZ11" t="inlineStr"/>
+      <c r="WA11" t="inlineStr"/>
+      <c r="WB11" t="inlineStr"/>
+      <c r="WC11" t="inlineStr"/>
+      <c r="WD11" t="inlineStr"/>
+      <c r="WE11" t="inlineStr"/>
+      <c r="WF11" t="inlineStr"/>
+      <c r="WG11" t="inlineStr"/>
+      <c r="WH11" t="inlineStr"/>
+      <c r="WI11" t="inlineStr"/>
+      <c r="WJ11" t="inlineStr"/>
+      <c r="WK11" t="inlineStr"/>
+      <c r="WL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -11823,6 +12393,44 @@
       <c r="UX12" t="inlineStr"/>
       <c r="UY12" t="inlineStr"/>
       <c r="UZ12" t="inlineStr"/>
+      <c r="VA12" t="inlineStr"/>
+      <c r="VB12" t="inlineStr"/>
+      <c r="VC12" t="inlineStr"/>
+      <c r="VD12" t="inlineStr"/>
+      <c r="VE12" t="inlineStr"/>
+      <c r="VF12" t="inlineStr"/>
+      <c r="VG12" t="inlineStr"/>
+      <c r="VH12" t="inlineStr"/>
+      <c r="VI12" t="inlineStr"/>
+      <c r="VJ12" t="inlineStr"/>
+      <c r="VK12" t="inlineStr"/>
+      <c r="VL12" t="inlineStr"/>
+      <c r="VM12" t="inlineStr"/>
+      <c r="VN12" t="inlineStr"/>
+      <c r="VO12" t="inlineStr"/>
+      <c r="VP12" t="inlineStr"/>
+      <c r="VQ12" t="inlineStr"/>
+      <c r="VR12" t="inlineStr"/>
+      <c r="VS12" t="inlineStr"/>
+      <c r="VT12" t="inlineStr"/>
+      <c r="VU12" t="inlineStr"/>
+      <c r="VV12" t="inlineStr"/>
+      <c r="VW12" t="inlineStr"/>
+      <c r="VX12" t="inlineStr"/>
+      <c r="VY12" t="inlineStr"/>
+      <c r="VZ12" t="inlineStr"/>
+      <c r="WA12" t="inlineStr"/>
+      <c r="WB12" t="inlineStr"/>
+      <c r="WC12" t="inlineStr"/>
+      <c r="WD12" t="inlineStr"/>
+      <c r="WE12" t="inlineStr"/>
+      <c r="WF12" t="inlineStr"/>
+      <c r="WG12" t="inlineStr"/>
+      <c r="WH12" t="inlineStr"/>
+      <c r="WI12" t="inlineStr"/>
+      <c r="WJ12" t="inlineStr"/>
+      <c r="WK12" t="inlineStr"/>
+      <c r="WL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -12593,6 +13201,44 @@
       <c r="UX13" t="inlineStr"/>
       <c r="UY13" t="inlineStr"/>
       <c r="UZ13" t="inlineStr"/>
+      <c r="VA13" t="inlineStr"/>
+      <c r="VB13" t="inlineStr"/>
+      <c r="VC13" t="inlineStr"/>
+      <c r="VD13" t="inlineStr"/>
+      <c r="VE13" t="inlineStr"/>
+      <c r="VF13" t="inlineStr"/>
+      <c r="VG13" t="inlineStr"/>
+      <c r="VH13" t="inlineStr"/>
+      <c r="VI13" t="inlineStr"/>
+      <c r="VJ13" t="inlineStr"/>
+      <c r="VK13" t="inlineStr"/>
+      <c r="VL13" t="inlineStr"/>
+      <c r="VM13" t="inlineStr"/>
+      <c r="VN13" t="inlineStr"/>
+      <c r="VO13" t="inlineStr"/>
+      <c r="VP13" t="inlineStr"/>
+      <c r="VQ13" t="inlineStr"/>
+      <c r="VR13" t="inlineStr"/>
+      <c r="VS13" t="inlineStr"/>
+      <c r="VT13" t="inlineStr"/>
+      <c r="VU13" t="inlineStr"/>
+      <c r="VV13" t="inlineStr"/>
+      <c r="VW13" t="inlineStr"/>
+      <c r="VX13" t="inlineStr"/>
+      <c r="VY13" t="inlineStr"/>
+      <c r="VZ13" t="inlineStr"/>
+      <c r="WA13" t="inlineStr"/>
+      <c r="WB13" t="inlineStr"/>
+      <c r="WC13" t="inlineStr"/>
+      <c r="WD13" t="inlineStr"/>
+      <c r="WE13" t="inlineStr"/>
+      <c r="WF13" t="inlineStr"/>
+      <c r="WG13" t="inlineStr"/>
+      <c r="WH13" t="inlineStr"/>
+      <c r="WI13" t="inlineStr"/>
+      <c r="WJ13" t="inlineStr"/>
+      <c r="WK13" t="inlineStr"/>
+      <c r="WL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -13375,6 +14021,44 @@
       <c r="UX14" t="inlineStr"/>
       <c r="UY14" t="inlineStr"/>
       <c r="UZ14" t="inlineStr"/>
+      <c r="VA14" t="inlineStr"/>
+      <c r="VB14" t="inlineStr"/>
+      <c r="VC14" t="inlineStr"/>
+      <c r="VD14" t="inlineStr"/>
+      <c r="VE14" t="inlineStr"/>
+      <c r="VF14" t="inlineStr"/>
+      <c r="VG14" t="inlineStr"/>
+      <c r="VH14" t="inlineStr"/>
+      <c r="VI14" t="inlineStr"/>
+      <c r="VJ14" t="inlineStr"/>
+      <c r="VK14" t="inlineStr"/>
+      <c r="VL14" t="inlineStr"/>
+      <c r="VM14" t="inlineStr"/>
+      <c r="VN14" t="inlineStr"/>
+      <c r="VO14" t="inlineStr"/>
+      <c r="VP14" t="inlineStr"/>
+      <c r="VQ14" t="inlineStr"/>
+      <c r="VR14" t="inlineStr"/>
+      <c r="VS14" t="inlineStr"/>
+      <c r="VT14" t="inlineStr"/>
+      <c r="VU14" t="inlineStr"/>
+      <c r="VV14" t="inlineStr"/>
+      <c r="VW14" t="inlineStr"/>
+      <c r="VX14" t="inlineStr"/>
+      <c r="VY14" t="inlineStr"/>
+      <c r="VZ14" t="inlineStr"/>
+      <c r="WA14" t="inlineStr"/>
+      <c r="WB14" t="inlineStr"/>
+      <c r="WC14" t="inlineStr"/>
+      <c r="WD14" t="inlineStr"/>
+      <c r="WE14" t="inlineStr"/>
+      <c r="WF14" t="inlineStr"/>
+      <c r="WG14" t="inlineStr"/>
+      <c r="WH14" t="inlineStr"/>
+      <c r="WI14" t="inlineStr"/>
+      <c r="WJ14" t="inlineStr"/>
+      <c r="WK14" t="inlineStr"/>
+      <c r="WL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -14151,6 +14835,44 @@
       <c r="UX15" t="inlineStr"/>
       <c r="UY15" t="inlineStr"/>
       <c r="UZ15" t="inlineStr"/>
+      <c r="VA15" t="inlineStr"/>
+      <c r="VB15" t="inlineStr"/>
+      <c r="VC15" t="inlineStr"/>
+      <c r="VD15" t="inlineStr"/>
+      <c r="VE15" t="inlineStr"/>
+      <c r="VF15" t="inlineStr"/>
+      <c r="VG15" t="inlineStr"/>
+      <c r="VH15" t="inlineStr"/>
+      <c r="VI15" t="inlineStr"/>
+      <c r="VJ15" t="inlineStr"/>
+      <c r="VK15" t="inlineStr"/>
+      <c r="VL15" t="inlineStr"/>
+      <c r="VM15" t="inlineStr"/>
+      <c r="VN15" t="inlineStr"/>
+      <c r="VO15" t="inlineStr"/>
+      <c r="VP15" t="inlineStr"/>
+      <c r="VQ15" t="inlineStr"/>
+      <c r="VR15" t="inlineStr"/>
+      <c r="VS15" t="inlineStr"/>
+      <c r="VT15" t="inlineStr"/>
+      <c r="VU15" t="inlineStr"/>
+      <c r="VV15" t="inlineStr"/>
+      <c r="VW15" t="inlineStr"/>
+      <c r="VX15" t="inlineStr"/>
+      <c r="VY15" t="inlineStr"/>
+      <c r="VZ15" t="inlineStr"/>
+      <c r="WA15" t="inlineStr"/>
+      <c r="WB15" t="inlineStr"/>
+      <c r="WC15" t="inlineStr"/>
+      <c r="WD15" t="inlineStr"/>
+      <c r="WE15" t="inlineStr"/>
+      <c r="WF15" t="inlineStr"/>
+      <c r="WG15" t="inlineStr"/>
+      <c r="WH15" t="inlineStr"/>
+      <c r="WI15" t="inlineStr"/>
+      <c r="WJ15" t="inlineStr"/>
+      <c r="WK15" t="inlineStr"/>
+      <c r="WL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -14921,6 +15643,44 @@
       <c r="UX16" t="inlineStr"/>
       <c r="UY16" t="inlineStr"/>
       <c r="UZ16" t="inlineStr"/>
+      <c r="VA16" t="inlineStr"/>
+      <c r="VB16" t="inlineStr"/>
+      <c r="VC16" t="inlineStr"/>
+      <c r="VD16" t="inlineStr"/>
+      <c r="VE16" t="inlineStr"/>
+      <c r="VF16" t="inlineStr"/>
+      <c r="VG16" t="inlineStr"/>
+      <c r="VH16" t="inlineStr"/>
+      <c r="VI16" t="inlineStr"/>
+      <c r="VJ16" t="inlineStr"/>
+      <c r="VK16" t="inlineStr"/>
+      <c r="VL16" t="inlineStr"/>
+      <c r="VM16" t="inlineStr"/>
+      <c r="VN16" t="inlineStr"/>
+      <c r="VO16" t="inlineStr"/>
+      <c r="VP16" t="inlineStr"/>
+      <c r="VQ16" t="inlineStr"/>
+      <c r="VR16" t="inlineStr"/>
+      <c r="VS16" t="inlineStr"/>
+      <c r="VT16" t="inlineStr"/>
+      <c r="VU16" t="inlineStr"/>
+      <c r="VV16" t="inlineStr"/>
+      <c r="VW16" t="inlineStr"/>
+      <c r="VX16" t="inlineStr"/>
+      <c r="VY16" t="inlineStr"/>
+      <c r="VZ16" t="inlineStr"/>
+      <c r="WA16" t="inlineStr"/>
+      <c r="WB16" t="inlineStr"/>
+      <c r="WC16" t="inlineStr"/>
+      <c r="WD16" t="inlineStr"/>
+      <c r="WE16" t="inlineStr"/>
+      <c r="WF16" t="inlineStr"/>
+      <c r="WG16" t="inlineStr"/>
+      <c r="WH16" t="inlineStr"/>
+      <c r="WI16" t="inlineStr"/>
+      <c r="WJ16" t="inlineStr"/>
+      <c r="WK16" t="inlineStr"/>
+      <c r="WL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -15838,11 +16598,49 @@
       <c r="UW17" t="inlineStr"/>
       <c r="UX17" t="inlineStr"/>
       <c r="UY17" t="inlineStr"/>
-      <c r="UZ17" t="inlineStr">
+      <c r="UZ17" t="inlineStr"/>
+      <c r="VA17" t="inlineStr"/>
+      <c r="VB17" t="inlineStr"/>
+      <c r="VC17" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD17" t="inlineStr"/>
+      <c r="VE17" t="inlineStr"/>
+      <c r="VF17" t="inlineStr"/>
+      <c r="VG17" t="inlineStr"/>
+      <c r="VH17" t="inlineStr"/>
+      <c r="VI17" t="inlineStr"/>
+      <c r="VJ17" t="inlineStr"/>
+      <c r="VK17" t="inlineStr"/>
+      <c r="VL17" t="inlineStr"/>
+      <c r="VM17" t="inlineStr"/>
+      <c r="VN17" t="inlineStr"/>
+      <c r="VO17" t="inlineStr"/>
+      <c r="VP17" t="inlineStr"/>
+      <c r="VQ17" t="inlineStr"/>
+      <c r="VR17" t="inlineStr"/>
+      <c r="VS17" t="inlineStr"/>
+      <c r="VT17" t="inlineStr"/>
+      <c r="VU17" t="inlineStr"/>
+      <c r="VV17" t="inlineStr"/>
+      <c r="VW17" t="inlineStr"/>
+      <c r="VX17" t="inlineStr"/>
+      <c r="VY17" t="inlineStr"/>
+      <c r="VZ17" t="inlineStr"/>
+      <c r="WA17" t="inlineStr"/>
+      <c r="WB17" t="inlineStr"/>
+      <c r="WC17" t="inlineStr"/>
+      <c r="WD17" t="inlineStr"/>
+      <c r="WE17" t="inlineStr"/>
+      <c r="WF17" t="inlineStr"/>
+      <c r="WG17" t="inlineStr"/>
+      <c r="WH17" t="inlineStr"/>
+      <c r="WI17" t="inlineStr"/>
+      <c r="WJ17" t="inlineStr"/>
+      <c r="WK17" t="inlineStr"/>
+      <c r="WL17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -16754,11 +17552,49 @@
       <c r="UW18" t="inlineStr"/>
       <c r="UX18" t="inlineStr"/>
       <c r="UY18" t="inlineStr"/>
-      <c r="UZ18" t="inlineStr">
+      <c r="UZ18" t="inlineStr"/>
+      <c r="VA18" t="inlineStr"/>
+      <c r="VB18" t="inlineStr"/>
+      <c r="VC18" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD18" t="inlineStr"/>
+      <c r="VE18" t="inlineStr"/>
+      <c r="VF18" t="inlineStr"/>
+      <c r="VG18" t="inlineStr"/>
+      <c r="VH18" t="inlineStr"/>
+      <c r="VI18" t="inlineStr"/>
+      <c r="VJ18" t="inlineStr"/>
+      <c r="VK18" t="inlineStr"/>
+      <c r="VL18" t="inlineStr"/>
+      <c r="VM18" t="inlineStr"/>
+      <c r="VN18" t="inlineStr"/>
+      <c r="VO18" t="inlineStr"/>
+      <c r="VP18" t="inlineStr"/>
+      <c r="VQ18" t="inlineStr"/>
+      <c r="VR18" t="inlineStr"/>
+      <c r="VS18" t="inlineStr"/>
+      <c r="VT18" t="inlineStr"/>
+      <c r="VU18" t="inlineStr"/>
+      <c r="VV18" t="inlineStr"/>
+      <c r="VW18" t="inlineStr"/>
+      <c r="VX18" t="inlineStr"/>
+      <c r="VY18" t="inlineStr"/>
+      <c r="VZ18" t="inlineStr"/>
+      <c r="WA18" t="inlineStr"/>
+      <c r="WB18" t="inlineStr"/>
+      <c r="WC18" t="inlineStr"/>
+      <c r="WD18" t="inlineStr"/>
+      <c r="WE18" t="inlineStr"/>
+      <c r="WF18" t="inlineStr"/>
+      <c r="WG18" t="inlineStr"/>
+      <c r="WH18" t="inlineStr"/>
+      <c r="WI18" t="inlineStr"/>
+      <c r="WJ18" t="inlineStr"/>
+      <c r="WK18" t="inlineStr"/>
+      <c r="WL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -17640,11 +18476,49 @@
       <c r="UW19" t="inlineStr"/>
       <c r="UX19" t="inlineStr"/>
       <c r="UY19" t="inlineStr"/>
-      <c r="UZ19" t="inlineStr">
+      <c r="UZ19" t="inlineStr"/>
+      <c r="VA19" t="inlineStr"/>
+      <c r="VB19" t="inlineStr"/>
+      <c r="VC19" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD19" t="inlineStr"/>
+      <c r="VE19" t="inlineStr"/>
+      <c r="VF19" t="inlineStr"/>
+      <c r="VG19" t="inlineStr"/>
+      <c r="VH19" t="inlineStr"/>
+      <c r="VI19" t="inlineStr"/>
+      <c r="VJ19" t="inlineStr"/>
+      <c r="VK19" t="inlineStr"/>
+      <c r="VL19" t="inlineStr"/>
+      <c r="VM19" t="inlineStr"/>
+      <c r="VN19" t="inlineStr"/>
+      <c r="VO19" t="inlineStr"/>
+      <c r="VP19" t="inlineStr"/>
+      <c r="VQ19" t="inlineStr"/>
+      <c r="VR19" t="inlineStr"/>
+      <c r="VS19" t="inlineStr"/>
+      <c r="VT19" t="inlineStr"/>
+      <c r="VU19" t="inlineStr"/>
+      <c r="VV19" t="inlineStr"/>
+      <c r="VW19" t="inlineStr"/>
+      <c r="VX19" t="inlineStr"/>
+      <c r="VY19" t="inlineStr"/>
+      <c r="VZ19" t="inlineStr"/>
+      <c r="WA19" t="inlineStr"/>
+      <c r="WB19" t="inlineStr"/>
+      <c r="WC19" t="inlineStr"/>
+      <c r="WD19" t="inlineStr"/>
+      <c r="WE19" t="inlineStr"/>
+      <c r="WF19" t="inlineStr"/>
+      <c r="WG19" t="inlineStr"/>
+      <c r="WH19" t="inlineStr"/>
+      <c r="WI19" t="inlineStr"/>
+      <c r="WJ19" t="inlineStr"/>
+      <c r="WK19" t="inlineStr"/>
+      <c r="WL19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -18544,11 +19418,49 @@
       <c r="UW20" t="inlineStr"/>
       <c r="UX20" t="inlineStr"/>
       <c r="UY20" t="inlineStr"/>
-      <c r="UZ20" t="inlineStr">
+      <c r="UZ20" t="inlineStr"/>
+      <c r="VA20" t="inlineStr"/>
+      <c r="VB20" t="inlineStr"/>
+      <c r="VC20" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD20" t="inlineStr"/>
+      <c r="VE20" t="inlineStr"/>
+      <c r="VF20" t="inlineStr"/>
+      <c r="VG20" t="inlineStr"/>
+      <c r="VH20" t="inlineStr"/>
+      <c r="VI20" t="inlineStr"/>
+      <c r="VJ20" t="inlineStr"/>
+      <c r="VK20" t="inlineStr"/>
+      <c r="VL20" t="inlineStr"/>
+      <c r="VM20" t="inlineStr"/>
+      <c r="VN20" t="inlineStr"/>
+      <c r="VO20" t="inlineStr"/>
+      <c r="VP20" t="inlineStr"/>
+      <c r="VQ20" t="inlineStr"/>
+      <c r="VR20" t="inlineStr"/>
+      <c r="VS20" t="inlineStr"/>
+      <c r="VT20" t="inlineStr"/>
+      <c r="VU20" t="inlineStr"/>
+      <c r="VV20" t="inlineStr"/>
+      <c r="VW20" t="inlineStr"/>
+      <c r="VX20" t="inlineStr"/>
+      <c r="VY20" t="inlineStr"/>
+      <c r="VZ20" t="inlineStr"/>
+      <c r="WA20" t="inlineStr"/>
+      <c r="WB20" t="inlineStr"/>
+      <c r="WC20" t="inlineStr"/>
+      <c r="WD20" t="inlineStr"/>
+      <c r="WE20" t="inlineStr"/>
+      <c r="WF20" t="inlineStr"/>
+      <c r="WG20" t="inlineStr"/>
+      <c r="WH20" t="inlineStr"/>
+      <c r="WI20" t="inlineStr"/>
+      <c r="WJ20" t="inlineStr"/>
+      <c r="WK20" t="inlineStr"/>
+      <c r="WL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -19466,11 +20378,49 @@
       <c r="UW21" t="inlineStr"/>
       <c r="UX21" t="inlineStr"/>
       <c r="UY21" t="inlineStr"/>
-      <c r="UZ21" t="inlineStr">
+      <c r="UZ21" t="inlineStr"/>
+      <c r="VA21" t="inlineStr"/>
+      <c r="VB21" t="inlineStr"/>
+      <c r="VC21" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD21" t="inlineStr"/>
+      <c r="VE21" t="inlineStr"/>
+      <c r="VF21" t="inlineStr"/>
+      <c r="VG21" t="inlineStr"/>
+      <c r="VH21" t="inlineStr"/>
+      <c r="VI21" t="inlineStr"/>
+      <c r="VJ21" t="inlineStr"/>
+      <c r="VK21" t="inlineStr"/>
+      <c r="VL21" t="inlineStr"/>
+      <c r="VM21" t="inlineStr"/>
+      <c r="VN21" t="inlineStr"/>
+      <c r="VO21" t="inlineStr"/>
+      <c r="VP21" t="inlineStr"/>
+      <c r="VQ21" t="inlineStr"/>
+      <c r="VR21" t="inlineStr"/>
+      <c r="VS21" t="inlineStr"/>
+      <c r="VT21" t="inlineStr"/>
+      <c r="VU21" t="inlineStr"/>
+      <c r="VV21" t="inlineStr"/>
+      <c r="VW21" t="inlineStr"/>
+      <c r="VX21" t="inlineStr"/>
+      <c r="VY21" t="inlineStr"/>
+      <c r="VZ21" t="inlineStr"/>
+      <c r="WA21" t="inlineStr"/>
+      <c r="WB21" t="inlineStr"/>
+      <c r="WC21" t="inlineStr"/>
+      <c r="WD21" t="inlineStr"/>
+      <c r="WE21" t="inlineStr"/>
+      <c r="WF21" t="inlineStr"/>
+      <c r="WG21" t="inlineStr"/>
+      <c r="WH21" t="inlineStr"/>
+      <c r="WI21" t="inlineStr"/>
+      <c r="WJ21" t="inlineStr"/>
+      <c r="WK21" t="inlineStr"/>
+      <c r="WL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -20364,11 +21314,49 @@
       <c r="UW22" t="inlineStr"/>
       <c r="UX22" t="inlineStr"/>
       <c r="UY22" t="inlineStr"/>
-      <c r="UZ22" t="inlineStr">
+      <c r="UZ22" t="inlineStr"/>
+      <c r="VA22" t="inlineStr"/>
+      <c r="VB22" t="inlineStr"/>
+      <c r="VC22" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD22" t="inlineStr"/>
+      <c r="VE22" t="inlineStr"/>
+      <c r="VF22" t="inlineStr"/>
+      <c r="VG22" t="inlineStr"/>
+      <c r="VH22" t="inlineStr"/>
+      <c r="VI22" t="inlineStr"/>
+      <c r="VJ22" t="inlineStr"/>
+      <c r="VK22" t="inlineStr"/>
+      <c r="VL22" t="inlineStr"/>
+      <c r="VM22" t="inlineStr"/>
+      <c r="VN22" t="inlineStr"/>
+      <c r="VO22" t="inlineStr"/>
+      <c r="VP22" t="inlineStr"/>
+      <c r="VQ22" t="inlineStr"/>
+      <c r="VR22" t="inlineStr"/>
+      <c r="VS22" t="inlineStr"/>
+      <c r="VT22" t="inlineStr"/>
+      <c r="VU22" t="inlineStr"/>
+      <c r="VV22" t="inlineStr"/>
+      <c r="VW22" t="inlineStr"/>
+      <c r="VX22" t="inlineStr"/>
+      <c r="VY22" t="inlineStr"/>
+      <c r="VZ22" t="inlineStr"/>
+      <c r="WA22" t="inlineStr"/>
+      <c r="WB22" t="inlineStr"/>
+      <c r="WC22" t="inlineStr"/>
+      <c r="WD22" t="inlineStr"/>
+      <c r="WE22" t="inlineStr"/>
+      <c r="WF22" t="inlineStr"/>
+      <c r="WG22" t="inlineStr"/>
+      <c r="WH22" t="inlineStr"/>
+      <c r="WI22" t="inlineStr"/>
+      <c r="WJ22" t="inlineStr"/>
+      <c r="WK22" t="inlineStr"/>
+      <c r="WL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -21274,11 +22262,1983 @@
       <c r="UW23" t="inlineStr"/>
       <c r="UX23" t="inlineStr"/>
       <c r="UY23" t="inlineStr"/>
-      <c r="UZ23" t="inlineStr">
+      <c r="UZ23" t="inlineStr"/>
+      <c r="VA23" t="inlineStr"/>
+      <c r="VB23" t="inlineStr"/>
+      <c r="VC23" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
+      <c r="VD23" t="inlineStr"/>
+      <c r="VE23" t="inlineStr"/>
+      <c r="VF23" t="inlineStr"/>
+      <c r="VG23" t="inlineStr"/>
+      <c r="VH23" t="inlineStr"/>
+      <c r="VI23" t="inlineStr"/>
+      <c r="VJ23" t="inlineStr"/>
+      <c r="VK23" t="inlineStr"/>
+      <c r="VL23" t="inlineStr"/>
+      <c r="VM23" t="inlineStr"/>
+      <c r="VN23" t="inlineStr"/>
+      <c r="VO23" t="inlineStr"/>
+      <c r="VP23" t="inlineStr"/>
+      <c r="VQ23" t="inlineStr"/>
+      <c r="VR23" t="inlineStr"/>
+      <c r="VS23" t="inlineStr"/>
+      <c r="VT23" t="inlineStr"/>
+      <c r="VU23" t="inlineStr"/>
+      <c r="VV23" t="inlineStr"/>
+      <c r="VW23" t="inlineStr"/>
+      <c r="VX23" t="inlineStr"/>
+      <c r="VY23" t="inlineStr"/>
+      <c r="VZ23" t="inlineStr"/>
+      <c r="WA23" t="inlineStr"/>
+      <c r="WB23" t="inlineStr"/>
+      <c r="WC23" t="inlineStr"/>
+      <c r="WD23" t="inlineStr"/>
+      <c r="WE23" t="inlineStr"/>
+      <c r="WF23" t="inlineStr"/>
+      <c r="WG23" t="inlineStr"/>
+      <c r="WH23" t="inlineStr"/>
+      <c r="WI23" t="inlineStr"/>
+      <c r="WJ23" t="inlineStr"/>
+      <c r="WK23" t="inlineStr"/>
+      <c r="WL23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FO1_MI1-Oct2822postpin</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09341848008997999</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.004147347129790299</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.001604703338086821</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.003802758346024893</v>
+      </c>
+      <c r="G24" t="n">
+        <v>102.986017762329</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.004049825254464011</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0005773261539765429</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.004014051013389069</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11.974</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1350.012</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>SupCrit, low density</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.09341848008997999</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.004147347129790299</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.09631601115052035</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.00291036247846297</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-0.1138385830422522</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.003598656542172369</v>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>SupCrit</t>
+        </is>
+      </c>
+      <c r="X24" t="n">
+        <v>103.2030448368432</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.004014051013389069</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1285.820639785995</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.003561155643082998</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>431.1551589192777</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1285.820664787245</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>550.3696621496422</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.4906512990194565</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.678161540558363</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.5620252860068462</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.981302598038913</v>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1389.023659621588</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.001848138763519428</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>727.1565564132621</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1389.023709624088</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>793.4746967671249</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.4386784001760267</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.582023392953362</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.4454906101124297</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.8773568003520533</v>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="AU24" t="n">
+        <v>1265.580089958605</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>96.38838775926904</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0.5752909420808221</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>1410.344780489308</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>87.77748734483031</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.6077826223921147</v>
+      </c>
+      <c r="BA24" t="inlineStr"/>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="n">
+        <v>1381.986422708666</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>18.56370404346136</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>10.63225278692788</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.141753568018936</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>1.169228807191666</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>0.138321723716067</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>0.002461646418622321</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1.124373005015776</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.155090497737588</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0.1096888904576375</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>0.001320458903646095</v>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">October 28, 2022
+</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="BS24" t="n">
+        <v>28</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>45</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>50</v>
+      </c>
+      <c r="BW24" t="inlineStr">
+        <is>
+          <t>['0h', '3m', '47s']</t>
+        </is>
+      </c>
+      <c r="BX24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11:48:34 AM
+</t>
+        </is>
+      </c>
+      <c r="BY24" t="n">
+        <v>41257.5</v>
+      </c>
+      <c r="BZ24" t="inlineStr"/>
+      <c r="CA24" t="inlineStr"/>
+      <c r="CB24" t="inlineStr"/>
+      <c r="CC24" t="inlineStr"/>
+      <c r="CD24" t="inlineStr"/>
+      <c r="CE24" t="inlineStr"/>
+      <c r="CF24" t="inlineStr"/>
+      <c r="CG24" t="inlineStr"/>
+      <c r="CH24" t="inlineStr"/>
+      <c r="CI24" t="inlineStr"/>
+      <c r="CJ24" t="inlineStr"/>
+      <c r="CK24" t="n">
+        <v>41257.5</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0.9978970832452403</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0.9978914891824733</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0.9979026773080073</v>
+      </c>
+      <c r="CO24" t="inlineStr"/>
+      <c r="CP24" s="2" t="n">
+        <v>44862</v>
+      </c>
+      <c r="CQ24" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="CR24" t="inlineStr">
+        <is>
+          <t>2 (CLJD)</t>
+        </is>
+      </c>
+      <c r="CS24" t="inlineStr">
+        <is>
+          <t>FO1</t>
+        </is>
+      </c>
+      <c r="CT24" t="inlineStr"/>
+      <c r="CU24" t="inlineStr"/>
+      <c r="CV24" t="inlineStr">
+        <is>
+          <t>MI1</t>
+        </is>
+      </c>
+      <c r="CW24" t="inlineStr">
+        <is>
+          <t>FO1</t>
+        </is>
+      </c>
+      <c r="CX24" t="inlineStr">
+        <is>
+          <t>FO1</t>
+        </is>
+      </c>
+      <c r="CY24" t="inlineStr">
+        <is>
+          <t>FO1-MI1-44862</t>
+        </is>
+      </c>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="inlineStr"/>
+      <c r="DB24" t="inlineStr"/>
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="inlineStr"/>
+      <c r="DE24" t="inlineStr"/>
+      <c r="DF24" t="n">
+        <v>0.008456352648881114</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>0.0002433472177138916</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>0.0006229769703712424</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>2.511903243129822e-06</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>0.02134148393991476</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>0.001572220738673515</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>2.200862052676851e-05</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>0.001589577849798874</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>0.004242640687119446</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>0.008456352648881114</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>0.0002433472177138916</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>0.008486328591643137</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>0.000345435887649957</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>0.01584796564771149</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>0.000955183521198525</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>0.01736499117700453</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>0.001589577849798874</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>0.07088945166653568</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0.001488552309309979</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>170.0847213825074</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>0.07092480877333439</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>218.9356251492981</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>0.006424645011461837</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>0.1921701638032887</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>0.02399608251561482</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>0.01284929002292367</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>0.05355981759710863</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>0.0005841986239531512</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>306.7127656505486</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>0.05355981759710863</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>339.0620918691131</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>0.006142209776052528</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>0.4281869330631151</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>0.01896589254625875</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>0.01228441955210506</v>
+      </c>
+      <c r="ES24" t="inlineStr"/>
+      <c r="ET24" t="inlineStr"/>
+      <c r="EU24" t="inlineStr"/>
+      <c r="EV24" t="n">
+        <v>0.06874840052511698</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>46.31807786877987</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>0.01073920103441337</v>
+      </c>
+      <c r="EY24" t="inlineStr"/>
+      <c r="EZ24" t="inlineStr"/>
+      <c r="FA24" t="inlineStr"/>
+      <c r="FB24" t="n">
+        <v>0.03099202171785446</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>25.10305891211447</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>0.2176491756458826</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>0.1216286441986038</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>0.1380520687849341</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>0.1175330718407807</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>0.0009412833102773639</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>0.09270095740572379</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>0.1070258906364329</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>0.08285966555362773</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>0.0005400723946575939</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>1776.959341121794</v>
+      </c>
+      <c r="FR24" t="inlineStr"/>
+      <c r="FS24" t="inlineStr"/>
+      <c r="FT24" t="inlineStr"/>
+      <c r="FU24" t="inlineStr"/>
+      <c r="FV24" t="inlineStr"/>
+      <c r="FW24" t="n">
+        <v>1776.959341121794</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>3.888460752411926e-05</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>3.86722932488115e-05</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>3.909692179942702e-05</v>
+      </c>
+      <c r="GA24" t="inlineStr"/>
+      <c r="GB24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="GC24" t="inlineStr"/>
+      <c r="GD24" t="inlineStr"/>
+      <c r="GE24" t="inlineStr"/>
+      <c r="GF24" t="inlineStr"/>
+      <c r="GG24" t="inlineStr"/>
+      <c r="GH24" t="inlineStr"/>
+      <c r="GI24" t="inlineStr"/>
+      <c r="GJ24" t="inlineStr"/>
+      <c r="GK24" t="inlineStr"/>
+      <c r="GL24" t="inlineStr"/>
+      <c r="GM24" t="inlineStr"/>
+      <c r="GN24" t="inlineStr"/>
+      <c r="GO24" t="inlineStr"/>
+      <c r="GP24" t="inlineStr"/>
+      <c r="GQ24" t="inlineStr"/>
+      <c r="GR24" t="inlineStr"/>
+      <c r="GS24" t="inlineStr"/>
+      <c r="GT24" t="inlineStr"/>
+      <c r="GU24" t="inlineStr"/>
+      <c r="GV24" t="inlineStr"/>
+      <c r="GW24" t="inlineStr"/>
+      <c r="GX24" t="inlineStr"/>
+      <c r="GY24" t="inlineStr"/>
+      <c r="GZ24" t="inlineStr"/>
+      <c r="HA24" t="inlineStr"/>
+      <c r="HB24" t="inlineStr"/>
+      <c r="HC24" t="inlineStr"/>
+      <c r="HD24" t="inlineStr"/>
+      <c r="HE24" t="inlineStr"/>
+      <c r="HF24" t="inlineStr"/>
+      <c r="HG24" t="inlineStr"/>
+      <c r="HH24" t="inlineStr"/>
+      <c r="HI24" t="inlineStr"/>
+      <c r="HJ24" t="inlineStr"/>
+      <c r="HK24" t="inlineStr"/>
+      <c r="HL24" t="inlineStr"/>
+      <c r="HM24" t="inlineStr"/>
+      <c r="HN24" t="inlineStr"/>
+      <c r="HO24" t="inlineStr"/>
+      <c r="HP24" t="inlineStr"/>
+      <c r="HQ24" t="inlineStr"/>
+      <c r="HR24" t="inlineStr"/>
+      <c r="HS24" t="inlineStr"/>
+      <c r="HT24" t="inlineStr"/>
+      <c r="HU24" t="inlineStr"/>
+      <c r="HV24" t="inlineStr"/>
+      <c r="HW24" t="inlineStr"/>
+      <c r="HX24" t="inlineStr"/>
+      <c r="HY24" t="inlineStr"/>
+      <c r="HZ24" t="inlineStr"/>
+      <c r="IA24" t="inlineStr"/>
+      <c r="IB24" t="inlineStr"/>
+      <c r="IC24" t="inlineStr"/>
+      <c r="ID24" t="inlineStr"/>
+      <c r="IE24" t="inlineStr"/>
+      <c r="IF24" t="inlineStr"/>
+      <c r="IG24" t="inlineStr"/>
+      <c r="IH24" t="inlineStr"/>
+      <c r="II24" t="inlineStr"/>
+      <c r="IJ24" t="inlineStr"/>
+      <c r="IK24" t="inlineStr"/>
+      <c r="IL24" t="inlineStr"/>
+      <c r="IM24" t="inlineStr"/>
+      <c r="IN24" t="inlineStr"/>
+      <c r="IO24" t="inlineStr"/>
+      <c r="IP24" t="inlineStr"/>
+      <c r="IQ24" t="inlineStr"/>
+      <c r="IR24" t="inlineStr"/>
+      <c r="IS24" t="inlineStr"/>
+      <c r="IT24" t="inlineStr"/>
+      <c r="IU24" t="inlineStr"/>
+      <c r="IV24" t="inlineStr"/>
+      <c r="IW24" t="inlineStr"/>
+      <c r="IX24" t="inlineStr"/>
+      <c r="IY24" t="inlineStr"/>
+      <c r="IZ24" t="inlineStr"/>
+      <c r="JA24" t="inlineStr"/>
+      <c r="JB24" t="inlineStr"/>
+      <c r="JC24" t="inlineStr"/>
+      <c r="JD24" t="inlineStr"/>
+      <c r="JE24" t="inlineStr"/>
+      <c r="JF24" t="inlineStr"/>
+      <c r="JG24" t="inlineStr"/>
+      <c r="JH24" t="inlineStr"/>
+      <c r="JI24" t="inlineStr"/>
+      <c r="JJ24" t="inlineStr"/>
+      <c r="JK24" t="inlineStr"/>
+      <c r="JL24" t="inlineStr"/>
+      <c r="JM24" t="inlineStr"/>
+      <c r="JN24" t="inlineStr"/>
+      <c r="JO24" t="inlineStr"/>
+      <c r="JP24" t="inlineStr"/>
+      <c r="JQ24" t="inlineStr"/>
+      <c r="JR24" t="inlineStr"/>
+      <c r="JS24" t="inlineStr"/>
+      <c r="JT24" t="inlineStr"/>
+      <c r="JU24" t="inlineStr"/>
+      <c r="JV24" t="inlineStr"/>
+      <c r="JW24" t="inlineStr"/>
+      <c r="JX24" t="inlineStr"/>
+      <c r="JY24" t="inlineStr"/>
+      <c r="JZ24" t="inlineStr"/>
+      <c r="KA24" t="inlineStr"/>
+      <c r="KB24" t="inlineStr"/>
+      <c r="KC24" t="inlineStr"/>
+      <c r="KD24" t="inlineStr"/>
+      <c r="KE24" t="inlineStr"/>
+      <c r="KF24" t="inlineStr"/>
+      <c r="KG24" t="inlineStr"/>
+      <c r="KH24" t="inlineStr"/>
+      <c r="KI24" t="inlineStr"/>
+      <c r="KJ24" t="inlineStr"/>
+      <c r="KK24" t="inlineStr"/>
+      <c r="KL24" t="inlineStr"/>
+      <c r="KM24" t="inlineStr"/>
+      <c r="KN24" t="inlineStr"/>
+      <c r="KO24" t="inlineStr"/>
+      <c r="KP24" t="inlineStr"/>
+      <c r="KQ24" t="inlineStr"/>
+      <c r="KR24" t="inlineStr"/>
+      <c r="KS24" t="inlineStr"/>
+      <c r="KT24" t="inlineStr"/>
+      <c r="KU24" t="inlineStr"/>
+      <c r="KV24" t="inlineStr"/>
+      <c r="KW24" t="inlineStr"/>
+      <c r="KX24" t="inlineStr"/>
+      <c r="KY24" t="inlineStr"/>
+      <c r="KZ24" t="inlineStr"/>
+      <c r="LA24" t="inlineStr"/>
+      <c r="LB24" t="inlineStr"/>
+      <c r="LC24" t="inlineStr"/>
+      <c r="LD24" t="inlineStr"/>
+      <c r="LE24" t="inlineStr"/>
+      <c r="LF24" t="inlineStr"/>
+      <c r="LG24" t="inlineStr"/>
+      <c r="LH24" t="inlineStr"/>
+      <c r="LI24" t="inlineStr"/>
+      <c r="LJ24" t="inlineStr"/>
+      <c r="LK24" t="inlineStr"/>
+      <c r="LL24" t="inlineStr"/>
+      <c r="LM24" t="inlineStr"/>
+      <c r="LN24" t="inlineStr"/>
+      <c r="LO24" t="inlineStr"/>
+      <c r="LP24" t="inlineStr"/>
+      <c r="LQ24" t="inlineStr"/>
+      <c r="LR24" t="inlineStr"/>
+      <c r="LS24" t="inlineStr"/>
+      <c r="LT24" t="inlineStr"/>
+      <c r="LU24" t="inlineStr"/>
+      <c r="LV24" t="inlineStr"/>
+      <c r="LW24" t="inlineStr"/>
+      <c r="LX24" t="inlineStr"/>
+      <c r="LY24" t="inlineStr"/>
+      <c r="LZ24" t="inlineStr"/>
+      <c r="MA24" t="inlineStr"/>
+      <c r="MB24" t="inlineStr"/>
+      <c r="MC24" t="inlineStr"/>
+      <c r="MD24" t="inlineStr"/>
+      <c r="ME24" t="inlineStr"/>
+      <c r="MF24" t="inlineStr"/>
+      <c r="MG24" t="inlineStr"/>
+      <c r="MH24" t="inlineStr"/>
+      <c r="MI24" t="inlineStr"/>
+      <c r="MJ24" t="inlineStr"/>
+      <c r="MK24" t="inlineStr"/>
+      <c r="ML24" t="inlineStr"/>
+      <c r="MM24" t="inlineStr"/>
+      <c r="MN24" t="inlineStr"/>
+      <c r="MO24" t="inlineStr"/>
+      <c r="MP24" t="inlineStr"/>
+      <c r="MQ24" t="inlineStr"/>
+      <c r="MR24" t="inlineStr"/>
+      <c r="MS24" t="inlineStr"/>
+      <c r="MT24" t="inlineStr"/>
+      <c r="MU24" t="inlineStr"/>
+      <c r="MV24" t="inlineStr"/>
+      <c r="MW24" t="inlineStr"/>
+      <c r="MX24" t="inlineStr"/>
+      <c r="MY24" t="inlineStr"/>
+      <c r="MZ24" t="inlineStr"/>
+      <c r="NA24" t="inlineStr"/>
+      <c r="NB24" t="inlineStr"/>
+      <c r="NC24" t="inlineStr"/>
+      <c r="ND24" t="inlineStr"/>
+      <c r="NE24" t="inlineStr"/>
+      <c r="NF24" t="inlineStr"/>
+      <c r="NG24" t="inlineStr"/>
+      <c r="NH24" t="inlineStr"/>
+      <c r="NI24" t="inlineStr"/>
+      <c r="NJ24" t="inlineStr"/>
+      <c r="NK24" t="inlineStr"/>
+      <c r="NL24" t="inlineStr"/>
+      <c r="NM24" t="inlineStr"/>
+      <c r="NN24" t="inlineStr"/>
+      <c r="NO24" t="inlineStr"/>
+      <c r="NP24" t="inlineStr"/>
+      <c r="NQ24" t="inlineStr"/>
+      <c r="NR24" t="inlineStr"/>
+      <c r="NS24" t="inlineStr"/>
+      <c r="NT24" t="inlineStr"/>
+      <c r="NU24" t="inlineStr"/>
+      <c r="NV24" t="inlineStr"/>
+      <c r="NW24" t="inlineStr"/>
+      <c r="NX24" t="inlineStr"/>
+      <c r="NY24" t="inlineStr"/>
+      <c r="NZ24" t="inlineStr"/>
+      <c r="OA24" t="inlineStr"/>
+      <c r="OB24" t="inlineStr"/>
+      <c r="OC24" t="inlineStr"/>
+      <c r="OD24" t="inlineStr"/>
+      <c r="OE24" t="inlineStr"/>
+      <c r="OF24" t="inlineStr"/>
+      <c r="OG24" t="inlineStr"/>
+      <c r="OH24" t="inlineStr"/>
+      <c r="OI24" t="inlineStr"/>
+      <c r="OJ24" t="inlineStr"/>
+      <c r="OK24" t="inlineStr"/>
+      <c r="OL24" t="inlineStr"/>
+      <c r="OM24" t="inlineStr"/>
+      <c r="ON24" t="inlineStr"/>
+      <c r="OO24" t="inlineStr"/>
+      <c r="OP24" t="inlineStr"/>
+      <c r="OQ24" t="inlineStr"/>
+      <c r="OR24" t="inlineStr"/>
+      <c r="OS24" t="inlineStr"/>
+      <c r="OT24" t="inlineStr"/>
+      <c r="OU24" t="inlineStr"/>
+      <c r="OV24" t="inlineStr"/>
+      <c r="OW24" t="inlineStr"/>
+      <c r="OX24" t="inlineStr"/>
+      <c r="OY24" t="inlineStr"/>
+      <c r="OZ24" t="inlineStr"/>
+      <c r="PA24" t="inlineStr"/>
+      <c r="PB24" t="inlineStr"/>
+      <c r="PC24" t="inlineStr"/>
+      <c r="PD24" t="inlineStr"/>
+      <c r="PE24" t="inlineStr"/>
+      <c r="PF24" t="inlineStr"/>
+      <c r="PG24" t="inlineStr"/>
+      <c r="PH24" t="inlineStr"/>
+      <c r="PI24" t="inlineStr"/>
+      <c r="PJ24" t="inlineStr"/>
+      <c r="PK24" t="inlineStr"/>
+      <c r="PL24" t="inlineStr"/>
+      <c r="PM24" t="inlineStr"/>
+      <c r="PN24" t="inlineStr"/>
+      <c r="PO24" t="inlineStr"/>
+      <c r="PP24" t="inlineStr"/>
+      <c r="PQ24" t="inlineStr"/>
+      <c r="PR24" t="inlineStr"/>
+      <c r="PS24" t="inlineStr"/>
+      <c r="PT24" t="inlineStr"/>
+      <c r="PU24" t="inlineStr"/>
+      <c r="PV24" t="inlineStr"/>
+      <c r="PW24" t="inlineStr"/>
+      <c r="PX24" t="inlineStr"/>
+      <c r="PY24" t="inlineStr"/>
+      <c r="PZ24" t="inlineStr"/>
+      <c r="QA24" t="inlineStr"/>
+      <c r="QB24" t="inlineStr"/>
+      <c r="QC24" t="inlineStr"/>
+      <c r="QD24" t="inlineStr"/>
+      <c r="QE24" t="inlineStr"/>
+      <c r="QF24" t="inlineStr"/>
+      <c r="QG24" t="inlineStr"/>
+      <c r="QH24" t="inlineStr"/>
+      <c r="QI24" t="inlineStr"/>
+      <c r="QJ24" t="inlineStr"/>
+      <c r="QK24" t="inlineStr"/>
+      <c r="QL24" t="inlineStr"/>
+      <c r="QM24" t="inlineStr"/>
+      <c r="QN24" t="inlineStr"/>
+      <c r="QO24" t="inlineStr"/>
+      <c r="QP24" t="inlineStr"/>
+      <c r="QQ24" t="inlineStr"/>
+      <c r="QR24" t="inlineStr"/>
+      <c r="QS24" t="inlineStr"/>
+      <c r="QT24" t="inlineStr"/>
+      <c r="QU24" t="inlineStr"/>
+      <c r="QV24" t="inlineStr"/>
+      <c r="QW24" t="inlineStr"/>
+      <c r="QX24" t="inlineStr"/>
+      <c r="QY24" t="inlineStr"/>
+      <c r="QZ24" t="inlineStr"/>
+      <c r="RA24" t="inlineStr"/>
+      <c r="RB24" t="inlineStr"/>
+      <c r="RC24" t="inlineStr"/>
+      <c r="RD24" t="inlineStr"/>
+      <c r="RE24" t="inlineStr"/>
+      <c r="RF24" t="inlineStr"/>
+      <c r="RG24" t="inlineStr"/>
+      <c r="RH24" t="inlineStr"/>
+      <c r="RI24" t="inlineStr"/>
+      <c r="RJ24" t="inlineStr"/>
+      <c r="RK24" t="inlineStr"/>
+      <c r="RL24" t="inlineStr"/>
+      <c r="RM24" t="inlineStr"/>
+      <c r="RN24" t="inlineStr"/>
+      <c r="RO24" t="inlineStr"/>
+      <c r="RP24" t="inlineStr"/>
+      <c r="RQ24" t="inlineStr"/>
+      <c r="RR24" t="inlineStr"/>
+      <c r="RS24" t="inlineStr"/>
+      <c r="RT24" t="inlineStr"/>
+      <c r="RU24" t="inlineStr"/>
+      <c r="RV24" t="inlineStr"/>
+      <c r="RW24" t="inlineStr"/>
+      <c r="RX24" t="inlineStr"/>
+      <c r="RY24" t="inlineStr"/>
+      <c r="RZ24" t="inlineStr"/>
+      <c r="SA24" t="inlineStr"/>
+      <c r="SB24" t="inlineStr"/>
+      <c r="SC24" t="inlineStr"/>
+      <c r="SD24" t="inlineStr"/>
+      <c r="SE24" t="inlineStr"/>
+      <c r="SF24" t="inlineStr"/>
+      <c r="SG24" t="inlineStr"/>
+      <c r="SH24" t="inlineStr"/>
+      <c r="SI24" t="inlineStr"/>
+      <c r="SJ24" t="inlineStr"/>
+      <c r="SK24" t="inlineStr"/>
+      <c r="SL24" t="inlineStr"/>
+      <c r="SM24" t="inlineStr"/>
+      <c r="SN24" t="inlineStr"/>
+      <c r="SO24" t="inlineStr"/>
+      <c r="SP24" t="inlineStr"/>
+      <c r="SQ24" t="inlineStr"/>
+      <c r="SR24" t="inlineStr"/>
+      <c r="SS24" t="inlineStr"/>
+      <c r="ST24" t="inlineStr"/>
+      <c r="SU24" t="inlineStr"/>
+      <c r="SV24" t="inlineStr"/>
+      <c r="SW24" t="inlineStr"/>
+      <c r="SX24" t="inlineStr"/>
+      <c r="SY24" t="inlineStr"/>
+      <c r="SZ24" t="inlineStr"/>
+      <c r="TA24" t="inlineStr"/>
+      <c r="TB24" t="inlineStr"/>
+      <c r="TC24" t="inlineStr"/>
+      <c r="TD24" t="inlineStr"/>
+      <c r="TE24" t="inlineStr"/>
+      <c r="TF24" t="inlineStr"/>
+      <c r="TG24" t="inlineStr"/>
+      <c r="TH24" t="inlineStr"/>
+      <c r="TI24" t="inlineStr"/>
+      <c r="TJ24" t="inlineStr"/>
+      <c r="TK24" t="inlineStr"/>
+      <c r="TL24" t="inlineStr"/>
+      <c r="TM24" t="inlineStr"/>
+      <c r="TN24" t="inlineStr"/>
+      <c r="TO24" t="inlineStr"/>
+      <c r="TP24" t="inlineStr"/>
+      <c r="TQ24" t="inlineStr"/>
+      <c r="TR24" t="inlineStr"/>
+      <c r="TS24" t="inlineStr"/>
+      <c r="TT24" t="inlineStr"/>
+      <c r="TU24" t="inlineStr"/>
+      <c r="TV24" t="inlineStr"/>
+      <c r="TW24" t="inlineStr"/>
+      <c r="TX24" t="inlineStr"/>
+      <c r="TY24" t="inlineStr"/>
+      <c r="TZ24" t="inlineStr"/>
+      <c r="UA24" t="inlineStr"/>
+      <c r="UB24" t="inlineStr"/>
+      <c r="UC24" t="inlineStr"/>
+      <c r="UD24" t="inlineStr"/>
+      <c r="UE24" t="inlineStr"/>
+      <c r="UF24" t="inlineStr"/>
+      <c r="UG24" t="inlineStr"/>
+      <c r="UH24" t="inlineStr"/>
+      <c r="UI24" t="inlineStr"/>
+      <c r="UJ24" t="inlineStr"/>
+      <c r="UK24" t="inlineStr"/>
+      <c r="UL24" t="inlineStr"/>
+      <c r="UM24" t="inlineStr"/>
+      <c r="UN24" t="inlineStr"/>
+      <c r="UO24" t="inlineStr"/>
+      <c r="UP24" t="inlineStr"/>
+      <c r="UQ24" t="inlineStr"/>
+      <c r="UR24" t="inlineStr"/>
+      <c r="US24" t="inlineStr"/>
+      <c r="UT24" t="inlineStr"/>
+      <c r="UU24" t="inlineStr"/>
+      <c r="UV24" t="inlineStr"/>
+      <c r="UW24" t="inlineStr"/>
+      <c r="UX24" t="inlineStr"/>
+      <c r="UY24" t="inlineStr"/>
+      <c r="UZ24" t="inlineStr"/>
+      <c r="VA24" t="inlineStr"/>
+      <c r="VB24" t="inlineStr"/>
+      <c r="VC24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="VD24" t="inlineStr"/>
+      <c r="VE24" t="inlineStr"/>
+      <c r="VF24" t="inlineStr"/>
+      <c r="VG24" t="inlineStr"/>
+      <c r="VH24" t="inlineStr"/>
+      <c r="VI24" t="inlineStr"/>
+      <c r="VJ24" t="inlineStr"/>
+      <c r="VK24" t="inlineStr"/>
+      <c r="VL24" t="inlineStr"/>
+      <c r="VM24" t="inlineStr"/>
+      <c r="VN24" t="inlineStr"/>
+      <c r="VO24" t="inlineStr"/>
+      <c r="VP24" t="inlineStr"/>
+      <c r="VQ24" t="inlineStr"/>
+      <c r="VR24" t="inlineStr"/>
+      <c r="VS24" t="inlineStr"/>
+      <c r="VT24" t="inlineStr"/>
+      <c r="VU24" t="inlineStr"/>
+      <c r="VV24" t="inlineStr"/>
+      <c r="VW24" t="inlineStr"/>
+      <c r="VX24" t="inlineStr"/>
+      <c r="VY24" t="inlineStr"/>
+      <c r="VZ24" t="inlineStr"/>
+      <c r="WA24" t="inlineStr"/>
+      <c r="WB24" t="inlineStr"/>
+      <c r="WC24" t="inlineStr"/>
+      <c r="WD24" t="inlineStr"/>
+      <c r="WE24" t="inlineStr"/>
+      <c r="WF24" t="inlineStr"/>
+      <c r="WG24" t="inlineStr"/>
+      <c r="WH24" t="inlineStr"/>
+      <c r="WI24" t="inlineStr"/>
+      <c r="WJ24" t="inlineStr"/>
+      <c r="WK24" t="inlineStr"/>
+      <c r="WL24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FG04-FI1-6mW-R1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6292725237121886</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.002764209695070665</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.001410810760944514</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.00237650601664155</v>
+      </c>
+      <c r="G25" t="n">
+        <v>104.2052673989473</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.002855553499603664</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0006305703427162968</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.002790576325674849</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.9815</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1325.004</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>SupCrit, Med density</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.5765341304968992</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.007907204383592581</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.6292725237121886</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.002764209695070665</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.632759465534491</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.002132945062168138</v>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>SupCrit</t>
+        </is>
+      </c>
+      <c r="X25" t="n">
+        <v>104.4158922571987</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.002790576325674849</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>1283.325328224251</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.002553583327456245</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1333.899442195122</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1283.325378226752</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>3793.713211401103</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1.008317934316421</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>4.535099036282623</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.7636524785683638</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>2.016635868632843</v>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="AJ25" t="n">
+        <v>1387.7412954852</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.00110536927364338</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2836.272672314981</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1387.74127048395</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>6290.790297839905</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.7833660853256327</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>3.392374464979445</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.7831227749247964</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>1.566732170651265</v>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="AU25" t="n">
+        <v>1263.272387602959</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>593.3948119793481</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>3.013993722491542</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1409.205019314455</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>680.3615411593926</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>1.838480361281925</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>1370.09103359047</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>75.74665119489389</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.3903767602727979</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1386.912733607238</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>633.4270091640092</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>17.5745468710798</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.014272348533418</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>1.016083582823337</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.02878361212804811</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>0.001518394016436659</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1.052064678561577</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.059009564407944</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.08141438139888491</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>0.0005552627149608513</v>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">November 8, 2022
+</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="BS25" t="n">
+        <v>8</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>45</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>50</v>
+      </c>
+      <c r="BW25" t="inlineStr">
+        <is>
+          <t>['0h', '3m', '47s']</t>
+        </is>
+      </c>
+      <c r="BX25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:19:20 PM
+</t>
+        </is>
+      </c>
+      <c r="BY25" t="n">
+        <v>45275.25</v>
+      </c>
+      <c r="BZ25" t="inlineStr"/>
+      <c r="CA25" t="inlineStr"/>
+      <c r="CB25" t="inlineStr"/>
+      <c r="CC25" t="inlineStr"/>
+      <c r="CD25" t="inlineStr"/>
+      <c r="CE25" t="inlineStr"/>
+      <c r="CF25" t="inlineStr"/>
+      <c r="CG25" t="inlineStr"/>
+      <c r="CH25" t="inlineStr"/>
+      <c r="CI25" t="inlineStr"/>
+      <c r="CJ25" t="inlineStr"/>
+      <c r="CK25" t="n">
+        <v>45275.25</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0.9979828279135232</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0.9979767888863956</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0.9979888669406508</v>
+      </c>
+      <c r="CO25" t="inlineStr"/>
+      <c r="CP25" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="CQ25" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="CR25" t="inlineStr">
+        <is>
+          <t>2 (CLJD)</t>
+        </is>
+      </c>
+      <c r="CS25" t="inlineStr">
+        <is>
+          <t>FG04</t>
+        </is>
+      </c>
+      <c r="CT25" t="inlineStr">
+        <is>
+          <t>FI1</t>
+        </is>
+      </c>
+      <c r="CU25" t="inlineStr"/>
+      <c r="CV25" t="inlineStr">
+        <is>
+          <t>FI1</t>
+        </is>
+      </c>
+      <c r="CW25" t="inlineStr">
+        <is>
+          <t>FG04_FI1</t>
+        </is>
+      </c>
+      <c r="CX25" t="inlineStr">
+        <is>
+          <t>FG04_FI1</t>
+        </is>
+      </c>
+      <c r="CY25" t="inlineStr">
+        <is>
+          <t>FG04_FI1</t>
+        </is>
+      </c>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="inlineStr"/>
+      <c r="DB25" t="inlineStr"/>
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="inlineStr"/>
+      <c r="DE25" t="inlineStr"/>
+      <c r="DF25" t="n">
+        <v>0.003032727239836916</v>
+      </c>
+      <c r="DG25" t="n">
+        <v>3.632242197847467e-05</v>
+      </c>
+      <c r="DH25" t="n">
+        <v>7.001493004747629e-05</v>
+      </c>
+      <c r="DI25" t="n">
+        <v>6.417932765274031e-07</v>
+      </c>
+      <c r="DJ25" t="n">
+        <v>0.006142790534873657</v>
+      </c>
+      <c r="DK25" t="n">
+        <v>0.0001405188160997791</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>2.953985441141436e-06</v>
+      </c>
+      <c r="DM25" t="n">
+        <v>0.0001436930918044791</v>
+      </c>
+      <c r="DN25" t="n">
+        <v>0.01279322737493008</v>
+      </c>
+      <c r="DO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR25" t="n">
+        <v>0.002434020200161891</v>
+      </c>
+      <c r="DS25" t="n">
+        <v>3.237884297350946e-05</v>
+      </c>
+      <c r="DT25" t="n">
+        <v>0.003032727239836916</v>
+      </c>
+      <c r="DU25" t="n">
+        <v>3.632242197847467e-05</v>
+      </c>
+      <c r="DV25" t="n">
+        <v>0.002964922223740872</v>
+      </c>
+      <c r="DW25" t="n">
+        <v>4.337848559822761e-05</v>
+      </c>
+      <c r="DX25" t="n">
+        <v>0.006717732563808215</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>0.0001436930918044791</v>
+      </c>
+      <c r="DZ25" t="n">
+        <v>0.01740846988334238</v>
+      </c>
+      <c r="EA25" t="n">
+        <v>0.000211538879374409</v>
+      </c>
+      <c r="EB25" t="n">
+        <v>99.84711935155696</v>
+      </c>
+      <c r="EC25" t="n">
+        <v>0.01740846988265456</v>
+      </c>
+      <c r="ED25" t="n">
+        <v>270.7112984196456</v>
+      </c>
+      <c r="EE25" t="n">
+        <v>0.00525715415191168</v>
+      </c>
+      <c r="EF25" t="n">
+        <v>0.1177772492016271</v>
+      </c>
+      <c r="EG25" t="n">
+        <v>0.01019848596379882</v>
+      </c>
+      <c r="EH25" t="n">
+        <v>0.01051430830382312</v>
+      </c>
+      <c r="EI25" t="n">
+        <v>0.01510740052524395</v>
+      </c>
+      <c r="EJ25" t="n">
+        <v>0.0001883664633935844</v>
+      </c>
+      <c r="EK25" t="n">
+        <v>223.8092616131979</v>
+      </c>
+      <c r="EL25" t="n">
+        <v>0.0151004376199897</v>
+      </c>
+      <c r="EM25" t="n">
+        <v>453.306075282446</v>
+      </c>
+      <c r="EN25" t="n">
+        <v>0.00694407758087867</v>
+      </c>
+      <c r="EO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP25" t="n">
+        <v>0.5886705993357944</v>
+      </c>
+      <c r="EQ25" t="n">
+        <v>0.003865960295496865</v>
+      </c>
+      <c r="ER25" t="n">
+        <v>0.01388815516175726</v>
+      </c>
+      <c r="ES25" t="n">
+        <v>0.02785125340029329</v>
+      </c>
+      <c r="ET25" t="n">
+        <v>37.71067921396399</v>
+      </c>
+      <c r="EU25" t="n">
+        <v>0.0181270611435726</v>
+      </c>
+      <c r="EV25" t="n">
+        <v>0.04607737022419683</v>
+      </c>
+      <c r="EW25" t="n">
+        <v>50.4194431000566</v>
+      </c>
+      <c r="EX25" t="n">
+        <v>0.03064242232367852</v>
+      </c>
+      <c r="EY25" t="n">
+        <v>0.03821744126733946</v>
+      </c>
+      <c r="EZ25" t="n">
+        <v>5.00814385487167</v>
+      </c>
+      <c r="FA25" t="n">
+        <v>0.003451465742038071</v>
+      </c>
+      <c r="FB25" t="n">
+        <v>0.8160349448995287</v>
+      </c>
+      <c r="FC25" t="n">
+        <v>79.3282280846464</v>
+      </c>
+      <c r="FD25" t="n">
+        <v>1.004423324041488</v>
+      </c>
+      <c r="FE25" t="n">
+        <v>0.008804931463492857</v>
+      </c>
+      <c r="FF25" t="n">
+        <v>0.01128161408829143</v>
+      </c>
+      <c r="FG25" t="n">
+        <v>0.0177033158608911</v>
+      </c>
+      <c r="FH25" t="n">
+        <v>0.0001170379453617623</v>
+      </c>
+      <c r="FI25" t="n">
+        <v>0.01653152307269253</v>
+      </c>
+      <c r="FJ25" t="n">
+        <v>0.02773473352906075</v>
+      </c>
+      <c r="FK25" t="n">
+        <v>0.02526730494935499</v>
+      </c>
+      <c r="FL25" t="n">
+        <v>4.857399859010584e-05</v>
+      </c>
+      <c r="FM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ25" t="n">
+        <v>835.5067823383192</v>
+      </c>
+      <c r="FR25" t="inlineStr"/>
+      <c r="FS25" t="inlineStr"/>
+      <c r="FT25" t="inlineStr"/>
+      <c r="FU25" t="inlineStr"/>
+      <c r="FV25" t="inlineStr"/>
+      <c r="FW25" t="n">
+        <v>835.5067823383192</v>
+      </c>
+      <c r="FX25" t="n">
+        <v>1.518736157836362e-05</v>
+      </c>
+      <c r="FY25" t="n">
+        <v>1.515891223980216e-05</v>
+      </c>
+      <c r="FZ25" t="n">
+        <v>1.521581095319652e-05</v>
+      </c>
+      <c r="GA25" t="inlineStr"/>
+      <c r="GB25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="GC25" t="inlineStr"/>
+      <c r="GD25" t="inlineStr"/>
+      <c r="GE25" t="inlineStr"/>
+      <c r="GF25" t="inlineStr"/>
+      <c r="GG25" t="inlineStr"/>
+      <c r="GH25" t="inlineStr"/>
+      <c r="GI25" t="inlineStr"/>
+      <c r="GJ25" t="inlineStr"/>
+      <c r="GK25" t="inlineStr"/>
+      <c r="GL25" t="inlineStr"/>
+      <c r="GM25" t="inlineStr"/>
+      <c r="GN25" t="inlineStr"/>
+      <c r="GO25" t="inlineStr"/>
+      <c r="GP25" t="inlineStr"/>
+      <c r="GQ25" t="inlineStr"/>
+      <c r="GR25" t="inlineStr"/>
+      <c r="GS25" t="inlineStr"/>
+      <c r="GT25" t="inlineStr"/>
+      <c r="GU25" t="inlineStr"/>
+      <c r="GV25" t="inlineStr"/>
+      <c r="GW25" t="inlineStr"/>
+      <c r="GX25" t="inlineStr"/>
+      <c r="GY25" t="inlineStr"/>
+      <c r="GZ25" t="inlineStr"/>
+      <c r="HA25" t="inlineStr"/>
+      <c r="HB25" t="inlineStr"/>
+      <c r="HC25" t="inlineStr"/>
+      <c r="HD25" t="inlineStr"/>
+      <c r="HE25" t="inlineStr"/>
+      <c r="HF25" t="inlineStr"/>
+      <c r="HG25" t="inlineStr"/>
+      <c r="HH25" t="inlineStr"/>
+      <c r="HI25" t="inlineStr"/>
+      <c r="HJ25" t="inlineStr"/>
+      <c r="HK25" t="inlineStr"/>
+      <c r="HL25" t="inlineStr"/>
+      <c r="HM25" t="inlineStr"/>
+      <c r="HN25" t="inlineStr"/>
+      <c r="HO25" t="inlineStr"/>
+      <c r="HP25" t="inlineStr"/>
+      <c r="HQ25" t="inlineStr"/>
+      <c r="HR25" t="inlineStr"/>
+      <c r="HS25" t="inlineStr"/>
+      <c r="HT25" t="inlineStr"/>
+      <c r="HU25" t="inlineStr"/>
+      <c r="HV25" t="inlineStr"/>
+      <c r="HW25" t="inlineStr"/>
+      <c r="HX25" t="inlineStr"/>
+      <c r="HY25" t="inlineStr"/>
+      <c r="HZ25" t="inlineStr"/>
+      <c r="IA25" t="inlineStr"/>
+      <c r="IB25" t="inlineStr"/>
+      <c r="IC25" t="inlineStr"/>
+      <c r="ID25" t="inlineStr"/>
+      <c r="IE25" t="inlineStr"/>
+      <c r="IF25" t="inlineStr"/>
+      <c r="IG25" t="inlineStr"/>
+      <c r="IH25" t="inlineStr"/>
+      <c r="II25" t="inlineStr"/>
+      <c r="IJ25" t="inlineStr"/>
+      <c r="IK25" t="inlineStr"/>
+      <c r="IL25" t="inlineStr"/>
+      <c r="IM25" t="inlineStr"/>
+      <c r="IN25" t="inlineStr"/>
+      <c r="IO25" t="inlineStr"/>
+      <c r="IP25" t="inlineStr"/>
+      <c r="IQ25" t="inlineStr"/>
+      <c r="IR25" t="inlineStr"/>
+      <c r="IS25" t="inlineStr"/>
+      <c r="IT25" t="inlineStr"/>
+      <c r="IU25" t="inlineStr"/>
+      <c r="IV25" t="inlineStr"/>
+      <c r="IW25" t="inlineStr"/>
+      <c r="IX25" t="inlineStr"/>
+      <c r="IY25" t="inlineStr"/>
+      <c r="IZ25" t="inlineStr"/>
+      <c r="JA25" t="inlineStr"/>
+      <c r="JB25" t="inlineStr"/>
+      <c r="JC25" t="inlineStr"/>
+      <c r="JD25" t="inlineStr"/>
+      <c r="JE25" t="inlineStr"/>
+      <c r="JF25" t="inlineStr"/>
+      <c r="JG25" t="inlineStr"/>
+      <c r="JH25" t="inlineStr"/>
+      <c r="JI25" t="inlineStr"/>
+      <c r="JJ25" t="inlineStr"/>
+      <c r="JK25" t="inlineStr"/>
+      <c r="JL25" t="inlineStr"/>
+      <c r="JM25" t="inlineStr"/>
+      <c r="JN25" t="inlineStr"/>
+      <c r="JO25" t="inlineStr"/>
+      <c r="JP25" t="inlineStr"/>
+      <c r="JQ25" t="inlineStr"/>
+      <c r="JR25" t="inlineStr"/>
+      <c r="JS25" t="inlineStr"/>
+      <c r="JT25" t="inlineStr"/>
+      <c r="JU25" t="inlineStr"/>
+      <c r="JV25" t="inlineStr"/>
+      <c r="JW25" t="inlineStr"/>
+      <c r="JX25" t="inlineStr"/>
+      <c r="JY25" t="inlineStr"/>
+      <c r="JZ25" t="inlineStr"/>
+      <c r="KA25" t="inlineStr"/>
+      <c r="KB25" t="inlineStr"/>
+      <c r="KC25" t="inlineStr"/>
+      <c r="KD25" t="inlineStr"/>
+      <c r="KE25" t="inlineStr"/>
+      <c r="KF25" t="inlineStr"/>
+      <c r="KG25" t="inlineStr"/>
+      <c r="KH25" t="inlineStr"/>
+      <c r="KI25" t="inlineStr"/>
+      <c r="KJ25" t="inlineStr"/>
+      <c r="KK25" t="inlineStr"/>
+      <c r="KL25" t="inlineStr"/>
+      <c r="KM25" t="inlineStr"/>
+      <c r="KN25" t="inlineStr"/>
+      <c r="KO25" t="inlineStr"/>
+      <c r="KP25" t="inlineStr"/>
+      <c r="KQ25" t="inlineStr"/>
+      <c r="KR25" t="inlineStr"/>
+      <c r="KS25" t="inlineStr"/>
+      <c r="KT25" t="inlineStr"/>
+      <c r="KU25" t="inlineStr"/>
+      <c r="KV25" t="inlineStr"/>
+      <c r="KW25" t="inlineStr"/>
+      <c r="KX25" t="inlineStr"/>
+      <c r="KY25" t="inlineStr"/>
+      <c r="KZ25" t="inlineStr"/>
+      <c r="LA25" t="inlineStr"/>
+      <c r="LB25" t="inlineStr"/>
+      <c r="LC25" t="inlineStr"/>
+      <c r="LD25" t="inlineStr"/>
+      <c r="LE25" t="inlineStr"/>
+      <c r="LF25" t="inlineStr"/>
+      <c r="LG25" t="inlineStr"/>
+      <c r="LH25" t="inlineStr"/>
+      <c r="LI25" t="inlineStr"/>
+      <c r="LJ25" t="inlineStr"/>
+      <c r="LK25" t="inlineStr"/>
+      <c r="LL25" t="inlineStr"/>
+      <c r="LM25" t="inlineStr"/>
+      <c r="LN25" t="inlineStr"/>
+      <c r="LO25" t="inlineStr"/>
+      <c r="LP25" t="inlineStr"/>
+      <c r="LQ25" t="inlineStr"/>
+      <c r="LR25" t="inlineStr"/>
+      <c r="LS25" t="inlineStr"/>
+      <c r="LT25" t="inlineStr"/>
+      <c r="LU25" t="inlineStr"/>
+      <c r="LV25" t="inlineStr"/>
+      <c r="LW25" t="inlineStr"/>
+      <c r="LX25" t="inlineStr"/>
+      <c r="LY25" t="inlineStr"/>
+      <c r="LZ25" t="inlineStr"/>
+      <c r="MA25" t="inlineStr"/>
+      <c r="MB25" t="inlineStr"/>
+      <c r="MC25" t="inlineStr"/>
+      <c r="MD25" t="inlineStr"/>
+      <c r="ME25" t="inlineStr"/>
+      <c r="MF25" t="inlineStr"/>
+      <c r="MG25" t="inlineStr"/>
+      <c r="MH25" t="inlineStr"/>
+      <c r="MI25" t="inlineStr"/>
+      <c r="MJ25" t="inlineStr"/>
+      <c r="MK25" t="inlineStr"/>
+      <c r="ML25" t="inlineStr"/>
+      <c r="MM25" t="inlineStr"/>
+      <c r="MN25" t="inlineStr"/>
+      <c r="MO25" t="inlineStr"/>
+      <c r="MP25" t="inlineStr"/>
+      <c r="MQ25" t="inlineStr"/>
+      <c r="MR25" t="inlineStr"/>
+      <c r="MS25" t="inlineStr"/>
+      <c r="MT25" t="inlineStr"/>
+      <c r="MU25" t="inlineStr"/>
+      <c r="MV25" t="inlineStr"/>
+      <c r="MW25" t="inlineStr"/>
+      <c r="MX25" t="inlineStr"/>
+      <c r="MY25" t="inlineStr"/>
+      <c r="MZ25" t="inlineStr"/>
+      <c r="NA25" t="inlineStr"/>
+      <c r="NB25" t="inlineStr"/>
+      <c r="NC25" t="inlineStr"/>
+      <c r="ND25" t="inlineStr"/>
+      <c r="NE25" t="inlineStr"/>
+      <c r="NF25" t="inlineStr"/>
+      <c r="NG25" t="inlineStr"/>
+      <c r="NH25" t="inlineStr"/>
+      <c r="NI25" t="inlineStr"/>
+      <c r="NJ25" t="inlineStr"/>
+      <c r="NK25" t="inlineStr"/>
+      <c r="NL25" t="inlineStr"/>
+      <c r="NM25" t="inlineStr"/>
+      <c r="NN25" t="inlineStr"/>
+      <c r="NO25" t="inlineStr"/>
+      <c r="NP25" t="inlineStr"/>
+      <c r="NQ25" t="inlineStr"/>
+      <c r="NR25" t="inlineStr"/>
+      <c r="NS25" t="inlineStr"/>
+      <c r="NT25" t="inlineStr"/>
+      <c r="NU25" t="inlineStr"/>
+      <c r="NV25" t="inlineStr"/>
+      <c r="NW25" t="inlineStr"/>
+      <c r="NX25" t="inlineStr"/>
+      <c r="NY25" t="inlineStr"/>
+      <c r="NZ25" t="inlineStr"/>
+      <c r="OA25" t="inlineStr"/>
+      <c r="OB25" t="inlineStr"/>
+      <c r="OC25" t="inlineStr"/>
+      <c r="OD25" t="inlineStr"/>
+      <c r="OE25" t="inlineStr"/>
+      <c r="OF25" t="inlineStr"/>
+      <c r="OG25" t="inlineStr"/>
+      <c r="OH25" t="inlineStr"/>
+      <c r="OI25" t="inlineStr"/>
+      <c r="OJ25" t="inlineStr"/>
+      <c r="OK25" t="inlineStr"/>
+      <c r="OL25" t="inlineStr"/>
+      <c r="OM25" t="inlineStr"/>
+      <c r="ON25" t="inlineStr"/>
+      <c r="OO25" t="inlineStr"/>
+      <c r="OP25" t="inlineStr"/>
+      <c r="OQ25" t="inlineStr"/>
+      <c r="OR25" t="inlineStr"/>
+      <c r="OS25" t="inlineStr"/>
+      <c r="OT25" t="inlineStr"/>
+      <c r="OU25" t="inlineStr"/>
+      <c r="OV25" t="inlineStr"/>
+      <c r="OW25" t="inlineStr"/>
+      <c r="OX25" t="inlineStr"/>
+      <c r="OY25" t="inlineStr"/>
+      <c r="OZ25" t="inlineStr"/>
+      <c r="PA25" t="inlineStr"/>
+      <c r="PB25" t="inlineStr"/>
+      <c r="PC25" t="inlineStr"/>
+      <c r="PD25" t="inlineStr"/>
+      <c r="PE25" t="inlineStr"/>
+      <c r="PF25" t="inlineStr"/>
+      <c r="PG25" t="inlineStr"/>
+      <c r="PH25" t="inlineStr"/>
+      <c r="PI25" t="inlineStr"/>
+      <c r="PJ25" t="inlineStr"/>
+      <c r="PK25" t="inlineStr"/>
+      <c r="PL25" t="inlineStr"/>
+      <c r="PM25" t="inlineStr"/>
+      <c r="PN25" t="inlineStr"/>
+      <c r="PO25" t="inlineStr"/>
+      <c r="PP25" t="inlineStr"/>
+      <c r="PQ25" t="inlineStr"/>
+      <c r="PR25" t="inlineStr"/>
+      <c r="PS25" t="inlineStr"/>
+      <c r="PT25" t="inlineStr"/>
+      <c r="PU25" t="inlineStr"/>
+      <c r="PV25" t="inlineStr"/>
+      <c r="PW25" t="inlineStr"/>
+      <c r="PX25" t="inlineStr"/>
+      <c r="PY25" t="inlineStr"/>
+      <c r="PZ25" t="inlineStr"/>
+      <c r="QA25" t="inlineStr"/>
+      <c r="QB25" t="inlineStr"/>
+      <c r="QC25" t="inlineStr"/>
+      <c r="QD25" t="inlineStr"/>
+      <c r="QE25" t="inlineStr"/>
+      <c r="QF25" t="inlineStr"/>
+      <c r="QG25" t="inlineStr"/>
+      <c r="QH25" t="inlineStr"/>
+      <c r="QI25" t="inlineStr"/>
+      <c r="QJ25" t="inlineStr"/>
+      <c r="QK25" t="inlineStr"/>
+      <c r="QL25" t="inlineStr"/>
+      <c r="QM25" t="inlineStr"/>
+      <c r="QN25" t="inlineStr"/>
+      <c r="QO25" t="inlineStr"/>
+      <c r="QP25" t="inlineStr"/>
+      <c r="QQ25" t="inlineStr"/>
+      <c r="QR25" t="inlineStr"/>
+      <c r="QS25" t="inlineStr"/>
+      <c r="QT25" t="inlineStr"/>
+      <c r="QU25" t="inlineStr"/>
+      <c r="QV25" t="inlineStr"/>
+      <c r="QW25" t="inlineStr"/>
+      <c r="QX25" t="inlineStr"/>
+      <c r="QY25" t="inlineStr"/>
+      <c r="QZ25" t="inlineStr"/>
+      <c r="RA25" t="inlineStr"/>
+      <c r="RB25" t="inlineStr"/>
+      <c r="RC25" t="inlineStr"/>
+      <c r="RD25" t="inlineStr"/>
+      <c r="RE25" t="inlineStr"/>
+      <c r="RF25" t="inlineStr"/>
+      <c r="RG25" t="inlineStr"/>
+      <c r="RH25" t="inlineStr"/>
+      <c r="RI25" t="inlineStr"/>
+      <c r="RJ25" t="inlineStr"/>
+      <c r="RK25" t="inlineStr"/>
+      <c r="RL25" t="inlineStr"/>
+      <c r="RM25" t="inlineStr"/>
+      <c r="RN25" t="inlineStr"/>
+      <c r="RO25" t="inlineStr"/>
+      <c r="RP25" t="inlineStr"/>
+      <c r="RQ25" t="inlineStr"/>
+      <c r="RR25" t="inlineStr"/>
+      <c r="RS25" t="inlineStr"/>
+      <c r="RT25" t="inlineStr"/>
+      <c r="RU25" t="inlineStr"/>
+      <c r="RV25" t="inlineStr"/>
+      <c r="RW25" t="inlineStr"/>
+      <c r="RX25" t="inlineStr"/>
+      <c r="RY25" t="inlineStr"/>
+      <c r="RZ25" t="inlineStr"/>
+      <c r="SA25" t="inlineStr"/>
+      <c r="SB25" t="inlineStr"/>
+      <c r="SC25" t="inlineStr"/>
+      <c r="SD25" t="inlineStr"/>
+      <c r="SE25" t="inlineStr"/>
+      <c r="SF25" t="inlineStr"/>
+      <c r="SG25" t="inlineStr"/>
+      <c r="SH25" t="inlineStr"/>
+      <c r="SI25" t="inlineStr"/>
+      <c r="SJ25" t="inlineStr"/>
+      <c r="SK25" t="inlineStr"/>
+      <c r="SL25" t="inlineStr"/>
+      <c r="SM25" t="inlineStr"/>
+      <c r="SN25" t="inlineStr"/>
+      <c r="SO25" t="inlineStr"/>
+      <c r="SP25" t="inlineStr"/>
+      <c r="SQ25" t="inlineStr"/>
+      <c r="SR25" t="inlineStr"/>
+      <c r="SS25" t="inlineStr"/>
+      <c r="ST25" t="inlineStr"/>
+      <c r="SU25" t="inlineStr"/>
+      <c r="SV25" t="inlineStr"/>
+      <c r="SW25" t="inlineStr"/>
+      <c r="SX25" t="inlineStr"/>
+      <c r="SY25" t="inlineStr"/>
+      <c r="SZ25" t="inlineStr"/>
+      <c r="TA25" t="inlineStr"/>
+      <c r="TB25" t="inlineStr"/>
+      <c r="TC25" t="inlineStr"/>
+      <c r="TD25" t="inlineStr"/>
+      <c r="TE25" t="inlineStr"/>
+      <c r="TF25" t="inlineStr"/>
+      <c r="TG25" t="inlineStr"/>
+      <c r="TH25" t="inlineStr"/>
+      <c r="TI25" t="inlineStr"/>
+      <c r="TJ25" t="inlineStr"/>
+      <c r="TK25" t="inlineStr"/>
+      <c r="TL25" t="inlineStr"/>
+      <c r="TM25" t="inlineStr"/>
+      <c r="TN25" t="inlineStr"/>
+      <c r="TO25" t="inlineStr"/>
+      <c r="TP25" t="inlineStr"/>
+      <c r="TQ25" t="inlineStr"/>
+      <c r="TR25" t="inlineStr"/>
+      <c r="TS25" t="inlineStr"/>
+      <c r="TT25" t="inlineStr"/>
+      <c r="TU25" t="inlineStr"/>
+      <c r="TV25" t="inlineStr"/>
+      <c r="TW25" t="inlineStr"/>
+      <c r="TX25" t="inlineStr"/>
+      <c r="TY25" t="inlineStr"/>
+      <c r="TZ25" t="inlineStr"/>
+      <c r="UA25" t="inlineStr"/>
+      <c r="UB25" t="inlineStr"/>
+      <c r="UC25" t="inlineStr"/>
+      <c r="UD25" t="inlineStr"/>
+      <c r="UE25" t="inlineStr"/>
+      <c r="UF25" t="inlineStr"/>
+      <c r="UG25" t="inlineStr"/>
+      <c r="UH25" t="inlineStr"/>
+      <c r="UI25" t="inlineStr"/>
+      <c r="UJ25" t="inlineStr"/>
+      <c r="UK25" t="inlineStr"/>
+      <c r="UL25" t="inlineStr"/>
+      <c r="UM25" t="inlineStr"/>
+      <c r="UN25" t="inlineStr"/>
+      <c r="UO25" t="inlineStr"/>
+      <c r="UP25" t="inlineStr"/>
+      <c r="UQ25" t="inlineStr"/>
+      <c r="UR25" t="inlineStr"/>
+      <c r="US25" t="inlineStr"/>
+      <c r="UT25" t="inlineStr"/>
+      <c r="UU25" t="inlineStr"/>
+      <c r="UV25" t="inlineStr"/>
+      <c r="UW25" t="inlineStr"/>
+      <c r="UX25" t="inlineStr"/>
+      <c r="UY25" t="inlineStr"/>
+      <c r="UZ25" t="inlineStr"/>
+      <c r="VA25" t="inlineStr"/>
+      <c r="VB25" t="inlineStr"/>
+      <c r="VC25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="VD25" t="inlineStr"/>
+      <c r="VE25" t="inlineStr"/>
+      <c r="VF25" t="inlineStr"/>
+      <c r="VG25" t="inlineStr"/>
+      <c r="VH25" t="inlineStr"/>
+      <c r="VI25" t="inlineStr"/>
+      <c r="VJ25" t="inlineStr"/>
+      <c r="VK25" t="inlineStr"/>
+      <c r="VL25" t="inlineStr"/>
+      <c r="VM25" t="inlineStr"/>
+      <c r="VN25" t="inlineStr"/>
+      <c r="VO25" t="inlineStr"/>
+      <c r="VP25" t="inlineStr"/>
+      <c r="VQ25" t="inlineStr"/>
+      <c r="VR25" t="inlineStr"/>
+      <c r="VS25" t="inlineStr"/>
+      <c r="VT25" t="inlineStr"/>
+      <c r="VU25" t="inlineStr"/>
+      <c r="VV25" t="inlineStr"/>
+      <c r="VW25" t="inlineStr"/>
+      <c r="VX25" t="inlineStr"/>
+      <c r="VY25" t="inlineStr"/>
+      <c r="VZ25" t="inlineStr"/>
+      <c r="WA25" t="inlineStr"/>
+      <c r="WB25" t="inlineStr"/>
+      <c r="WC25" t="inlineStr"/>
+      <c r="WD25" t="inlineStr"/>
+      <c r="WE25" t="inlineStr"/>
+      <c r="WF25" t="inlineStr"/>
+      <c r="WG25" t="inlineStr"/>
+      <c r="WH25" t="inlineStr"/>
+      <c r="WI25" t="inlineStr"/>
+      <c r="WJ25" t="inlineStr"/>
+      <c r="WK25" t="inlineStr"/>
+      <c r="WL25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Version_on_pcloud/Data_processing_notebooks/Notebook_Compiled_data/Standards_only_NoPDcalcs.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Notebook_Compiled_data/Standards_only_NoPDcalcs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WL25"/>
+  <dimension ref="A1:WL26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16105,7 +16105,7 @@
         <v>209.0956166181467</v>
       </c>
       <c r="EN17" t="n">
-        <v>0.01261532143208826</v>
+        <v>0.01261532143208825</v>
       </c>
       <c r="EO17" t="n">
         <v>0</v>
@@ -16159,7 +16159,7 @@
         <v>0.02643094759073177</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.0001509061683307843</v>
+        <v>0.0001509061683307844</v>
       </c>
       <c r="FI17" t="n">
         <v>0.04899552457132562</v>
@@ -16648,35 +16648,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FG04-A1-4-start_r1</t>
+          <t>FG04-A1-4-end-rep3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6886779486461213</v>
+        <v>0.6888678682917089</v>
       </c>
       <c r="D18" t="n">
-        <v>0.004275707054468833</v>
+        <v>0.004143121448505736</v>
       </c>
       <c r="E18" t="n">
-        <v>0.003480913473443555</v>
+        <v>0.003361745396432525</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002390294981011435</v>
+        <v>0.002390341392912443</v>
       </c>
       <c r="G18" t="n">
-        <v>104.3237354259301</v>
+        <v>104.3241105635265</v>
       </c>
       <c r="H18" t="n">
-        <v>0.006836275091654951</v>
+        <v>0.00660302082898609</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005337645253220558</v>
+        <v>0.001065590062466981</v>
       </c>
       <c r="J18" t="n">
-        <v>0.006827393853486466</v>
+        <v>0.006525966326190361</v>
       </c>
       <c r="K18" t="n">
-        <v>6.001666666666666</v>
+        <v>6.06575</v>
       </c>
       <c r="L18" t="n">
         <v>1324.964</v>
@@ -16698,22 +16698,22 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>0.6234759184534108</v>
+        <v>0.6236245630283008</v>
       </c>
       <c r="R18" t="n">
-        <v>0.008869633026079708</v>
+        <v>0.00881736204140759</v>
       </c>
       <c r="S18" t="n">
-        <v>0.6886779486461213</v>
+        <v>0.6888678682917089</v>
       </c>
       <c r="T18" t="n">
-        <v>0.004275707054468833</v>
+        <v>0.004143121448505736</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6883681548226074</v>
+        <v>0.6885411760867441</v>
       </c>
       <c r="V18" t="n">
-        <v>0.003547955199079086</v>
+        <v>0.00343155866366401</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -16721,37 +16721,37 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>104.5505432889584</v>
+        <v>104.5490740894934</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.006827393853486466</v>
+        <v>0.006525966326190361</v>
       </c>
       <c r="Z18" t="n">
-        <v>1282.803905226723</v>
+        <v>1282.970051085711</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.006085650168219264</v>
+        <v>0.00624841365008951</v>
       </c>
       <c r="AB18" t="n">
-        <v>594.2777995642103</v>
+        <v>636.6873610572603</v>
       </c>
       <c r="AC18" t="n">
-        <v>1282.803921894223</v>
+        <v>1282.970063586336</v>
       </c>
       <c r="AD18" t="n">
-        <v>1708.89514429811</v>
+        <v>1797.109009873314</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.9902830393981308</v>
+        <v>0.9830028472196231</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.036943925408237</v>
+        <v>4.549562368913337</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.8193281860771838</v>
+        <v>0.8014127817997461</v>
       </c>
       <c r="AH18" t="n">
-        <v>1.980566078796261</v>
+        <v>1.966005694439246</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
@@ -16759,34 +16759,34 @@
         </is>
       </c>
       <c r="AJ18" t="n">
-        <v>1387.354431848182</v>
+        <v>1387.519137675829</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.002939464467781555</v>
+        <v>0.001822752311174377</v>
       </c>
       <c r="AL18" t="n">
-        <v>1196.817332391207</v>
+        <v>1267.775704762567</v>
       </c>
       <c r="AM18" t="n">
-        <v>1387.354465183182</v>
+        <v>1387.519137675829</v>
       </c>
       <c r="AN18" t="n">
-        <v>2758.610905171401</v>
+        <v>2885.009643292651</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.816757643890606</v>
+        <v>0.8149008641058382</v>
       </c>
       <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>3.189060681407926</v>
+        <v>2.507555990299763</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.7729323935868212</v>
+        <v>0.7534690148568758</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.633515287781212</v>
+        <v>1.629801728211676</v>
       </c>
       <c r="AT18" t="inlineStr">
         <is>
@@ -16794,58 +16794,58 @@
         </is>
       </c>
       <c r="AU18" t="n">
-        <v>1262.814147734876</v>
+        <v>1262.920885105541</v>
       </c>
       <c r="AV18" t="n">
-        <v>270.4884295804487</v>
+        <v>304.1025308368654</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.75598109365304</v>
+        <v>2.945031594559875</v>
       </c>
       <c r="AX18" t="n">
-        <v>1408.788263505</v>
+        <v>1408.92010040317</v>
       </c>
       <c r="AY18" t="n">
-        <v>366.2253922913808</v>
+        <v>321.5007994188803</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.088989341824149</v>
+        <v>2.003183529700837</v>
       </c>
       <c r="BA18" t="inlineStr"/>
       <c r="BB18" t="inlineStr"/>
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="n">
-        <v>1381.574619141812</v>
+        <v>1384.794574101006</v>
       </c>
       <c r="BE18" t="n">
-        <v>278.5124699098581</v>
+        <v>361.2321251560541</v>
       </c>
       <c r="BF18" t="n">
-        <v>14.12530529758782</v>
+        <v>16.72053991100395</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.06347408122206</v>
+        <v>1.040591950111148</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.059839161741332</v>
+        <v>1.034390728475412</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.1228785267080641</v>
+        <v>0.07922154714936182</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.003510565363664402</v>
+        <v>0.003114729761364151</v>
       </c>
       <c r="BK18" t="n">
-        <v>1.05081095221496</v>
+        <v>1.030702555957745</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.042217876418033</v>
+        <v>1.009088141914592</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.08312283170854329</v>
+        <v>0.05000063560241328</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.001449445505344374</v>
+        <v>0.001298775613816388</v>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
@@ -16859,7 +16859,7 @@
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t xml:space="preserve">January 17, 2025
+          <t xml:space="preserve">January 31, 2025
 </t>
         </is>
       </c>
@@ -16869,7 +16869,7 @@
         </is>
       </c>
       <c r="BS18" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="BT18" t="n">
         <v>45</v>
@@ -16887,12 +16887,12 @@
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t xml:space="preserve">8:43:35 AM
+          <t xml:space="preserve">2:46:16 PM
 </t>
         </is>
       </c>
       <c r="BY18" t="n">
-        <v>31924.66666666667</v>
+        <v>47954</v>
       </c>
       <c r="BZ18" t="inlineStr"/>
       <c r="CA18" t="inlineStr"/>
@@ -16906,20 +16906,20 @@
       <c r="CI18" t="inlineStr"/>
       <c r="CJ18" t="inlineStr"/>
       <c r="CK18" t="n">
-        <v>31924.66666666667</v>
+        <v>47954</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.9978306392246995</v>
+        <v>0.9978482497066385</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.9978255338982045</v>
+        <v>0.9978380574634247</v>
       </c>
       <c r="CN18" t="n">
-        <v>0.9978357445511946</v>
+        <v>0.9978584419498524</v>
       </c>
       <c r="CO18" t="inlineStr"/>
       <c r="CP18" s="2" t="n">
-        <v>45674</v>
+        <v>45688</v>
       </c>
       <c r="CQ18" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="CY18" t="inlineStr">
         <is>
-          <t>FG04-A1-4-start-45674</t>
+          <t>FG04-A1-4-end-45688</t>
         </is>
       </c>
       <c r="CZ18" t="inlineStr"/>
@@ -16963,31 +16963,31 @@
       <c r="DD18" t="inlineStr"/>
       <c r="DE18" t="inlineStr"/>
       <c r="DF18" t="n">
-        <v>0.003592853552031892</v>
+        <v>0.002446980420328318</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.001092349507800596</v>
+        <v>0.0005573049002569675</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.001367600012994161</v>
+        <v>0.0007149196065010464</v>
       </c>
       <c r="DI18" t="n">
-        <v>9.035089333568406e-07</v>
+        <v>6.143077568219993e-07</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.007055040692362268</v>
+        <v>0.004806678610255371</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.002676569118120157</v>
+        <v>0.001399954917383832</v>
       </c>
       <c r="DL18" t="n">
-        <v>2.823760896040558e-06</v>
+        <v>2.744125212275649e-05</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.00269319760954315</v>
+        <v>0.001430575247818596</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.03113411847689456</v>
+        <v>0.05455501810099622</v>
       </c>
       <c r="DO18" t="n">
         <v>0</v>
@@ -16999,133 +16999,133 @@
         <v>0</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.002795490333050462</v>
+        <v>0.001904599020031575</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.000339503010710928</v>
+        <v>0.0001665493317822479</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.003592853552031892</v>
+        <v>0.002446980420328318</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.001092349507800596</v>
+        <v>0.0005573049002569675</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.003219354001456811</v>
+        <v>0.002194810261618072</v>
       </c>
       <c r="DW18" t="n">
-        <v>0.0010519953533749</v>
+        <v>0.0005431439487689247</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.007397019256025356</v>
+        <v>0.005213428360964521</v>
       </c>
       <c r="DY18" t="n">
-        <v>0.00269319760954315</v>
+        <v>0.001430575247818596</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.02607516261681375</v>
+        <v>0.03265439613517927</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.002298345357909633</v>
+        <v>0.0015238718476624</v>
       </c>
       <c r="EB18" t="n">
-        <v>162.3076912883358</v>
+        <v>69.80385156188876</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.02607239781821234</v>
+        <v>0.03264937467160296</v>
       </c>
       <c r="ED18" t="n">
-        <v>499.9712874677203</v>
+        <v>210.3875461597894</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.0393925598336891</v>
+        <v>0.02093890890531948</v>
       </c>
       <c r="EF18" t="n">
-        <v>1.489699549029446</v>
+        <v>1.117885195352265</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.04754167681528683</v>
+        <v>0.03854658375082931</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.07878511966737804</v>
+        <v>0.041877817810639</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.02008501593899789</v>
+        <v>0.02987761294062379</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.001837797114704219</v>
+        <v>0.0001479074428327319</v>
       </c>
       <c r="EK18" t="n">
-        <v>333.6764612936788</v>
+        <v>144.5261535689215</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.02010490664645269</v>
+        <v>0.02989186078308968</v>
       </c>
       <c r="EM18" t="n">
-        <v>759.251123203151</v>
+        <v>332.8578475008736</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.0185286088151607</v>
+        <v>0.007354379321250047</v>
       </c>
       <c r="EO18" t="n">
         <v>0</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.9813132015562385</v>
+        <v>0.2221269813673335</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.04476677589763922</v>
+        <v>0.01819611654319308</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.03705721763032152</v>
+        <v>0.01470875864250019</v>
       </c>
       <c r="ES18" t="inlineStr"/>
       <c r="ET18" t="inlineStr"/>
       <c r="EU18" t="inlineStr"/>
       <c r="EV18" t="n">
-        <v>0.03057387229594031</v>
+        <v>0.02256581089691105</v>
       </c>
       <c r="EW18" t="n">
-        <v>23.70780056148101</v>
+        <v>45.82617014184199</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.01691148142381524</v>
+        <v>0.1306357324986603</v>
       </c>
       <c r="EY18" t="inlineStr"/>
       <c r="EZ18" t="inlineStr"/>
       <c r="FA18" t="inlineStr"/>
       <c r="FB18" t="n">
-        <v>0.7671660381579025</v>
+        <v>3.148043815756435</v>
       </c>
       <c r="FC18" t="n">
-        <v>7.052130296863663</v>
+        <v>67.63530200251856</v>
       </c>
       <c r="FD18" t="n">
-        <v>0.8356633113076579</v>
+        <v>2.416385144338175</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.05422453791879015</v>
+        <v>0.02264099737567812</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.04609895566496356</v>
+        <v>0.02168881886749625</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.1000577475370707</v>
+        <v>0.04383191451627834</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.0009777028613157871</v>
+        <v>0.000331666592448352</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.02246499731877035</v>
+        <v>0.006405043917066309</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.03429968809914538</v>
+        <v>0.003660411595608781</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.0369411553961441</v>
+        <v>0.0102512188309156</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.0004560122259098839</v>
+        <v>0.0001563219230090195</v>
       </c>
       <c r="FM18" t="n">
         <v>0</v>
@@ -17140,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="FQ18" t="n">
-        <v>653.9314439093234</v>
+        <v>6174.746256594948</v>
       </c>
       <c r="FR18" t="inlineStr"/>
       <c r="FS18" t="inlineStr"/>
@@ -17148,16 +17148,16 @@
       <c r="FU18" t="inlineStr"/>
       <c r="FV18" t="inlineStr"/>
       <c r="FW18" t="n">
-        <v>653.9314439093234</v>
+        <v>6174.746256594948</v>
       </c>
       <c r="FX18" t="n">
-        <v>3.155010435311074e-06</v>
+        <v>1.665310683845504e-05</v>
       </c>
       <c r="FY18" t="n">
-        <v>3.127645801295048e-06</v>
+        <v>1.690746648130349e-05</v>
       </c>
       <c r="FZ18" t="n">
-        <v>3.182375069419085e-06</v>
+        <v>1.639899531472263e-05</v>
       </c>
       <c r="GA18" t="inlineStr"/>
       <c r="GB18" t="inlineStr">
@@ -17602,35 +17602,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FG04-A1-4-100X-start_r4</t>
+          <t>FG04-A1-4-start_r1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.6964622089332503</v>
+        <v>0.6886779486461213</v>
       </c>
       <c r="D19" t="n">
-        <v>0.006099460284343359</v>
+        <v>0.004275707054468833</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00560928992247985</v>
+        <v>0.003480913473443555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002392268037473647</v>
+        <v>0.002390294981011435</v>
       </c>
       <c r="G19" t="n">
-        <v>104.3389953161057</v>
+        <v>104.3237354259301</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01097645386942186</v>
+        <v>0.006836275091654951</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001514047551947802</v>
+        <v>0.0005337645253220558</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01089514783092995</v>
+        <v>0.006827393853486466</v>
       </c>
       <c r="K19" t="n">
-        <v>5.983999999999999</v>
+        <v>6.001666666666666</v>
       </c>
       <c r="L19" t="n">
         <v>1324.964</v>
@@ -17652,22 +17652,22 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>0.6295224995193015</v>
+        <v>0.6234759184534108</v>
       </c>
       <c r="R19" t="n">
-        <v>0.009533991194106998</v>
+        <v>0.008869633026079708</v>
       </c>
       <c r="S19" t="n">
-        <v>0.6964622089332503</v>
+        <v>0.6886779486461213</v>
       </c>
       <c r="T19" t="n">
-        <v>0.006099460284343359</v>
+        <v>0.004275707054468833</v>
       </c>
       <c r="U19" t="n">
-        <v>0.6953103354534657</v>
+        <v>0.6883681548226074</v>
       </c>
       <c r="V19" t="n">
-        <v>0.005232628131163746</v>
+        <v>0.003547955199079086</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -17675,37 +17675,37 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>104.5689261436291</v>
+        <v>104.5505432889584</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.01089514783092995</v>
+        <v>0.006827393853486466</v>
       </c>
       <c r="Z19" t="n">
-        <v>1282.803382239841</v>
+        <v>1282.803905226723</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.009302815296669176</v>
+        <v>0.006085650168219264</v>
       </c>
       <c r="AB19" t="n">
-        <v>272.2256789101924</v>
+        <v>594.2777995642103</v>
       </c>
       <c r="AC19" t="n">
-        <v>1282.803382239841</v>
+        <v>1282.803921894223</v>
       </c>
       <c r="AD19" t="n">
-        <v>773.5668786971179</v>
+        <v>1708.89514429811</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.9929383731544242</v>
+        <v>0.9902830393981308</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.681577762800515</v>
+        <v>4.036943925408237</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.7938469058906817</v>
+        <v>0.8193281860771838</v>
       </c>
       <c r="AH19" t="n">
-        <v>1.985876746308849</v>
+        <v>1.980566078796261</v>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
@@ -17713,75 +17713,93 @@
         </is>
       </c>
       <c r="AJ19" t="n">
-        <v>1387.37230838347</v>
+        <v>1387.354431848182</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.005658620652066833</v>
+        <v>0.002939464467781555</v>
       </c>
       <c r="AL19" t="n">
-        <v>546.2614951597083</v>
+        <v>1196.817332391207</v>
       </c>
       <c r="AM19" t="n">
-        <v>1387.37230838347</v>
+        <v>1387.354465183182</v>
       </c>
       <c r="AN19" t="n">
-        <v>1294.233236880954</v>
+        <v>2758.610905171401</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.811044583712102</v>
+        <v>0.816757643890606</v>
       </c>
       <c r="AP19" t="n">
         <v>0</v>
       </c>
       <c r="AQ19" t="n">
-        <v>3.473969877378662</v>
+        <v>3.189060681407926</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.8411281787899032</v>
+        <v>0.7729323935868212</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.622089167424204</v>
+        <v>1.633515287781212</v>
       </c>
       <c r="AT19" t="inlineStr">
         <is>
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
+      <c r="AU19" t="n">
+        <v>1262.814147734876</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>270.4884295804487</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>2.75598109365304</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>1408.788263505</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>366.2253922913808</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2.088989341824149</v>
+      </c>
       <c r="BA19" t="inlineStr"/>
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
+      <c r="BD19" t="n">
+        <v>1381.574619141812</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>278.5124699098581</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>14.12530529758782</v>
+      </c>
       <c r="BG19" t="n">
-        <v>1.077140429487786</v>
+        <v>1.06347408122206</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.062512598435781</v>
+        <v>1.059839161741332</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.1560740194575277</v>
+        <v>0.1228785267080641</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.007299381348366191</v>
+        <v>0.003510565363664402</v>
       </c>
       <c r="BK19" t="n">
-        <v>1.061657147699784</v>
+        <v>1.05081095221496</v>
       </c>
       <c r="BL19" t="n">
-        <v>1.063094692907338</v>
+        <v>1.042217876418033</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.09991303580369804</v>
+        <v>0.08312283170854329</v>
       </c>
       <c r="BN19" t="n">
-        <v>0.00297454217352402</v>
+        <v>0.001449445505344374</v>
       </c>
       <c r="BO19" t="inlineStr">
         <is>
@@ -17795,7 +17813,7 @@
       </c>
       <c r="BQ19" t="inlineStr">
         <is>
-          <t xml:space="preserve">January 10, 2025
+          <t xml:space="preserve">January 17, 2025
 </t>
         </is>
       </c>
@@ -17805,30 +17823,30 @@
         </is>
       </c>
       <c r="BS19" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BT19" t="n">
         <v>45</v>
       </c>
       <c r="BU19" t="n">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
       <c r="BV19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BW19" t="inlineStr">
         <is>
-          <t>['0h', '2m', '16s']</t>
+          <t>['0h', '3m', '46s']</t>
         </is>
       </c>
       <c r="BX19" t="inlineStr">
         <is>
-          <t xml:space="preserve">11:57:33 AM
+          <t xml:space="preserve">8:43:35 AM
 </t>
         </is>
       </c>
       <c r="BY19" t="n">
-        <v>43443.66666666666</v>
+        <v>31924.66666666667</v>
       </c>
       <c r="BZ19" t="inlineStr"/>
       <c r="CA19" t="inlineStr"/>
@@ -17842,20 +17860,20 @@
       <c r="CI19" t="inlineStr"/>
       <c r="CJ19" t="inlineStr"/>
       <c r="CK19" t="n">
-        <v>43443.66666666666</v>
+        <v>31924.66666666667</v>
       </c>
       <c r="CL19" t="n">
-        <v>0.9978011553328541</v>
+        <v>0.9978306392246995</v>
       </c>
       <c r="CM19" t="n">
-        <v>0.9977866763915703</v>
+        <v>0.9978255338982045</v>
       </c>
       <c r="CN19" t="n">
-        <v>0.9978156342741379</v>
+        <v>0.9978357445511946</v>
       </c>
       <c r="CO19" t="inlineStr"/>
       <c r="CP19" s="2" t="n">
-        <v>45667</v>
+        <v>45674</v>
       </c>
       <c r="CQ19" t="inlineStr">
         <is>
@@ -17889,7 +17907,7 @@
       </c>
       <c r="CY19" t="inlineStr">
         <is>
-          <t>FG04-A1-4-100X-start-45667</t>
+          <t>FG04-A1-4-start-45674</t>
         </is>
       </c>
       <c r="CZ19" t="inlineStr"/>
@@ -17899,31 +17917,31 @@
       <c r="DD19" t="inlineStr"/>
       <c r="DE19" t="inlineStr"/>
       <c r="DF19" t="n">
-        <v>0.004832970503648979</v>
+        <v>0.003592853552031892</v>
       </c>
       <c r="DG19" t="n">
-        <v>0.0003687115304388325</v>
+        <v>0.001092349507800596</v>
       </c>
       <c r="DH19" t="n">
-        <v>0.0004005628694692296</v>
+        <v>0.001367600012994161</v>
       </c>
       <c r="DI19" t="n">
-        <v>1.234656240762403e-06</v>
+        <v>9.035089333568406e-07</v>
       </c>
       <c r="DJ19" t="n">
-        <v>0.009458447645886393</v>
+        <v>0.007055040692362268</v>
       </c>
       <c r="DK19" t="n">
-        <v>0.0007695795793851049</v>
+        <v>0.002676569118120157</v>
       </c>
       <c r="DL19" t="n">
-        <v>3.630276878177693e-06</v>
+        <v>2.823760896040558e-06</v>
       </c>
       <c r="DM19" t="n">
-        <v>0.0007784686860138042</v>
+        <v>0.00269319760954315</v>
       </c>
       <c r="DN19" t="n">
-        <v>0.01410673597966586</v>
+        <v>0.03113411847689456</v>
       </c>
       <c r="DO19" t="n">
         <v>0</v>
@@ -17935,121 +17953,133 @@
         <v>0</v>
       </c>
       <c r="DR19" t="n">
-        <v>0.003747816648088469</v>
+        <v>0.002795490333050462</v>
       </c>
       <c r="DS19" t="n">
-        <v>0.0001636821790030073</v>
+        <v>0.000339503010710928</v>
       </c>
       <c r="DT19" t="n">
-        <v>0.004832970503648979</v>
+        <v>0.003592853552031892</v>
       </c>
       <c r="DU19" t="n">
-        <v>0.0003687115304388325</v>
+        <v>0.001092349507800596</v>
       </c>
       <c r="DV19" t="n">
-        <v>0.004289728236645071</v>
+        <v>0.003219354001456811</v>
       </c>
       <c r="DW19" t="n">
-        <v>0.000321292089464477</v>
+        <v>0.0010519953533749</v>
       </c>
       <c r="DX19" t="n">
-        <v>0.009511077954344502</v>
+        <v>0.007397019256025356</v>
       </c>
       <c r="DY19" t="n">
-        <v>0.0007784686860138042</v>
+        <v>0.00269319760954315</v>
       </c>
       <c r="DZ19" t="n">
-        <v>0.01855759443617171</v>
+        <v>0.02607516261681375</v>
       </c>
       <c r="EA19" t="n">
-        <v>0.0008898360027987985</v>
+        <v>0.002298345357909633</v>
       </c>
       <c r="EB19" t="n">
-        <v>12.03319175358041</v>
+        <v>162.3076912883358</v>
       </c>
       <c r="EC19" t="n">
-        <v>0.01855759443617171</v>
+        <v>0.02607239781821234</v>
       </c>
       <c r="ED19" t="n">
-        <v>43.71082203157862</v>
+        <v>499.9712874677203</v>
       </c>
       <c r="EE19" t="n">
-        <v>0.02384535987337036</v>
+        <v>0.0393925598336891</v>
       </c>
       <c r="EF19" t="n">
-        <v>0.4380864080770757</v>
+        <v>1.489699549029446</v>
       </c>
       <c r="EG19" t="n">
-        <v>0.03101171124723984</v>
+        <v>0.04754167681528683</v>
       </c>
       <c r="EH19" t="n">
-        <v>0.0476907197467411</v>
+        <v>0.07878511966737804</v>
       </c>
       <c r="EI19" t="n">
-        <v>0.009308130198168374</v>
+        <v>0.02008501593899789</v>
       </c>
       <c r="EJ19" t="n">
-        <v>0.0001644219512252348</v>
+        <v>0.001837797114704219</v>
       </c>
       <c r="EK19" t="n">
-        <v>28.24781419094954</v>
+        <v>333.6764612936789</v>
       </c>
       <c r="EL19" t="n">
-        <v>0.009308130198168374</v>
+        <v>0.02010490664645269</v>
       </c>
       <c r="EM19" t="n">
-        <v>70.50072994865353</v>
+        <v>759.251123203151</v>
       </c>
       <c r="EN19" t="n">
-        <v>0.003238543153477349</v>
+        <v>0.0185286088151607</v>
       </c>
       <c r="EO19" t="n">
         <v>0</v>
       </c>
       <c r="EP19" t="n">
-        <v>0.1175896343582536</v>
+        <v>0.9813132015562386</v>
       </c>
       <c r="EQ19" t="n">
-        <v>0.02590884376817281</v>
+        <v>0.04476677589763922</v>
       </c>
       <c r="ER19" t="n">
-        <v>0.006477086306954694</v>
+        <v>0.03705721763032152</v>
       </c>
       <c r="ES19" t="inlineStr"/>
       <c r="ET19" t="inlineStr"/>
       <c r="EU19" t="inlineStr"/>
-      <c r="EV19" t="inlineStr"/>
-      <c r="EW19" t="inlineStr"/>
-      <c r="EX19" t="inlineStr"/>
+      <c r="EV19" t="n">
+        <v>0.03057387229594031</v>
+      </c>
+      <c r="EW19" t="n">
+        <v>23.70780056148101</v>
+      </c>
+      <c r="EX19" t="n">
+        <v>0.01691148142381524</v>
+      </c>
       <c r="EY19" t="inlineStr"/>
       <c r="EZ19" t="inlineStr"/>
       <c r="FA19" t="inlineStr"/>
-      <c r="FB19" t="inlineStr"/>
-      <c r="FC19" t="inlineStr"/>
-      <c r="FD19" t="inlineStr"/>
+      <c r="FB19" t="n">
+        <v>0.7671660381579025</v>
+      </c>
+      <c r="FC19" t="n">
+        <v>7.052130296863663</v>
+      </c>
+      <c r="FD19" t="n">
+        <v>0.8356633113076579</v>
+      </c>
       <c r="FE19" t="n">
-        <v>0.1277471358909658</v>
+        <v>0.05422453791879015</v>
       </c>
       <c r="FF19" t="n">
-        <v>0.09796047447211083</v>
+        <v>0.04609895566496356</v>
       </c>
       <c r="FG19" t="n">
-        <v>0.2586991369902635</v>
+        <v>0.1000577475370707</v>
       </c>
       <c r="FH19" t="n">
-        <v>0.0001502396519672386</v>
+        <v>0.0009777028613157871</v>
       </c>
       <c r="FI19" t="n">
-        <v>0.02658303489428022</v>
+        <v>0.02246499731877035</v>
       </c>
       <c r="FJ19" t="n">
-        <v>0.04227157701780972</v>
+        <v>0.03429968809914538</v>
       </c>
       <c r="FK19" t="n">
-        <v>0.04287064363668373</v>
+        <v>0.0369411553961441</v>
       </c>
       <c r="FL19" t="n">
-        <v>0.0001482864404990603</v>
+        <v>0.0004560122259098839</v>
       </c>
       <c r="FM19" t="n">
         <v>0</v>
@@ -18058,13 +18088,13 @@
         <v>0</v>
       </c>
       <c r="FO19" t="n">
-        <v>1.154700538379252</v>
+        <v>0</v>
       </c>
       <c r="FP19" t="n">
         <v>0</v>
       </c>
       <c r="FQ19" t="n">
-        <v>373.8266086480924</v>
+        <v>653.9314439093234</v>
       </c>
       <c r="FR19" t="inlineStr"/>
       <c r="FS19" t="inlineStr"/>
@@ -18072,16 +18102,16 @@
       <c r="FU19" t="inlineStr"/>
       <c r="FV19" t="inlineStr"/>
       <c r="FW19" t="n">
-        <v>373.8266086480924</v>
+        <v>653.9314439093234</v>
       </c>
       <c r="FX19" t="n">
-        <v>3.052248121424539e-07</v>
+        <v>3.155010435311074e-06</v>
       </c>
       <c r="FY19" t="n">
-        <v>3.3863156752359e-07</v>
+        <v>3.127645801295048e-06</v>
       </c>
       <c r="FZ19" t="n">
-        <v>2.718186583800665e-07</v>
+        <v>3.182375069419084e-06</v>
       </c>
       <c r="GA19" t="inlineStr"/>
       <c r="GB19" t="inlineStr">
@@ -18526,38 +18556,38 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FG04-A1-4-50X-end_r7</t>
+          <t>FG04-A1-4-100X-start_r4</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6880749358497269</v>
+        <v>0.6964622089332503</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004044047932295758</v>
+        <v>0.006099460284343359</v>
       </c>
       <c r="E20" t="n">
-        <v>0.003234655391679553</v>
+        <v>0.00560928992247985</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002390145445522703</v>
+        <v>0.002392268037473647</v>
       </c>
       <c r="G20" t="n">
-        <v>104.3225479101934</v>
+        <v>104.3389953161057</v>
       </c>
       <c r="H20" t="n">
-        <v>0.006357597200992608</v>
+        <v>0.01097645386942186</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001614199005156062</v>
+        <v>0.001514047551947802</v>
       </c>
       <c r="J20" t="n">
-        <v>0.006150069037944675</v>
+        <v>0.01089514783092995</v>
       </c>
       <c r="K20" t="n">
-        <v>6.039999999999999</v>
+        <v>5.983999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>1324.767</v>
+        <v>1324.964</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -18576,22 +18606,22 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>0.6230053770480879</v>
+        <v>0.6295224995193015</v>
       </c>
       <c r="R20" t="n">
-        <v>0.00878429429915998</v>
+        <v>0.009533991194106998</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6880749358497269</v>
+        <v>0.6964622089332503</v>
       </c>
       <c r="T20" t="n">
-        <v>0.004044047932295758</v>
+        <v>0.006099460284343359</v>
       </c>
       <c r="U20" t="n">
-        <v>0.6878234027907032</v>
+        <v>0.6953103354534657</v>
       </c>
       <c r="V20" t="n">
-        <v>0.003339460338879599</v>
+        <v>0.005232628131163746</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -18599,37 +18629,37 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>104.5504688853625</v>
+        <v>104.5689261436291</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.006150069037944674</v>
+        <v>0.01089514783092995</v>
       </c>
       <c r="Z20" t="n">
-        <v>1282.955337536358</v>
+        <v>1282.803382239841</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.00569155438271142</v>
+        <v>0.009302815296669176</v>
       </c>
       <c r="AB20" t="n">
-        <v>723.3784856949648</v>
+        <v>272.2256789101924</v>
       </c>
       <c r="AC20" t="n">
-        <v>1282.955354203858</v>
+        <v>1282.803382239841</v>
       </c>
       <c r="AD20" t="n">
-        <v>1999.560257466449</v>
+        <v>773.5668786971179</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.9532395016548175</v>
+        <v>0.9929383731544242</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.893034653968335</v>
+        <v>2.681577762800515</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.8256022961866458</v>
+        <v>0.7938469058906817</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.906479003309635</v>
+        <v>1.985876746308849</v>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
@@ -18637,58 +18667,46 @@
         </is>
       </c>
       <c r="AJ20" t="n">
-        <v>1387.505873091721</v>
+        <v>1387.37230838347</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.002239039112962134</v>
+        <v>0.005658620652066833</v>
       </c>
       <c r="AL20" t="n">
-        <v>1441.295646572657</v>
+        <v>546.2614951597083</v>
       </c>
       <c r="AM20" t="n">
-        <v>1387.50582308922</v>
+        <v>1387.37230838347</v>
       </c>
       <c r="AN20" t="n">
-        <v>3364.781504235933</v>
+        <v>1294.233236880954</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.8021735578733611</v>
+        <v>0.811044583712102</v>
       </c>
       <c r="AP20" t="n">
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>3.702573445851387</v>
+        <v>3.473969877378662</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.8340584717129321</v>
+        <v>0.8411281787899032</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.604347115746722</v>
+        <v>1.622089167424204</v>
       </c>
       <c r="AT20" t="inlineStr">
         <is>
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="AU20" t="n">
-        <v>1262.705964938581</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>306.0563387893726</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>2.786293900531205</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>1408.823320242726</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>442.7877767166331</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>2.386083586224254</v>
-      </c>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="inlineStr"/>
       <c r="BB20" t="inlineStr"/>
       <c r="BC20" t="inlineStr"/>
@@ -18696,28 +18714,28 @@
       <c r="BE20" t="inlineStr"/>
       <c r="BF20" t="inlineStr"/>
       <c r="BG20" t="n">
-        <v>1.042426983882505</v>
+        <v>1.077140429487786</v>
       </c>
       <c r="BH20" t="n">
-        <v>1.021214217401752</v>
+        <v>1.062512598435781</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.0807574277711801</v>
+        <v>0.1560740194575277</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.002635981382619888</v>
+        <v>0.007299381348366191</v>
       </c>
       <c r="BK20" t="n">
-        <v>1.066624504976528</v>
+        <v>1.061657147699784</v>
       </c>
       <c r="BL20" t="n">
-        <v>1.056767568579965</v>
+        <v>1.063094692907338</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.1069114062330374</v>
+        <v>0.09991303580369804</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.001113149527259508</v>
+        <v>0.00297454217352402</v>
       </c>
       <c r="BO20" t="inlineStr">
         <is>
@@ -18747,24 +18765,24 @@
         <v>45</v>
       </c>
       <c r="BU20" t="n">
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="BV20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BW20" t="inlineStr">
         <is>
-          <t>['0h', '3m', '46s']</t>
+          <t>['0h', '2m', '16s']</t>
         </is>
       </c>
       <c r="BX20" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:24:08 PM
+          <t xml:space="preserve">11:57:33 AM
 </t>
         </is>
       </c>
       <c r="BY20" t="n">
-        <v>66512.66666666667</v>
+        <v>43443.66666666666</v>
       </c>
       <c r="BZ20" t="inlineStr"/>
       <c r="CA20" t="inlineStr"/>
@@ -18778,16 +18796,16 @@
       <c r="CI20" t="inlineStr"/>
       <c r="CJ20" t="inlineStr"/>
       <c r="CK20" t="n">
-        <v>66512.66666666667</v>
+        <v>43443.66666666666</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.997819990886633</v>
+        <v>0.9978011553328541</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.9978045514624018</v>
+        <v>0.9977866763915703</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.9978354303108642</v>
+        <v>0.9978156342741379</v>
       </c>
       <c r="CO20" t="inlineStr"/>
       <c r="CP20" s="2" t="n">
@@ -18825,7 +18843,7 @@
       </c>
       <c r="CY20" t="inlineStr">
         <is>
-          <t>FG04-A1-4-50X-end-45667</t>
+          <t>FG04-A1-4-100X-start-45667</t>
         </is>
       </c>
       <c r="CZ20" t="inlineStr"/>
@@ -18835,31 +18853,31 @@
       <c r="DD20" t="inlineStr"/>
       <c r="DE20" t="inlineStr"/>
       <c r="DF20" t="n">
-        <v>0.004570958294888675</v>
+        <v>0.004832970503648979</v>
       </c>
       <c r="DG20" t="n">
-        <v>0.0006375038024413355</v>
+        <v>0.0003687115304388325</v>
       </c>
       <c r="DH20" t="n">
-        <v>0.0008211024185585836</v>
+        <v>0.0004005628694692296</v>
       </c>
       <c r="DI20" t="n">
-        <v>1.141889230367487e-06</v>
+        <v>1.234656240762403e-06</v>
       </c>
       <c r="DJ20" t="n">
-        <v>0.008988051654891001</v>
+        <v>0.009458447645886393</v>
       </c>
       <c r="DK20" t="n">
-        <v>0.001617345594251935</v>
+        <v>0.0007695795793851049</v>
       </c>
       <c r="DL20" t="n">
-        <v>4.651645546738019e-06</v>
+        <v>3.630276878177693e-06</v>
       </c>
       <c r="DM20" t="n">
-        <v>0.001691280178035519</v>
+        <v>0.0007784686860138042</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.0105830052442582</v>
+        <v>0.01410673597966586</v>
       </c>
       <c r="DO20" t="n">
         <v>0</v>
@@ -18871,98 +18889,92 @@
         <v>0</v>
       </c>
       <c r="DR20" t="n">
-        <v>0.003561426873323473</v>
+        <v>0.003747816648088469</v>
       </c>
       <c r="DS20" t="n">
-        <v>0.000162954023964049</v>
+        <v>0.0001636821790030073</v>
       </c>
       <c r="DT20" t="n">
-        <v>0.004570958294888675</v>
+        <v>0.004832970503648979</v>
       </c>
       <c r="DU20" t="n">
-        <v>0.0006375038024413355</v>
+        <v>0.0003687115304388325</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.004111764004196775</v>
+        <v>0.004289728236645071</v>
       </c>
       <c r="DW20" t="n">
-        <v>0.0006332326843429984</v>
+        <v>0.000321292089464477</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.009011010958562628</v>
+        <v>0.009511077954344502</v>
       </c>
       <c r="DY20" t="n">
-        <v>0.00169128017803552</v>
+        <v>0.0007784686860138042</v>
       </c>
       <c r="DZ20" t="n">
-        <v>0.01133034389207015</v>
+        <v>0.01855759443617171</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.001866637418204321</v>
+        <v>0.0008898360027987985</v>
       </c>
       <c r="EB20" t="n">
-        <v>9.301157017326112</v>
+        <v>12.03319175358041</v>
       </c>
       <c r="EC20" t="n">
-        <v>0.01131933239883002</v>
+        <v>0.01855759443617171</v>
       </c>
       <c r="ED20" t="n">
-        <v>35.93288973761645</v>
+        <v>43.71082203157862</v>
       </c>
       <c r="EE20" t="n">
-        <v>0.02165091126633507</v>
+        <v>0.02384535987337036</v>
       </c>
       <c r="EF20" t="n">
-        <v>1.3893404978127</v>
+        <v>0.4380864080770757</v>
       </c>
       <c r="EG20" t="n">
-        <v>0.01748610600565653</v>
+        <v>0.03101171124723984</v>
       </c>
       <c r="EH20" t="n">
-        <v>0.04330182253267001</v>
+        <v>0.0476907197467411</v>
       </c>
       <c r="EI20" t="n">
-        <v>0.002373694822749665</v>
+        <v>0.009308130198168374</v>
       </c>
       <c r="EJ20" t="n">
-        <v>2.204508335716125e-05</v>
+        <v>0.0001644219512252348</v>
       </c>
       <c r="EK20" t="n">
-        <v>9.445267303731153</v>
+        <v>28.24781419094954</v>
       </c>
       <c r="EL20" t="n">
-        <v>0.002373694822750927</v>
+        <v>0.009308130198168374</v>
       </c>
       <c r="EM20" t="n">
-        <v>23.92729924301721</v>
+        <v>70.50072994865353</v>
       </c>
       <c r="EN20" t="n">
-        <v>0.002680100580092514</v>
+        <v>0.003238543153477349</v>
       </c>
       <c r="EO20" t="n">
         <v>0</v>
       </c>
       <c r="EP20" t="n">
-        <v>0.1179443241719966</v>
+        <v>0.1175896343582536</v>
       </c>
       <c r="EQ20" t="n">
-        <v>0.005017238134374514</v>
+        <v>0.02590884376817281</v>
       </c>
       <c r="ER20" t="n">
-        <v>0.005360201160184732</v>
+        <v>0.006477086306954694</v>
       </c>
       <c r="ES20" t="inlineStr"/>
       <c r="ET20" t="inlineStr"/>
       <c r="EU20" t="inlineStr"/>
-      <c r="EV20" t="n">
-        <v>0.06048837429548228</v>
-      </c>
-      <c r="EW20" t="n">
-        <v>6.499018455337858</v>
-      </c>
-      <c r="EX20" t="n">
-        <v>0.02715188962263709</v>
-      </c>
+      <c r="EV20" t="inlineStr"/>
+      <c r="EW20" t="inlineStr"/>
+      <c r="EX20" t="inlineStr"/>
       <c r="EY20" t="inlineStr"/>
       <c r="EZ20" t="inlineStr"/>
       <c r="FA20" t="inlineStr"/>
@@ -18970,28 +18982,28 @@
       <c r="FC20" t="inlineStr"/>
       <c r="FD20" t="inlineStr"/>
       <c r="FE20" t="n">
-        <v>0.0184604769113875</v>
+        <v>0.1277471358909658</v>
       </c>
       <c r="FF20" t="n">
-        <v>0.01528296597819403</v>
+        <v>0.09796047447211083</v>
       </c>
       <c r="FG20" t="n">
-        <v>0.03510741586625014</v>
+        <v>0.2586991369902635</v>
       </c>
       <c r="FH20" t="n">
-        <v>7.754868008268056e-05</v>
+        <v>0.0001502396519672386</v>
       </c>
       <c r="FI20" t="n">
-        <v>0.006569154121058061</v>
+        <v>0.02658303489428022</v>
       </c>
       <c r="FJ20" t="n">
-        <v>0.009448423466229181</v>
+        <v>0.04227157701780972</v>
       </c>
       <c r="FK20" t="n">
-        <v>0.01086755374164359</v>
+        <v>0.04287064363668373</v>
       </c>
       <c r="FL20" t="n">
-        <v>5.590195512312428e-06</v>
+        <v>0.0001482864404990603</v>
       </c>
       <c r="FM20" t="n">
         <v>0</v>
@@ -19000,13 +19012,13 @@
         <v>0</v>
       </c>
       <c r="FO20" t="n">
-        <v>0</v>
+        <v>1.154700538379252</v>
       </c>
       <c r="FP20" t="n">
         <v>0</v>
       </c>
       <c r="FQ20" t="n">
-        <v>271.7578579054014</v>
+        <v>373.8266086480924</v>
       </c>
       <c r="FR20" t="inlineStr"/>
       <c r="FS20" t="inlineStr"/>
@@ -19014,16 +19026,16 @@
       <c r="FU20" t="inlineStr"/>
       <c r="FV20" t="inlineStr"/>
       <c r="FW20" t="n">
-        <v>271.7578579054014</v>
+        <v>373.8266086480924</v>
       </c>
       <c r="FX20" t="n">
-        <v>2.218869368832835e-07</v>
+        <v>3.052248121424539e-07</v>
       </c>
       <c r="FY20" t="n">
-        <v>1.772309917939981e-07</v>
+        <v>3.3863156752359e-07</v>
       </c>
       <c r="FZ20" t="n">
-        <v>2.665430516579475e-07</v>
+        <v>2.718186583800665e-07</v>
       </c>
       <c r="GA20" t="inlineStr"/>
       <c r="GB20" t="inlineStr">
@@ -19468,38 +19480,38 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FG04-A1-4-50X-start_r1</t>
+          <t>FG04-A1-4-50X-end_r7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6908092742869485</v>
+        <v>0.6880749358497269</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003108706340872536</v>
+        <v>0.004044047932295758</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001985921539016999</v>
+        <v>0.003234655391679553</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0023908490739456</v>
+        <v>0.002390145445522703</v>
       </c>
       <c r="G21" t="n">
-        <v>104.3278909517544</v>
+        <v>104.3225479101934</v>
       </c>
       <c r="H21" t="n">
-        <v>0.003897557099074833</v>
+        <v>0.006357597200992608</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001528439408476838</v>
+        <v>0.001614199005156062</v>
       </c>
       <c r="J21" t="n">
-        <v>0.003592617053293533</v>
+        <v>0.006150069037944675</v>
       </c>
       <c r="K21" t="n">
-        <v>5.979666666666667</v>
+        <v>6.039999999999999</v>
       </c>
       <c r="L21" t="n">
-        <v>1324.964</v>
+        <v>1324.767</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -19518,22 +19530,22 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>0.6251225046004644</v>
+        <v>0.6230053770480879</v>
       </c>
       <c r="R21" t="n">
-        <v>0.008567156716496513</v>
+        <v>0.00878429429915998</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6908092742869485</v>
+        <v>0.6880749358497269</v>
       </c>
       <c r="T21" t="n">
-        <v>0.003108706340872536</v>
+        <v>0.004044047932295758</v>
       </c>
       <c r="U21" t="n">
-        <v>0.6902396993959883</v>
+        <v>0.6878234027907032</v>
       </c>
       <c r="V21" t="n">
-        <v>0.002401029906641922</v>
+        <v>0.003339460338879599</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -19541,37 +19553,37 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>104.5579203944679</v>
+        <v>104.5504688853625</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.003592617053293533</v>
+        <v>0.006150069037944674</v>
       </c>
       <c r="Z21" t="n">
-        <v>1282.822006839492</v>
+        <v>1282.955337536358</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.003064870720933677</v>
+        <v>0.00569155438271142</v>
       </c>
       <c r="AB21" t="n">
-        <v>849.6381456017366</v>
+        <v>723.3784856949648</v>
       </c>
       <c r="AC21" t="n">
-        <v>1282.822056841992</v>
+        <v>1282.955354203858</v>
       </c>
       <c r="AD21" t="n">
-        <v>2405.118091486972</v>
+        <v>1999.560257466449</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.9997646489566548</v>
+        <v>0.9532395016548175</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.262971092857097</v>
+        <v>4.893034653968335</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.7727387295480281</v>
+        <v>0.8256022961866458</v>
       </c>
       <c r="AH21" t="n">
-        <v>1.99952929791331</v>
+        <v>1.906479003309635</v>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
@@ -19579,34 +19591,34 @@
         </is>
       </c>
       <c r="AJ21" t="n">
-        <v>1387.380027238961</v>
+        <v>1387.505873091721</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.00185419485324643</v>
+        <v>0.002239039112962134</v>
       </c>
       <c r="AL21" t="n">
-        <v>1734.758985740528</v>
+        <v>1441.295646572657</v>
       </c>
       <c r="AM21" t="n">
-        <v>1387.379977236461</v>
+        <v>1387.50582308922</v>
       </c>
       <c r="AN21" t="n">
-        <v>4062.15739669976</v>
+        <v>3364.781504235933</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.8154834623229821</v>
+        <v>0.8021735578733611</v>
       </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.946351204703289</v>
+        <v>3.702573445851387</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.8038014916531401</v>
+        <v>0.8340584717129321</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.630966924645964</v>
+        <v>1.604347115746722</v>
       </c>
       <c r="AT21" t="inlineStr">
         <is>
@@ -19614,58 +19626,52 @@
         </is>
       </c>
       <c r="AU21" t="n">
-        <v>1262.795714422636</v>
+        <v>1262.705964938581</v>
       </c>
       <c r="AV21" t="n">
-        <v>369.320541201954</v>
+        <v>306.0563387893726</v>
       </c>
       <c r="AW21" t="n">
-        <v>2.993954305434988</v>
+        <v>2.786293900531205</v>
       </c>
       <c r="AX21" t="n">
-        <v>1408.693736005935</v>
+        <v>1408.823320242726</v>
       </c>
       <c r="AY21" t="n">
-        <v>523.1565444561967</v>
+        <v>442.7877767166331</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2.380116756946111</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>1369.665104333578</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>63.38429787093322</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.4082777172293021</v>
-      </c>
+        <v>2.386083586224254</v>
+      </c>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="inlineStr"/>
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="n">
-        <v>1.031905175779613</v>
+        <v>1.042426983882505</v>
       </c>
       <c r="BH21" t="n">
-        <v>1.024108387376923</v>
+        <v>1.021214217401752</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.06399671523569216</v>
+        <v>0.0807574277711801</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.002358925659091953</v>
+        <v>0.002635981382619888</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.066355825282723</v>
+        <v>1.066624504976528</v>
       </c>
       <c r="BL21" t="n">
-        <v>1.067859968734233</v>
+        <v>1.056767568579965</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.1080636665621096</v>
+        <v>0.1069114062330374</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.0009423228068985638</v>
+        <v>0.001113149527259508</v>
       </c>
       <c r="BO21" t="inlineStr">
         <is>
@@ -19707,12 +19713,12 @@
       </c>
       <c r="BX21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11:35:01 AM
+          <t xml:space="preserve">6:24:08 PM
 </t>
         </is>
       </c>
       <c r="BY21" t="n">
-        <v>42005</v>
+        <v>66512.66666666667</v>
       </c>
       <c r="BZ21" t="inlineStr"/>
       <c r="CA21" t="inlineStr"/>
@@ -19726,16 +19732,16 @@
       <c r="CI21" t="inlineStr"/>
       <c r="CJ21" t="inlineStr"/>
       <c r="CK21" t="n">
-        <v>42005</v>
+        <v>66512.66666666667</v>
       </c>
       <c r="CL21" t="n">
-        <v>0.997799980679277</v>
+        <v>0.997819990886633</v>
       </c>
       <c r="CM21" t="n">
-        <v>0.9977853625642813</v>
+        <v>0.9978045514624018</v>
       </c>
       <c r="CN21" t="n">
-        <v>0.9978145987942725</v>
+        <v>0.9978354303108642</v>
       </c>
       <c r="CO21" t="inlineStr"/>
       <c r="CP21" s="2" t="n">
@@ -19773,7 +19779,7 @@
       </c>
       <c r="CY21" t="inlineStr">
         <is>
-          <t>FG04-A1-4-50X-start-45667</t>
+          <t>FG04-A1-4-50X-end-45667</t>
         </is>
       </c>
       <c r="CZ21" t="inlineStr"/>
@@ -19783,31 +19789,31 @@
       <c r="DD21" t="inlineStr"/>
       <c r="DE21" t="inlineStr"/>
       <c r="DF21" t="n">
-        <v>0.01012323332074787</v>
+        <v>0.004570958294888675</v>
       </c>
       <c r="DG21" t="n">
-        <v>6.305721622208459e-05</v>
+        <v>0.0006375038024413355</v>
       </c>
       <c r="DH21" t="n">
-        <v>9.993474879186305e-05</v>
+        <v>0.0008211024185585836</v>
       </c>
       <c r="DI21" t="n">
-        <v>2.539467656601358e-06</v>
+        <v>1.141889230367487e-06</v>
       </c>
       <c r="DJ21" t="n">
-        <v>0.01988836987551749</v>
+        <v>0.008988051654891001</v>
       </c>
       <c r="DK21" t="n">
-        <v>0.0001998899074668403</v>
+        <v>0.001617345594251935</v>
       </c>
       <c r="DL21" t="n">
-        <v>3.253938399009142e-06</v>
+        <v>4.651645546738019e-06</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.0002171090930033541</v>
+        <v>0.001691280178035519</v>
       </c>
       <c r="DN21" t="n">
-        <v>0.02112660250332074</v>
+        <v>0.0105830052442582</v>
       </c>
       <c r="DO21" t="n">
         <v>0</v>
@@ -19819,139 +19825,127 @@
         <v>0</v>
       </c>
       <c r="DR21" t="n">
-        <v>0.007880570524173843</v>
+        <v>0.003561426873323473</v>
       </c>
       <c r="DS21" t="n">
-        <v>9.411657062382916e-05</v>
+        <v>0.000162954023964049</v>
       </c>
       <c r="DT21" t="n">
-        <v>0.01012323332074787</v>
+        <v>0.004570958294888675</v>
       </c>
       <c r="DU21" t="n">
-        <v>6.305721622208459e-05</v>
+        <v>0.0006375038024413355</v>
       </c>
       <c r="DV21" t="n">
-        <v>0.00908399640576352</v>
+        <v>0.004111764004196775</v>
       </c>
       <c r="DW21" t="n">
-        <v>7.161689249102309e-05</v>
+        <v>0.0006332326843429984</v>
       </c>
       <c r="DX21" t="n">
-        <v>0.01991414675439577</v>
+        <v>0.009011010958562628</v>
       </c>
       <c r="DY21" t="n">
-        <v>0.0002171090930033541</v>
+        <v>0.00169128017803552</v>
       </c>
       <c r="DZ21" t="n">
-        <v>0.03076061906781653</v>
+        <v>0.01133034389207015</v>
       </c>
       <c r="EA21" t="n">
-        <v>0.0001860388314832264</v>
+        <v>0.001866637418204321</v>
       </c>
       <c r="EB21" t="n">
-        <v>45.31959509720662</v>
+        <v>9.301157017326112</v>
       </c>
       <c r="EC21" t="n">
-        <v>0.03076061906776444</v>
+        <v>0.01131933239883002</v>
       </c>
       <c r="ED21" t="n">
-        <v>110.0439629918911</v>
+        <v>35.93288973761645</v>
       </c>
       <c r="EE21" t="n">
-        <v>0.01176847072433789</v>
+        <v>0.02165091126633507</v>
       </c>
       <c r="EF21" t="n">
-        <v>0.01888130418776594</v>
+        <v>1.3893404978127</v>
       </c>
       <c r="EG21" t="n">
-        <v>0.009512569322263591</v>
+        <v>0.01748610600565653</v>
       </c>
       <c r="EH21" t="n">
-        <v>0.0235369414486763</v>
+        <v>0.04330182253267001</v>
       </c>
       <c r="EI21" t="n">
-        <v>0.01140031519560289</v>
+        <v>0.002373694822749665</v>
       </c>
       <c r="EJ21" t="n">
-        <v>0.0003544928971153817</v>
+        <v>2.204508335716125e-05</v>
       </c>
       <c r="EK21" t="n">
-        <v>94.76835874967934</v>
+        <v>9.445267303731153</v>
       </c>
       <c r="EL21" t="n">
-        <v>0.01140031519560289</v>
+        <v>0.002373694822750927</v>
       </c>
       <c r="EM21" t="n">
-        <v>203.6454475444067</v>
+        <v>23.92729924301721</v>
       </c>
       <c r="EN21" t="n">
-        <v>0.006681299851708612</v>
+        <v>0.002680100580092514</v>
       </c>
       <c r="EO21" t="n">
         <v>0</v>
       </c>
       <c r="EP21" t="n">
-        <v>0.3715635383552811</v>
+        <v>0.1179443241719966</v>
       </c>
       <c r="EQ21" t="n">
-        <v>0.007273357070567946</v>
+        <v>0.005017238134374514</v>
       </c>
       <c r="ER21" t="n">
-        <v>0.01336259970341722</v>
-      </c>
-      <c r="ES21" t="n">
-        <v>0.08168722023926701</v>
-      </c>
-      <c r="ET21" t="n">
-        <v>24.62522058532947</v>
-      </c>
-      <c r="EU21" t="n">
-        <v>0.03572683209944438</v>
-      </c>
+        <v>0.005360201160184732</v>
+      </c>
+      <c r="ES21" t="inlineStr"/>
+      <c r="ET21" t="inlineStr"/>
+      <c r="EU21" t="inlineStr"/>
       <c r="EV21" t="n">
-        <v>0.03828503279014582</v>
+        <v>0.06048837429548228</v>
       </c>
       <c r="EW21" t="n">
-        <v>24.75763417865267</v>
+        <v>6.499018455337858</v>
       </c>
       <c r="EX21" t="n">
-        <v>0.1053938477739927</v>
-      </c>
-      <c r="EY21" t="n">
-        <v>0.02139278016135025</v>
-      </c>
-      <c r="EZ21" t="n">
-        <v>5.569764324940314</v>
-      </c>
-      <c r="FA21" t="n">
-        <v>0.004178832141177969</v>
-      </c>
+        <v>0.02715188962263709</v>
+      </c>
+      <c r="EY21" t="inlineStr"/>
+      <c r="EZ21" t="inlineStr"/>
+      <c r="FA21" t="inlineStr"/>
       <c r="FB21" t="inlineStr"/>
       <c r="FC21" t="inlineStr"/>
       <c r="FD21" t="inlineStr"/>
       <c r="FE21" t="n">
-        <v>0.02733210651071803</v>
+        <v>0.0184604769113875</v>
       </c>
       <c r="FF21" t="n">
-        <v>0.01746935209700315</v>
+        <v>0.01528296597819403</v>
       </c>
       <c r="FG21" t="n">
-        <v>0.05528584817441847</v>
+        <v>0.03510741586625014</v>
       </c>
       <c r="FH21" t="n">
-        <v>0.000155693823927618</v>
+        <v>7.754868008268056e-05</v>
       </c>
       <c r="FI21" t="n">
-        <v>0.01802028195034684</v>
+        <v>0.006569154121058061</v>
       </c>
       <c r="FJ21" t="n">
-        <v>0.02650431764602025</v>
+        <v>0.009448423466229181</v>
       </c>
       <c r="FK21" t="n">
-        <v>0.02864289309311499</v>
+        <v>0.01086755374164359</v>
       </c>
       <c r="FL21" t="n">
-        <v>5.933292238122679e-05</v>
+        <v>5.590195512312428e-06</v>
       </c>
       <c r="FM21" t="n">
         <v>0</v>
@@ -19966,7 +19960,7 @@
         <v>0</v>
       </c>
       <c r="FQ21" t="n">
-        <v>315.5756644609974</v>
+        <v>271.7578579054014</v>
       </c>
       <c r="FR21" t="inlineStr"/>
       <c r="FS21" t="inlineStr"/>
@@ -19974,16 +19968,16 @@
       <c r="FU21" t="inlineStr"/>
       <c r="FV21" t="inlineStr"/>
       <c r="FW21" t="n">
-        <v>315.5756644609974</v>
+        <v>271.7578579054014</v>
       </c>
       <c r="FX21" t="n">
-        <v>2.576636350994415e-07</v>
+        <v>2.218869368832835e-07</v>
       </c>
       <c r="FY21" t="n">
-        <v>2.905994807048432e-07</v>
+        <v>1.772309917939981e-07</v>
       </c>
       <c r="FZ21" t="n">
-        <v>2.247281437518127e-07</v>
+        <v>2.665430516579475e-07</v>
       </c>
       <c r="GA21" t="inlineStr"/>
       <c r="GB21" t="inlineStr">
@@ -20428,35 +20422,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FG04-A1-4-end_r4</t>
+          <t>FG04-A1-4-50X-start_r1</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6943687449002027</v>
+        <v>0.6908092742869485</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005154680760677779</v>
+        <v>0.003108706340872536</v>
       </c>
       <c r="E22" t="n">
-        <v>0.004540589818134322</v>
+        <v>0.001985921539016999</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002391750223387593</v>
+        <v>0.0023908490739456</v>
       </c>
       <c r="G22" t="n">
-        <v>104.3348703815308</v>
+        <v>104.3278909517544</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008903861410063708</v>
+        <v>0.003897557099074833</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0007121117502985422</v>
+        <v>0.001528439408476838</v>
       </c>
       <c r="J22" t="n">
-        <v>0.008893480187905733</v>
+        <v>0.003592617053293533</v>
       </c>
       <c r="K22" t="n">
-        <v>6.004</v>
+        <v>5.979666666666667</v>
       </c>
       <c r="L22" t="n">
         <v>1324.964</v>
@@ -20478,22 +20472,22 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>0.6278880348533326</v>
+        <v>0.6251225046004644</v>
       </c>
       <c r="R22" t="n">
-        <v>0.009203081476095122</v>
+        <v>0.008567156716496513</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6943687449002027</v>
+        <v>0.6908092742869485</v>
       </c>
       <c r="T22" t="n">
-        <v>0.005154680760677779</v>
+        <v>0.003108706340872536</v>
       </c>
       <c r="U22" t="n">
-        <v>0.6934162629176323</v>
+        <v>0.6902396993959883</v>
       </c>
       <c r="V22" t="n">
-        <v>0.004376816306779871</v>
+        <v>0.002401029906641922</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -20501,37 +20495,37 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>104.5667690401092</v>
+        <v>104.5579203944679</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.008893480187905733</v>
+        <v>0.003592617053293533</v>
       </c>
       <c r="Z22" t="n">
-        <v>1282.822386997224</v>
+        <v>1282.822006839492</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.008076275657041892</v>
+        <v>0.003064870720933677</v>
       </c>
       <c r="AB22" t="n">
-        <v>450.3298803953664</v>
+        <v>849.6381456017366</v>
       </c>
       <c r="AC22" t="n">
-        <v>1282.822386997224</v>
+        <v>1282.822056841992</v>
       </c>
       <c r="AD22" t="n">
-        <v>1284.46337961477</v>
+        <v>2405.118091486972</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.97540696309898</v>
+        <v>0.9997646489566548</v>
       </c>
       <c r="AF22" t="n">
-        <v>4.066786674153493</v>
+        <v>3.262971092857097</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.8504203664939106</v>
+        <v>0.7727387295480281</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.95081392619796</v>
+        <v>1.99952929791331</v>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
@@ -20539,81 +20533,93 @@
         </is>
       </c>
       <c r="AJ22" t="n">
-        <v>1387.389189372333</v>
+        <v>1387.380027238961</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.003643314529671943</v>
+        <v>0.00185419485324643</v>
       </c>
       <c r="AL22" t="n">
-        <v>889.6760808571249</v>
+        <v>1734.758985740528</v>
       </c>
       <c r="AM22" t="n">
-        <v>1387.389156037333</v>
+        <v>1387.379977236461</v>
       </c>
       <c r="AN22" t="n">
-        <v>2100.251802552621</v>
+        <v>4062.15739669976</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.8206396975507538</v>
+        <v>0.8154834623229821</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
       </c>
       <c r="AQ22" t="n">
-        <v>3.087039271604163</v>
+        <v>3.946351204703289</v>
       </c>
       <c r="AR22" t="n">
-        <v>0.8113366378590703</v>
+        <v>0.8038014916531401</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.641279395101508</v>
+        <v>1.630966924645964</v>
       </c>
       <c r="AT22" t="inlineStr">
         <is>
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AU22" t="n">
+        <v>1262.795714422636</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>369.320541201954</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>2.993954305434988</v>
+      </c>
       <c r="AX22" t="n">
-        <v>1408.653884460148</v>
+        <v>1408.693736005935</v>
       </c>
       <c r="AY22" t="n">
-        <v>312.5398875816472</v>
+        <v>523.1565444561967</v>
       </c>
       <c r="AZ22" t="n">
-        <v>2.408872908629731</v>
-      </c>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
+        <v>2.380116756946111</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>1369.665104333578</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>63.38429787093322</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.4082777172293021</v>
+      </c>
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="n">
-        <v>1.039211315445951</v>
+        <v>1.031905175779613</v>
       </c>
       <c r="BH22" t="n">
-        <v>1.044803273722303</v>
+        <v>1.024108387376923</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.07650608846039013</v>
+        <v>0.06399671523569216</v>
       </c>
       <c r="BJ22" t="n">
-        <v>0.004819698076523859</v>
+        <v>0.002358925659091953</v>
       </c>
       <c r="BK22" t="n">
-        <v>1.045778926075426</v>
+        <v>1.066355825282723</v>
       </c>
       <c r="BL22" t="n">
-        <v>1.045376633679782</v>
+        <v>1.067859968734233</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.07517341440434794</v>
+        <v>0.1080636665621096</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.002037572626994212</v>
+        <v>0.0009423228068985638</v>
       </c>
       <c r="BO22" t="inlineStr">
         <is>
@@ -20627,7 +20633,7 @@
       </c>
       <c r="BQ22" t="inlineStr">
         <is>
-          <t xml:space="preserve">January 13, 2025
+          <t xml:space="preserve">January 10, 2025
 </t>
         </is>
       </c>
@@ -20637,7 +20643,7 @@
         </is>
       </c>
       <c r="BS22" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BT22" t="n">
         <v>45</v>
@@ -20655,12 +20661,12 @@
       </c>
       <c r="BX22" t="inlineStr">
         <is>
-          <t xml:space="preserve">2:37:18 PM
+          <t xml:space="preserve">11:35:01 AM
 </t>
         </is>
       </c>
       <c r="BY22" t="n">
-        <v>52891.33333333334</v>
+        <v>42005</v>
       </c>
       <c r="BZ22" t="inlineStr"/>
       <c r="CA22" t="inlineStr"/>
@@ -20674,20 +20680,20 @@
       <c r="CI22" t="inlineStr"/>
       <c r="CJ22" t="inlineStr"/>
       <c r="CK22" t="n">
-        <v>52891.33333333334</v>
+        <v>42005</v>
       </c>
       <c r="CL22" t="n">
-        <v>0.9977822910976898</v>
+        <v>0.997799980679277</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.9977754809874896</v>
+        <v>0.9977853625642813</v>
       </c>
       <c r="CN22" t="n">
-        <v>0.99778910120789</v>
+        <v>0.9978145987942725</v>
       </c>
       <c r="CO22" t="inlineStr"/>
       <c r="CP22" s="2" t="n">
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="CQ22" t="inlineStr">
         <is>
@@ -20721,7 +20727,7 @@
       </c>
       <c r="CY22" t="inlineStr">
         <is>
-          <t>FG04-A1-4-end-45670</t>
+          <t>FG04-A1-4-50X-start-45667</t>
         </is>
       </c>
       <c r="CZ22" t="inlineStr"/>
@@ -20731,31 +20737,31 @@
       <c r="DD22" t="inlineStr"/>
       <c r="DE22" t="inlineStr"/>
       <c r="DF22" t="n">
-        <v>0.01011197273062824</v>
+        <v>0.01012323332074787</v>
       </c>
       <c r="DG22" t="n">
-        <v>0.001182792864736372</v>
+        <v>6.305721622208459e-05</v>
       </c>
       <c r="DH22" t="n">
-        <v>0.001322480818183258</v>
+        <v>9.993474879186305e-05</v>
       </c>
       <c r="DI22" t="n">
-        <v>2.553768108955911e-06</v>
+        <v>2.539467656601358e-06</v>
       </c>
       <c r="DJ22" t="n">
-        <v>0.01983820120930122</v>
+        <v>0.01988836987551749</v>
       </c>
       <c r="DK22" t="n">
-        <v>0.002643301515626301</v>
+        <v>0.0001998899074668403</v>
       </c>
       <c r="DL22" t="n">
-        <v>4.849430690687513e-06</v>
+        <v>3.253938399009142e-06</v>
       </c>
       <c r="DM22" t="n">
-        <v>0.002657140020052187</v>
+        <v>0.0002171090930033541</v>
       </c>
       <c r="DN22" t="n">
-        <v>0.009165151389911471</v>
+        <v>0.02112660250332074</v>
       </c>
       <c r="DO22" t="n">
         <v>0</v>
@@ -20767,127 +20773,139 @@
         <v>0</v>
       </c>
       <c r="DR22" t="n">
-        <v>0.007860691684702341</v>
+        <v>0.007880570524173843</v>
       </c>
       <c r="DS22" t="n">
-        <v>0.0003424727981481104</v>
+        <v>9.411657062382916e-05</v>
       </c>
       <c r="DT22" t="n">
-        <v>0.01011197273062824</v>
+        <v>0.01012323332074787</v>
       </c>
       <c r="DU22" t="n">
-        <v>0.001182792864736372</v>
+        <v>6.305721622208459e-05</v>
       </c>
       <c r="DV22" t="n">
-        <v>0.009037677409209742</v>
+        <v>0.00908399640576352</v>
       </c>
       <c r="DW22" t="n">
-        <v>0.001165849932864696</v>
+        <v>7.161689249102309e-05</v>
       </c>
       <c r="DX22" t="n">
-        <v>0.01991379960124481</v>
+        <v>0.01991414675439577</v>
       </c>
       <c r="DY22" t="n">
-        <v>0.002657140020052187</v>
+        <v>0.0002171090930033541</v>
       </c>
       <c r="DZ22" t="n">
-        <v>0.04363865180453826</v>
+        <v>0.03076061906781653</v>
       </c>
       <c r="EA22" t="n">
-        <v>0.002003255814079039</v>
+        <v>0.0001860388314832264</v>
       </c>
       <c r="EB22" t="n">
-        <v>155.8449420730669</v>
+        <v>45.31959509720662</v>
       </c>
       <c r="EC22" t="n">
-        <v>0.04363865180453826</v>
+        <v>0.03076061906776444</v>
       </c>
       <c r="ED22" t="n">
-        <v>432.9609650333171</v>
+        <v>110.0439629918911</v>
       </c>
       <c r="EE22" t="n">
-        <v>0.008210183407474007</v>
+        <v>0.01176847072433789</v>
       </c>
       <c r="EF22" t="n">
-        <v>0.6997507565487255</v>
+        <v>0.01888130418776594</v>
       </c>
       <c r="EG22" t="n">
-        <v>0.03909668415009844</v>
+        <v>0.009512569322263591</v>
       </c>
       <c r="EH22" t="n">
-        <v>0.01642036681494804</v>
+        <v>0.0235369414486763</v>
       </c>
       <c r="EI22" t="n">
-        <v>0.02427342317049296</v>
+        <v>0.01140031519560289</v>
       </c>
       <c r="EJ22" t="n">
-        <v>0.001984537762946304</v>
+        <v>0.0003544928971153817</v>
       </c>
       <c r="EK22" t="n">
-        <v>300.7396866757875</v>
+        <v>94.76835874967934</v>
       </c>
       <c r="EL22" t="n">
-        <v>0.02430015848464295</v>
+        <v>0.01140031519560289</v>
       </c>
       <c r="EM22" t="n">
-        <v>697.0951945243561</v>
+        <v>203.6454475444067</v>
       </c>
       <c r="EN22" t="n">
-        <v>0.004025291057606266</v>
+        <v>0.006681299851708612</v>
       </c>
       <c r="EO22" t="n">
         <v>0</v>
       </c>
       <c r="EP22" t="n">
-        <v>0.2148744340098931</v>
+        <v>0.3715635383552811</v>
       </c>
       <c r="EQ22" t="n">
-        <v>0.01638609795451916</v>
+        <v>0.007273357070567946</v>
       </c>
       <c r="ER22" t="n">
-        <v>0.008050582115212333</v>
-      </c>
-      <c r="ES22" t="inlineStr"/>
-      <c r="ET22" t="inlineStr"/>
-      <c r="EU22" t="inlineStr"/>
+        <v>0.01336259970341722</v>
+      </c>
+      <c r="ES22" t="n">
+        <v>0.08168722023926701</v>
+      </c>
+      <c r="ET22" t="n">
+        <v>24.62522058532947</v>
+      </c>
+      <c r="EU22" t="n">
+        <v>0.03572683209944438</v>
+      </c>
       <c r="EV22" t="n">
-        <v>0.02087453380821131</v>
+        <v>0.03828503279014582</v>
       </c>
       <c r="EW22" t="n">
-        <v>15.85420349990139</v>
+        <v>24.75763417865267</v>
       </c>
       <c r="EX22" t="n">
-        <v>0.05279985060384721</v>
-      </c>
-      <c r="EY22" t="inlineStr"/>
-      <c r="EZ22" t="inlineStr"/>
-      <c r="FA22" t="inlineStr"/>
+        <v>0.1053938477739927</v>
+      </c>
+      <c r="EY22" t="n">
+        <v>0.02139278016135025</v>
+      </c>
+      <c r="EZ22" t="n">
+        <v>5.569764324940314</v>
+      </c>
+      <c r="FA22" t="n">
+        <v>0.004178832141177969</v>
+      </c>
       <c r="FB22" t="inlineStr"/>
       <c r="FC22" t="inlineStr"/>
       <c r="FD22" t="inlineStr"/>
       <c r="FE22" t="n">
-        <v>0.02297716926817</v>
+        <v>0.02733210651071803</v>
       </c>
       <c r="FF22" t="n">
-        <v>0.02480803224077634</v>
+        <v>0.01746935209700315</v>
       </c>
       <c r="FG22" t="n">
-        <v>0.04477872880559791</v>
+        <v>0.05528584817441847</v>
       </c>
       <c r="FH22" t="n">
-        <v>0.002115670170667765</v>
+        <v>0.000155693823927618</v>
       </c>
       <c r="FI22" t="n">
-        <v>0.01087367618229701</v>
+        <v>0.01802028195034684</v>
       </c>
       <c r="FJ22" t="n">
-        <v>0.01796977942170112</v>
+        <v>0.02650431764602025</v>
       </c>
       <c r="FK22" t="n">
-        <v>0.01811874897188412</v>
+        <v>0.02864289309311499</v>
       </c>
       <c r="FL22" t="n">
-        <v>0.0008558692569401149</v>
+        <v>5.933292238122679e-05</v>
       </c>
       <c r="FM22" t="n">
         <v>0</v>
@@ -20902,7 +20920,7 @@
         <v>0</v>
       </c>
       <c r="FQ22" t="n">
-        <v>256.5586352733676</v>
+        <v>315.5756644609974</v>
       </c>
       <c r="FR22" t="inlineStr"/>
       <c r="FS22" t="inlineStr"/>
@@ -20910,16 +20928,16 @@
       <c r="FU22" t="inlineStr"/>
       <c r="FV22" t="inlineStr"/>
       <c r="FW22" t="n">
-        <v>256.5586352733676</v>
+        <v>315.5756644609974</v>
       </c>
       <c r="FX22" t="n">
-        <v>3.395516593746201e-07</v>
+        <v>2.576636350994415e-07</v>
       </c>
       <c r="FY22" t="n">
-        <v>3.847807015478284e-07</v>
+        <v>2.905994807048432e-07</v>
       </c>
       <c r="FZ22" t="n">
-        <v>2.943229108153295e-07</v>
+        <v>2.247281437518127e-07</v>
       </c>
       <c r="GA22" t="inlineStr"/>
       <c r="GB22" t="inlineStr">
@@ -21364,35 +21382,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FG04-A1-4-start_r1</t>
+          <t>FG04-A1-4-end_r4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6933232121373294</v>
+        <v>0.6943687449002027</v>
       </c>
       <c r="D23" t="n">
-        <v>0.004397155975807574</v>
+        <v>0.005154680760677779</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003689576882607071</v>
+        <v>0.004540589818134322</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002391466915034631</v>
+        <v>0.002391750223387593</v>
       </c>
       <c r="G23" t="n">
-        <v>104.3328508103869</v>
+        <v>104.3348703815308</v>
       </c>
       <c r="H23" t="n">
-        <v>0.007231574559423714</v>
+        <v>0.008903861410063708</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006495249785677023</v>
+        <v>0.0007121117502985422</v>
       </c>
       <c r="J23" t="n">
-        <v>0.007218209915300298</v>
+        <v>0.008893480187905733</v>
       </c>
       <c r="K23" t="n">
-        <v>6.092666666666666</v>
+        <v>6.004</v>
       </c>
       <c r="L23" t="n">
         <v>1324.964</v>
@@ -21414,22 +21432,22 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>0.6270877996943938</v>
+        <v>0.6278880348533326</v>
       </c>
       <c r="R23" t="n">
-        <v>0.008923812128371291</v>
+        <v>0.009203081476095122</v>
       </c>
       <c r="S23" t="n">
-        <v>0.6933232121373294</v>
+        <v>0.6943687449002027</v>
       </c>
       <c r="T23" t="n">
-        <v>0.004397155975807574</v>
+        <v>0.005154680760677779</v>
       </c>
       <c r="U23" t="n">
-        <v>0.6925225307226507</v>
+        <v>0.6934162629176323</v>
       </c>
       <c r="V23" t="n">
-        <v>0.003663393252817322</v>
+        <v>0.004376816306779871</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -21437,37 +21455,37 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>104.5630356045782</v>
+        <v>104.5667690401092</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.0072182099153003</v>
+        <v>0.008893480187905733</v>
       </c>
       <c r="Z23" t="n">
-        <v>1282.841628844456</v>
+        <v>1282.822386997224</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.0069440750177064</v>
+        <v>0.008076275657041892</v>
       </c>
       <c r="AB23" t="n">
-        <v>579.2018006635133</v>
+        <v>450.3298803953664</v>
       </c>
       <c r="AC23" t="n">
-        <v>1282.841628844456</v>
+        <v>1282.822386997224</v>
       </c>
       <c r="AD23" t="n">
-        <v>1670.480752531691</v>
+        <v>1284.46337961477</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.001040565715631</v>
+        <v>0.97540696309898</v>
       </c>
       <c r="AF23" t="n">
-        <v>4.707515899281141</v>
+        <v>4.066786674153493</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.8094154573151989</v>
+        <v>0.8504203664939106</v>
       </c>
       <c r="AH23" t="n">
-        <v>2.002081131431261</v>
+        <v>1.95081392619796</v>
       </c>
       <c r="AI23" t="inlineStr">
         <is>
@@ -21475,34 +21493,34 @@
         </is>
       </c>
       <c r="AJ23" t="n">
-        <v>1387.404614446534</v>
+        <v>1387.389189372333</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.001962393117028617</v>
+        <v>0.003643314529671943</v>
       </c>
       <c r="AL23" t="n">
-        <v>1183.480306847621</v>
+        <v>889.6760808571249</v>
       </c>
       <c r="AM23" t="n">
-        <v>1387.404664449034</v>
+        <v>1387.389156037333</v>
       </c>
       <c r="AN23" t="n">
-        <v>2691.844993009252</v>
+        <v>2100.251802552621</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.8118210637348812</v>
+        <v>0.8206396975507538</v>
       </c>
       <c r="AP23" t="n">
         <v>0</v>
       </c>
       <c r="AQ23" t="n">
-        <v>2.274726268573775</v>
+        <v>3.087039271604163</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.7596949690372052</v>
+        <v>0.8113366378590703</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.623642127469762</v>
+        <v>1.641279395101508</v>
       </c>
       <c r="AT23" t="inlineStr">
         <is>
@@ -21513,49 +21531,43 @@
       <c r="AV23" t="inlineStr"/>
       <c r="AW23" t="inlineStr"/>
       <c r="AX23" t="n">
-        <v>1408.798861247466</v>
+        <v>1408.653884460148</v>
       </c>
       <c r="AY23" t="n">
-        <v>300.319906679546</v>
+        <v>312.5398875816472</v>
       </c>
       <c r="AZ23" t="n">
-        <v>2.08024910703253</v>
+        <v>2.408872908629731</v>
       </c>
       <c r="BA23" t="inlineStr"/>
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="n">
-        <v>1382.794279929304</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>285.8161042314495</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>14.83158829328031</v>
-      </c>
+      <c r="BD23" t="inlineStr"/>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="n">
-        <v>1.022604196890353</v>
+        <v>1.039211315445951</v>
       </c>
       <c r="BH23" t="n">
-        <v>1.0116080282</v>
+        <v>1.044803273722303</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.04561918793446992</v>
+        <v>0.07650608846039013</v>
       </c>
       <c r="BJ23" t="n">
-        <v>0.00346693723324018</v>
+        <v>0.004819698076523859</v>
       </c>
       <c r="BK23" t="n">
-        <v>1.04925196247961</v>
+        <v>1.045778926075426</v>
       </c>
       <c r="BL23" t="n">
-        <v>1.042791867866527</v>
+        <v>1.045376633679782</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.0799841682587103</v>
+        <v>0.07517341440434794</v>
       </c>
       <c r="BN23" t="n">
-        <v>0.00137817227186953</v>
+        <v>0.002037572626994212</v>
       </c>
       <c r="BO23" t="inlineStr">
         <is>
@@ -21597,12 +21609,12 @@
       </c>
       <c r="BX23" t="inlineStr">
         <is>
-          <t xml:space="preserve">11:10:44 AM
+          <t xml:space="preserve">2:37:18 PM
 </t>
         </is>
       </c>
       <c r="BY23" t="n">
-        <v>40566.66666666666</v>
+        <v>52891.33333333334</v>
       </c>
       <c r="BZ23" t="inlineStr"/>
       <c r="CA23" t="inlineStr"/>
@@ -21616,16 +21628,16 @@
       <c r="CI23" t="inlineStr"/>
       <c r="CJ23" t="inlineStr"/>
       <c r="CK23" t="n">
-        <v>40566.66666666666</v>
+        <v>52891.33333333334</v>
       </c>
       <c r="CL23" t="n">
-        <v>0.9977986026165523</v>
+        <v>0.9977822910976898</v>
       </c>
       <c r="CM23" t="n">
-        <v>0.997792390812767</v>
+        <v>0.9977754809874896</v>
       </c>
       <c r="CN23" t="n">
-        <v>0.9978048144203376</v>
+        <v>0.99778910120789</v>
       </c>
       <c r="CO23" t="inlineStr"/>
       <c r="CP23" s="2" t="n">
@@ -21663,7 +21675,7 @@
       </c>
       <c r="CY23" t="inlineStr">
         <is>
-          <t>FG04-A1-4-start-45670</t>
+          <t>FG04-A1-4-end-45670</t>
         </is>
       </c>
       <c r="CZ23" t="inlineStr"/>
@@ -21673,31 +21685,31 @@
       <c r="DD23" t="inlineStr"/>
       <c r="DE23" t="inlineStr"/>
       <c r="DF23" t="n">
-        <v>0.00368009754341232</v>
+        <v>0.01011197273062824</v>
       </c>
       <c r="DG23" t="n">
-        <v>0.0001020138275989838</v>
+        <v>0.001182792864736372</v>
       </c>
       <c r="DH23" t="n">
-        <v>0.0001214067228942542</v>
+        <v>0.001322480818183258</v>
       </c>
       <c r="DI23" t="n">
-        <v>9.35129521204048e-07</v>
+        <v>2.553768108955911e-06</v>
       </c>
       <c r="DJ23" t="n">
-        <v>0.007210467132182746</v>
+        <v>0.01983820120930122</v>
       </c>
       <c r="DK23" t="n">
-        <v>0.0002304850791961425</v>
+        <v>0.002643301515626301</v>
       </c>
       <c r="DL23" t="n">
-        <v>2.900255349488191e-06</v>
+        <v>4.849430690687513e-06</v>
       </c>
       <c r="DM23" t="n">
-        <v>0.0002322102463617118</v>
+        <v>0.002657140020052187</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.04623130252689586</v>
+        <v>0.009165151389911471</v>
       </c>
       <c r="DO23" t="n">
         <v>0</v>
@@ -21709,133 +21721,127 @@
         <v>0</v>
       </c>
       <c r="DR23" t="n">
-        <v>0.002857076527787342</v>
+        <v>0.007860691684702341</v>
       </c>
       <c r="DS23" t="n">
-        <v>5.520229413366629e-05</v>
+        <v>0.0003424727981481104</v>
       </c>
       <c r="DT23" t="n">
-        <v>0.00368009754341232</v>
+        <v>0.01011197273062824</v>
       </c>
       <c r="DU23" t="n">
-        <v>0.0001020138275989838</v>
+        <v>0.001182792864736372</v>
       </c>
       <c r="DV23" t="n">
-        <v>0.003277061996905263</v>
+        <v>0.009037677409209742</v>
       </c>
       <c r="DW23" t="n">
-        <v>8.888832979699674e-05</v>
+        <v>0.001165849932864696</v>
       </c>
       <c r="DX23" t="n">
-        <v>0.007252440627440998</v>
+        <v>0.01991379960124481</v>
       </c>
       <c r="DY23" t="n">
-        <v>0.0002322102463617117</v>
+        <v>0.002657140020052187</v>
       </c>
       <c r="DZ23" t="n">
-        <v>0.01813778037469165</v>
+        <v>0.04363865180453826</v>
       </c>
       <c r="EA23" t="n">
-        <v>0.0002717496366739102</v>
+        <v>0.002003255814079039</v>
       </c>
       <c r="EB23" t="n">
-        <v>41.99300568934223</v>
+        <v>155.8449420730669</v>
       </c>
       <c r="EC23" t="n">
-        <v>0.01813778037469165</v>
+        <v>0.04363865180453826</v>
       </c>
       <c r="ED23" t="n">
-        <v>129.0463500952076</v>
+        <v>432.9609650333171</v>
       </c>
       <c r="EE23" t="n">
-        <v>0.01073077782259777</v>
+        <v>0.008210183407474007</v>
       </c>
       <c r="EF23" t="n">
-        <v>0.4411984592856703</v>
+        <v>0.6997507565487255</v>
       </c>
       <c r="EG23" t="n">
-        <v>0.02344333090808452</v>
+        <v>0.03909668415009844</v>
       </c>
       <c r="EH23" t="n">
-        <v>0.02146155564519547</v>
+        <v>0.01642036681494804</v>
       </c>
       <c r="EI23" t="n">
-        <v>0.01097796021216784</v>
+        <v>0.02427342317049296</v>
       </c>
       <c r="EJ23" t="n">
-        <v>0.0001647980872132392</v>
+        <v>0.001984537762946304</v>
       </c>
       <c r="EK23" t="n">
-        <v>99.36902440336532</v>
+        <v>300.7396866757875</v>
       </c>
       <c r="EL23" t="n">
-        <v>0.01097796021216473</v>
+        <v>0.02430015848464295</v>
       </c>
       <c r="EM23" t="n">
-        <v>238.7036186378782</v>
+        <v>697.0951945243561</v>
       </c>
       <c r="EN23" t="n">
-        <v>0.006038952441465663</v>
+        <v>0.004025291057606266</v>
       </c>
       <c r="EO23" t="n">
         <v>0</v>
       </c>
       <c r="EP23" t="n">
-        <v>0.07332998605063305</v>
+        <v>0.2148744340098931</v>
       </c>
       <c r="EQ23" t="n">
-        <v>0.009532076860937745</v>
+        <v>0.01638609795451916</v>
       </c>
       <c r="ER23" t="n">
-        <v>0.01207790488293135</v>
+        <v>0.008050582115212333</v>
       </c>
       <c r="ES23" t="inlineStr"/>
       <c r="ET23" t="inlineStr"/>
       <c r="EU23" t="inlineStr"/>
       <c r="EV23" t="n">
-        <v>0.005203318495667144</v>
+        <v>0.02087453380821131</v>
       </c>
       <c r="EW23" t="n">
-        <v>10.97700480403099</v>
+        <v>15.85420349990139</v>
       </c>
       <c r="EX23" t="n">
-        <v>0.1553257691319047</v>
+        <v>0.05279985060384721</v>
       </c>
       <c r="EY23" t="inlineStr"/>
       <c r="EZ23" t="inlineStr"/>
       <c r="FA23" t="inlineStr"/>
-      <c r="FB23" t="n">
-        <v>1.983760221304842</v>
-      </c>
-      <c r="FC23" t="n">
-        <v>42.18958180234006</v>
-      </c>
-      <c r="FD23" t="n">
-        <v>1.882053819896045</v>
-      </c>
+      <c r="FB23" t="inlineStr"/>
+      <c r="FC23" t="inlineStr"/>
+      <c r="FD23" t="inlineStr"/>
       <c r="FE23" t="n">
-        <v>0.03339711578606999</v>
+        <v>0.02297716926817</v>
       </c>
       <c r="FF23" t="n">
-        <v>0.0139454484470955</v>
+        <v>0.02480803224077634</v>
       </c>
       <c r="FG23" t="n">
-        <v>0.06750483955959084</v>
+        <v>0.04477872880559791</v>
       </c>
       <c r="FH23" t="n">
-        <v>0.0002145247470159356</v>
+        <v>0.002115670170667765</v>
       </c>
       <c r="FI23" t="n">
-        <v>0.002122073193456274</v>
+        <v>0.01087367618229701</v>
       </c>
       <c r="FJ23" t="n">
-        <v>0.02257527815472279</v>
+        <v>0.01796977942170112</v>
       </c>
       <c r="FK23" t="n">
-        <v>0.004011300555159037</v>
+        <v>0.01811874897188412</v>
       </c>
       <c r="FL23" t="n">
-        <v>0.0001126215157083501</v>
+        <v>0.0008558692569401149</v>
       </c>
       <c r="FM23" t="n">
         <v>0</v>
@@ -21850,7 +21856,7 @@
         <v>0</v>
       </c>
       <c r="FQ23" t="n">
-        <v>304.1140137075795</v>
+        <v>256.5586352733676</v>
       </c>
       <c r="FR23" t="inlineStr"/>
       <c r="FS23" t="inlineStr"/>
@@ -21858,16 +21864,16 @@
       <c r="FU23" t="inlineStr"/>
       <c r="FV23" t="inlineStr"/>
       <c r="FW23" t="n">
-        <v>304.1140137075795</v>
+        <v>256.5586352733676</v>
       </c>
       <c r="FX23" t="n">
-        <v>4.024905179823073e-07</v>
+        <v>3.395516593746201e-07</v>
       </c>
       <c r="FY23" t="n">
-        <v>3.745015785598812e-07</v>
+        <v>3.847807015478284e-07</v>
       </c>
       <c r="FZ23" t="n">
-        <v>4.304801978034521e-07</v>
+        <v>2.943229108153295e-07</v>
       </c>
       <c r="GA23" t="inlineStr"/>
       <c r="GB23" t="inlineStr">
@@ -22312,38 +22318,38 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FO1_MI1-Oct2822postpin</t>
+          <t>FG04-A1-4-start_r1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.09341848008997999</v>
+        <v>0.6933232121373294</v>
       </c>
       <c r="D24" t="n">
-        <v>0.004147347129790299</v>
+        <v>0.004397155975807574</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001604703338086821</v>
+        <v>0.003689576882607071</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003802758346024893</v>
+        <v>0.002391466915034631</v>
       </c>
       <c r="G24" t="n">
-        <v>102.986017762329</v>
+        <v>104.3328508103869</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004049825254464011</v>
+        <v>0.007231574559423714</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0005773261539765429</v>
+        <v>0.0006495249785677023</v>
       </c>
       <c r="J24" t="n">
-        <v>0.004014051013389069</v>
+        <v>0.007218209915300298</v>
       </c>
       <c r="K24" t="n">
-        <v>11.974</v>
+        <v>6.092666666666666</v>
       </c>
       <c r="L24" t="n">
-        <v>1350.012</v>
+        <v>1324.964</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -22358,26 +22364,26 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>SupCrit, low density</t>
+          <t>SupCrit, Med density</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>0.09341848008997999</v>
+        <v>0.6270877996943938</v>
       </c>
       <c r="R24" t="n">
-        <v>0.004147347129790299</v>
+        <v>0.008923812128371291</v>
       </c>
       <c r="S24" t="n">
-        <v>0.09631601115052035</v>
+        <v>0.6933232121373294</v>
       </c>
       <c r="T24" t="n">
-        <v>0.00291036247846297</v>
+        <v>0.004397155975807574</v>
       </c>
       <c r="U24" t="n">
-        <v>-0.1138385830422522</v>
+        <v>0.6925225307226507</v>
       </c>
       <c r="V24" t="n">
-        <v>0.003598656542172369</v>
+        <v>0.003663393252817322</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -22385,37 +22391,37 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>103.2030448368432</v>
+        <v>104.5630356045782</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.004014051013389069</v>
+        <v>0.0072182099153003</v>
       </c>
       <c r="Z24" t="n">
-        <v>1285.820639785995</v>
+        <v>1282.841628844456</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.003561155643082998</v>
+        <v>0.0069440750177064</v>
       </c>
       <c r="AB24" t="n">
-        <v>431.1551589192777</v>
+        <v>579.2018006635133</v>
       </c>
       <c r="AC24" t="n">
-        <v>1285.820664787245</v>
+        <v>1282.841628844456</v>
       </c>
       <c r="AD24" t="n">
-        <v>550.3696621496422</v>
+        <v>1670.480752531691</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.4906512990194565</v>
+        <v>1.001040565715631</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.678161540558363</v>
+        <v>4.707515899281141</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.5620252860068462</v>
+        <v>0.8094154573151989</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.981302598038913</v>
+        <v>2.002081131431261</v>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
@@ -22423,93 +22429,87 @@
         </is>
       </c>
       <c r="AJ24" t="n">
-        <v>1389.023659621588</v>
+        <v>1387.404614446534</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.001848138763519428</v>
+        <v>0.001962393117028617</v>
       </c>
       <c r="AL24" t="n">
-        <v>727.1565564132621</v>
+        <v>1183.480306847621</v>
       </c>
       <c r="AM24" t="n">
-        <v>1389.023709624088</v>
+        <v>1387.404664449034</v>
       </c>
       <c r="AN24" t="n">
-        <v>793.4746967671249</v>
+        <v>2691.844993009252</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.4386784001760267</v>
+        <v>0.8118210637348812</v>
       </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.582023392953362</v>
+        <v>2.274726268573775</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.4454906101124297</v>
+        <v>0.7596949690372052</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.8773568003520533</v>
+        <v>1.623642127469762</v>
       </c>
       <c r="AT24" t="inlineStr">
         <is>
           <t>Flagged Warnings:</t>
         </is>
       </c>
-      <c r="AU24" t="n">
-        <v>1265.580089958605</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>96.38838775926904</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>0.5752909420808221</v>
-      </c>
+      <c r="AU24" t="inlineStr"/>
+      <c r="AV24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr"/>
       <c r="AX24" t="n">
-        <v>1410.344780489308</v>
+        <v>1408.798861247466</v>
       </c>
       <c r="AY24" t="n">
-        <v>87.77748734483031</v>
+        <v>300.319906679546</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.6077826223921147</v>
+        <v>2.08024910703253</v>
       </c>
       <c r="BA24" t="inlineStr"/>
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="n">
-        <v>1381.986422708666</v>
+        <v>1382.794279929304</v>
       </c>
       <c r="BE24" t="n">
-        <v>18.56370404346136</v>
+        <v>285.8161042314495</v>
       </c>
       <c r="BF24" t="n">
-        <v>10.63225278692788</v>
+        <v>14.83158829328031</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.141753568018936</v>
+        <v>1.022604196890353</v>
       </c>
       <c r="BH24" t="n">
-        <v>1.169228807191666</v>
+        <v>1.0116080282</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.138321723716067</v>
+        <v>0.04561918793446992</v>
       </c>
       <c r="BJ24" t="n">
-        <v>0.002461646418622321</v>
+        <v>0.00346693723324018</v>
       </c>
       <c r="BK24" t="n">
-        <v>1.124373005015776</v>
+        <v>1.04925196247961</v>
       </c>
       <c r="BL24" t="n">
-        <v>1.155090497737588</v>
+        <v>1.042791867866527</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.1096888904576375</v>
+        <v>0.0799841682587103</v>
       </c>
       <c r="BN24" t="n">
-        <v>0.001320458903646095</v>
+        <v>0.00137817227186953</v>
       </c>
       <c r="BO24" t="inlineStr">
         <is>
@@ -22523,17 +22523,17 @@
       </c>
       <c r="BQ24" t="inlineStr">
         <is>
-          <t xml:space="preserve">October 28, 2022
+          <t xml:space="preserve">January 13, 2025
 </t>
         </is>
       </c>
       <c r="BR24" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>January</t>
         </is>
       </c>
       <c r="BS24" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="BT24" t="n">
         <v>45</v>
@@ -22546,17 +22546,17 @@
       </c>
       <c r="BW24" t="inlineStr">
         <is>
-          <t>['0h', '3m', '47s']</t>
+          <t>['0h', '3m', '46s']</t>
         </is>
       </c>
       <c r="BX24" t="inlineStr">
         <is>
-          <t xml:space="preserve">11:48:34 AM
+          <t xml:space="preserve">11:10:44 AM
 </t>
         </is>
       </c>
       <c r="BY24" t="n">
-        <v>41257.5</v>
+        <v>40566.66666666666</v>
       </c>
       <c r="BZ24" t="inlineStr"/>
       <c r="CA24" t="inlineStr"/>
@@ -22570,56 +22570,54 @@
       <c r="CI24" t="inlineStr"/>
       <c r="CJ24" t="inlineStr"/>
       <c r="CK24" t="n">
-        <v>41257.5</v>
+        <v>40566.66666666666</v>
       </c>
       <c r="CL24" t="n">
-        <v>0.9978970832452403</v>
+        <v>0.9977986026165523</v>
       </c>
       <c r="CM24" t="n">
-        <v>0.9978914891824733</v>
+        <v>0.997792390812767</v>
       </c>
       <c r="CN24" t="n">
-        <v>0.9979026773080073</v>
+        <v>0.9978048144203376</v>
       </c>
       <c r="CO24" t="inlineStr"/>
       <c r="CP24" s="2" t="n">
-        <v>44862</v>
+        <v>45670</v>
       </c>
       <c r="CQ24" t="inlineStr">
         <is>
           <t>Std</t>
         </is>
       </c>
-      <c r="CR24" t="inlineStr">
-        <is>
-          <t>2 (CLJD)</t>
-        </is>
-      </c>
+      <c r="CR24" t="inlineStr"/>
       <c r="CS24" t="inlineStr">
         <is>
-          <t>FO1</t>
-        </is>
-      </c>
-      <c r="CT24" t="inlineStr"/>
+          <t>FG04</t>
+        </is>
+      </c>
+      <c r="CT24" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="CU24" t="inlineStr"/>
-      <c r="CV24" t="inlineStr">
-        <is>
-          <t>MI1</t>
-        </is>
+      <c r="CV24" t="n">
+        <v>4</v>
       </c>
       <c r="CW24" t="inlineStr">
         <is>
-          <t>FO1</t>
+          <t>FG04_A1</t>
         </is>
       </c>
       <c r="CX24" t="inlineStr">
         <is>
-          <t>FO1</t>
+          <t>FG04_A1</t>
         </is>
       </c>
       <c r="CY24" t="inlineStr">
         <is>
-          <t>FO1-MI1-44862</t>
+          <t>FG04-A1-4-start-45670</t>
         </is>
       </c>
       <c r="CZ24" t="inlineStr"/>
@@ -22629,31 +22627,31 @@
       <c r="DD24" t="inlineStr"/>
       <c r="DE24" t="inlineStr"/>
       <c r="DF24" t="n">
-        <v>0.008456352648881114</v>
+        <v>0.00368009754341232</v>
       </c>
       <c r="DG24" t="n">
-        <v>0.0002433472177138916</v>
+        <v>0.0001020138275989838</v>
       </c>
       <c r="DH24" t="n">
-        <v>0.0006229769703712424</v>
+        <v>0.0001214067228942542</v>
       </c>
       <c r="DI24" t="n">
-        <v>2.511903243129822e-06</v>
+        <v>9.35129521204048e-07</v>
       </c>
       <c r="DJ24" t="n">
-        <v>0.02134148393991476</v>
+        <v>0.007210467132182746</v>
       </c>
       <c r="DK24" t="n">
-        <v>0.001572220738673515</v>
+        <v>0.0002304850791961425</v>
       </c>
       <c r="DL24" t="n">
-        <v>2.200862052676851e-05</v>
+        <v>2.900255349488191e-06</v>
       </c>
       <c r="DM24" t="n">
-        <v>0.001589577849798874</v>
+        <v>0.0002322102463617118</v>
       </c>
       <c r="DN24" t="n">
-        <v>0.004242640687119446</v>
+        <v>0.04623130252689586</v>
       </c>
       <c r="DO24" t="n">
         <v>0</v>
@@ -22665,133 +22663,133 @@
         <v>0</v>
       </c>
       <c r="DR24" t="n">
-        <v>0.008456352648881114</v>
+        <v>0.002857076527787342</v>
       </c>
       <c r="DS24" t="n">
-        <v>0.0002433472177138916</v>
+        <v>5.520229413366629e-05</v>
       </c>
       <c r="DT24" t="n">
-        <v>0.008486328591643137</v>
+        <v>0.00368009754341232</v>
       </c>
       <c r="DU24" t="n">
-        <v>0.000345435887649957</v>
+        <v>0.0001020138275989838</v>
       </c>
       <c r="DV24" t="n">
-        <v>0.01584796564771149</v>
+        <v>0.003277061996905263</v>
       </c>
       <c r="DW24" t="n">
-        <v>0.000955183521198525</v>
+        <v>8.888832979699674e-05</v>
       </c>
       <c r="DX24" t="n">
-        <v>0.01736499117700453</v>
+        <v>0.007252440627440998</v>
       </c>
       <c r="DY24" t="n">
-        <v>0.001589577849798874</v>
+        <v>0.0002322102463617117</v>
       </c>
       <c r="DZ24" t="n">
-        <v>0.07088945166653568</v>
+        <v>0.01813778037469165</v>
       </c>
       <c r="EA24" t="n">
-        <v>0.001488552309309979</v>
+        <v>0.0002717496366739102</v>
       </c>
       <c r="EB24" t="n">
-        <v>170.0847213825074</v>
+        <v>41.99300568934223</v>
       </c>
       <c r="EC24" t="n">
-        <v>0.07092480877333439</v>
+        <v>0.01813778037469165</v>
       </c>
       <c r="ED24" t="n">
-        <v>218.9356251492981</v>
+        <v>129.0463500952076</v>
       </c>
       <c r="EE24" t="n">
-        <v>0.006424645011461837</v>
+        <v>0.01073077782259777</v>
       </c>
       <c r="EF24" t="n">
-        <v>0.1921701638032887</v>
+        <v>0.4411984592856703</v>
       </c>
       <c r="EG24" t="n">
-        <v>0.02399608251561482</v>
+        <v>0.02344333090808452</v>
       </c>
       <c r="EH24" t="n">
-        <v>0.01284929002292367</v>
+        <v>0.02146155564519547</v>
       </c>
       <c r="EI24" t="n">
-        <v>0.05355981759710863</v>
+        <v>0.01097796021216784</v>
       </c>
       <c r="EJ24" t="n">
-        <v>0.0005841986239531512</v>
+        <v>0.0001647980872132392</v>
       </c>
       <c r="EK24" t="n">
-        <v>306.7127656505486</v>
+        <v>99.36902440336532</v>
       </c>
       <c r="EL24" t="n">
-        <v>0.05355981759710863</v>
+        <v>0.01097796021216473</v>
       </c>
       <c r="EM24" t="n">
-        <v>339.0620918691131</v>
+        <v>238.7036186378782</v>
       </c>
       <c r="EN24" t="n">
-        <v>0.006142209776052528</v>
+        <v>0.006038952441465663</v>
       </c>
       <c r="EO24" t="n">
         <v>0</v>
       </c>
       <c r="EP24" t="n">
-        <v>0.4281869330631151</v>
+        <v>0.07332998605063305</v>
       </c>
       <c r="EQ24" t="n">
-        <v>0.01896589254625875</v>
+        <v>0.009532076860937745</v>
       </c>
       <c r="ER24" t="n">
-        <v>0.01228441955210506</v>
+        <v>0.01207790488293135</v>
       </c>
       <c r="ES24" t="inlineStr"/>
       <c r="ET24" t="inlineStr"/>
       <c r="EU24" t="inlineStr"/>
       <c r="EV24" t="n">
-        <v>0.06874840052511698</v>
+        <v>0.005203318495667144</v>
       </c>
       <c r="EW24" t="n">
-        <v>46.31807786877987</v>
+        <v>10.97700480403099</v>
       </c>
       <c r="EX24" t="n">
-        <v>0.01073920103441337</v>
+        <v>0.1553257691319047</v>
       </c>
       <c r="EY24" t="inlineStr"/>
       <c r="EZ24" t="inlineStr"/>
       <c r="FA24" t="inlineStr"/>
       <c r="FB24" t="n">
-        <v>0.03099202171785446</v>
+        <v>1.983760221304842</v>
       </c>
       <c r="FC24" t="n">
-        <v>25.10305891211447</v>
+        <v>42.18958180234006</v>
       </c>
       <c r="FD24" t="n">
-        <v>0.2176491756458826</v>
+        <v>1.882053819896045</v>
       </c>
       <c r="FE24" t="n">
-        <v>0.1216286441986038</v>
+        <v>0.03339711578606999</v>
       </c>
       <c r="FF24" t="n">
-        <v>0.1380520687849341</v>
+        <v>0.0139454484470955</v>
       </c>
       <c r="FG24" t="n">
-        <v>0.1175330718407807</v>
+        <v>0.06750483955959084</v>
       </c>
       <c r="FH24" t="n">
-        <v>0.0009412833102773639</v>
+        <v>0.0002145247470159356</v>
       </c>
       <c r="FI24" t="n">
-        <v>0.09270095740572379</v>
+        <v>0.002122073193456274</v>
       </c>
       <c r="FJ24" t="n">
-        <v>0.1070258906364329</v>
+        <v>0.02257527815472279</v>
       </c>
       <c r="FK24" t="n">
-        <v>0.08285966555362773</v>
+        <v>0.004011300555159037</v>
       </c>
       <c r="FL24" t="n">
-        <v>0.0005400723946575939</v>
+        <v>0.0001126215157083501</v>
       </c>
       <c r="FM24" t="n">
         <v>0</v>
@@ -22806,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="FQ24" t="n">
-        <v>1776.959341121794</v>
+        <v>304.1140137075795</v>
       </c>
       <c r="FR24" t="inlineStr"/>
       <c r="FS24" t="inlineStr"/>
@@ -22814,16 +22812,16 @@
       <c r="FU24" t="inlineStr"/>
       <c r="FV24" t="inlineStr"/>
       <c r="FW24" t="n">
-        <v>1776.959341121794</v>
+        <v>304.1140137075795</v>
       </c>
       <c r="FX24" t="n">
-        <v>3.888460752411926e-05</v>
+        <v>4.024905179823073e-07</v>
       </c>
       <c r="FY24" t="n">
-        <v>3.86722932488115e-05</v>
+        <v>3.745015785598812e-07</v>
       </c>
       <c r="FZ24" t="n">
-        <v>3.909692179942702e-05</v>
+        <v>4.304801978034521e-07</v>
       </c>
       <c r="GA24" t="inlineStr"/>
       <c r="GB24" t="inlineStr">
@@ -23268,38 +23266,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FG04-FI1-6mW-R1</t>
+          <t>FO1_MI1-Oct2822postpin</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6292725237121886</v>
+        <v>0.09341848008997999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002764209695070665</v>
+        <v>0.004147347129790299</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001410810760944514</v>
+        <v>0.001604703338086821</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00237650601664155</v>
+        <v>0.003802758346024893</v>
       </c>
       <c r="G25" t="n">
-        <v>104.2052673989473</v>
+        <v>102.986017762329</v>
       </c>
       <c r="H25" t="n">
-        <v>0.002855553499603664</v>
+        <v>0.004049825254464011</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006305703427162968</v>
+        <v>0.0005773261539765429</v>
       </c>
       <c r="J25" t="n">
-        <v>0.002790576325674849</v>
+        <v>0.004014051013389069</v>
       </c>
       <c r="K25" t="n">
-        <v>5.9815</v>
+        <v>11.974</v>
       </c>
       <c r="L25" t="n">
-        <v>1325.004</v>
+        <v>1350.012</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -23314,26 +23312,26 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>SupCrit, Med density</t>
+          <t>SupCrit, low density</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>0.5765341304968992</v>
+        <v>0.09341848008997999</v>
       </c>
       <c r="R25" t="n">
-        <v>0.007907204383592581</v>
+        <v>0.004147347129790299</v>
       </c>
       <c r="S25" t="n">
-        <v>0.6292725237121886</v>
+        <v>0.09631601115052035</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002764209695070665</v>
+        <v>0.00291036247846297</v>
       </c>
       <c r="U25" t="n">
-        <v>0.632759465534491</v>
+        <v>-0.1138385830422522</v>
       </c>
       <c r="V25" t="n">
-        <v>0.002132945062168138</v>
+        <v>0.003598656542172369</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -23341,37 +23339,37 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>104.4158922571987</v>
+        <v>103.2030448368432</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.002790576325674849</v>
+        <v>0.004014051013389069</v>
       </c>
       <c r="Z25" t="n">
-        <v>1283.325328224251</v>
+        <v>1285.820639785995</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.002553583327456245</v>
+        <v>0.003561155643082998</v>
       </c>
       <c r="AB25" t="n">
-        <v>1333.899442195122</v>
+        <v>431.1551589192777</v>
       </c>
       <c r="AC25" t="n">
-        <v>1283.325378226752</v>
+        <v>1285.820664787245</v>
       </c>
       <c r="AD25" t="n">
-        <v>3793.713211401103</v>
+        <v>550.3696621496422</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.008317934316421</v>
+        <v>0.4906512990194565</v>
       </c>
       <c r="AF25" t="n">
-        <v>4.535099036282623</v>
+        <v>1.678161540558363</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.7636524785683638</v>
+        <v>0.5620252860068462</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.016635868632843</v>
+        <v>0.981302598038913</v>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
@@ -23379,34 +23377,34 @@
         </is>
       </c>
       <c r="AJ25" t="n">
-        <v>1387.7412954852</v>
+        <v>1389.023659621588</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.00110536927364338</v>
+        <v>0.001848138763519428</v>
       </c>
       <c r="AL25" t="n">
-        <v>2836.272672314981</v>
+        <v>727.1565564132621</v>
       </c>
       <c r="AM25" t="n">
-        <v>1387.74127048395</v>
+        <v>1389.023709624088</v>
       </c>
       <c r="AN25" t="n">
-        <v>6290.790297839905</v>
+        <v>793.4746967671249</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.7833660853256327</v>
+        <v>0.4386784001760267</v>
       </c>
       <c r="AP25" t="n">
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
-        <v>3.392374464979445</v>
+        <v>1.582023392953362</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.7831227749247964</v>
+        <v>0.4454906101124297</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.566732170651265</v>
+        <v>0.8773568003520533</v>
       </c>
       <c r="AT25" t="inlineStr">
         <is>
@@ -23414,64 +23412,58 @@
         </is>
       </c>
       <c r="AU25" t="n">
-        <v>1263.272387602959</v>
+        <v>1265.580089958605</v>
       </c>
       <c r="AV25" t="n">
-        <v>593.3948119793481</v>
+        <v>96.38838775926904</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.013993722491542</v>
+        <v>0.5752909420808221</v>
       </c>
       <c r="AX25" t="n">
-        <v>1409.205019314455</v>
+        <v>1410.344780489308</v>
       </c>
       <c r="AY25" t="n">
-        <v>680.3615411593926</v>
+        <v>87.77748734483031</v>
       </c>
       <c r="AZ25" t="n">
-        <v>1.838480361281925</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>1370.09103359047</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>75.74665119489389</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.3903767602727979</v>
-      </c>
+        <v>0.6077826223921147</v>
+      </c>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="n">
-        <v>1386.912733607238</v>
+        <v>1381.986422708666</v>
       </c>
       <c r="BE25" t="n">
-        <v>633.4270091640092</v>
+        <v>18.56370404346136</v>
       </c>
       <c r="BF25" t="n">
-        <v>17.5745468710798</v>
+        <v>10.63225278692788</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.014272348533418</v>
+        <v>1.141753568018936</v>
       </c>
       <c r="BH25" t="n">
-        <v>1.016083582823337</v>
+        <v>1.169228807191666</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.02878361212804811</v>
+        <v>0.138321723716067</v>
       </c>
       <c r="BJ25" t="n">
-        <v>0.001518394016436659</v>
+        <v>0.002461646418622321</v>
       </c>
       <c r="BK25" t="n">
-        <v>1.052064678561577</v>
+        <v>1.124373005015776</v>
       </c>
       <c r="BL25" t="n">
-        <v>1.059009564407944</v>
+        <v>1.155090497737588</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.08141438139888491</v>
+        <v>0.1096888904576375</v>
       </c>
       <c r="BN25" t="n">
-        <v>0.0005552627149608513</v>
+        <v>0.001320458903646095</v>
       </c>
       <c r="BO25" t="inlineStr">
         <is>
@@ -23485,17 +23477,17 @@
       </c>
       <c r="BQ25" t="inlineStr">
         <is>
-          <t xml:space="preserve">November 8, 2022
+          <t xml:space="preserve">October 28, 2022
 </t>
         </is>
       </c>
       <c r="BR25" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>October</t>
         </is>
       </c>
       <c r="BS25" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="BT25" t="n">
         <v>45</v>
@@ -23513,12 +23505,12 @@
       </c>
       <c r="BX25" t="inlineStr">
         <is>
-          <t xml:space="preserve">12:19:20 PM
+          <t xml:space="preserve">11:48:34 AM
 </t>
         </is>
       </c>
       <c r="BY25" t="n">
-        <v>45275.25</v>
+        <v>41257.5</v>
       </c>
       <c r="BZ25" t="inlineStr"/>
       <c r="CA25" t="inlineStr"/>
@@ -23532,20 +23524,20 @@
       <c r="CI25" t="inlineStr"/>
       <c r="CJ25" t="inlineStr"/>
       <c r="CK25" t="n">
-        <v>45275.25</v>
+        <v>41257.5</v>
       </c>
       <c r="CL25" t="n">
-        <v>0.9979828279135232</v>
+        <v>0.9978970832452403</v>
       </c>
       <c r="CM25" t="n">
-        <v>0.9979767888863956</v>
+        <v>0.9978914891824733</v>
       </c>
       <c r="CN25" t="n">
-        <v>0.9979888669406508</v>
+        <v>0.9979026773080073</v>
       </c>
       <c r="CO25" t="inlineStr"/>
       <c r="CP25" s="2" t="n">
-        <v>44873</v>
+        <v>44862</v>
       </c>
       <c r="CQ25" t="inlineStr">
         <is>
@@ -23559,33 +23551,29 @@
       </c>
       <c r="CS25" t="inlineStr">
         <is>
-          <t>FG04</t>
-        </is>
-      </c>
-      <c r="CT25" t="inlineStr">
-        <is>
-          <t>FI1</t>
-        </is>
-      </c>
+          <t>FO1</t>
+        </is>
+      </c>
+      <c r="CT25" t="inlineStr"/>
       <c r="CU25" t="inlineStr"/>
       <c r="CV25" t="inlineStr">
         <is>
-          <t>FI1</t>
+          <t>MI1</t>
         </is>
       </c>
       <c r="CW25" t="inlineStr">
         <is>
-          <t>FG04_FI1</t>
+          <t>FO1</t>
         </is>
       </c>
       <c r="CX25" t="inlineStr">
         <is>
-          <t>FG04_FI1</t>
+          <t>FO1</t>
         </is>
       </c>
       <c r="CY25" t="inlineStr">
         <is>
-          <t>FG04_FI1</t>
+          <t>FO1-MI1-44862</t>
         </is>
       </c>
       <c r="CZ25" t="inlineStr"/>
@@ -23595,31 +23583,31 @@
       <c r="DD25" t="inlineStr"/>
       <c r="DE25" t="inlineStr"/>
       <c r="DF25" t="n">
-        <v>0.003032727239836916</v>
+        <v>0.008456352648881114</v>
       </c>
       <c r="DG25" t="n">
-        <v>3.632242197847467e-05</v>
+        <v>0.0002433472177138916</v>
       </c>
       <c r="DH25" t="n">
-        <v>7.001493004747629e-05</v>
+        <v>0.0006229769703712424</v>
       </c>
       <c r="DI25" t="n">
-        <v>6.417932765274031e-07</v>
+        <v>2.511903243129822e-06</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0.006142790534873657</v>
+        <v>0.02134148393991476</v>
       </c>
       <c r="DK25" t="n">
-        <v>0.0001405188160997791</v>
+        <v>0.001572220738673515</v>
       </c>
       <c r="DL25" t="n">
-        <v>2.953985441141436e-06</v>
+        <v>2.200862052676851e-05</v>
       </c>
       <c r="DM25" t="n">
-        <v>0.0001436930918044791</v>
+        <v>0.001589577849798874</v>
       </c>
       <c r="DN25" t="n">
-        <v>0.01279322737493008</v>
+        <v>0.004242640687119446</v>
       </c>
       <c r="DO25" t="n">
         <v>0</v>
@@ -23631,145 +23619,133 @@
         <v>0</v>
       </c>
       <c r="DR25" t="n">
-        <v>0.002434020200161891</v>
+        <v>0.008456352648881114</v>
       </c>
       <c r="DS25" t="n">
-        <v>3.237884297350946e-05</v>
+        <v>0.0002433472177138916</v>
       </c>
       <c r="DT25" t="n">
-        <v>0.003032727239836916</v>
+        <v>0.008486328591643137</v>
       </c>
       <c r="DU25" t="n">
-        <v>3.632242197847467e-05</v>
+        <v>0.000345435887649957</v>
       </c>
       <c r="DV25" t="n">
-        <v>0.002964922223740872</v>
+        <v>0.01584796564771149</v>
       </c>
       <c r="DW25" t="n">
-        <v>4.337848559822761e-05</v>
+        <v>0.000955183521198525</v>
       </c>
       <c r="DX25" t="n">
-        <v>0.006717732563808215</v>
+        <v>0.01736499117700453</v>
       </c>
       <c r="DY25" t="n">
-        <v>0.0001436930918044791</v>
+        <v>0.001589577849798874</v>
       </c>
       <c r="DZ25" t="n">
-        <v>0.01740846988334238</v>
+        <v>0.07088945166653568</v>
       </c>
       <c r="EA25" t="n">
-        <v>0.000211538879374409</v>
+        <v>0.001488552309309979</v>
       </c>
       <c r="EB25" t="n">
-        <v>99.84711935155696</v>
+        <v>170.0847213825074</v>
       </c>
       <c r="EC25" t="n">
-        <v>0.01740846988265456</v>
+        <v>0.07092480877333439</v>
       </c>
       <c r="ED25" t="n">
-        <v>270.7112984196456</v>
+        <v>218.9356251492981</v>
       </c>
       <c r="EE25" t="n">
-        <v>0.00525715415191168</v>
+        <v>0.006424645011461837</v>
       </c>
       <c r="EF25" t="n">
-        <v>0.1177772492016271</v>
+        <v>0.1921701638032887</v>
       </c>
       <c r="EG25" t="n">
-        <v>0.01019848596379882</v>
+        <v>0.02399608251561482</v>
       </c>
       <c r="EH25" t="n">
-        <v>0.01051430830382312</v>
+        <v>0.01284929002292367</v>
       </c>
       <c r="EI25" t="n">
-        <v>0.01510740052524395</v>
+        <v>0.05355981759710863</v>
       </c>
       <c r="EJ25" t="n">
-        <v>0.0001883664633935844</v>
+        <v>0.0005841986239531512</v>
       </c>
       <c r="EK25" t="n">
-        <v>223.8092616131979</v>
+        <v>306.7127656505486</v>
       </c>
       <c r="EL25" t="n">
-        <v>0.0151004376199897</v>
+        <v>0.05355981759710863</v>
       </c>
       <c r="EM25" t="n">
-        <v>453.306075282446</v>
+        <v>339.0620918691131</v>
       </c>
       <c r="EN25" t="n">
-        <v>0.00694407758087867</v>
+        <v>0.006142209776052528</v>
       </c>
       <c r="EO25" t="n">
         <v>0</v>
       </c>
       <c r="EP25" t="n">
-        <v>0.5886705993357944</v>
+        <v>0.4281869330631151</v>
       </c>
       <c r="EQ25" t="n">
-        <v>0.003865960295496865</v>
+        <v>0.01896589254625875</v>
       </c>
       <c r="ER25" t="n">
-        <v>0.01388815516175726</v>
-      </c>
-      <c r="ES25" t="n">
-        <v>0.02785125340029329</v>
-      </c>
-      <c r="ET25" t="n">
-        <v>37.71067921396399</v>
-      </c>
-      <c r="EU25" t="n">
-        <v>0.0181270611435726</v>
-      </c>
+        <v>0.01228441955210506</v>
+      </c>
+      <c r="ES25" t="inlineStr"/>
+      <c r="ET25" t="inlineStr"/>
+      <c r="EU25" t="inlineStr"/>
       <c r="EV25" t="n">
-        <v>0.04607737022419683</v>
+        <v>0.06874840052511698</v>
       </c>
       <c r="EW25" t="n">
-        <v>50.4194431000566</v>
+        <v>46.31807786877987</v>
       </c>
       <c r="EX25" t="n">
-        <v>0.03064242232367852</v>
-      </c>
-      <c r="EY25" t="n">
-        <v>0.03821744126733946</v>
-      </c>
-      <c r="EZ25" t="n">
-        <v>5.00814385487167</v>
-      </c>
-      <c r="FA25" t="n">
-        <v>0.003451465742038071</v>
-      </c>
+        <v>0.01073920103441337</v>
+      </c>
+      <c r="EY25" t="inlineStr"/>
+      <c r="EZ25" t="inlineStr"/>
+      <c r="FA25" t="inlineStr"/>
       <c r="FB25" t="n">
-        <v>0.8160349448995287</v>
+        <v>0.03099202171785446</v>
       </c>
       <c r="FC25" t="n">
-        <v>79.3282280846464</v>
+        <v>25.10305891211447</v>
       </c>
       <c r="FD25" t="n">
-        <v>1.004423324041488</v>
+        <v>0.2176491756458826</v>
       </c>
       <c r="FE25" t="n">
-        <v>0.008804931463492857</v>
+        <v>0.1216286441986038</v>
       </c>
       <c r="FF25" t="n">
-        <v>0.01128161408829143</v>
+        <v>0.1380520687849341</v>
       </c>
       <c r="FG25" t="n">
-        <v>0.0177033158608911</v>
+        <v>0.1175330718407807</v>
       </c>
       <c r="FH25" t="n">
-        <v>0.0001170379453617623</v>
+        <v>0.0009412833102773639</v>
       </c>
       <c r="FI25" t="n">
-        <v>0.01653152307269253</v>
+        <v>0.09270095740572379</v>
       </c>
       <c r="FJ25" t="n">
-        <v>0.02773473352906075</v>
+        <v>0.1070258906364329</v>
       </c>
       <c r="FK25" t="n">
-        <v>0.02526730494935499</v>
+        <v>0.08285966555362773</v>
       </c>
       <c r="FL25" t="n">
-        <v>4.857399859010584e-05</v>
+        <v>0.0005400723946575939</v>
       </c>
       <c r="FM25" t="n">
         <v>0</v>
@@ -23784,7 +23760,7 @@
         <v>0</v>
       </c>
       <c r="FQ25" t="n">
-        <v>835.5067823383192</v>
+        <v>1776.959341121794</v>
       </c>
       <c r="FR25" t="inlineStr"/>
       <c r="FS25" t="inlineStr"/>
@@ -23792,16 +23768,16 @@
       <c r="FU25" t="inlineStr"/>
       <c r="FV25" t="inlineStr"/>
       <c r="FW25" t="n">
-        <v>835.5067823383192</v>
+        <v>1776.959341121794</v>
       </c>
       <c r="FX25" t="n">
-        <v>1.518736157836362e-05</v>
+        <v>3.888460752411926e-05</v>
       </c>
       <c r="FY25" t="n">
-        <v>1.515891223980216e-05</v>
+        <v>3.86722932488115e-05</v>
       </c>
       <c r="FZ25" t="n">
-        <v>1.521581095319652e-05</v>
+        <v>3.909692179942702e-05</v>
       </c>
       <c r="GA25" t="inlineStr"/>
       <c r="GB25" t="inlineStr">
@@ -24240,6 +24216,984 @@
       <c r="WK25" t="inlineStr"/>
       <c r="WL25" t="inlineStr"/>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FG04-FI1-6mW-R1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6292725237121886</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.002764209695070665</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.001410810760944514</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.00237650601664155</v>
+      </c>
+      <c r="G26" t="n">
+        <v>104.2052673989473</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.002855553499603664</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0006305703427162968</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.002790576325674849</v>
+      </c>
+      <c r="K26" t="n">
+        <v>5.9815</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1325.004</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>SupCrit, Med density</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.5765341304968992</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.007907204383592581</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.6292725237121886</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.002764209695070665</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.632759465534491</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.002132945062168138</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>SupCrit</t>
+        </is>
+      </c>
+      <c r="X26" t="n">
+        <v>104.4158922571987</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.002790576325674849</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>1283.325328224251</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.002553583327456245</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1333.899442195122</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1283.325378226752</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3793.713211401103</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1.008317934316421</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>4.535099036282623</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.7636524785683638</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2.016635868632843</v>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1387.7412954852</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.00110536927364338</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2836.272672314981</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1387.74127048395</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6290.790297839905</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.7833660853256327</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>3.392374464979445</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.7831227749247964</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>1.566732170651265</v>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>Flagged Warnings:</t>
+        </is>
+      </c>
+      <c r="AU26" t="n">
+        <v>1263.272387602959</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>593.3948119793481</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>3.013993722491542</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>1409.205019314455</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>680.3615411593926</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>1.838480361281925</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>1370.09103359047</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>75.74665119489389</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.3903767602727979</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1386.912733607238</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>633.4270091640092</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>17.5745468710798</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.014272348533418</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>1.016083582823337</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.02878361212804811</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>0.001518394016436659</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1.052064678561577</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.059009564407944</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.08141438139888491</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>0.0005552627149608513</v>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>PseudoVoigtModel</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">November 8, 2022
+</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="BS26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>45</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>50</v>
+      </c>
+      <c r="BW26" t="inlineStr">
+        <is>
+          <t>['0h', '3m', '47s']</t>
+        </is>
+      </c>
+      <c r="BX26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12:19:20 PM
+</t>
+        </is>
+      </c>
+      <c r="BY26" t="n">
+        <v>45275.25</v>
+      </c>
+      <c r="BZ26" t="inlineStr"/>
+      <c r="CA26" t="inlineStr"/>
+      <c r="CB26" t="inlineStr"/>
+      <c r="CC26" t="inlineStr"/>
+      <c r="CD26" t="inlineStr"/>
+      <c r="CE26" t="inlineStr"/>
+      <c r="CF26" t="inlineStr"/>
+      <c r="CG26" t="inlineStr"/>
+      <c r="CH26" t="inlineStr"/>
+      <c r="CI26" t="inlineStr"/>
+      <c r="CJ26" t="inlineStr"/>
+      <c r="CK26" t="n">
+        <v>45275.25</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0.9979828279135232</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0.9979767888863956</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0.9979888669406508</v>
+      </c>
+      <c r="CO26" t="inlineStr"/>
+      <c r="CP26" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="CQ26" t="inlineStr">
+        <is>
+          <t>Std</t>
+        </is>
+      </c>
+      <c r="CR26" t="inlineStr">
+        <is>
+          <t>2 (CLJD)</t>
+        </is>
+      </c>
+      <c r="CS26" t="inlineStr">
+        <is>
+          <t>FG04</t>
+        </is>
+      </c>
+      <c r="CT26" t="inlineStr">
+        <is>
+          <t>FI1</t>
+        </is>
+      </c>
+      <c r="CU26" t="inlineStr"/>
+      <c r="CV26" t="inlineStr">
+        <is>
+          <t>FI1</t>
+        </is>
+      </c>
+      <c r="CW26" t="inlineStr">
+        <is>
+          <t>FG04_FI1</t>
+        </is>
+      </c>
+      <c r="CX26" t="inlineStr">
+        <is>
+          <t>FG04_FI1</t>
+        </is>
+      </c>
+      <c r="CY26" t="inlineStr">
+        <is>
+          <t>FG04_FI1</t>
+        </is>
+      </c>
+      <c r="CZ26" t="inlineStr"/>
+      <c r="DA26" t="inlineStr"/>
+      <c r="DB26" t="inlineStr"/>
+      <c r="DC26" t="inlineStr"/>
+      <c r="DD26" t="inlineStr"/>
+      <c r="DE26" t="inlineStr"/>
+      <c r="DF26" t="n">
+        <v>0.003032727239836916</v>
+      </c>
+      <c r="DG26" t="n">
+        <v>3.632242197847467e-05</v>
+      </c>
+      <c r="DH26" t="n">
+        <v>7.001493004747629e-05</v>
+      </c>
+      <c r="DI26" t="n">
+        <v>6.417932765274031e-07</v>
+      </c>
+      <c r="DJ26" t="n">
+        <v>0.006142790534873657</v>
+      </c>
+      <c r="DK26" t="n">
+        <v>0.0001405188160997791</v>
+      </c>
+      <c r="DL26" t="n">
+        <v>2.953985441141436e-06</v>
+      </c>
+      <c r="DM26" t="n">
+        <v>0.0001436930918044791</v>
+      </c>
+      <c r="DN26" t="n">
+        <v>0.01279322737493008</v>
+      </c>
+      <c r="DO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR26" t="n">
+        <v>0.002434020200161891</v>
+      </c>
+      <c r="DS26" t="n">
+        <v>3.237884297350946e-05</v>
+      </c>
+      <c r="DT26" t="n">
+        <v>0.003032727239836916</v>
+      </c>
+      <c r="DU26" t="n">
+        <v>3.632242197847467e-05</v>
+      </c>
+      <c r="DV26" t="n">
+        <v>0.002964922223740872</v>
+      </c>
+      <c r="DW26" t="n">
+        <v>4.337848559822761e-05</v>
+      </c>
+      <c r="DX26" t="n">
+        <v>0.006717732563808215</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>0.0001436930918044791</v>
+      </c>
+      <c r="DZ26" t="n">
+        <v>0.01740846988334238</v>
+      </c>
+      <c r="EA26" t="n">
+        <v>0.000211538879374409</v>
+      </c>
+      <c r="EB26" t="n">
+        <v>99.84711935155696</v>
+      </c>
+      <c r="EC26" t="n">
+        <v>0.01740846988265456</v>
+      </c>
+      <c r="ED26" t="n">
+        <v>270.7112984196456</v>
+      </c>
+      <c r="EE26" t="n">
+        <v>0.00525715415191168</v>
+      </c>
+      <c r="EF26" t="n">
+        <v>0.1177772492016271</v>
+      </c>
+      <c r="EG26" t="n">
+        <v>0.01019848596379882</v>
+      </c>
+      <c r="EH26" t="n">
+        <v>0.01051430830382312</v>
+      </c>
+      <c r="EI26" t="n">
+        <v>0.01510740052524395</v>
+      </c>
+      <c r="EJ26" t="n">
+        <v>0.0001883664633935844</v>
+      </c>
+      <c r="EK26" t="n">
+        <v>223.8092616131979</v>
+      </c>
+      <c r="EL26" t="n">
+        <v>0.0151004376199897</v>
+      </c>
+      <c r="EM26" t="n">
+        <v>453.306075282446</v>
+      </c>
+      <c r="EN26" t="n">
+        <v>0.00694407758087867</v>
+      </c>
+      <c r="EO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP26" t="n">
+        <v>0.5886705993357944</v>
+      </c>
+      <c r="EQ26" t="n">
+        <v>0.003865960295496865</v>
+      </c>
+      <c r="ER26" t="n">
+        <v>0.01388815516175726</v>
+      </c>
+      <c r="ES26" t="n">
+        <v>0.02785125340029329</v>
+      </c>
+      <c r="ET26" t="n">
+        <v>37.71067921396399</v>
+      </c>
+      <c r="EU26" t="n">
+        <v>0.0181270611435726</v>
+      </c>
+      <c r="EV26" t="n">
+        <v>0.04607737022419683</v>
+      </c>
+      <c r="EW26" t="n">
+        <v>50.4194431000566</v>
+      </c>
+      <c r="EX26" t="n">
+        <v>0.03064242232367852</v>
+      </c>
+      <c r="EY26" t="n">
+        <v>0.03821744126733946</v>
+      </c>
+      <c r="EZ26" t="n">
+        <v>5.00814385487167</v>
+      </c>
+      <c r="FA26" t="n">
+        <v>0.003451465742038071</v>
+      </c>
+      <c r="FB26" t="n">
+        <v>0.8160349448995287</v>
+      </c>
+      <c r="FC26" t="n">
+        <v>79.3282280846464</v>
+      </c>
+      <c r="FD26" t="n">
+        <v>1.004423324041488</v>
+      </c>
+      <c r="FE26" t="n">
+        <v>0.008804931463492857</v>
+      </c>
+      <c r="FF26" t="n">
+        <v>0.01128161408829143</v>
+      </c>
+      <c r="FG26" t="n">
+        <v>0.0177033158608911</v>
+      </c>
+      <c r="FH26" t="n">
+        <v>0.0001170379453617623</v>
+      </c>
+      <c r="FI26" t="n">
+        <v>0.01653152307269253</v>
+      </c>
+      <c r="FJ26" t="n">
+        <v>0.02773473352906075</v>
+      </c>
+      <c r="FK26" t="n">
+        <v>0.02526730494935499</v>
+      </c>
+      <c r="FL26" t="n">
+        <v>4.857399859010584e-05</v>
+      </c>
+      <c r="FM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ26" t="n">
+        <v>835.5067823383192</v>
+      </c>
+      <c r="FR26" t="inlineStr"/>
+      <c r="FS26" t="inlineStr"/>
+      <c r="FT26" t="inlineStr"/>
+      <c r="FU26" t="inlineStr"/>
+      <c r="FV26" t="inlineStr"/>
+      <c r="FW26" t="n">
+        <v>835.5067823383192</v>
+      </c>
+      <c r="FX26" t="n">
+        <v>1.518736157836362e-05</v>
+      </c>
+      <c r="FY26" t="n">
+        <v>1.515891223980216e-05</v>
+      </c>
+      <c r="FZ26" t="n">
+        <v>1.521581095319652e-05</v>
+      </c>
+      <c r="GA26" t="inlineStr"/>
+      <c r="GB26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="GC26" t="inlineStr"/>
+      <c r="GD26" t="inlineStr"/>
+      <c r="GE26" t="inlineStr"/>
+      <c r="GF26" t="inlineStr"/>
+      <c r="GG26" t="inlineStr"/>
+      <c r="GH26" t="inlineStr"/>
+      <c r="GI26" t="inlineStr"/>
+      <c r="GJ26" t="inlineStr"/>
+      <c r="GK26" t="inlineStr"/>
+      <c r="GL26" t="inlineStr"/>
+      <c r="GM26" t="inlineStr"/>
+      <c r="GN26" t="inlineStr"/>
+      <c r="GO26" t="inlineStr"/>
+      <c r="GP26" t="inlineStr"/>
+      <c r="GQ26" t="inlineStr"/>
+      <c r="GR26" t="inlineStr"/>
+      <c r="GS26" t="inlineStr"/>
+      <c r="GT26" t="inlineStr"/>
+      <c r="GU26" t="inlineStr"/>
+      <c r="GV26" t="inlineStr"/>
+      <c r="GW26" t="inlineStr"/>
+      <c r="GX26" t="inlineStr"/>
+      <c r="GY26" t="inlineStr"/>
+      <c r="GZ26" t="inlineStr"/>
+      <c r="HA26" t="inlineStr"/>
+      <c r="HB26" t="inlineStr"/>
+      <c r="HC26" t="inlineStr"/>
+      <c r="HD26" t="inlineStr"/>
+      <c r="HE26" t="inlineStr"/>
+      <c r="HF26" t="inlineStr"/>
+      <c r="HG26" t="inlineStr"/>
+      <c r="HH26" t="inlineStr"/>
+      <c r="HI26" t="inlineStr"/>
+      <c r="HJ26" t="inlineStr"/>
+      <c r="HK26" t="inlineStr"/>
+      <c r="HL26" t="inlineStr"/>
+      <c r="HM26" t="inlineStr"/>
+      <c r="HN26" t="inlineStr"/>
+      <c r="HO26" t="inlineStr"/>
+      <c r="HP26" t="inlineStr"/>
+      <c r="HQ26" t="inlineStr"/>
+      <c r="HR26" t="inlineStr"/>
+      <c r="HS26" t="inlineStr"/>
+      <c r="HT26" t="inlineStr"/>
+      <c r="HU26" t="inlineStr"/>
+      <c r="HV26" t="inlineStr"/>
+      <c r="HW26" t="inlineStr"/>
+      <c r="HX26" t="inlineStr"/>
+      <c r="HY26" t="inlineStr"/>
+      <c r="HZ26" t="inlineStr"/>
+      <c r="IA26" t="inlineStr"/>
+      <c r="IB26" t="inlineStr"/>
+      <c r="IC26" t="inlineStr"/>
+      <c r="ID26" t="inlineStr"/>
+      <c r="IE26" t="inlineStr"/>
+      <c r="IF26" t="inlineStr"/>
+      <c r="IG26" t="inlineStr"/>
+      <c r="IH26" t="inlineStr"/>
+      <c r="II26" t="inlineStr"/>
+      <c r="IJ26" t="inlineStr"/>
+      <c r="IK26" t="inlineStr"/>
+      <c r="IL26" t="inlineStr"/>
+      <c r="IM26" t="inlineStr"/>
+      <c r="IN26" t="inlineStr"/>
+      <c r="IO26" t="inlineStr"/>
+      <c r="IP26" t="inlineStr"/>
+      <c r="IQ26" t="inlineStr"/>
+      <c r="IR26" t="inlineStr"/>
+      <c r="IS26" t="inlineStr"/>
+      <c r="IT26" t="inlineStr"/>
+      <c r="IU26" t="inlineStr"/>
+      <c r="IV26" t="inlineStr"/>
+      <c r="IW26" t="inlineStr"/>
+      <c r="IX26" t="inlineStr"/>
+      <c r="IY26" t="inlineStr"/>
+      <c r="IZ26" t="inlineStr"/>
+      <c r="JA26" t="inlineStr"/>
+      <c r="JB26" t="inlineStr"/>
+      <c r="JC26" t="inlineStr"/>
+      <c r="JD26" t="inlineStr"/>
+      <c r="JE26" t="inlineStr"/>
+      <c r="JF26" t="inlineStr"/>
+      <c r="JG26" t="inlineStr"/>
+      <c r="JH26" t="inlineStr"/>
+      <c r="JI26" t="inlineStr"/>
+      <c r="JJ26" t="inlineStr"/>
+      <c r="JK26" t="inlineStr"/>
+      <c r="JL26" t="inlineStr"/>
+      <c r="JM26" t="inlineStr"/>
+      <c r="JN26" t="inlineStr"/>
+      <c r="JO26" t="inlineStr"/>
+      <c r="JP26" t="inlineStr"/>
+      <c r="JQ26" t="inlineStr"/>
+      <c r="JR26" t="inlineStr"/>
+      <c r="JS26" t="inlineStr"/>
+      <c r="JT26" t="inlineStr"/>
+      <c r="JU26" t="inlineStr"/>
+      <c r="JV26" t="inlineStr"/>
+      <c r="JW26" t="inlineStr"/>
+      <c r="JX26" t="inlineStr"/>
+      <c r="JY26" t="inlineStr"/>
+      <c r="JZ26" t="inlineStr"/>
+      <c r="KA26" t="inlineStr"/>
+      <c r="KB26" t="inlineStr"/>
+      <c r="KC26" t="inlineStr"/>
+      <c r="KD26" t="inlineStr"/>
+      <c r="KE26" t="inlineStr"/>
+      <c r="KF26" t="inlineStr"/>
+      <c r="KG26" t="inlineStr"/>
+      <c r="KH26" t="inlineStr"/>
+      <c r="KI26" t="inlineStr"/>
+      <c r="KJ26" t="inlineStr"/>
+      <c r="KK26" t="inlineStr"/>
+      <c r="KL26" t="inlineStr"/>
+      <c r="KM26" t="inlineStr"/>
+      <c r="KN26" t="inlineStr"/>
+      <c r="KO26" t="inlineStr"/>
+      <c r="KP26" t="inlineStr"/>
+      <c r="KQ26" t="inlineStr"/>
+      <c r="KR26" t="inlineStr"/>
+      <c r="KS26" t="inlineStr"/>
+      <c r="KT26" t="inlineStr"/>
+      <c r="KU26" t="inlineStr"/>
+      <c r="KV26" t="inlineStr"/>
+      <c r="KW26" t="inlineStr"/>
+      <c r="KX26" t="inlineStr"/>
+      <c r="KY26" t="inlineStr"/>
+      <c r="KZ26" t="inlineStr"/>
+      <c r="LA26" t="inlineStr"/>
+      <c r="LB26" t="inlineStr"/>
+      <c r="LC26" t="inlineStr"/>
+      <c r="LD26" t="inlineStr"/>
+      <c r="LE26" t="inlineStr"/>
+      <c r="LF26" t="inlineStr"/>
+      <c r="LG26" t="inlineStr"/>
+      <c r="LH26" t="inlineStr"/>
+      <c r="LI26" t="inlineStr"/>
+      <c r="LJ26" t="inlineStr"/>
+      <c r="LK26" t="inlineStr"/>
+      <c r="LL26" t="inlineStr"/>
+      <c r="LM26" t="inlineStr"/>
+      <c r="LN26" t="inlineStr"/>
+      <c r="LO26" t="inlineStr"/>
+      <c r="LP26" t="inlineStr"/>
+      <c r="LQ26" t="inlineStr"/>
+      <c r="LR26" t="inlineStr"/>
+      <c r="LS26" t="inlineStr"/>
+      <c r="LT26" t="inlineStr"/>
+      <c r="LU26" t="inlineStr"/>
+      <c r="LV26" t="inlineStr"/>
+      <c r="LW26" t="inlineStr"/>
+      <c r="LX26" t="inlineStr"/>
+      <c r="LY26" t="inlineStr"/>
+      <c r="LZ26" t="inlineStr"/>
+      <c r="MA26" t="inlineStr"/>
+      <c r="MB26" t="inlineStr"/>
+      <c r="MC26" t="inlineStr"/>
+      <c r="MD26" t="inlineStr"/>
+      <c r="ME26" t="inlineStr"/>
+      <c r="MF26" t="inlineStr"/>
+      <c r="MG26" t="inlineStr"/>
+      <c r="MH26" t="inlineStr"/>
+      <c r="MI26" t="inlineStr"/>
+      <c r="MJ26" t="inlineStr"/>
+      <c r="MK26" t="inlineStr"/>
+      <c r="ML26" t="inlineStr"/>
+      <c r="MM26" t="inlineStr"/>
+      <c r="MN26" t="inlineStr"/>
+      <c r="MO26" t="inlineStr"/>
+      <c r="MP26" t="inlineStr"/>
+      <c r="MQ26" t="inlineStr"/>
+      <c r="MR26" t="inlineStr"/>
+      <c r="MS26" t="inlineStr"/>
+      <c r="MT26" t="inlineStr"/>
+      <c r="MU26" t="inlineStr"/>
+      <c r="MV26" t="inlineStr"/>
+      <c r="MW26" t="inlineStr"/>
+      <c r="MX26" t="inlineStr"/>
+      <c r="MY26" t="inlineStr"/>
+      <c r="MZ26" t="inlineStr"/>
+      <c r="NA26" t="inlineStr"/>
+      <c r="NB26" t="inlineStr"/>
+      <c r="NC26" t="inlineStr"/>
+      <c r="ND26" t="inlineStr"/>
+      <c r="NE26" t="inlineStr"/>
+      <c r="NF26" t="inlineStr"/>
+      <c r="NG26" t="inlineStr"/>
+      <c r="NH26" t="inlineStr"/>
+      <c r="NI26" t="inlineStr"/>
+      <c r="NJ26" t="inlineStr"/>
+      <c r="NK26" t="inlineStr"/>
+      <c r="NL26" t="inlineStr"/>
+      <c r="NM26" t="inlineStr"/>
+      <c r="NN26" t="inlineStr"/>
+      <c r="NO26" t="inlineStr"/>
+      <c r="NP26" t="inlineStr"/>
+      <c r="NQ26" t="inlineStr"/>
+      <c r="NR26" t="inlineStr"/>
+      <c r="NS26" t="inlineStr"/>
+      <c r="NT26" t="inlineStr"/>
+      <c r="NU26" t="inlineStr"/>
+      <c r="NV26" t="inlineStr"/>
+      <c r="NW26" t="inlineStr"/>
+      <c r="NX26" t="inlineStr"/>
+      <c r="NY26" t="inlineStr"/>
+      <c r="NZ26" t="inlineStr"/>
+      <c r="OA26" t="inlineStr"/>
+      <c r="OB26" t="inlineStr"/>
+      <c r="OC26" t="inlineStr"/>
+      <c r="OD26" t="inlineStr"/>
+      <c r="OE26" t="inlineStr"/>
+      <c r="OF26" t="inlineStr"/>
+      <c r="OG26" t="inlineStr"/>
+      <c r="OH26" t="inlineStr"/>
+      <c r="OI26" t="inlineStr"/>
+      <c r="OJ26" t="inlineStr"/>
+      <c r="OK26" t="inlineStr"/>
+      <c r="OL26" t="inlineStr"/>
+      <c r="OM26" t="inlineStr"/>
+      <c r="ON26" t="inlineStr"/>
+      <c r="OO26" t="inlineStr"/>
+      <c r="OP26" t="inlineStr"/>
+      <c r="OQ26" t="inlineStr"/>
+      <c r="OR26" t="inlineStr"/>
+      <c r="OS26" t="inlineStr"/>
+      <c r="OT26" t="inlineStr"/>
+      <c r="OU26" t="inlineStr"/>
+      <c r="OV26" t="inlineStr"/>
+      <c r="OW26" t="inlineStr"/>
+      <c r="OX26" t="inlineStr"/>
+      <c r="OY26" t="inlineStr"/>
+      <c r="OZ26" t="inlineStr"/>
+      <c r="PA26" t="inlineStr"/>
+      <c r="PB26" t="inlineStr"/>
+      <c r="PC26" t="inlineStr"/>
+      <c r="PD26" t="inlineStr"/>
+      <c r="PE26" t="inlineStr"/>
+      <c r="PF26" t="inlineStr"/>
+      <c r="PG26" t="inlineStr"/>
+      <c r="PH26" t="inlineStr"/>
+      <c r="PI26" t="inlineStr"/>
+      <c r="PJ26" t="inlineStr"/>
+      <c r="PK26" t="inlineStr"/>
+      <c r="PL26" t="inlineStr"/>
+      <c r="PM26" t="inlineStr"/>
+      <c r="PN26" t="inlineStr"/>
+      <c r="PO26" t="inlineStr"/>
+      <c r="PP26" t="inlineStr"/>
+      <c r="PQ26" t="inlineStr"/>
+      <c r="PR26" t="inlineStr"/>
+      <c r="PS26" t="inlineStr"/>
+      <c r="PT26" t="inlineStr"/>
+      <c r="PU26" t="inlineStr"/>
+      <c r="PV26" t="inlineStr"/>
+      <c r="PW26" t="inlineStr"/>
+      <c r="PX26" t="inlineStr"/>
+      <c r="PY26" t="inlineStr"/>
+      <c r="PZ26" t="inlineStr"/>
+      <c r="QA26" t="inlineStr"/>
+      <c r="QB26" t="inlineStr"/>
+      <c r="QC26" t="inlineStr"/>
+      <c r="QD26" t="inlineStr"/>
+      <c r="QE26" t="inlineStr"/>
+      <c r="QF26" t="inlineStr"/>
+      <c r="QG26" t="inlineStr"/>
+      <c r="QH26" t="inlineStr"/>
+      <c r="QI26" t="inlineStr"/>
+      <c r="QJ26" t="inlineStr"/>
+      <c r="QK26" t="inlineStr"/>
+      <c r="QL26" t="inlineStr"/>
+      <c r="QM26" t="inlineStr"/>
+      <c r="QN26" t="inlineStr"/>
+      <c r="QO26" t="inlineStr"/>
+      <c r="QP26" t="inlineStr"/>
+      <c r="QQ26" t="inlineStr"/>
+      <c r="QR26" t="inlineStr"/>
+      <c r="QS26" t="inlineStr"/>
+      <c r="QT26" t="inlineStr"/>
+      <c r="QU26" t="inlineStr"/>
+      <c r="QV26" t="inlineStr"/>
+      <c r="QW26" t="inlineStr"/>
+      <c r="QX26" t="inlineStr"/>
+      <c r="QY26" t="inlineStr"/>
+      <c r="QZ26" t="inlineStr"/>
+      <c r="RA26" t="inlineStr"/>
+      <c r="RB26" t="inlineStr"/>
+      <c r="RC26" t="inlineStr"/>
+      <c r="RD26" t="inlineStr"/>
+      <c r="RE26" t="inlineStr"/>
+      <c r="RF26" t="inlineStr"/>
+      <c r="RG26" t="inlineStr"/>
+      <c r="RH26" t="inlineStr"/>
+      <c r="RI26" t="inlineStr"/>
+      <c r="RJ26" t="inlineStr"/>
+      <c r="RK26" t="inlineStr"/>
+      <c r="RL26" t="inlineStr"/>
+      <c r="RM26" t="inlineStr"/>
+      <c r="RN26" t="inlineStr"/>
+      <c r="RO26" t="inlineStr"/>
+      <c r="RP26" t="inlineStr"/>
+      <c r="RQ26" t="inlineStr"/>
+      <c r="RR26" t="inlineStr"/>
+      <c r="RS26" t="inlineStr"/>
+      <c r="RT26" t="inlineStr"/>
+      <c r="RU26" t="inlineStr"/>
+      <c r="RV26" t="inlineStr"/>
+      <c r="RW26" t="inlineStr"/>
+      <c r="RX26" t="inlineStr"/>
+      <c r="RY26" t="inlineStr"/>
+      <c r="RZ26" t="inlineStr"/>
+      <c r="SA26" t="inlineStr"/>
+      <c r="SB26" t="inlineStr"/>
+      <c r="SC26" t="inlineStr"/>
+      <c r="SD26" t="inlineStr"/>
+      <c r="SE26" t="inlineStr"/>
+      <c r="SF26" t="inlineStr"/>
+      <c r="SG26" t="inlineStr"/>
+      <c r="SH26" t="inlineStr"/>
+      <c r="SI26" t="inlineStr"/>
+      <c r="SJ26" t="inlineStr"/>
+      <c r="SK26" t="inlineStr"/>
+      <c r="SL26" t="inlineStr"/>
+      <c r="SM26" t="inlineStr"/>
+      <c r="SN26" t="inlineStr"/>
+      <c r="SO26" t="inlineStr"/>
+      <c r="SP26" t="inlineStr"/>
+      <c r="SQ26" t="inlineStr"/>
+      <c r="SR26" t="inlineStr"/>
+      <c r="SS26" t="inlineStr"/>
+      <c r="ST26" t="inlineStr"/>
+      <c r="SU26" t="inlineStr"/>
+      <c r="SV26" t="inlineStr"/>
+      <c r="SW26" t="inlineStr"/>
+      <c r="SX26" t="inlineStr"/>
+      <c r="SY26" t="inlineStr"/>
+      <c r="SZ26" t="inlineStr"/>
+      <c r="TA26" t="inlineStr"/>
+      <c r="TB26" t="inlineStr"/>
+      <c r="TC26" t="inlineStr"/>
+      <c r="TD26" t="inlineStr"/>
+      <c r="TE26" t="inlineStr"/>
+      <c r="TF26" t="inlineStr"/>
+      <c r="TG26" t="inlineStr"/>
+      <c r="TH26" t="inlineStr"/>
+      <c r="TI26" t="inlineStr"/>
+      <c r="TJ26" t="inlineStr"/>
+      <c r="TK26" t="inlineStr"/>
+      <c r="TL26" t="inlineStr"/>
+      <c r="TM26" t="inlineStr"/>
+      <c r="TN26" t="inlineStr"/>
+      <c r="TO26" t="inlineStr"/>
+      <c r="TP26" t="inlineStr"/>
+      <c r="TQ26" t="inlineStr"/>
+      <c r="TR26" t="inlineStr"/>
+      <c r="TS26" t="inlineStr"/>
+      <c r="TT26" t="inlineStr"/>
+      <c r="TU26" t="inlineStr"/>
+      <c r="TV26" t="inlineStr"/>
+      <c r="TW26" t="inlineStr"/>
+      <c r="TX26" t="inlineStr"/>
+      <c r="TY26" t="inlineStr"/>
+      <c r="TZ26" t="inlineStr"/>
+      <c r="UA26" t="inlineStr"/>
+      <c r="UB26" t="inlineStr"/>
+      <c r="UC26" t="inlineStr"/>
+      <c r="UD26" t="inlineStr"/>
+      <c r="UE26" t="inlineStr"/>
+      <c r="UF26" t="inlineStr"/>
+      <c r="UG26" t="inlineStr"/>
+      <c r="UH26" t="inlineStr"/>
+      <c r="UI26" t="inlineStr"/>
+      <c r="UJ26" t="inlineStr"/>
+      <c r="UK26" t="inlineStr"/>
+      <c r="UL26" t="inlineStr"/>
+      <c r="UM26" t="inlineStr"/>
+      <c r="UN26" t="inlineStr"/>
+      <c r="UO26" t="inlineStr"/>
+      <c r="UP26" t="inlineStr"/>
+      <c r="UQ26" t="inlineStr"/>
+      <c r="UR26" t="inlineStr"/>
+      <c r="US26" t="inlineStr"/>
+      <c r="UT26" t="inlineStr"/>
+      <c r="UU26" t="inlineStr"/>
+      <c r="UV26" t="inlineStr"/>
+      <c r="UW26" t="inlineStr"/>
+      <c r="UX26" t="inlineStr"/>
+      <c r="UY26" t="inlineStr"/>
+      <c r="UZ26" t="inlineStr"/>
+      <c r="VA26" t="inlineStr"/>
+      <c r="VB26" t="inlineStr"/>
+      <c r="VC26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="VD26" t="inlineStr"/>
+      <c r="VE26" t="inlineStr"/>
+      <c r="VF26" t="inlineStr"/>
+      <c r="VG26" t="inlineStr"/>
+      <c r="VH26" t="inlineStr"/>
+      <c r="VI26" t="inlineStr"/>
+      <c r="VJ26" t="inlineStr"/>
+      <c r="VK26" t="inlineStr"/>
+      <c r="VL26" t="inlineStr"/>
+      <c r="VM26" t="inlineStr"/>
+      <c r="VN26" t="inlineStr"/>
+      <c r="VO26" t="inlineStr"/>
+      <c r="VP26" t="inlineStr"/>
+      <c r="VQ26" t="inlineStr"/>
+      <c r="VR26" t="inlineStr"/>
+      <c r="VS26" t="inlineStr"/>
+      <c r="VT26" t="inlineStr"/>
+      <c r="VU26" t="inlineStr"/>
+      <c r="VV26" t="inlineStr"/>
+      <c r="VW26" t="inlineStr"/>
+      <c r="VX26" t="inlineStr"/>
+      <c r="VY26" t="inlineStr"/>
+      <c r="VZ26" t="inlineStr"/>
+      <c r="WA26" t="inlineStr"/>
+      <c r="WB26" t="inlineStr"/>
+      <c r="WC26" t="inlineStr"/>
+      <c r="WD26" t="inlineStr"/>
+      <c r="WE26" t="inlineStr"/>
+      <c r="WF26" t="inlineStr"/>
+      <c r="WG26" t="inlineStr"/>
+      <c r="WH26" t="inlineStr"/>
+      <c r="WI26" t="inlineStr"/>
+      <c r="WJ26" t="inlineStr"/>
+      <c r="WK26" t="inlineStr"/>
+      <c r="WL26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Version_on_pcloud/Data_processing_notebooks/Notebook_Compiled_data/Standards_only_NoPDcalcs.xlsx
+++ b/Version_on_pcloud/Data_processing_notebooks/Notebook_Compiled_data/Standards_only_NoPDcalcs.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:WL26"/>
+  <dimension ref="A1:ZR26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,2070 +1415,2490 @@
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
+          <t>Oxide % Sigma_Cr2O3_Ol</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
           <t>Oxide % Sigma_FeOt_Ol</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
+      <c r="GQ1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MgO_Ol</t>
         </is>
       </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="GR1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MnO_Ol</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="GS1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_NiO_Ol</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="GT1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_SiO2_Ol</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>Oxide % Sigma_TiO2_Ol</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_norm_Ol</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="GW1" s="1" t="inlineStr">
         <is>
           <t>CaO_norm_Ol</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="GX1" s="1" t="inlineStr">
         <is>
           <t>Cr2O3_norm_Ol</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="GY1" s="1" t="inlineStr">
         <is>
           <t>FeOt_norm_Ol</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="GZ1" s="1" t="inlineStr">
         <is>
           <t>MgO_norm_Ol</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="HA1" s="1" t="inlineStr">
         <is>
           <t>MnO_norm_Ol</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="HB1" s="1" t="inlineStr">
         <is>
           <t>NiO_norm_Ol</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="HC1" s="1" t="inlineStr">
         <is>
           <t>SiO2_norm_Ol</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="HD1" s="1" t="inlineStr">
         <is>
           <t>TiO2_norm_Ol</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="HE1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ca_Ol</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>Wt%_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Fe_Ol</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
+      <c r="HH1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mg_Ol</t>
         </is>
       </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="HI1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mn_Ol</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="HJ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ni_Ol</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="HK1" s="1" t="inlineStr">
         <is>
           <t>Wt%_O_Ol</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="HL1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Si_Ol</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>Wt%_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ca_Ol</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>Wt% Sigma_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Fe_Ol</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="HQ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mg_Ol</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
+      <c r="HR1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mn_Ol</t>
         </is>
       </c>
-      <c r="HN1" s="1" t="inlineStr">
+      <c r="HS1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ni_Ol</t>
         </is>
       </c>
-      <c r="HO1" s="1" t="inlineStr">
+      <c r="HT1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Si_Ol</t>
         </is>
       </c>
-      <c r="HP1" s="1" t="inlineStr">
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>Wt% Sigma_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ca_Ol</t>
         </is>
       </c>
-      <c r="HQ1" s="1" t="inlineStr">
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>Atomic %_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Fe_Ol</t>
         </is>
       </c>
-      <c r="HR1" s="1" t="inlineStr">
+      <c r="HY1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mg_Ol</t>
         </is>
       </c>
-      <c r="HS1" s="1" t="inlineStr">
+      <c r="HZ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mn_Ol</t>
         </is>
       </c>
-      <c r="HT1" s="1" t="inlineStr">
+      <c r="IA1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ni_Ol</t>
         </is>
       </c>
-      <c r="HU1" s="1" t="inlineStr">
+      <c r="IB1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_O_Ol</t>
         </is>
       </c>
-      <c r="HV1" s="1" t="inlineStr">
+      <c r="IC1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Si_Ol</t>
         </is>
       </c>
-      <c r="HW1" s="1" t="inlineStr">
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>Atomic %_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
         <is>
           <t>Beam Current (nA)_Ni_Ol</t>
         </is>
       </c>
-      <c r="HX1" s="1" t="inlineStr">
+      <c r="IF1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ca_Ol</t>
         </is>
       </c>
-      <c r="HY1" s="1" t="inlineStr">
+      <c r="IG1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Fe_Ol</t>
         </is>
       </c>
-      <c r="HZ1" s="1" t="inlineStr">
+      <c r="IH1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mg_Ol</t>
         </is>
       </c>
-      <c r="IA1" s="1" t="inlineStr">
+      <c r="II1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mn_Ol</t>
         </is>
       </c>
-      <c r="IB1" s="1" t="inlineStr">
+      <c r="IJ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ni_Ol</t>
         </is>
       </c>
-      <c r="IC1" s="1" t="inlineStr">
+      <c r="IK1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Si_Ol</t>
         </is>
       </c>
-      <c r="ID1" s="1" t="inlineStr">
+      <c r="IL1" s="1" t="inlineStr">
         <is>
           <t>Oxide_CaO_Ol</t>
         </is>
       </c>
-      <c r="IE1" s="1" t="inlineStr">
+      <c r="IM1" s="1" t="inlineStr">
         <is>
           <t>Oxide_FeOt_Ol</t>
         </is>
       </c>
-      <c r="IF1" s="1" t="inlineStr">
+      <c r="IN1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MgO_Ol</t>
         </is>
       </c>
-      <c r="IG1" s="1" t="inlineStr">
+      <c r="IO1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MnO_Ol</t>
         </is>
       </c>
-      <c r="IH1" s="1" t="inlineStr">
+      <c r="IP1" s="1" t="inlineStr">
         <is>
           <t>Oxide_NiO_Ol</t>
         </is>
       </c>
-      <c r="II1" s="1" t="inlineStr">
+      <c r="IQ1" s="1" t="inlineStr">
         <is>
           <t>Oxide_SiO2_Ol</t>
         </is>
       </c>
-      <c r="IJ1" s="1" t="inlineStr">
+      <c r="IR1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ca_Ol</t>
         </is>
       </c>
-      <c r="IK1" s="1" t="inlineStr">
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>Signal Type_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Fe_Ol</t>
         </is>
       </c>
-      <c r="IL1" s="1" t="inlineStr">
+      <c r="IU1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mg_Ol</t>
         </is>
       </c>
-      <c r="IM1" s="1" t="inlineStr">
+      <c r="IV1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mn_Ol</t>
         </is>
       </c>
-      <c r="IN1" s="1" t="inlineStr">
+      <c r="IW1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ni_Ol</t>
         </is>
       </c>
-      <c r="IO1" s="1" t="inlineStr">
+      <c r="IX1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Si_Ol</t>
         </is>
       </c>
-      <c r="IP1" s="1" t="inlineStr">
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>Signal Type_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ca_Ol</t>
         </is>
       </c>
-      <c r="IQ1" s="1" t="inlineStr">
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>Standard Name_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Fe_Ol</t>
         </is>
       </c>
-      <c r="IR1" s="1" t="inlineStr">
+      <c r="JC1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mg_Ol</t>
         </is>
       </c>
-      <c r="IS1" s="1" t="inlineStr">
+      <c r="JD1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mn_Ol</t>
         </is>
       </c>
-      <c r="IT1" s="1" t="inlineStr">
+      <c r="JE1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ni_Ol</t>
         </is>
       </c>
-      <c r="IU1" s="1" t="inlineStr">
+      <c r="JF1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Si_Ol</t>
         </is>
       </c>
-      <c r="IV1" s="1" t="inlineStr">
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>Standard Name_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Fe_Ol</t>
         </is>
       </c>
-      <c r="IW1" s="1" t="inlineStr">
+      <c r="JI1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Mg_Ol</t>
         </is>
       </c>
-      <c r="IX1" s="1" t="inlineStr">
+      <c r="JJ1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Ni_Ol</t>
         </is>
       </c>
-      <c r="IY1" s="1" t="inlineStr">
+      <c r="JK1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Si_Ol</t>
         </is>
       </c>
-      <c r="IZ1" s="1" t="inlineStr">
+      <c r="JL1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ca_Ol</t>
         </is>
       </c>
-      <c r="JA1" s="1" t="inlineStr">
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>k Ratio_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Fe_Ol</t>
         </is>
       </c>
-      <c r="JB1" s="1" t="inlineStr">
+      <c r="JO1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mg_Ol</t>
         </is>
       </c>
-      <c r="JC1" s="1" t="inlineStr">
+      <c r="JP1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mn_Ol</t>
         </is>
       </c>
-      <c r="JD1" s="1" t="inlineStr">
+      <c r="JQ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ni_Ol</t>
         </is>
       </c>
-      <c r="JE1" s="1" t="inlineStr">
+      <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Si_Ol</t>
         </is>
       </c>
-      <c r="JF1" s="1" t="inlineStr">
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>k Ratio_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mg_Ol</t>
         </is>
       </c>
-      <c r="JG1" s="1" t="inlineStr">
+      <c r="JU1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Si_Ol</t>
         </is>
       </c>
-      <c r="JH1" s="1" t="inlineStr">
+      <c r="JV1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ca_Ol</t>
         </is>
       </c>
-      <c r="JI1" s="1" t="inlineStr">
+      <c r="JW1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mn_Ol</t>
         </is>
       </c>
-      <c r="JJ1" s="1" t="inlineStr">
+      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Fe_Ol</t>
         </is>
       </c>
-      <c r="JK1" s="1" t="inlineStr">
+      <c r="JY1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ni_Ol</t>
         </is>
       </c>
-      <c r="JL1" s="1" t="inlineStr">
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>Apparent Concentration_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>Apparent Concentration_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mg_Ol</t>
         </is>
       </c>
-      <c r="JM1" s="1" t="inlineStr">
+      <c r="KC1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Si_Ol</t>
         </is>
       </c>
-      <c r="JN1" s="1" t="inlineStr">
+      <c r="KD1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ca_Ol</t>
         </is>
       </c>
-      <c r="JO1" s="1" t="inlineStr">
+      <c r="KE1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mn_Ol</t>
         </is>
       </c>
-      <c r="JP1" s="1" t="inlineStr">
+      <c r="KF1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Fe_Ol</t>
         </is>
       </c>
-      <c r="JQ1" s="1" t="inlineStr">
+      <c r="KG1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ni_Ol</t>
         </is>
       </c>
-      <c r="JR1" s="1" t="inlineStr">
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Standard_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>Factory Standard_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
         <is>
           <t>Line_O_Ol</t>
         </is>
       </c>
-      <c r="JS1" s="1" t="inlineStr">
+      <c r="KK1" s="1" t="inlineStr">
         <is>
           <t>Line_Mg_Ol</t>
         </is>
       </c>
-      <c r="JT1" s="1" t="inlineStr">
+      <c r="KL1" s="1" t="inlineStr">
         <is>
           <t>Line_Si_Ol</t>
         </is>
       </c>
-      <c r="JU1" s="1" t="inlineStr">
+      <c r="KM1" s="1" t="inlineStr">
         <is>
           <t>Line_Ca_Ol</t>
         </is>
       </c>
-      <c r="JV1" s="1" t="inlineStr">
+      <c r="KN1" s="1" t="inlineStr">
         <is>
           <t>Line_Mn_Ol</t>
         </is>
       </c>
-      <c r="JW1" s="1" t="inlineStr">
+      <c r="KO1" s="1" t="inlineStr">
         <is>
           <t>Line_Fe_Ol</t>
         </is>
       </c>
-      <c r="JX1" s="1" t="inlineStr">
+      <c r="KP1" s="1" t="inlineStr">
         <is>
           <t>Line_Ni_Ol</t>
         </is>
       </c>
-      <c r="JY1" s="1" t="inlineStr">
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>Line_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>Line_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
         <is>
           <t>SampleID_Ol</t>
         </is>
       </c>
-      <c r="JZ1" s="1" t="inlineStr">
+      <c r="KT1" s="1" t="inlineStr">
         <is>
           <t>Fo_Ol</t>
         </is>
       </c>
-      <c r="KA1" s="1" t="inlineStr">
+      <c r="KU1" s="1" t="inlineStr">
         <is>
           <t>Na2O_Gl</t>
         </is>
       </c>
-      <c r="KB1" s="1" t="inlineStr">
+      <c r="KV1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_Gl</t>
         </is>
       </c>
-      <c r="KC1" s="1" t="inlineStr">
+      <c r="KW1" s="1" t="inlineStr">
         <is>
           <t>P2O5_Gl</t>
         </is>
       </c>
-      <c r="KD1" s="1" t="inlineStr">
+      <c r="KX1" s="1" t="inlineStr">
         <is>
           <t>CaO_Gl</t>
         </is>
       </c>
-      <c r="KE1" s="1" t="inlineStr">
+      <c r="KY1" s="1" t="inlineStr">
         <is>
           <t>K2O_Gl</t>
         </is>
       </c>
-      <c r="KF1" s="1" t="inlineStr">
+      <c r="KZ1" s="1" t="inlineStr">
         <is>
           <t>TiO2_Gl</t>
         </is>
       </c>
-      <c r="KG1" s="1" t="inlineStr">
+      <c r="LA1" s="1" t="inlineStr">
         <is>
           <t>SiO2_Gl</t>
         </is>
       </c>
-      <c r="KH1" s="1" t="inlineStr">
+      <c r="LB1" s="1" t="inlineStr">
         <is>
           <t>MgO_Gl</t>
         </is>
       </c>
-      <c r="KI1" s="1" t="inlineStr">
+      <c r="LC1" s="1" t="inlineStr">
         <is>
           <t>FeOt_Gl</t>
         </is>
       </c>
-      <c r="KJ1" s="1" t="inlineStr">
+      <c r="LD1" s="1" t="inlineStr">
         <is>
           <t>MnO_Gl</t>
         </is>
       </c>
-      <c r="KK1" s="1" t="inlineStr">
+      <c r="LE1" s="1" t="inlineStr">
         <is>
           <t>SO2_Gl</t>
         </is>
       </c>
-      <c r="KL1" s="1" t="inlineStr">
+      <c r="LF1" s="1" t="inlineStr">
         <is>
           <t>Cl_Gl</t>
         </is>
       </c>
-      <c r="KM1" s="1" t="inlineStr">
+      <c r="LG1" s="1" t="inlineStr">
         <is>
           <t>Total_wt%_Gl</t>
         </is>
       </c>
-      <c r="KN1" s="1" t="inlineStr">
+      <c r="LH1" s="1" t="inlineStr">
         <is>
           <t>Mg#_Gl</t>
         </is>
       </c>
-      <c r="KO1" s="1" t="inlineStr">
+      <c r="LI1" s="1" t="inlineStr">
         <is>
           <t>Na2O_STD_Gl</t>
         </is>
       </c>
-      <c r="KP1" s="1" t="inlineStr">
+      <c r="LJ1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_STD_Gl</t>
         </is>
       </c>
-      <c r="KQ1" s="1" t="inlineStr">
+      <c r="LK1" s="1" t="inlineStr">
         <is>
           <t>P2O5_STD_Gl</t>
         </is>
       </c>
-      <c r="KR1" s="1" t="inlineStr">
+      <c r="LL1" s="1" t="inlineStr">
         <is>
           <t>CaO_STD_Gl</t>
         </is>
       </c>
-      <c r="KS1" s="1" t="inlineStr">
+      <c r="LM1" s="1" t="inlineStr">
         <is>
           <t>K2O_STD_Gl</t>
         </is>
       </c>
-      <c r="KT1" s="1" t="inlineStr">
+      <c r="LN1" s="1" t="inlineStr">
         <is>
           <t>TiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="KU1" s="1" t="inlineStr">
+      <c r="LO1" s="1" t="inlineStr">
         <is>
           <t>SiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="KV1" s="1" t="inlineStr">
+      <c r="LP1" s="1" t="inlineStr">
         <is>
           <t>MgO_STD_Gl</t>
         </is>
       </c>
-      <c r="KW1" s="1" t="inlineStr">
+      <c r="LQ1" s="1" t="inlineStr">
         <is>
           <t>FeOt_STD_Gl</t>
         </is>
       </c>
-      <c r="KX1" s="1" t="inlineStr">
+      <c r="LR1" s="1" t="inlineStr">
         <is>
           <t>MnO_STD_Gl</t>
         </is>
       </c>
-      <c r="KY1" s="1" t="inlineStr">
+      <c r="LS1" s="1" t="inlineStr">
         <is>
           <t>SO2_STD_Gl</t>
         </is>
       </c>
-      <c r="KZ1" s="1" t="inlineStr">
+      <c r="LT1" s="1" t="inlineStr">
         <is>
           <t>Cl_STD_Gl</t>
         </is>
       </c>
-      <c r="LA1" s="1" t="inlineStr">
+      <c r="LU1" s="1" t="inlineStr">
         <is>
           <t>Total_wt%_STD_Gl</t>
         </is>
       </c>
-      <c r="LB1" s="1" t="inlineStr">
+      <c r="LV1" s="1" t="inlineStr">
         <is>
           <t>averaged?_Gl</t>
         </is>
       </c>
-      <c r="LC1" s="1" t="inlineStr">
+      <c r="LW1" s="1" t="inlineStr">
         <is>
           <t>Total_Oxide%_Gl</t>
         </is>
       </c>
-      <c r="LD1" s="1" t="inlineStr">
+      <c r="LX1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Al2O3_Gl</t>
         </is>
       </c>
-      <c r="LE1" s="1" t="inlineStr">
+      <c r="LY1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_CaO_Gl</t>
         </is>
       </c>
-      <c r="LF1" s="1" t="inlineStr">
+      <c r="LZ1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_FeOt_Gl</t>
         </is>
       </c>
-      <c r="LG1" s="1" t="inlineStr">
+      <c r="MA1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_K2O_Gl</t>
         </is>
       </c>
-      <c r="LH1" s="1" t="inlineStr">
+      <c r="MB1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MgO_Gl</t>
         </is>
       </c>
-      <c r="LI1" s="1" t="inlineStr">
+      <c r="MC1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MnO_Gl</t>
         </is>
       </c>
-      <c r="LJ1" s="1" t="inlineStr">
+      <c r="MD1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Na2O_Gl</t>
         </is>
       </c>
-      <c r="LK1" s="1" t="inlineStr">
+      <c r="ME1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_P2O5_Gl</t>
         </is>
       </c>
-      <c r="LL1" s="1" t="inlineStr">
+      <c r="MF1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_S_Gl</t>
         </is>
       </c>
-      <c r="LM1" s="1" t="inlineStr">
+      <c r="MG1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_SiO2_Gl</t>
         </is>
       </c>
-      <c r="LN1" s="1" t="inlineStr">
+      <c r="MH1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_TiO2_Gl</t>
         </is>
       </c>
-      <c r="LO1" s="1" t="inlineStr">
+      <c r="MI1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_norm_Gl</t>
         </is>
       </c>
-      <c r="LP1" s="1" t="inlineStr">
+      <c r="MJ1" s="1" t="inlineStr">
         <is>
           <t>CaO_norm_Gl</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="MK1" s="1" t="inlineStr">
         <is>
           <t>FeOt_norm_Gl</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="ML1" s="1" t="inlineStr">
         <is>
           <t>K2O_norm_Gl</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="MM1" s="1" t="inlineStr">
         <is>
           <t>MgO_norm_Gl</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="MN1" s="1" t="inlineStr">
         <is>
           <t>MnO_norm_Gl</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="MO1" s="1" t="inlineStr">
         <is>
           <t>Na2O_norm_Gl</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>P2O5_norm_Gl</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>SO2_norm_Gl</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>SiO2_norm_Gl</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>TiO2_norm_Gl</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Al_Gl</t>
         </is>
       </c>
-      <c r="MA1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ca_Gl</t>
         </is>
       </c>
-      <c r="MB1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Fe_Gl</t>
         </is>
       </c>
-      <c r="MC1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>Wt%_K_Gl</t>
         </is>
       </c>
-      <c r="MD1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mg_Gl</t>
         </is>
       </c>
-      <c r="ME1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mn_Gl</t>
         </is>
       </c>
-      <c r="MF1" s="1" t="inlineStr">
+      <c r="MZ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Na_Gl</t>
         </is>
       </c>
-      <c r="MG1" s="1" t="inlineStr">
+      <c r="NA1" s="1" t="inlineStr">
         <is>
           <t>Wt%_O_Gl</t>
         </is>
       </c>
-      <c r="MH1" s="1" t="inlineStr">
+      <c r="NB1" s="1" t="inlineStr">
         <is>
           <t>Wt%_P_Gl</t>
         </is>
       </c>
-      <c r="MI1" s="1" t="inlineStr">
+      <c r="NC1" s="1" t="inlineStr">
         <is>
           <t>Wt%_S_Gl</t>
         </is>
       </c>
-      <c r="MJ1" s="1" t="inlineStr">
+      <c r="ND1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Si_Gl</t>
         </is>
       </c>
-      <c r="MK1" s="1" t="inlineStr">
+      <c r="NE1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ti_Gl</t>
         </is>
       </c>
-      <c r="ML1" s="1" t="inlineStr">
+      <c r="NF1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Al_Gl</t>
         </is>
       </c>
-      <c r="MM1" s="1" t="inlineStr">
+      <c r="NG1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ca_Gl</t>
         </is>
       </c>
-      <c r="MN1" s="1" t="inlineStr">
+      <c r="NH1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Fe_Gl</t>
         </is>
       </c>
-      <c r="MO1" s="1" t="inlineStr">
+      <c r="NI1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_K_Gl</t>
         </is>
       </c>
-      <c r="MP1" s="1" t="inlineStr">
+      <c r="NJ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mg_Gl</t>
         </is>
       </c>
-      <c r="MQ1" s="1" t="inlineStr">
+      <c r="NK1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mn_Gl</t>
         </is>
       </c>
-      <c r="MR1" s="1" t="inlineStr">
+      <c r="NL1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Na_Gl</t>
         </is>
       </c>
-      <c r="MS1" s="1" t="inlineStr">
+      <c r="NM1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_P_Gl</t>
         </is>
       </c>
-      <c r="MT1" s="1" t="inlineStr">
+      <c r="NN1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_S_Gl</t>
         </is>
       </c>
-      <c r="MU1" s="1" t="inlineStr">
+      <c r="NO1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Si_Gl</t>
         </is>
       </c>
-      <c r="MV1" s="1" t="inlineStr">
+      <c r="NP1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ti_Gl</t>
         </is>
       </c>
-      <c r="MW1" s="1" t="inlineStr">
+      <c r="NQ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Al_Gl</t>
         </is>
       </c>
-      <c r="MX1" s="1" t="inlineStr">
+      <c r="NR1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ca_Gl</t>
         </is>
       </c>
-      <c r="MY1" s="1" t="inlineStr">
+      <c r="NS1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Fe_Gl</t>
         </is>
       </c>
-      <c r="MZ1" s="1" t="inlineStr">
+      <c r="NT1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_K_Gl</t>
         </is>
       </c>
-      <c r="NA1" s="1" t="inlineStr">
+      <c r="NU1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mg_Gl</t>
         </is>
       </c>
-      <c r="NB1" s="1" t="inlineStr">
+      <c r="NV1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mn_Gl</t>
         </is>
       </c>
-      <c r="NC1" s="1" t="inlineStr">
+      <c r="NW1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Na_Gl</t>
         </is>
       </c>
-      <c r="ND1" s="1" t="inlineStr">
+      <c r="NX1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_O_Gl</t>
         </is>
       </c>
-      <c r="NE1" s="1" t="inlineStr">
+      <c r="NY1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_P_Gl</t>
         </is>
       </c>
-      <c r="NF1" s="1" t="inlineStr">
+      <c r="NZ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_S_Gl</t>
         </is>
       </c>
-      <c r="NG1" s="1" t="inlineStr">
+      <c r="OA1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Si_Gl</t>
         </is>
       </c>
-      <c r="NH1" s="1" t="inlineStr">
+      <c r="OB1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ti_Gl</t>
         </is>
       </c>
-      <c r="NI1" s="1" t="inlineStr">
+      <c r="OC1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Al_Gl</t>
         </is>
       </c>
-      <c r="NJ1" s="1" t="inlineStr">
+      <c r="OD1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ca_Gl</t>
         </is>
       </c>
-      <c r="NK1" s="1" t="inlineStr">
+      <c r="OE1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Fe_Gl</t>
         </is>
       </c>
-      <c r="NL1" s="1" t="inlineStr">
+      <c r="OF1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_K_Gl</t>
         </is>
       </c>
-      <c r="NM1" s="1" t="inlineStr">
+      <c r="OG1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mg_Gl</t>
         </is>
       </c>
-      <c r="NN1" s="1" t="inlineStr">
+      <c r="OH1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mn_Gl</t>
         </is>
       </c>
-      <c r="NO1" s="1" t="inlineStr">
+      <c r="OI1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Na_Gl</t>
         </is>
       </c>
-      <c r="NP1" s="1" t="inlineStr">
+      <c r="OJ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_P_Gl</t>
         </is>
       </c>
-      <c r="NQ1" s="1" t="inlineStr">
+      <c r="OK1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_S_Gl</t>
         </is>
       </c>
-      <c r="NR1" s="1" t="inlineStr">
+      <c r="OL1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Si_Gl</t>
         </is>
       </c>
-      <c r="NS1" s="1" t="inlineStr">
+      <c r="OM1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ti_Gl</t>
         </is>
       </c>
-      <c r="NT1" s="1" t="inlineStr">
+      <c r="ON1" s="1" t="inlineStr">
         <is>
           <t>Oxide_Al2O3_Gl</t>
         </is>
       </c>
-      <c r="NU1" s="1" t="inlineStr">
+      <c r="OO1" s="1" t="inlineStr">
         <is>
           <t>Oxide_CaO_Gl</t>
         </is>
       </c>
-      <c r="NV1" s="1" t="inlineStr">
+      <c r="OP1" s="1" t="inlineStr">
         <is>
           <t>Oxide_FeOt_Gl</t>
         </is>
       </c>
-      <c r="NW1" s="1" t="inlineStr">
+      <c r="OQ1" s="1" t="inlineStr">
         <is>
           <t>Oxide_K2O_Gl</t>
         </is>
       </c>
-      <c r="NX1" s="1" t="inlineStr">
+      <c r="OR1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MgO_Gl</t>
         </is>
       </c>
-      <c r="NY1" s="1" t="inlineStr">
+      <c r="OS1" s="1" t="inlineStr">
         <is>
           <t>Oxide_MnO_Gl</t>
         </is>
       </c>
-      <c r="NZ1" s="1" t="inlineStr">
+      <c r="OT1" s="1" t="inlineStr">
         <is>
           <t>Oxide_Na2O_Gl</t>
         </is>
       </c>
-      <c r="OA1" s="1" t="inlineStr">
+      <c r="OU1" s="1" t="inlineStr">
         <is>
           <t>Oxide_P2O5_Gl</t>
         </is>
       </c>
-      <c r="OB1" s="1" t="inlineStr">
+      <c r="OV1" s="1" t="inlineStr">
         <is>
           <t>Oxide_S_Gl</t>
         </is>
       </c>
-      <c r="OC1" s="1" t="inlineStr">
+      <c r="OW1" s="1" t="inlineStr">
         <is>
           <t>Oxide_SiO2_Gl</t>
         </is>
       </c>
-      <c r="OD1" s="1" t="inlineStr">
+      <c r="OX1" s="1" t="inlineStr">
         <is>
           <t>Oxide_TiO2_Gl</t>
         </is>
       </c>
-      <c r="OE1" s="1" t="inlineStr">
+      <c r="OY1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Al_Gl</t>
         </is>
       </c>
-      <c r="OF1" s="1" t="inlineStr">
+      <c r="OZ1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ca_Gl</t>
         </is>
       </c>
-      <c r="OG1" s="1" t="inlineStr">
+      <c r="PA1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Fe_Gl</t>
         </is>
       </c>
-      <c r="OH1" s="1" t="inlineStr">
+      <c r="PB1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_K_Gl</t>
         </is>
       </c>
-      <c r="OI1" s="1" t="inlineStr">
+      <c r="PC1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mg_Gl</t>
         </is>
       </c>
-      <c r="OJ1" s="1" t="inlineStr">
+      <c r="PD1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Mn_Gl</t>
         </is>
       </c>
-      <c r="OK1" s="1" t="inlineStr">
+      <c r="PE1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Na_Gl</t>
         </is>
       </c>
-      <c r="OL1" s="1" t="inlineStr">
+      <c r="PF1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_P_Gl</t>
         </is>
       </c>
-      <c r="OM1" s="1" t="inlineStr">
+      <c r="PG1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_S_Gl</t>
         </is>
       </c>
-      <c r="ON1" s="1" t="inlineStr">
+      <c r="PH1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Si_Gl</t>
         </is>
       </c>
-      <c r="OO1" s="1" t="inlineStr">
+      <c r="PI1" s="1" t="inlineStr">
         <is>
           <t>Signal Type_Ti_Gl</t>
         </is>
       </c>
-      <c r="OP1" s="1" t="inlineStr">
+      <c r="PJ1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Al_Gl</t>
         </is>
       </c>
-      <c r="OQ1" s="1" t="inlineStr">
+      <c r="PK1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ca_Gl</t>
         </is>
       </c>
-      <c r="OR1" s="1" t="inlineStr">
+      <c r="PL1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Fe_Gl</t>
         </is>
       </c>
-      <c r="OS1" s="1" t="inlineStr">
+      <c r="PM1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_K_Gl</t>
         </is>
       </c>
-      <c r="OT1" s="1" t="inlineStr">
+      <c r="PN1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mg_Gl</t>
         </is>
       </c>
-      <c r="OU1" s="1" t="inlineStr">
+      <c r="PO1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Mn_Gl</t>
         </is>
       </c>
-      <c r="OV1" s="1" t="inlineStr">
+      <c r="PP1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Na_Gl</t>
         </is>
       </c>
-      <c r="OW1" s="1" t="inlineStr">
+      <c r="PQ1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_P_Gl</t>
         </is>
       </c>
-      <c r="OX1" s="1" t="inlineStr">
+      <c r="PR1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_S_Gl</t>
         </is>
       </c>
-      <c r="OY1" s="1" t="inlineStr">
+      <c r="PS1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Si_Gl</t>
         </is>
       </c>
-      <c r="OZ1" s="1" t="inlineStr">
+      <c r="PT1" s="1" t="inlineStr">
         <is>
           <t>Standard Name_Ti_Gl</t>
         </is>
       </c>
-      <c r="PA1" s="1" t="inlineStr">
+      <c r="PU1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Fe_Gl</t>
         </is>
       </c>
-      <c r="PB1" s="1" t="inlineStr">
+      <c r="PV1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Mg_Gl</t>
         </is>
       </c>
-      <c r="PC1" s="1" t="inlineStr">
+      <c r="PW1" s="1" t="inlineStr">
         <is>
           <t>Standardization Date_Si_Gl</t>
         </is>
       </c>
-      <c r="PD1" s="1" t="inlineStr">
+      <c r="PX1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Al_Gl</t>
         </is>
       </c>
-      <c r="PE1" s="1" t="inlineStr">
+      <c r="PY1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ca_Gl</t>
         </is>
       </c>
-      <c r="PF1" s="1" t="inlineStr">
+      <c r="PZ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Fe_Gl</t>
         </is>
       </c>
-      <c r="PG1" s="1" t="inlineStr">
+      <c r="QA1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_K_Gl</t>
         </is>
       </c>
-      <c r="PH1" s="1" t="inlineStr">
+      <c r="QB1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mg_Gl</t>
         </is>
       </c>
-      <c r="PI1" s="1" t="inlineStr">
+      <c r="QC1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mn_Gl</t>
         </is>
       </c>
-      <c r="PJ1" s="1" t="inlineStr">
+      <c r="QD1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Na_Gl</t>
         </is>
       </c>
-      <c r="PK1" s="1" t="inlineStr">
+      <c r="QE1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_P_Gl</t>
         </is>
       </c>
-      <c r="PL1" s="1" t="inlineStr">
+      <c r="QF1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_S_Gl</t>
         </is>
       </c>
-      <c r="PM1" s="1" t="inlineStr">
+      <c r="QG1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Si_Gl</t>
         </is>
       </c>
-      <c r="PN1" s="1" t="inlineStr">
+      <c r="QH1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ti_Gl</t>
         </is>
       </c>
-      <c r="PO1" s="1" t="inlineStr">
+      <c r="QI1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Na_Gl</t>
         </is>
       </c>
-      <c r="PP1" s="1" t="inlineStr">
+      <c r="QJ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mg_Gl</t>
         </is>
       </c>
-      <c r="PQ1" s="1" t="inlineStr">
+      <c r="QK1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Al_Gl</t>
         </is>
       </c>
-      <c r="PR1" s="1" t="inlineStr">
+      <c r="QL1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Si_Gl</t>
         </is>
       </c>
-      <c r="PS1" s="1" t="inlineStr">
+      <c r="QM1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_P_Gl</t>
         </is>
       </c>
-      <c r="PT1" s="1" t="inlineStr">
+      <c r="QN1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_S_Gl</t>
         </is>
       </c>
-      <c r="PU1" s="1" t="inlineStr">
+      <c r="QO1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_K_Gl</t>
         </is>
       </c>
-      <c r="PV1" s="1" t="inlineStr">
+      <c r="QP1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ca_Gl</t>
         </is>
       </c>
-      <c r="PW1" s="1" t="inlineStr">
+      <c r="QQ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ti_Gl</t>
         </is>
       </c>
-      <c r="PX1" s="1" t="inlineStr">
+      <c r="QR1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mn_Gl</t>
         </is>
       </c>
-      <c r="PY1" s="1" t="inlineStr">
+      <c r="QS1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Fe_Gl</t>
         </is>
       </c>
-      <c r="PZ1" s="1" t="inlineStr">
+      <c r="QT1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Na_Gl</t>
         </is>
       </c>
-      <c r="QA1" s="1" t="inlineStr">
+      <c r="QU1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mg_Gl</t>
         </is>
       </c>
-      <c r="QB1" s="1" t="inlineStr">
+      <c r="QV1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Al_Gl</t>
         </is>
       </c>
-      <c r="QC1" s="1" t="inlineStr">
+      <c r="QW1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Si_Gl</t>
         </is>
       </c>
-      <c r="QD1" s="1" t="inlineStr">
+      <c r="QX1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_P_Gl</t>
         </is>
       </c>
-      <c r="QE1" s="1" t="inlineStr">
+      <c r="QY1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_S_Gl</t>
         </is>
       </c>
-      <c r="QF1" s="1" t="inlineStr">
+      <c r="QZ1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_K_Gl</t>
         </is>
       </c>
-      <c r="QG1" s="1" t="inlineStr">
+      <c r="RA1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ca_Gl</t>
         </is>
       </c>
-      <c r="QH1" s="1" t="inlineStr">
+      <c r="RB1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Ti_Gl</t>
         </is>
       </c>
-      <c r="QI1" s="1" t="inlineStr">
+      <c r="RC1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Mn_Gl</t>
         </is>
       </c>
-      <c r="QJ1" s="1" t="inlineStr">
+      <c r="RD1" s="1" t="inlineStr">
         <is>
           <t>Factory Standard_Fe_Gl</t>
         </is>
       </c>
-      <c r="QK1" s="1" t="inlineStr">
+      <c r="RE1" s="1" t="inlineStr">
         <is>
           <t>Line_O_Gl</t>
         </is>
       </c>
-      <c r="QL1" s="1" t="inlineStr">
+      <c r="RF1" s="1" t="inlineStr">
         <is>
           <t>Line_Na_Gl</t>
         </is>
       </c>
-      <c r="QM1" s="1" t="inlineStr">
+      <c r="RG1" s="1" t="inlineStr">
         <is>
           <t>Line_Mg_Gl</t>
         </is>
       </c>
-      <c r="QN1" s="1" t="inlineStr">
+      <c r="RH1" s="1" t="inlineStr">
         <is>
           <t>Line_Al_Gl</t>
         </is>
       </c>
-      <c r="QO1" s="1" t="inlineStr">
+      <c r="RI1" s="1" t="inlineStr">
         <is>
           <t>Line_Si_Gl</t>
         </is>
       </c>
-      <c r="QP1" s="1" t="inlineStr">
+      <c r="RJ1" s="1" t="inlineStr">
         <is>
           <t>Line_P_Gl</t>
         </is>
       </c>
-      <c r="QQ1" s="1" t="inlineStr">
+      <c r="RK1" s="1" t="inlineStr">
         <is>
           <t>Line_S_Gl</t>
         </is>
       </c>
-      <c r="QR1" s="1" t="inlineStr">
+      <c r="RL1" s="1" t="inlineStr">
         <is>
           <t>Line_K_Gl</t>
         </is>
       </c>
-      <c r="QS1" s="1" t="inlineStr">
+      <c r="RM1" s="1" t="inlineStr">
         <is>
           <t>Line_Ca_Gl</t>
         </is>
       </c>
-      <c r="QT1" s="1" t="inlineStr">
+      <c r="RN1" s="1" t="inlineStr">
         <is>
           <t>Line_Ti_Gl</t>
         </is>
       </c>
-      <c r="QU1" s="1" t="inlineStr">
+      <c r="RO1" s="1" t="inlineStr">
         <is>
           <t>Line_Mn_Gl</t>
         </is>
       </c>
-      <c r="QV1" s="1" t="inlineStr">
+      <c r="RP1" s="1" t="inlineStr">
         <is>
           <t>Line_Fe_Gl</t>
         </is>
       </c>
-      <c r="QW1" s="1" t="inlineStr">
+      <c r="RQ1" s="1" t="inlineStr">
         <is>
           <t>SampleID_Gl</t>
         </is>
       </c>
-      <c r="QX1" s="1" t="inlineStr">
+      <c r="RR1" s="1" t="inlineStr">
         <is>
           <t>Total_Oxide%_STD_Gl</t>
         </is>
       </c>
-      <c r="QY1" s="1" t="inlineStr">
+      <c r="RS1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Al2O3_STD_Gl</t>
         </is>
       </c>
-      <c r="QZ1" s="1" t="inlineStr">
+      <c r="RT1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_CaO_STD_Gl</t>
         </is>
       </c>
-      <c r="RA1" s="1" t="inlineStr">
+      <c r="RU1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_FeOt_STD_Gl</t>
         </is>
       </c>
-      <c r="RB1" s="1" t="inlineStr">
+      <c r="RV1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_K2O_STD_Gl</t>
         </is>
       </c>
-      <c r="RC1" s="1" t="inlineStr">
+      <c r="RW1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MgO_STD_Gl</t>
         </is>
       </c>
-      <c r="RD1" s="1" t="inlineStr">
+      <c r="RX1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_MnO_STD_Gl</t>
         </is>
       </c>
-      <c r="RE1" s="1" t="inlineStr">
+      <c r="RY1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_Na2O_STD_Gl</t>
         </is>
       </c>
-      <c r="RF1" s="1" t="inlineStr">
+      <c r="RZ1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_P2O5_STD_Gl</t>
         </is>
       </c>
-      <c r="RG1" s="1" t="inlineStr">
+      <c r="SA1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_S_STD_Gl</t>
         </is>
       </c>
-      <c r="RH1" s="1" t="inlineStr">
+      <c r="SB1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_SiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="RI1" s="1" t="inlineStr">
+      <c r="SC1" s="1" t="inlineStr">
         <is>
           <t>Oxide % Sigma_TiO2_STD_Gl</t>
         </is>
       </c>
-      <c r="RJ1" s="1" t="inlineStr">
+      <c r="SD1" s="1" t="inlineStr">
         <is>
           <t>Al2O3_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RK1" s="1" t="inlineStr">
+      <c r="SE1" s="1" t="inlineStr">
         <is>
           <t>CaO_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RL1" s="1" t="inlineStr">
+      <c r="SF1" s="1" t="inlineStr">
         <is>
           <t>FeOt_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RM1" s="1" t="inlineStr">
+      <c r="SG1" s="1" t="inlineStr">
         <is>
           <t>K2O_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RN1" s="1" t="inlineStr">
+      <c r="SH1" s="1" t="inlineStr">
         <is>
           <t>MgO_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RO1" s="1" t="inlineStr">
+      <c r="SI1" s="1" t="inlineStr">
         <is>
           <t>MnO_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RP1" s="1" t="inlineStr">
+      <c r="SJ1" s="1" t="inlineStr">
         <is>
           <t>Na2O_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RQ1" s="1" t="inlineStr">
+      <c r="SK1" s="1" t="inlineStr">
         <is>
           <t>P2O5_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RR1" s="1" t="inlineStr">
+      <c r="SL1" s="1" t="inlineStr">
         <is>
           <t>SO2_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RS1" s="1" t="inlineStr">
+      <c r="SM1" s="1" t="inlineStr">
         <is>
           <t>SiO2_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RT1" s="1" t="inlineStr">
+      <c r="SN1" s="1" t="inlineStr">
         <is>
           <t>TiO2_norm_STD_Gl</t>
         </is>
       </c>
-      <c r="RU1" s="1" t="inlineStr">
+      <c r="SO1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="RV1" s="1" t="inlineStr">
+      <c r="SP1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="RW1" s="1" t="inlineStr">
+      <c r="SQ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="RX1" s="1" t="inlineStr">
+      <c r="SR1" s="1" t="inlineStr">
         <is>
           <t>Wt%_K_STD_Gl</t>
         </is>
       </c>
-      <c r="RY1" s="1" t="inlineStr">
+      <c r="SS1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="RZ1" s="1" t="inlineStr">
+      <c r="ST1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="SA1" s="1" t="inlineStr">
+      <c r="SU1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="SB1" s="1" t="inlineStr">
+      <c r="SV1" s="1" t="inlineStr">
         <is>
           <t>Wt%_O_STD_Gl</t>
         </is>
       </c>
-      <c r="SC1" s="1" t="inlineStr">
+      <c r="SW1" s="1" t="inlineStr">
         <is>
           <t>Wt%_P_STD_Gl</t>
         </is>
       </c>
-      <c r="SD1" s="1" t="inlineStr">
+      <c r="SX1" s="1" t="inlineStr">
         <is>
           <t>Wt%_S_STD_Gl</t>
         </is>
       </c>
-      <c r="SE1" s="1" t="inlineStr">
+      <c r="SY1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="SF1" s="1" t="inlineStr">
+      <c r="SZ1" s="1" t="inlineStr">
         <is>
           <t>Wt%_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="SG1" s="1" t="inlineStr">
+      <c r="TA1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="SH1" s="1" t="inlineStr">
+      <c r="TB1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="SI1" s="1" t="inlineStr">
+      <c r="TC1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="SJ1" s="1" t="inlineStr">
+      <c r="TD1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_K_STD_Gl</t>
         </is>
       </c>
-      <c r="SK1" s="1" t="inlineStr">
+      <c r="TE1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="SL1" s="1" t="inlineStr">
+      <c r="TF1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="SM1" s="1" t="inlineStr">
+      <c r="TG1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="SN1" s="1" t="inlineStr">
+      <c r="TH1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_P_STD_Gl</t>
         </is>
       </c>
-      <c r="SO1" s="1" t="inlineStr">
+      <c r="TI1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_S_STD_Gl</t>
         </is>
       </c>
-      <c r="SP1" s="1" t="inlineStr">
+      <c r="TJ1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="SQ1" s="1" t="inlineStr">
+      <c r="TK1" s="1" t="inlineStr">
         <is>
           <t>Wt% Sigma_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="SR1" s="1" t="inlineStr">
+      <c r="TL1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="SS1" s="1" t="inlineStr">
+      <c r="TM1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="ST1" s="1" t="inlineStr">
+      <c r="TN1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="SU1" s="1" t="inlineStr">
+      <c r="TO1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_K_STD_Gl</t>
         </is>
       </c>
-      <c r="SV1" s="1" t="inlineStr">
+      <c r="TP1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="SW1" s="1" t="inlineStr">
+      <c r="TQ1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="SX1" s="1" t="inlineStr">
+      <c r="TR1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="SY1" s="1" t="inlineStr">
+      <c r="TS1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_O_STD_Gl</t>
         </is>
       </c>
-      <c r="SZ1" s="1" t="inlineStr">
+      <c r="TT1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_P_STD_Gl</t>
         </is>
       </c>
-      <c r="TA1" s="1" t="inlineStr">
+      <c r="TU1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_S_STD_Gl</t>
         </is>
       </c>
-      <c r="TB1" s="1" t="inlineStr">
+      <c r="TV1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="TC1" s="1" t="inlineStr">
+      <c r="TW1" s="1" t="inlineStr">
         <is>
           <t>Atomic %_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="TD1" s="1" t="inlineStr">
+      <c r="TX1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="TE1" s="1" t="inlineStr">
+      <c r="TY1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="TF1" s="1" t="inlineStr">
+      <c r="TZ1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="TG1" s="1" t="inlineStr">
+      <c r="UA1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_K_STD_Gl</t>
         </is>
       </c>
-      <c r="TH1" s="1" t="inlineStr">
+      <c r="UB1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="TI1" s="1" t="inlineStr">
+      <c r="UC1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="TJ1" s="1" t="inlineStr">
+      <c r="UD1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="TK1" s="1" t="inlineStr">
+      <c r="UE1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_P_STD_Gl</t>
         </is>
       </c>
-      <c r="TL1" s="1" t="inlineStr">
+      <c r="UF1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_S_STD_Gl</t>
         </is>
       </c>
-      <c r="TM1" s="1" t="inlineStr">
+      <c r="UG1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="TN1" s="1" t="inlineStr">
+      <c r="UH1" s="1" t="inlineStr">
         <is>
           <t>Intensity Correction_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="TO1" s="1" t="inlineStr">
+      <c r="UI1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="TP1" s="1" t="inlineStr">
+      <c r="UJ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="TQ1" s="1" t="inlineStr">
+      <c r="UK1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="TR1" s="1" t="inlineStr">
+      <c r="UL1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_K_STD_Gl</t>
         </is>
       </c>
-      <c r="TS1" s="1" t="inlineStr">
+      <c r="UM1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="TT1" s="1" t="inlineStr">
+      <c r="UN1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="TU1" s="1" t="inlineStr">
+      <c r="UO1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="TV1" s="1" t="inlineStr">
+      <c r="UP1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_P_STD_Gl</t>
         </is>
       </c>
-      <c r="TW1" s="1" t="inlineStr">
+      <c r="UQ1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_S_STD_Gl</t>
         </is>
       </c>
-      <c r="TX1" s="1" t="inlineStr">
+      <c r="UR1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="TY1" s="1" t="inlineStr">
+      <c r="US1" s="1" t="inlineStr">
         <is>
           <t>k Ratio_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="TZ1" s="1" t="inlineStr">
+      <c r="UT1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Na_STD_Gl</t>
         </is>
       </c>
-      <c r="UA1" s="1" t="inlineStr">
+      <c r="UU1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mg_STD_Gl</t>
         </is>
       </c>
-      <c r="UB1" s="1" t="inlineStr">
+      <c r="UV1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Al_STD_Gl</t>
         </is>
       </c>
-      <c r="UC1" s="1" t="inlineStr">
+      <c r="UW1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Si_STD_Gl</t>
         </is>
       </c>
-      <c r="UD1" s="1" t="inlineStr">
+      <c r="UX1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_P_STD_Gl</t>
         </is>
       </c>
-      <c r="UE1" s="1" t="inlineStr">
+      <c r="UY1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_S_STD_Gl</t>
         </is>
       </c>
-      <c r="UF1" s="1" t="inlineStr">
+      <c r="UZ1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_K_STD_Gl</t>
         </is>
       </c>
-      <c r="UG1" s="1" t="inlineStr">
+      <c r="VA1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ca_STD_Gl</t>
         </is>
       </c>
-      <c r="UH1" s="1" t="inlineStr">
+      <c r="VB1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Ti_STD_Gl</t>
         </is>
       </c>
-      <c r="UI1" s="1" t="inlineStr">
+      <c r="VC1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Mn_STD_Gl</t>
         </is>
       </c>
-      <c r="UJ1" s="1" t="inlineStr">
+      <c r="VD1" s="1" t="inlineStr">
         <is>
           <t>Apparent Concentration_Fe_STD_Gl</t>
         </is>
       </c>
-      <c r="UK1" s="1" t="inlineStr">
+      <c r="VE1" s="1" t="inlineStr">
         <is>
           <t>Mg#_STD_Gl</t>
         </is>
       </c>
-      <c r="UL1" s="1" t="inlineStr">
+      <c r="VF1" s="1" t="inlineStr">
         <is>
           <t>EBSD_filename</t>
         </is>
       </c>
-      <c r="UM1" s="1" t="inlineStr">
+      <c r="VG1" s="1" t="inlineStr">
         <is>
           <t>EBSDname+grainID_EBSDdata</t>
         </is>
       </c>
-      <c r="UN1" s="1" t="inlineStr">
+      <c r="VH1" s="1" t="inlineStr">
         <is>
           <t>GOS</t>
         </is>
       </c>
-      <c r="UO1" s="1" t="inlineStr">
+      <c r="VI1" s="1" t="inlineStr">
         <is>
           <t>Grain Size (pixels)</t>
         </is>
       </c>
-      <c r="UP1" s="1" t="inlineStr">
+      <c r="VJ1" s="1" t="inlineStr">
         <is>
           <t>Grain Size (um2)</t>
         </is>
       </c>
-      <c r="UQ1" s="1" t="inlineStr">
+      <c r="VK1" s="1" t="inlineStr">
         <is>
           <t>subBoundaryLength (um)</t>
         </is>
       </c>
-      <c r="UR1" s="1" t="inlineStr">
+      <c r="VL1" s="1" t="inlineStr">
         <is>
           <t>equivalentRadius (um)</t>
         </is>
       </c>
-      <c r="US1" s="1" t="inlineStr">
+      <c r="VM1" s="1" t="inlineStr">
         <is>
           <t>GB Length/Sqrt Size</t>
         </is>
       </c>
-      <c r="UT1" s="1" t="inlineStr">
+      <c r="VN1" s="1" t="inlineStr">
         <is>
           <t>Total GB length</t>
         </is>
       </c>
-      <c r="UU1" s="1" t="inlineStr">
+      <c r="VO1" s="1" t="inlineStr">
         <is>
           <t>Tilt length</t>
         </is>
       </c>
-      <c r="UV1" s="1" t="inlineStr">
+      <c r="VP1" s="1" t="inlineStr">
         <is>
           <t>Twist length</t>
         </is>
       </c>
-      <c r="UW1" s="1" t="inlineStr">
+      <c r="VQ1" s="1" t="inlineStr">
         <is>
           <t>Perc Tilt</t>
         </is>
       </c>
-      <c r="UX1" s="1" t="inlineStr">
+      <c r="VR1" s="1" t="inlineStr">
         <is>
           <t>Perc Twist</t>
         </is>
       </c>
-      <c r="UY1" s="1" t="inlineStr">
+      <c r="VS1" s="1" t="inlineStr">
         <is>
           <t>Perc unclassified</t>
         </is>
       </c>
-      <c r="UZ1" s="1" t="inlineStr">
+      <c r="VT1" s="1" t="inlineStr">
         <is>
           <t>Divangle</t>
         </is>
       </c>
-      <c r="VA1" s="1" t="inlineStr">
+      <c r="VU1" s="1" t="inlineStr">
         <is>
           <t>Deformed</t>
         </is>
       </c>
-      <c r="VB1" s="1" t="inlineStr">
+      <c r="VV1" s="1" t="inlineStr">
         <is>
           <t>Day_EBSDdata</t>
         </is>
       </c>
-      <c r="VC1" s="1" t="inlineStr">
+      <c r="VW1" s="1" t="inlineStr">
         <is>
           <t>Standard</t>
         </is>
       </c>
-      <c r="VD1" s="1" t="inlineStr">
+      <c r="VX1" s="1" t="inlineStr">
+        <is>
+          <t>Standardization Date_Ca_Ol</t>
+        </is>
+      </c>
+      <c r="VY1" s="1" t="inlineStr">
+        <is>
+          <t>Standardization Date_Cr_Ol</t>
+        </is>
+      </c>
+      <c r="VZ1" s="1" t="inlineStr">
+        <is>
+          <t>Standardization Date_Mn_Ol</t>
+        </is>
+      </c>
+      <c r="WA1" s="1" t="inlineStr">
+        <is>
+          <t>Standardization Date_Ti_Ol</t>
+        </is>
+      </c>
+      <c r="WB1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__O_Ol</t>
+        </is>
+      </c>
+      <c r="WC1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Mg_Ol</t>
+        </is>
+      </c>
+      <c r="WD1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Si_Ol</t>
+        </is>
+      </c>
+      <c r="WE1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Ca_Ol</t>
+        </is>
+      </c>
+      <c r="WF1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Cr_Ol</t>
+        </is>
+      </c>
+      <c r="WG1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Mn_Ol</t>
+        </is>
+      </c>
+      <c r="WH1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Fe_Ol</t>
+        </is>
+      </c>
+      <c r="WI1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Ni_Ol</t>
+        </is>
+      </c>
+      <c r="WJ1" s="1" t="inlineStr">
+        <is>
+          <t>#_ions__Ti_Ol</t>
+        </is>
+      </c>
+      <c r="WK1" s="1" t="inlineStr">
+        <is>
+          <t>AnalysisName_Gl</t>
+        </is>
+      </c>
+      <c r="WL1" s="1" t="inlineStr">
+        <is>
+          <t>DataMethod_Gl</t>
+        </is>
+      </c>
+      <c r="WM1" s="1" t="inlineStr">
+        <is>
+          <t>SampleForm_Gl</t>
+        </is>
+      </c>
+      <c r="WN1" s="1" t="inlineStr">
+        <is>
+          <t>OKforMonitoring_Gl</t>
+        </is>
+      </c>
+      <c r="WO1" s="1" t="inlineStr">
+        <is>
+          <t>SiteDescription_Gl</t>
+        </is>
+      </c>
+      <c r="WP1" s="1" t="inlineStr">
+        <is>
+          <t>SiteLatDD_Gl</t>
+        </is>
+      </c>
+      <c r="WQ1" s="1" t="inlineStr">
+        <is>
+          <t>SiteLonDD_Gl</t>
+        </is>
+      </c>
+      <c r="WR1" s="1" t="inlineStr">
+        <is>
+          <t>SampleCollectedDate_Gl</t>
+        </is>
+      </c>
+      <c r="WS1" s="1" t="inlineStr">
+        <is>
+          <t>SampleFormedDate_Gl</t>
+        </is>
+      </c>
+      <c r="WT1" s="1" t="inlineStr">
+        <is>
+          <t>Fe_Gl</t>
+        </is>
+      </c>
+      <c r="WU1" s="1" t="inlineStr">
+        <is>
+          <t>FeOT_Gl</t>
+        </is>
+      </c>
+      <c r="WV1" s="1" t="inlineStr">
+        <is>
+          <t>S_Gl</t>
+        </is>
+      </c>
+      <c r="WW1" s="1" t="inlineStr">
+        <is>
+          <t>V_Gl</t>
+        </is>
+      </c>
+      <c r="WX1" s="1" t="inlineStr">
+        <is>
+          <t>Cr_Gl</t>
+        </is>
+      </c>
+      <c r="WY1" s="1" t="inlineStr">
+        <is>
+          <t>Ni_Gl</t>
+        </is>
+      </c>
+      <c r="WZ1" s="1" t="inlineStr">
+        <is>
+          <t>Cu_Gl</t>
+        </is>
+      </c>
+      <c r="XA1" s="1" t="inlineStr">
+        <is>
+          <t>Zn_Gl</t>
+        </is>
+      </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>Rb_Gl</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>Sr_Gl</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>Y_Gl</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>Zr_Gl</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>Nb_Gl</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>Ba_Gl</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>SiteLatDD_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>SiteLonDD_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>Fe_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>FeOT_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>S_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>V_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XN1" s="1" t="inlineStr">
+        <is>
+          <t>Cr_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XO1" s="1" t="inlineStr">
+        <is>
+          <t>Ni_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XP1" s="1" t="inlineStr">
+        <is>
+          <t>Cu_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XQ1" s="1" t="inlineStr">
+        <is>
+          <t>Zn_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XR1" s="1" t="inlineStr">
+        <is>
+          <t>Rb_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XS1" s="1" t="inlineStr">
+        <is>
+          <t>Sr_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XT1" s="1" t="inlineStr">
+        <is>
+          <t>Y_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XU1" s="1" t="inlineStr">
+        <is>
+          <t>Zr_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XV1" s="1" t="inlineStr">
+        <is>
+          <t>Nb_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XW1" s="1" t="inlineStr">
+        <is>
+          <t>Ba_STD_Gl</t>
+        </is>
+      </c>
+      <c r="XX1" s="1" t="inlineStr">
+        <is>
+          <t>SpotID_Gl</t>
+        </is>
+      </c>
+      <c r="XY1" s="1" t="inlineStr">
+        <is>
+          <t>Eruption_Gl</t>
+        </is>
+      </c>
+      <c r="XZ1" s="1" t="inlineStr">
+        <is>
+          <t>Sample_original_Gl</t>
+        </is>
+      </c>
+      <c r="YA1" s="1" t="inlineStr">
+        <is>
+          <t>Analysis Method_Gl</t>
+        </is>
+      </c>
+      <c r="YB1" s="1" t="inlineStr">
+        <is>
+          <t>Analysis Lab_Gl</t>
+        </is>
+      </c>
+      <c r="YC1" s="1" t="inlineStr">
+        <is>
+          <t>FeO*_Gl</t>
+        </is>
+      </c>
+      <c r="YD1" s="1" t="inlineStr">
+        <is>
+          <t>SO3_Gl</t>
+        </is>
+      </c>
+      <c r="YE1" s="1" t="inlineStr">
+        <is>
+          <t>Total_Gl</t>
+        </is>
+      </c>
+      <c r="YF1" s="1" t="inlineStr">
+        <is>
+          <t>Analysis Method_STD_Gl</t>
+        </is>
+      </c>
+      <c r="YG1" s="1" t="inlineStr">
+        <is>
+          <t>FeO*_STD_Gl</t>
+        </is>
+      </c>
+      <c r="YH1" s="1" t="inlineStr">
+        <is>
+          <t>SO3_STD_Gl</t>
+        </is>
+      </c>
+      <c r="YI1" s="1" t="inlineStr">
+        <is>
+          <t>Total_STD_Gl</t>
+        </is>
+      </c>
+      <c r="YJ1" s="1" t="inlineStr">
         <is>
           <t>Name_on_EPMA</t>
         </is>
       </c>
-      <c r="VE1" s="1" t="inlineStr">
+      <c r="YK1" s="1" t="inlineStr">
         <is>
           <t>Number order_Ol</t>
         </is>
       </c>
-      <c r="VF1" s="1" t="inlineStr">
+      <c r="YL1" s="1" t="inlineStr">
         <is>
           <t>MOUNT_Ol</t>
         </is>
       </c>
-      <c r="VG1" s="1" t="inlineStr">
+      <c r="YM1" s="1" t="inlineStr">
         <is>
           <t>Probe no._Ol</t>
         </is>
       </c>
-      <c r="VH1" s="1" t="inlineStr">
+      <c r="YN1" s="1" t="inlineStr">
         <is>
           <t>old_name_Ol</t>
         </is>
       </c>
-      <c r="VI1" s="1" t="inlineStr">
+      <c r="YO1" s="1" t="inlineStr">
         <is>
           <t>Comments_Ol</t>
         </is>
       </c>
-      <c r="VJ1" s="1" t="inlineStr">
+      <c r="YP1" s="1" t="inlineStr">
         <is>
           <t>Total_Ol</t>
         </is>
       </c>
-      <c r="VK1" s="1" t="inlineStr">
+      <c r="YQ1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Ca _Ol</t>
         </is>
       </c>
-      <c r="VL1" s="1" t="inlineStr">
+      <c r="YR1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Ti _Ol</t>
         </is>
       </c>
-      <c r="VM1" s="1" t="inlineStr">
+      <c r="YS1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Si _Ol</t>
         </is>
       </c>
-      <c r="VN1" s="1" t="inlineStr">
+      <c r="YT1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Al _Ol</t>
         </is>
       </c>
-      <c r="VO1" s="1" t="inlineStr">
+      <c r="YU1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Mg _Ol</t>
         </is>
       </c>
-      <c r="VP1" s="1" t="inlineStr">
+      <c r="YV1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Fe _Ol</t>
         </is>
       </c>
-      <c r="VQ1" s="1" t="inlineStr">
+      <c r="YW1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Mn _Ol</t>
         </is>
       </c>
-      <c r="VR1" s="1" t="inlineStr">
+      <c r="YX1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Ni _Ol</t>
         </is>
       </c>
-      <c r="VS1" s="1" t="inlineStr">
+      <c r="YY1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">      Cr _Ol</t>
         </is>
       </c>
-      <c r="VT1" s="1" t="inlineStr">
+      <c r="YZ1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">  Total  _Ol</t>
         </is>
       </c>
-      <c r="VU1" s="1" t="inlineStr">
+      <c r="ZA1" s="1" t="inlineStr">
         <is>
           <t>Ca(Error%)_Ol</t>
         </is>
       </c>
-      <c r="VV1" s="1" t="inlineStr">
+      <c r="ZB1" s="1" t="inlineStr">
         <is>
           <t>Ti(Error%)_Ol</t>
         </is>
       </c>
-      <c r="VW1" s="1" t="inlineStr">
+      <c r="ZC1" s="1" t="inlineStr">
         <is>
           <t>Si(Error%)_Ol</t>
         </is>
       </c>
-      <c r="VX1" s="1" t="inlineStr">
+      <c r="ZD1" s="1" t="inlineStr">
         <is>
           <t>Al(Error%)_Ol</t>
         </is>
       </c>
-      <c r="VY1" s="1" t="inlineStr">
+      <c r="ZE1" s="1" t="inlineStr">
         <is>
           <t>Mg(Error%)_Ol</t>
         </is>
       </c>
-      <c r="VZ1" s="1" t="inlineStr">
+      <c r="ZF1" s="1" t="inlineStr">
         <is>
           <t>Fe(Error%)_Ol</t>
         </is>
       </c>
-      <c r="WA1" s="1" t="inlineStr">
+      <c r="ZG1" s="1" t="inlineStr">
         <is>
           <t>Mn(Error%)_Ol</t>
         </is>
       </c>
-      <c r="WB1" s="1" t="inlineStr">
+      <c r="ZH1" s="1" t="inlineStr">
         <is>
           <t>Ni(Error%)_Ol</t>
         </is>
       </c>
-      <c r="WC1" s="1" t="inlineStr">
+      <c r="ZI1" s="1" t="inlineStr">
         <is>
           <t>Cr(Error%)_Ol</t>
         </is>
       </c>
-      <c r="WD1" s="1" t="inlineStr">
+      <c r="ZJ1" s="1" t="inlineStr">
         <is>
           <t>Ca(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WE1" s="1" t="inlineStr">
+      <c r="ZK1" s="1" t="inlineStr">
         <is>
           <t>Ti(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WF1" s="1" t="inlineStr">
+      <c r="ZL1" s="1" t="inlineStr">
         <is>
           <t>Si(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WG1" s="1" t="inlineStr">
+      <c r="ZM1" s="1" t="inlineStr">
         <is>
           <t>Al(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WH1" s="1" t="inlineStr">
+      <c r="ZN1" s="1" t="inlineStr">
         <is>
           <t>Mg(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WI1" s="1" t="inlineStr">
+      <c r="ZO1" s="1" t="inlineStr">
         <is>
           <t>Fe(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WJ1" s="1" t="inlineStr">
+      <c r="ZP1" s="1" t="inlineStr">
         <is>
           <t>Mn(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WK1" s="1" t="inlineStr">
+      <c r="ZQ1" s="1" t="inlineStr">
         <is>
           <t>Ni(D.L.)_Ol</t>
         </is>
       </c>
-      <c r="WL1" s="1" t="inlineStr">
+      <c r="ZR1" s="1" t="inlineStr">
         <is>
           <t>Cr(D.L.)_Ol</t>
         </is>
@@ -4291,6 +4711,90 @@
       <c r="WJ2" t="inlineStr"/>
       <c r="WK2" t="inlineStr"/>
       <c r="WL2" t="inlineStr"/>
+      <c r="WM2" t="inlineStr"/>
+      <c r="WN2" t="inlineStr"/>
+      <c r="WO2" t="inlineStr"/>
+      <c r="WP2" t="inlineStr"/>
+      <c r="WQ2" t="inlineStr"/>
+      <c r="WR2" t="inlineStr"/>
+      <c r="WS2" t="inlineStr"/>
+      <c r="WT2" t="inlineStr"/>
+      <c r="WU2" t="inlineStr"/>
+      <c r="WV2" t="inlineStr"/>
+      <c r="WW2" t="inlineStr"/>
+      <c r="WX2" t="inlineStr"/>
+      <c r="WY2" t="inlineStr"/>
+      <c r="WZ2" t="inlineStr"/>
+      <c r="XA2" t="inlineStr"/>
+      <c r="XB2" t="inlineStr"/>
+      <c r="XC2" t="inlineStr"/>
+      <c r="XD2" t="inlineStr"/>
+      <c r="XE2" t="inlineStr"/>
+      <c r="XF2" t="inlineStr"/>
+      <c r="XG2" t="inlineStr"/>
+      <c r="XH2" t="inlineStr"/>
+      <c r="XI2" t="inlineStr"/>
+      <c r="XJ2" t="inlineStr"/>
+      <c r="XK2" t="inlineStr"/>
+      <c r="XL2" t="inlineStr"/>
+      <c r="XM2" t="inlineStr"/>
+      <c r="XN2" t="inlineStr"/>
+      <c r="XO2" t="inlineStr"/>
+      <c r="XP2" t="inlineStr"/>
+      <c r="XQ2" t="inlineStr"/>
+      <c r="XR2" t="inlineStr"/>
+      <c r="XS2" t="inlineStr"/>
+      <c r="XT2" t="inlineStr"/>
+      <c r="XU2" t="inlineStr"/>
+      <c r="XV2" t="inlineStr"/>
+      <c r="XW2" t="inlineStr"/>
+      <c r="XX2" t="inlineStr"/>
+      <c r="XY2" t="inlineStr"/>
+      <c r="XZ2" t="inlineStr"/>
+      <c r="YA2" t="inlineStr"/>
+      <c r="YB2" t="inlineStr"/>
+      <c r="YC2" t="inlineStr"/>
+      <c r="YD2" t="inlineStr"/>
+      <c r="YE2" t="inlineStr"/>
+      <c r="YF2" t="inlineStr"/>
+      <c r="YG2" t="inlineStr"/>
+      <c r="YH2" t="inlineStr"/>
+      <c r="YI2" t="inlineStr"/>
+      <c r="YJ2" t="inlineStr"/>
+      <c r="YK2" t="inlineStr"/>
+      <c r="YL2" t="inlineStr"/>
+      <c r="YM2" t="inlineStr"/>
+      <c r="YN2" t="inlineStr"/>
+      <c r="YO2" t="inlineStr"/>
+      <c r="YP2" t="inlineStr"/>
+      <c r="YQ2" t="inlineStr"/>
+      <c r="YR2" t="inlineStr"/>
+      <c r="YS2" t="inlineStr"/>
+      <c r="YT2" t="inlineStr"/>
+      <c r="YU2" t="inlineStr"/>
+      <c r="YV2" t="inlineStr"/>
+      <c r="YW2" t="inlineStr"/>
+      <c r="YX2" t="inlineStr"/>
+      <c r="YY2" t="inlineStr"/>
+      <c r="YZ2" t="inlineStr"/>
+      <c r="ZA2" t="inlineStr"/>
+      <c r="ZB2" t="inlineStr"/>
+      <c r="ZC2" t="inlineStr"/>
+      <c r="ZD2" t="inlineStr"/>
+      <c r="ZE2" t="inlineStr"/>
+      <c r="ZF2" t="inlineStr"/>
+      <c r="ZG2" t="inlineStr"/>
+      <c r="ZH2" t="inlineStr"/>
+      <c r="ZI2" t="inlineStr"/>
+      <c r="ZJ2" t="inlineStr"/>
+      <c r="ZK2" t="inlineStr"/>
+      <c r="ZL2" t="inlineStr"/>
+      <c r="ZM2" t="inlineStr"/>
+      <c r="ZN2" t="inlineStr"/>
+      <c r="ZO2" t="inlineStr"/>
+      <c r="ZP2" t="inlineStr"/>
+      <c r="ZQ2" t="inlineStr"/>
+      <c r="ZR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -5105,6 +5609,90 @@
       <c r="WJ3" t="inlineStr"/>
       <c r="WK3" t="inlineStr"/>
       <c r="WL3" t="inlineStr"/>
+      <c r="WM3" t="inlineStr"/>
+      <c r="WN3" t="inlineStr"/>
+      <c r="WO3" t="inlineStr"/>
+      <c r="WP3" t="inlineStr"/>
+      <c r="WQ3" t="inlineStr"/>
+      <c r="WR3" t="inlineStr"/>
+      <c r="WS3" t="inlineStr"/>
+      <c r="WT3" t="inlineStr"/>
+      <c r="WU3" t="inlineStr"/>
+      <c r="WV3" t="inlineStr"/>
+      <c r="WW3" t="inlineStr"/>
+      <c r="WX3" t="inlineStr"/>
+      <c r="WY3" t="inlineStr"/>
+      <c r="WZ3" t="inlineStr"/>
+      <c r="XA3" t="inlineStr"/>
+      <c r="XB3" t="inlineStr"/>
+      <c r="XC3" t="inlineStr"/>
+      <c r="XD3" t="inlineStr"/>
+      <c r="XE3" t="inlineStr"/>
+      <c r="XF3" t="inlineStr"/>
+      <c r="XG3" t="inlineStr"/>
+      <c r="XH3" t="inlineStr"/>
+      <c r="XI3" t="inlineStr"/>
+      <c r="XJ3" t="inlineStr"/>
+      <c r="XK3" t="inlineStr"/>
+      <c r="XL3" t="inlineStr"/>
+      <c r="XM3" t="inlineStr"/>
+      <c r="XN3" t="inlineStr"/>
+      <c r="XO3" t="inlineStr"/>
+      <c r="XP3" t="inlineStr"/>
+      <c r="XQ3" t="inlineStr"/>
+      <c r="XR3" t="inlineStr"/>
+      <c r="XS3" t="inlineStr"/>
+      <c r="XT3" t="inlineStr"/>
+      <c r="XU3" t="inlineStr"/>
+      <c r="XV3" t="inlineStr"/>
+      <c r="XW3" t="inlineStr"/>
+      <c r="XX3" t="inlineStr"/>
+      <c r="XY3" t="inlineStr"/>
+      <c r="XZ3" t="inlineStr"/>
+      <c r="YA3" t="inlineStr"/>
+      <c r="YB3" t="inlineStr"/>
+      <c r="YC3" t="inlineStr"/>
+      <c r="YD3" t="inlineStr"/>
+      <c r="YE3" t="inlineStr"/>
+      <c r="YF3" t="inlineStr"/>
+      <c r="YG3" t="inlineStr"/>
+      <c r="YH3" t="inlineStr"/>
+      <c r="YI3" t="inlineStr"/>
+      <c r="YJ3" t="inlineStr"/>
+      <c r="YK3" t="inlineStr"/>
+      <c r="YL3" t="inlineStr"/>
+      <c r="YM3" t="inlineStr"/>
+      <c r="YN3" t="inlineStr"/>
+      <c r="YO3" t="inlineStr"/>
+      <c r="YP3" t="inlineStr"/>
+      <c r="YQ3" t="inlineStr"/>
+      <c r="YR3" t="inlineStr"/>
+      <c r="YS3" t="inlineStr"/>
+      <c r="YT3" t="inlineStr"/>
+      <c r="YU3" t="inlineStr"/>
+      <c r="YV3" t="inlineStr"/>
+      <c r="YW3" t="inlineStr"/>
+      <c r="YX3" t="inlineStr"/>
+      <c r="YY3" t="inlineStr"/>
+      <c r="YZ3" t="inlineStr"/>
+      <c r="ZA3" t="inlineStr"/>
+      <c r="ZB3" t="inlineStr"/>
+      <c r="ZC3" t="inlineStr"/>
+      <c r="ZD3" t="inlineStr"/>
+      <c r="ZE3" t="inlineStr"/>
+      <c r="ZF3" t="inlineStr"/>
+      <c r="ZG3" t="inlineStr"/>
+      <c r="ZH3" t="inlineStr"/>
+      <c r="ZI3" t="inlineStr"/>
+      <c r="ZJ3" t="inlineStr"/>
+      <c r="ZK3" t="inlineStr"/>
+      <c r="ZL3" t="inlineStr"/>
+      <c r="ZM3" t="inlineStr"/>
+      <c r="ZN3" t="inlineStr"/>
+      <c r="ZO3" t="inlineStr"/>
+      <c r="ZP3" t="inlineStr"/>
+      <c r="ZQ3" t="inlineStr"/>
+      <c r="ZR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -5919,6 +6507,90 @@
       <c r="WJ4" t="inlineStr"/>
       <c r="WK4" t="inlineStr"/>
       <c r="WL4" t="inlineStr"/>
+      <c r="WM4" t="inlineStr"/>
+      <c r="WN4" t="inlineStr"/>
+      <c r="WO4" t="inlineStr"/>
+      <c r="WP4" t="inlineStr"/>
+      <c r="WQ4" t="inlineStr"/>
+      <c r="WR4" t="inlineStr"/>
+      <c r="WS4" t="inlineStr"/>
+      <c r="WT4" t="inlineStr"/>
+      <c r="WU4" t="inlineStr"/>
+      <c r="WV4" t="inlineStr"/>
+      <c r="WW4" t="inlineStr"/>
+      <c r="WX4" t="inlineStr"/>
+      <c r="WY4" t="inlineStr"/>
+      <c r="WZ4" t="inlineStr"/>
+      <c r="XA4" t="inlineStr"/>
+      <c r="XB4" t="inlineStr"/>
+      <c r="XC4" t="inlineStr"/>
+      <c r="XD4" t="inlineStr"/>
+      <c r="XE4" t="inlineStr"/>
+      <c r="XF4" t="inlineStr"/>
+      <c r="XG4" t="inlineStr"/>
+      <c r="XH4" t="inlineStr"/>
+      <c r="XI4" t="inlineStr"/>
+      <c r="XJ4" t="inlineStr"/>
+      <c r="XK4" t="inlineStr"/>
+      <c r="XL4" t="inlineStr"/>
+      <c r="XM4" t="inlineStr"/>
+      <c r="XN4" t="inlineStr"/>
+      <c r="XO4" t="inlineStr"/>
+      <c r="XP4" t="inlineStr"/>
+      <c r="XQ4" t="inlineStr"/>
+      <c r="XR4" t="inlineStr"/>
+      <c r="XS4" t="inlineStr"/>
+      <c r="XT4" t="inlineStr"/>
+      <c r="XU4" t="inlineStr"/>
+      <c r="XV4" t="inlineStr"/>
+      <c r="XW4" t="inlineStr"/>
+      <c r="XX4" t="inlineStr"/>
+      <c r="XY4" t="inlineStr"/>
+      <c r="XZ4" t="inlineStr"/>
+      <c r="YA4" t="inlineStr"/>
+      <c r="YB4" t="inlineStr"/>
+      <c r="YC4" t="inlineStr"/>
+      <c r="YD4" t="inlineStr"/>
+      <c r="YE4" t="inlineStr"/>
+      <c r="YF4" t="inlineStr"/>
+      <c r="YG4" t="inlineStr"/>
+      <c r="YH4" t="inlineStr"/>
+      <c r="YI4" t="inlineStr"/>
+      <c r="YJ4" t="inlineStr"/>
+      <c r="YK4" t="inlineStr"/>
+      <c r="YL4" t="inlineStr"/>
+      <c r="YM4" t="inlineStr"/>
+      <c r="YN4" t="inlineStr"/>
+      <c r="YO4" t="inlineStr"/>
+      <c r="YP4" t="inlineStr"/>
+      <c r="YQ4" t="inlineStr"/>
+      <c r="YR4" t="inlineStr"/>
+      <c r="YS4" t="inlineStr"/>
+      <c r="YT4" t="inlineStr"/>
+      <c r="YU4" t="inlineStr"/>
+      <c r="YV4" t="inlineStr"/>
+      <c r="YW4" t="inlineStr"/>
+      <c r="YX4" t="inlineStr"/>
+      <c r="YY4" t="inlineStr"/>
+      <c r="YZ4" t="inlineStr"/>
+      <c r="ZA4" t="inlineStr"/>
+      <c r="ZB4" t="inlineStr"/>
+      <c r="ZC4" t="inlineStr"/>
+      <c r="ZD4" t="inlineStr"/>
+      <c r="ZE4" t="inlineStr"/>
+      <c r="ZF4" t="inlineStr"/>
+      <c r="ZG4" t="inlineStr"/>
+      <c r="ZH4" t="inlineStr"/>
+      <c r="ZI4" t="inlineStr"/>
+      <c r="ZJ4" t="inlineStr"/>
+      <c r="ZK4" t="inlineStr"/>
+      <c r="ZL4" t="inlineStr"/>
+      <c r="ZM4" t="inlineStr"/>
+      <c r="ZN4" t="inlineStr"/>
+      <c r="ZO4" t="inlineStr"/>
+      <c r="ZP4" t="inlineStr"/>
+      <c r="ZQ4" t="inlineStr"/>
+      <c r="ZR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -6733,6 +7405,90 @@
       <c r="WJ5" t="inlineStr"/>
       <c r="WK5" t="inlineStr"/>
       <c r="WL5" t="inlineStr"/>
+      <c r="WM5" t="inlineStr"/>
+      <c r="WN5" t="inlineStr"/>
+      <c r="WO5" t="inlineStr"/>
+      <c r="WP5" t="inlineStr"/>
+      <c r="WQ5" t="inlineStr"/>
+      <c r="WR5" t="inlineStr"/>
+      <c r="WS5" t="inlineStr"/>
+      <c r="WT5" t="inlineStr"/>
+      <c r="WU5" t="inlineStr"/>
+      <c r="WV5" t="inlineStr"/>
+      <c r="WW5" t="inlineStr"/>
+      <c r="WX5" t="inlineStr"/>
+      <c r="WY5" t="inlineStr"/>
+      <c r="WZ5" t="inlineStr"/>
+      <c r="XA5" t="inlineStr"/>
+      <c r="XB5" t="inlineStr"/>
+      <c r="XC5" t="inlineStr"/>
+      <c r="XD5" t="inlineStr"/>
+      <c r="XE5" t="inlineStr"/>
+      <c r="XF5" t="inlineStr"/>
+      <c r="XG5" t="inlineStr"/>
+      <c r="XH5" t="inlineStr"/>
+      <c r="XI5" t="inlineStr"/>
+      <c r="XJ5" t="inlineStr"/>
+      <c r="XK5" t="inlineStr"/>
+      <c r="XL5" t="inlineStr"/>
+      <c r="XM5" t="inlineStr"/>
+      <c r="XN5" t="inlineStr"/>
+      <c r="XO5" t="inlineStr"/>
+      <c r="XP5" t="inlineStr"/>
+      <c r="XQ5" t="inlineStr"/>
+      <c r="XR5" t="inlineStr"/>
+      <c r="XS5" t="inlineStr"/>
+      <c r="XT5" t="inlineStr"/>
+      <c r="XU5" t="inlineStr"/>
+      <c r="XV5" t="inlineStr"/>
+      <c r="XW5" t="inlineStr"/>
+      <c r="XX5" t="inlineStr"/>
+      <c r="XY5" t="inlineStr"/>
+      <c r="XZ5" t="inlineStr"/>
+      <c r="YA5" t="inlineStr"/>
+      <c r="YB5" t="inlineStr"/>
+      <c r="YC5" t="inlineStr"/>
+      <c r="YD5" t="inlineStr"/>
+      <c r="YE5" t="inlineStr"/>
+      <c r="YF5" t="inlineStr"/>
+      <c r="YG5" t="inlineStr"/>
+      <c r="YH5" t="inlineStr"/>
+      <c r="YI5" t="inlineStr"/>
+      <c r="YJ5" t="inlineStr"/>
+      <c r="YK5" t="inlineStr"/>
+      <c r="YL5" t="inlineStr"/>
+      <c r="YM5" t="inlineStr"/>
+      <c r="YN5" t="inlineStr"/>
+      <c r="YO5" t="inlineStr"/>
+      <c r="YP5" t="inlineStr"/>
+      <c r="YQ5" t="inlineStr"/>
+      <c r="YR5" t="inlineStr"/>
+      <c r="YS5" t="inlineStr"/>
+      <c r="YT5" t="inlineStr"/>
+      <c r="YU5" t="inlineStr"/>
+      <c r="YV5" t="inlineStr"/>
+      <c r="YW5" t="inlineStr"/>
+      <c r="YX5" t="inlineStr"/>
+      <c r="YY5" t="inlineStr"/>
+      <c r="YZ5" t="inlineStr"/>
+      <c r="ZA5" t="inlineStr"/>
+      <c r="ZB5" t="inlineStr"/>
+      <c r="ZC5" t="inlineStr"/>
+      <c r="ZD5" t="inlineStr"/>
+      <c r="ZE5" t="inlineStr"/>
+      <c r="ZF5" t="inlineStr"/>
+      <c r="ZG5" t="inlineStr"/>
+      <c r="ZH5" t="inlineStr"/>
+      <c r="ZI5" t="inlineStr"/>
+      <c r="ZJ5" t="inlineStr"/>
+      <c r="ZK5" t="inlineStr"/>
+      <c r="ZL5" t="inlineStr"/>
+      <c r="ZM5" t="inlineStr"/>
+      <c r="ZN5" t="inlineStr"/>
+      <c r="ZO5" t="inlineStr"/>
+      <c r="ZP5" t="inlineStr"/>
+      <c r="ZQ5" t="inlineStr"/>
+      <c r="ZR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -7547,6 +8303,90 @@
       <c r="WJ6" t="inlineStr"/>
       <c r="WK6" t="inlineStr"/>
       <c r="WL6" t="inlineStr"/>
+      <c r="WM6" t="inlineStr"/>
+      <c r="WN6" t="inlineStr"/>
+      <c r="WO6" t="inlineStr"/>
+      <c r="WP6" t="inlineStr"/>
+      <c r="WQ6" t="inlineStr"/>
+      <c r="WR6" t="inlineStr"/>
+      <c r="WS6" t="inlineStr"/>
+      <c r="WT6" t="inlineStr"/>
+      <c r="WU6" t="inlineStr"/>
+      <c r="WV6" t="inlineStr"/>
+      <c r="WW6" t="inlineStr"/>
+      <c r="WX6" t="inlineStr"/>
+      <c r="WY6" t="inlineStr"/>
+      <c r="WZ6" t="inlineStr"/>
+      <c r="XA6" t="inlineStr"/>
+      <c r="XB6" t="inlineStr"/>
+      <c r="XC6" t="inlineStr"/>
+      <c r="XD6" t="inlineStr"/>
+      <c r="XE6" t="inlineStr"/>
+      <c r="XF6" t="inlineStr"/>
+      <c r="XG6" t="inlineStr"/>
+      <c r="XH6" t="inlineStr"/>
+      <c r="XI6" t="inlineStr"/>
+      <c r="XJ6" t="inlineStr"/>
+      <c r="XK6" t="inlineStr"/>
+      <c r="XL6" t="inlineStr"/>
+      <c r="XM6" t="inlineStr"/>
+      <c r="XN6" t="inlineStr"/>
+      <c r="XO6" t="inlineStr"/>
+      <c r="XP6" t="inlineStr"/>
+      <c r="XQ6" t="inlineStr"/>
+      <c r="XR6" t="inlineStr"/>
+      <c r="XS6" t="inlineStr"/>
+      <c r="XT6" t="inlineStr"/>
+      <c r="XU6" t="inlineStr"/>
+      <c r="XV6" t="inlineStr"/>
+      <c r="XW6" t="inlineStr"/>
+      <c r="XX6" t="inlineStr"/>
+      <c r="XY6" t="inlineStr"/>
+      <c r="XZ6" t="inlineStr"/>
+      <c r="YA6" t="inlineStr"/>
+      <c r="YB6" t="inlineStr"/>
+      <c r="YC6" t="inlineStr"/>
+      <c r="YD6" t="inlineStr"/>
+      <c r="YE6" t="inlineStr"/>
+      <c r="YF6" t="inlineStr"/>
+      <c r="YG6" t="inlineStr"/>
+      <c r="YH6" t="inlineStr"/>
+      <c r="YI6" t="inlineStr"/>
+      <c r="YJ6" t="inlineStr"/>
+      <c r="YK6" t="inlineStr"/>
+      <c r="YL6" t="inlineStr"/>
+      <c r="YM6" t="inlineStr"/>
+      <c r="YN6" t="inlineStr"/>
+      <c r="YO6" t="inlineStr"/>
+      <c r="YP6" t="inlineStr"/>
+      <c r="YQ6" t="inlineStr"/>
+      <c r="YR6" t="inlineStr"/>
+      <c r="YS6" t="inlineStr"/>
+      <c r="YT6" t="inlineStr"/>
+      <c r="YU6" t="inlineStr"/>
+      <c r="YV6" t="inlineStr"/>
+      <c r="YW6" t="inlineStr"/>
+      <c r="YX6" t="inlineStr"/>
+      <c r="YY6" t="inlineStr"/>
+      <c r="YZ6" t="inlineStr"/>
+      <c r="ZA6" t="inlineStr"/>
+      <c r="ZB6" t="inlineStr"/>
+      <c r="ZC6" t="inlineStr"/>
+      <c r="ZD6" t="inlineStr"/>
+      <c r="ZE6" t="inlineStr"/>
+      <c r="ZF6" t="inlineStr"/>
+      <c r="ZG6" t="inlineStr"/>
+      <c r="ZH6" t="inlineStr"/>
+      <c r="ZI6" t="inlineStr"/>
+      <c r="ZJ6" t="inlineStr"/>
+      <c r="ZK6" t="inlineStr"/>
+      <c r="ZL6" t="inlineStr"/>
+      <c r="ZM6" t="inlineStr"/>
+      <c r="ZN6" t="inlineStr"/>
+      <c r="ZO6" t="inlineStr"/>
+      <c r="ZP6" t="inlineStr"/>
+      <c r="ZQ6" t="inlineStr"/>
+      <c r="ZR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -8355,6 +9195,90 @@
       <c r="WJ7" t="inlineStr"/>
       <c r="WK7" t="inlineStr"/>
       <c r="WL7" t="inlineStr"/>
+      <c r="WM7" t="inlineStr"/>
+      <c r="WN7" t="inlineStr"/>
+      <c r="WO7" t="inlineStr"/>
+      <c r="WP7" t="inlineStr"/>
+      <c r="WQ7" t="inlineStr"/>
+      <c r="WR7" t="inlineStr"/>
+      <c r="WS7" t="inlineStr"/>
+      <c r="WT7" t="inlineStr"/>
+      <c r="WU7" t="inlineStr"/>
+      <c r="WV7" t="inlineStr"/>
+      <c r="WW7" t="inlineStr"/>
+      <c r="WX7" t="inlineStr"/>
+      <c r="WY7" t="inlineStr"/>
+      <c r="WZ7" t="inlineStr"/>
+      <c r="XA7" t="inlineStr"/>
+      <c r="XB7" t="inlineStr"/>
+      <c r="XC7" t="inlineStr"/>
+      <c r="XD7" t="inlineStr"/>
+      <c r="XE7" t="inlineStr"/>
+      <c r="XF7" t="inlineStr"/>
+      <c r="XG7" t="inlineStr"/>
+      <c r="XH7" t="inlineStr"/>
+      <c r="XI7" t="inlineStr"/>
+      <c r="XJ7" t="inlineStr"/>
+      <c r="XK7" t="inlineStr"/>
+      <c r="XL7" t="inlineStr"/>
+      <c r="XM7" t="inlineStr"/>
+      <c r="XN7" t="inlineStr"/>
+      <c r="XO7" t="inlineStr"/>
+      <c r="XP7" t="inlineStr"/>
+      <c r="XQ7" t="inlineStr"/>
+      <c r="XR7" t="inlineStr"/>
+      <c r="XS7" t="inlineStr"/>
+      <c r="XT7" t="inlineStr"/>
+      <c r="XU7" t="inlineStr"/>
+      <c r="XV7" t="inlineStr"/>
+      <c r="XW7" t="inlineStr"/>
+      <c r="XX7" t="inlineStr"/>
+      <c r="XY7" t="inlineStr"/>
+      <c r="XZ7" t="inlineStr"/>
+      <c r="YA7" t="inlineStr"/>
+      <c r="YB7" t="inlineStr"/>
+      <c r="YC7" t="inlineStr"/>
+      <c r="YD7" t="inlineStr"/>
+      <c r="YE7" t="inlineStr"/>
+      <c r="YF7" t="inlineStr"/>
+      <c r="YG7" t="inlineStr"/>
+      <c r="YH7" t="inlineStr"/>
+      <c r="YI7" t="inlineStr"/>
+      <c r="YJ7" t="inlineStr"/>
+      <c r="YK7" t="inlineStr"/>
+      <c r="YL7" t="inlineStr"/>
+      <c r="YM7" t="inlineStr"/>
+      <c r="YN7" t="inlineStr"/>
+      <c r="YO7" t="inlineStr"/>
+      <c r="YP7" t="inlineStr"/>
+      <c r="YQ7" t="inlineStr"/>
+      <c r="YR7" t="inlineStr"/>
+      <c r="YS7" t="inlineStr"/>
+      <c r="YT7" t="inlineStr"/>
+      <c r="YU7" t="inlineStr"/>
+      <c r="YV7" t="inlineStr"/>
+      <c r="YW7" t="inlineStr"/>
+      <c r="YX7" t="inlineStr"/>
+      <c r="YY7" t="inlineStr"/>
+      <c r="YZ7" t="inlineStr"/>
+      <c r="ZA7" t="inlineStr"/>
+      <c r="ZB7" t="inlineStr"/>
+      <c r="ZC7" t="inlineStr"/>
+      <c r="ZD7" t="inlineStr"/>
+      <c r="ZE7" t="inlineStr"/>
+      <c r="ZF7" t="inlineStr"/>
+      <c r="ZG7" t="inlineStr"/>
+      <c r="ZH7" t="inlineStr"/>
+      <c r="ZI7" t="inlineStr"/>
+      <c r="ZJ7" t="inlineStr"/>
+      <c r="ZK7" t="inlineStr"/>
+      <c r="ZL7" t="inlineStr"/>
+      <c r="ZM7" t="inlineStr"/>
+      <c r="ZN7" t="inlineStr"/>
+      <c r="ZO7" t="inlineStr"/>
+      <c r="ZP7" t="inlineStr"/>
+      <c r="ZQ7" t="inlineStr"/>
+      <c r="ZR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -9169,6 +10093,90 @@
       <c r="WJ8" t="inlineStr"/>
       <c r="WK8" t="inlineStr"/>
       <c r="WL8" t="inlineStr"/>
+      <c r="WM8" t="inlineStr"/>
+      <c r="WN8" t="inlineStr"/>
+      <c r="WO8" t="inlineStr"/>
+      <c r="WP8" t="inlineStr"/>
+      <c r="WQ8" t="inlineStr"/>
+      <c r="WR8" t="inlineStr"/>
+      <c r="WS8" t="inlineStr"/>
+      <c r="WT8" t="inlineStr"/>
+      <c r="WU8" t="inlineStr"/>
+      <c r="WV8" t="inlineStr"/>
+      <c r="WW8" t="inlineStr"/>
+      <c r="WX8" t="inlineStr"/>
+      <c r="WY8" t="inlineStr"/>
+      <c r="WZ8" t="inlineStr"/>
+      <c r="XA8" t="inlineStr"/>
+      <c r="XB8" t="inlineStr"/>
+      <c r="XC8" t="inlineStr"/>
+      <c r="XD8" t="inlineStr"/>
+      <c r="XE8" t="inlineStr"/>
+      <c r="XF8" t="inlineStr"/>
+      <c r="XG8" t="inlineStr"/>
+      <c r="XH8" t="inlineStr"/>
+      <c r="XI8" t="inlineStr"/>
+      <c r="XJ8" t="inlineStr"/>
+      <c r="XK8" t="inlineStr"/>
+      <c r="XL8" t="inlineStr"/>
+      <c r="XM8" t="inlineStr"/>
+      <c r="XN8" t="inlineStr"/>
+      <c r="XO8" t="inlineStr"/>
+      <c r="XP8" t="inlineStr"/>
+      <c r="XQ8" t="inlineStr"/>
+      <c r="XR8" t="inlineStr"/>
+      <c r="XS8" t="inlineStr"/>
+      <c r="XT8" t="inlineStr"/>
+      <c r="XU8" t="inlineStr"/>
+      <c r="XV8" t="inlineStr"/>
+      <c r="XW8" t="inlineStr"/>
+      <c r="XX8" t="inlineStr"/>
+      <c r="XY8" t="inlineStr"/>
+      <c r="XZ8" t="inlineStr"/>
+      <c r="YA8" t="inlineStr"/>
+      <c r="YB8" t="inlineStr"/>
+      <c r="YC8" t="inlineStr"/>
+      <c r="YD8" t="inlineStr"/>
+      <c r="YE8" t="inlineStr"/>
+      <c r="YF8" t="inlineStr"/>
+      <c r="YG8" t="inlineStr"/>
+      <c r="YH8" t="inlineStr"/>
+      <c r="YI8" t="inlineStr"/>
+      <c r="YJ8" t="inlineStr"/>
+      <c r="YK8" t="inlineStr"/>
+      <c r="YL8" t="inlineStr"/>
+      <c r="YM8" t="inlineStr"/>
+      <c r="YN8" t="inlineStr"/>
+      <c r="YO8" t="inlineStr"/>
+      <c r="YP8" t="inlineStr"/>
+      <c r="YQ8" t="inlineStr"/>
+      <c r="YR8" t="inlineStr"/>
+      <c r="YS8" t="inlineStr"/>
+      <c r="YT8" t="inlineStr"/>
+      <c r="YU8" t="inlineStr"/>
+      <c r="YV8" t="inlineStr"/>
+      <c r="YW8" t="inlineStr"/>
+      <c r="YX8" t="inlineStr"/>
+      <c r="YY8" t="inlineStr"/>
+      <c r="YZ8" t="inlineStr"/>
+      <c r="ZA8" t="inlineStr"/>
+      <c r="ZB8" t="inlineStr"/>
+      <c r="ZC8" t="inlineStr"/>
+      <c r="ZD8" t="inlineStr"/>
+      <c r="ZE8" t="inlineStr"/>
+      <c r="ZF8" t="inlineStr"/>
+      <c r="ZG8" t="inlineStr"/>
+      <c r="ZH8" t="inlineStr"/>
+      <c r="ZI8" t="inlineStr"/>
+      <c r="ZJ8" t="inlineStr"/>
+      <c r="ZK8" t="inlineStr"/>
+      <c r="ZL8" t="inlineStr"/>
+      <c r="ZM8" t="inlineStr"/>
+      <c r="ZN8" t="inlineStr"/>
+      <c r="ZO8" t="inlineStr"/>
+      <c r="ZP8" t="inlineStr"/>
+      <c r="ZQ8" t="inlineStr"/>
+      <c r="ZR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -9989,6 +10997,90 @@
       <c r="WJ9" t="inlineStr"/>
       <c r="WK9" t="inlineStr"/>
       <c r="WL9" t="inlineStr"/>
+      <c r="WM9" t="inlineStr"/>
+      <c r="WN9" t="inlineStr"/>
+      <c r="WO9" t="inlineStr"/>
+      <c r="WP9" t="inlineStr"/>
+      <c r="WQ9" t="inlineStr"/>
+      <c r="WR9" t="inlineStr"/>
+      <c r="WS9" t="inlineStr"/>
+      <c r="WT9" t="inlineStr"/>
+      <c r="WU9" t="inlineStr"/>
+      <c r="WV9" t="inlineStr"/>
+      <c r="WW9" t="inlineStr"/>
+      <c r="WX9" t="inlineStr"/>
+      <c r="WY9" t="inlineStr"/>
+      <c r="WZ9" t="inlineStr"/>
+      <c r="XA9" t="inlineStr"/>
+      <c r="XB9" t="inlineStr"/>
+      <c r="XC9" t="inlineStr"/>
+      <c r="XD9" t="inlineStr"/>
+      <c r="XE9" t="inlineStr"/>
+      <c r="XF9" t="inlineStr"/>
+      <c r="XG9" t="inlineStr"/>
+      <c r="XH9" t="inlineStr"/>
+      <c r="XI9" t="inlineStr"/>
+      <c r="XJ9" t="inlineStr"/>
+      <c r="XK9" t="inlineStr"/>
+      <c r="XL9" t="inlineStr"/>
+      <c r="XM9" t="inlineStr"/>
+      <c r="XN9" t="inlineStr"/>
+      <c r="XO9" t="inlineStr"/>
+      <c r="XP9" t="inlineStr"/>
+      <c r="XQ9" t="inlineStr"/>
+      <c r="XR9" t="inlineStr"/>
+      <c r="XS9" t="inlineStr"/>
+      <c r="XT9" t="inlineStr"/>
+      <c r="XU9" t="inlineStr"/>
+      <c r="XV9" t="inlineStr"/>
+      <c r="XW9" t="inlineStr"/>
+      <c r="XX9" t="inlineStr"/>
+      <c r="XY9" t="inlineStr"/>
+      <c r="XZ9" t="inlineStr"/>
+      <c r="YA9" t="inlineStr"/>
+      <c r="YB9" t="inlineStr"/>
+      <c r="YC9" t="inlineStr"/>
+      <c r="YD9" t="inlineStr"/>
+      <c r="YE9" t="inlineStr"/>
+      <c r="YF9" t="inlineStr"/>
+      <c r="YG9" t="inlineStr"/>
+      <c r="YH9" t="inlineStr"/>
+      <c r="YI9" t="inlineStr"/>
+      <c r="YJ9" t="inlineStr"/>
+      <c r="YK9" t="inlineStr"/>
+      <c r="YL9" t="inlineStr"/>
+      <c r="YM9" t="inlineStr"/>
+      <c r="YN9" t="inlineStr"/>
+      <c r="YO9" t="inlineStr"/>
+      <c r="YP9" t="inlineStr"/>
+      <c r="YQ9" t="inlineStr"/>
+      <c r="YR9" t="inlineStr"/>
+      <c r="YS9" t="inlineStr"/>
+      <c r="YT9" t="inlineStr"/>
+      <c r="YU9" t="inlineStr"/>
+      <c r="YV9" t="inlineStr"/>
+      <c r="YW9" t="inlineStr"/>
+      <c r="YX9" t="inlineStr"/>
+      <c r="YY9" t="inlineStr"/>
+      <c r="YZ9" t="inlineStr"/>
+      <c r="ZA9" t="inlineStr"/>
+      <c r="ZB9" t="inlineStr"/>
+      <c r="ZC9" t="inlineStr"/>
+      <c r="ZD9" t="inlineStr"/>
+      <c r="ZE9" t="inlineStr"/>
+      <c r="ZF9" t="inlineStr"/>
+      <c r="ZG9" t="inlineStr"/>
+      <c r="ZH9" t="inlineStr"/>
+      <c r="ZI9" t="inlineStr"/>
+      <c r="ZJ9" t="inlineStr"/>
+      <c r="ZK9" t="inlineStr"/>
+      <c r="ZL9" t="inlineStr"/>
+      <c r="ZM9" t="inlineStr"/>
+      <c r="ZN9" t="inlineStr"/>
+      <c r="ZO9" t="inlineStr"/>
+      <c r="ZP9" t="inlineStr"/>
+      <c r="ZQ9" t="inlineStr"/>
+      <c r="ZR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -10809,6 +11901,90 @@
       <c r="WJ10" t="inlineStr"/>
       <c r="WK10" t="inlineStr"/>
       <c r="WL10" t="inlineStr"/>
+      <c r="WM10" t="inlineStr"/>
+      <c r="WN10" t="inlineStr"/>
+      <c r="WO10" t="inlineStr"/>
+      <c r="WP10" t="inlineStr"/>
+      <c r="WQ10" t="inlineStr"/>
+      <c r="WR10" t="inlineStr"/>
+      <c r="WS10" t="inlineStr"/>
+      <c r="WT10" t="inlineStr"/>
+      <c r="WU10" t="inlineStr"/>
+      <c r="WV10" t="inlineStr"/>
+      <c r="WW10" t="inlineStr"/>
+      <c r="WX10" t="inlineStr"/>
+      <c r="WY10" t="inlineStr"/>
+      <c r="WZ10" t="inlineStr"/>
+      <c r="XA10" t="inlineStr"/>
+      <c r="XB10" t="inlineStr"/>
+      <c r="XC10" t="inlineStr"/>
+      <c r="XD10" t="inlineStr"/>
+      <c r="XE10" t="inlineStr"/>
+      <c r="XF10" t="inlineStr"/>
+      <c r="XG10" t="inlineStr"/>
+      <c r="XH10" t="inlineStr"/>
+      <c r="XI10" t="inlineStr"/>
+      <c r="XJ10" t="inlineStr"/>
+      <c r="XK10" t="inlineStr"/>
+      <c r="XL10" t="inlineStr"/>
+      <c r="XM10" t="inlineStr"/>
+      <c r="XN10" t="inlineStr"/>
+      <c r="XO10" t="inlineStr"/>
+      <c r="XP10" t="inlineStr"/>
+      <c r="XQ10" t="inlineStr"/>
+      <c r="XR10" t="inlineStr"/>
+      <c r="XS10" t="inlineStr"/>
+      <c r="XT10" t="inlineStr"/>
+      <c r="XU10" t="inlineStr"/>
+      <c r="XV10" t="inlineStr"/>
+      <c r="XW10" t="inlineStr"/>
+      <c r="XX10" t="inlineStr"/>
+      <c r="XY10" t="inlineStr"/>
+      <c r="XZ10" t="inlineStr"/>
+      <c r="YA10" t="inlineStr"/>
+      <c r="YB10" t="inlineStr"/>
+      <c r="YC10" t="inlineStr"/>
+      <c r="YD10" t="inlineStr"/>
+      <c r="YE10" t="inlineStr"/>
+      <c r="YF10" t="inlineStr"/>
+      <c r="YG10" t="inlineStr"/>
+      <c r="YH10" t="inlineStr"/>
+      <c r="YI10" t="inlineStr"/>
+      <c r="YJ10" t="inlineStr"/>
+      <c r="YK10" t="inlineStr"/>
+      <c r="YL10" t="inlineStr"/>
+      <c r="YM10" t="inlineStr"/>
+      <c r="YN10" t="inlineStr"/>
+      <c r="YO10" t="inlineStr"/>
+      <c r="YP10" t="inlineStr"/>
+      <c r="YQ10" t="inlineStr"/>
+      <c r="YR10" t="inlineStr"/>
+      <c r="YS10" t="inlineStr"/>
+      <c r="YT10" t="inlineStr"/>
+      <c r="YU10" t="inlineStr"/>
+      <c r="YV10" t="inlineStr"/>
+      <c r="YW10" t="inlineStr"/>
+      <c r="YX10" t="inlineStr"/>
+      <c r="YY10" t="inlineStr"/>
+      <c r="YZ10" t="inlineStr"/>
+      <c r="ZA10" t="inlineStr"/>
+      <c r="ZB10" t="inlineStr"/>
+      <c r="ZC10" t="inlineStr"/>
+      <c r="ZD10" t="inlineStr"/>
+      <c r="ZE10" t="inlineStr"/>
+      <c r="ZF10" t="inlineStr"/>
+      <c r="ZG10" t="inlineStr"/>
+      <c r="ZH10" t="inlineStr"/>
+      <c r="ZI10" t="inlineStr"/>
+      <c r="ZJ10" t="inlineStr"/>
+      <c r="ZK10" t="inlineStr"/>
+      <c r="ZL10" t="inlineStr"/>
+      <c r="ZM10" t="inlineStr"/>
+      <c r="ZN10" t="inlineStr"/>
+      <c r="ZO10" t="inlineStr"/>
+      <c r="ZP10" t="inlineStr"/>
+      <c r="ZQ10" t="inlineStr"/>
+      <c r="ZR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -11623,6 +12799,90 @@
       <c r="WJ11" t="inlineStr"/>
       <c r="WK11" t="inlineStr"/>
       <c r="WL11" t="inlineStr"/>
+      <c r="WM11" t="inlineStr"/>
+      <c r="WN11" t="inlineStr"/>
+      <c r="WO11" t="inlineStr"/>
+      <c r="WP11" t="inlineStr"/>
+      <c r="WQ11" t="inlineStr"/>
+      <c r="WR11" t="inlineStr"/>
+      <c r="WS11" t="inlineStr"/>
+      <c r="WT11" t="inlineStr"/>
+      <c r="WU11" t="inlineStr"/>
+      <c r="WV11" t="inlineStr"/>
+      <c r="WW11" t="inlineStr"/>
+      <c r="WX11" t="inlineStr"/>
+      <c r="WY11" t="inlineStr"/>
+      <c r="WZ11" t="inlineStr"/>
+      <c r="XA11" t="inlineStr"/>
+      <c r="XB11" t="inlineStr"/>
+      <c r="XC11" t="inlineStr"/>
+      <c r="XD11" t="inlineStr"/>
+      <c r="XE11" t="inlineStr"/>
+      <c r="XF11" t="inlineStr"/>
+      <c r="XG11" t="inlineStr"/>
+      <c r="XH11" t="inlineStr"/>
+      <c r="XI11" t="inlineStr"/>
+      <c r="XJ11" t="inlineStr"/>
+      <c r="XK11" t="inlineStr"/>
+      <c r="XL11" t="inlineStr"/>
+      <c r="XM11" t="inlineStr"/>
+      <c r="XN11" t="inlineStr"/>
+      <c r="XO11" t="inlineStr"/>
+      <c r="XP11" t="inlineStr"/>
+      <c r="XQ11" t="inlineStr"/>
+      <c r="XR11" t="inlineStr"/>
+      <c r="XS11" t="inlineStr"/>
+      <c r="XT11" t="inlineStr"/>
+      <c r="XU11" t="inlineStr"/>
+      <c r="XV11" t="inlineStr"/>
+      <c r="XW11" t="inlineStr"/>
+      <c r="XX11" t="inlineStr"/>
+      <c r="XY11" t="inlineStr"/>
+      <c r="XZ11" t="inlineStr"/>
+      <c r="YA11" t="inlineStr"/>
+      <c r="YB11" t="inlineStr"/>
+      <c r="YC11" t="inlineStr"/>
+      <c r="YD11" t="inlineStr"/>
+      <c r="YE11" t="inlineStr"/>
+      <c r="YF11" t="inlineStr"/>
+      <c r="YG11" t="inlineStr"/>
+      <c r="YH11" t="inlineStr"/>
+      <c r="YI11" t="inlineStr"/>
+      <c r="YJ11" t="inlineStr"/>
+      <c r="YK11" t="inlineStr"/>
+      <c r="YL11" t="inlineStr"/>
+      <c r="YM11" t="inlineStr"/>
+      <c r="YN11" t="inlineStr"/>
+      <c r="YO11" t="inlineStr"/>
+      <c r="YP11" t="inlineStr"/>
+      <c r="YQ11" t="inlineStr"/>
+      <c r="YR11" t="inlineStr"/>
+      <c r="YS11" t="inlineStr"/>
+      <c r="YT11" t="inlineStr"/>
+      <c r="YU11" t="inlineStr"/>
+      <c r="YV11" t="inlineStr"/>
+      <c r="YW11" t="inlineStr"/>
+      <c r="YX11" t="inlineStr"/>
+      <c r="YY11" t="inlineStr"/>
+      <c r="YZ11" t="inlineStr"/>
+      <c r="ZA11" t="inlineStr"/>
+      <c r="ZB11" t="inlineStr"/>
+      <c r="ZC11" t="inlineStr"/>
+      <c r="ZD11" t="inlineStr"/>
+      <c r="ZE11" t="inlineStr"/>
+      <c r="ZF11" t="inlineStr"/>
+      <c r="ZG11" t="inlineStr"/>
+      <c r="ZH11" t="inlineStr"/>
+      <c r="ZI11" t="inlineStr"/>
+      <c r="ZJ11" t="inlineStr"/>
+      <c r="ZK11" t="inlineStr"/>
+      <c r="ZL11" t="inlineStr"/>
+      <c r="ZM11" t="inlineStr"/>
+      <c r="ZN11" t="inlineStr"/>
+      <c r="ZO11" t="inlineStr"/>
+      <c r="ZP11" t="inlineStr"/>
+      <c r="ZQ11" t="inlineStr"/>
+      <c r="ZR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -12431,6 +13691,90 @@
       <c r="WJ12" t="inlineStr"/>
       <c r="WK12" t="inlineStr"/>
       <c r="WL12" t="inlineStr"/>
+      <c r="WM12" t="inlineStr"/>
+      <c r="WN12" t="inlineStr"/>
+      <c r="WO12" t="inlineStr"/>
+      <c r="WP12" t="inlineStr"/>
+      <c r="WQ12" t="inlineStr"/>
+      <c r="WR12" t="inlineStr"/>
+      <c r="WS12" t="inlineStr"/>
+      <c r="WT12" t="inlineStr"/>
+      <c r="WU12" t="inlineStr"/>
+      <c r="WV12" t="inlineStr"/>
+      <c r="WW12" t="inlineStr"/>
+      <c r="WX12" t="inlineStr"/>
+      <c r="WY12" t="inlineStr"/>
+      <c r="WZ12" t="inlineStr"/>
+      <c r="XA12" t="inlineStr"/>
+      <c r="XB12" t="inlineStr"/>
+      <c r="XC12" t="inlineStr"/>
+      <c r="XD12" t="inlineStr"/>
+      <c r="XE12" t="inlineStr"/>
+      <c r="XF12" t="inlineStr"/>
+      <c r="XG12" t="inlineStr"/>
+      <c r="XH12" t="inlineStr"/>
+      <c r="XI12" t="inlineStr"/>
+      <c r="XJ12" t="inlineStr"/>
+      <c r="XK12" t="inlineStr"/>
+      <c r="XL12" t="inlineStr"/>
+      <c r="XM12" t="inlineStr"/>
+      <c r="XN12" t="inlineStr"/>
+      <c r="XO12" t="inlineStr"/>
+      <c r="XP12" t="inlineStr"/>
+      <c r="XQ12" t="inlineStr"/>
+      <c r="XR12" t="inlineStr"/>
+      <c r="XS12" t="inlineStr"/>
+      <c r="XT12" t="inlineStr"/>
+      <c r="XU12" t="inlineStr"/>
+      <c r="XV12" t="inlineStr"/>
+      <c r="XW12" t="inlineStr"/>
+      <c r="XX12" t="inlineStr"/>
+      <c r="XY12" t="inlineStr"/>
+      <c r="XZ12" t="inlineStr"/>
+      <c r="YA12" t="inlineStr"/>
+      <c r="YB12" t="inlineStr"/>
+      <c r="YC12" t="inlineStr"/>
+      <c r="YD12" t="inlineStr"/>
+      <c r="YE12" t="inlineStr"/>
+      <c r="YF12" t="inlineStr"/>
+      <c r="YG12" t="inlineStr"/>
+      <c r="YH12" t="inlineStr"/>
+      <c r="YI12" t="inlineStr"/>
+      <c r="YJ12" t="inlineStr"/>
+      <c r="YK12" t="inlineStr"/>
+      <c r="YL12" t="inlineStr"/>
+      <c r="YM12" t="inlineStr"/>
+      <c r="YN12" t="inlineStr"/>
+      <c r="YO12" t="inlineStr"/>
+      <c r="YP12" t="inlineStr"/>
+      <c r="YQ12" t="inlineStr"/>
+      <c r="YR12" t="inlineStr"/>
+      <c r="YS12" t="inlineStr"/>
+      <c r="YT12" t="inlineStr"/>
+      <c r="YU12" t="inlineStr"/>
+      <c r="YV12" t="inlineStr"/>
+      <c r="YW12" t="inlineStr"/>
+      <c r="YX12" t="inlineStr"/>
+      <c r="YY12" t="inlineStr"/>
+      <c r="YZ12" t="inlineStr"/>
+      <c r="ZA12" t="inlineStr"/>
+      <c r="ZB12" t="inlineStr"/>
+      <c r="ZC12" t="inlineStr"/>
+      <c r="ZD12" t="inlineStr"/>
+      <c r="ZE12" t="inlineStr"/>
+      <c r="ZF12" t="inlineStr"/>
+      <c r="ZG12" t="inlineStr"/>
+      <c r="ZH12" t="inlineStr"/>
+      <c r="ZI12" t="inlineStr"/>
+      <c r="ZJ12" t="inlineStr"/>
+      <c r="ZK12" t="inlineStr"/>
+      <c r="ZL12" t="inlineStr"/>
+      <c r="ZM12" t="inlineStr"/>
+      <c r="ZN12" t="inlineStr"/>
+      <c r="ZO12" t="inlineStr"/>
+      <c r="ZP12" t="inlineStr"/>
+      <c r="ZQ12" t="inlineStr"/>
+      <c r="ZR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -13239,6 +14583,90 @@
       <c r="WJ13" t="inlineStr"/>
       <c r="WK13" t="inlineStr"/>
       <c r="WL13" t="inlineStr"/>
+      <c r="WM13" t="inlineStr"/>
+      <c r="WN13" t="inlineStr"/>
+      <c r="WO13" t="inlineStr"/>
+      <c r="WP13" t="inlineStr"/>
+      <c r="WQ13" t="inlineStr"/>
+      <c r="WR13" t="inlineStr"/>
+      <c r="WS13" t="inlineStr"/>
+      <c r="WT13" t="inlineStr"/>
+      <c r="WU13" t="inlineStr"/>
+      <c r="WV13" t="inlineStr"/>
+      <c r="WW13" t="inlineStr"/>
+      <c r="WX13" t="inlineStr"/>
+      <c r="WY13" t="inlineStr"/>
+      <c r="WZ13" t="inlineStr"/>
+      <c r="XA13" t="inlineStr"/>
+      <c r="XB13" t="inlineStr"/>
+      <c r="XC13" t="inlineStr"/>
+      <c r="XD13" t="inlineStr"/>
+      <c r="XE13" t="inlineStr"/>
+      <c r="XF13" t="inlineStr"/>
+      <c r="XG13" t="inlineStr"/>
+      <c r="XH13" t="inlineStr"/>
+      <c r="XI13" t="inlineStr"/>
+      <c r="XJ13" t="inlineStr"/>
+      <c r="XK13" t="inlineStr"/>
+      <c r="XL13" t="inlineStr"/>
+      <c r="XM13" t="inlineStr"/>
+      <c r="XN13" t="inlineStr"/>
+      <c r="XO13" t="inlineStr"/>
+      <c r="XP13" t="inlineStr"/>
+      <c r="XQ13" t="inlineStr"/>
+      <c r="XR13" t="inlineStr"/>
+      <c r="XS13" t="inlineStr"/>
+      <c r="XT13" t="inlineStr"/>
+      <c r="XU13" t="inlineStr"/>
+      <c r="XV13" t="inlineStr"/>
+      <c r="XW13" t="inlineStr"/>
+      <c r="XX13" t="inlineStr"/>
+      <c r="XY13" t="inlineStr"/>
+      <c r="XZ13" t="inlineStr"/>
+      <c r="YA13" t="inlineStr"/>
+      <c r="YB13" t="inlineStr"/>
+      <c r="YC13" t="inlineStr"/>
+      <c r="YD13" t="inlineStr"/>
+      <c r="YE13" t="inlineStr"/>
+      <c r="YF13" t="inlineStr"/>
+      <c r="YG13" t="inlineStr"/>
+      <c r="YH13" t="inlineStr"/>
+      <c r="YI13" t="inlineStr"/>
+      <c r="YJ13" t="inlineStr"/>
+      <c r="YK13" t="inlineStr"/>
+      <c r="YL13" t="inlineStr"/>
+      <c r="YM13" t="inlineStr"/>
+      <c r="YN13" t="inlineStr"/>
+      <c r="YO13" t="inlineStr"/>
+      <c r="YP13" t="inlineStr"/>
+      <c r="YQ13" t="inlineStr"/>
+      <c r="YR13" t="inlineStr"/>
+      <c r="YS13" t="inlineStr"/>
+      <c r="YT13" t="inlineStr"/>
+      <c r="YU13" t="inlineStr"/>
+      <c r="YV13" t="inlineStr"/>
+      <c r="YW13" t="inlineStr"/>
+      <c r="YX13" t="inlineStr"/>
+      <c r="YY13" t="inlineStr"/>
+      <c r="YZ13" t="inlineStr"/>
+      <c r="ZA13" t="inlineStr"/>
+      <c r="ZB13" t="inlineStr"/>
+      <c r="ZC13" t="inlineStr"/>
+      <c r="ZD13" t="inlineStr"/>
+      <c r="ZE13" t="inlineStr"/>
+      <c r="ZF13" t="inlineStr"/>
+      <c r="ZG13" t="inlineStr"/>
+      <c r="ZH13" t="inlineStr"/>
+      <c r="ZI13" t="inlineStr"/>
+      <c r="ZJ13" t="inlineStr"/>
+      <c r="ZK13" t="inlineStr"/>
+      <c r="ZL13" t="inlineStr"/>
+      <c r="ZM13" t="inlineStr"/>
+      <c r="ZN13" t="inlineStr"/>
+      <c r="ZO13" t="inlineStr"/>
+      <c r="ZP13" t="inlineStr"/>
+      <c r="ZQ13" t="inlineStr"/>
+      <c r="ZR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -14059,6 +15487,90 @@
       <c r="WJ14" t="inlineStr"/>
       <c r="WK14" t="inlineStr"/>
       <c r="WL14" t="inlineStr"/>
+      <c r="WM14" t="inlineStr"/>
+      <c r="WN14" t="inlineStr"/>
+      <c r="WO14" t="inlineStr"/>
+      <c r="WP14" t="inlineStr"/>
+      <c r="WQ14" t="inlineStr"/>
+      <c r="WR14" t="inlineStr"/>
+      <c r="WS14" t="inlineStr"/>
+      <c r="WT14" t="inlineStr"/>
+      <c r="WU14" t="inlineStr"/>
+      <c r="WV14" t="inlineStr"/>
+      <c r="WW14" t="inlineStr"/>
+      <c r="WX14" t="inlineStr"/>
+      <c r="WY14" t="inlineStr"/>
+      <c r="WZ14" t="inlineStr"/>
+      <c r="XA14" t="inlineStr"/>
+      <c r="XB14" t="inlineStr"/>
+      <c r="XC14" t="inlineStr"/>
+      <c r="XD14" t="inlineStr"/>
+      <c r="XE14" t="inlineStr"/>
+      <c r="XF14" t="inlineStr"/>
+      <c r="XG14" t="inlineStr"/>
+      <c r="XH14" t="inlineStr"/>
+      <c r="XI14" t="inlineStr"/>
+      <c r="XJ14" t="inlineStr"/>
+      <c r="XK14" t="inlineStr"/>
+      <c r="XL14" t="inlineStr"/>
+      <c r="XM14" t="inlineStr"/>
+      <c r="XN14" t="inlineStr"/>
+      <c r="XO14" t="inlineStr"/>
+      <c r="XP14" t="inlineStr"/>
+      <c r="XQ14" t="inlineStr"/>
+      <c r="XR14" t="inlineStr"/>
+      <c r="XS14" t="inlineStr"/>
+      <c r="XT14" t="inlineStr"/>
+      <c r="XU14" t="inlineStr"/>
+      <c r="XV14" t="inlineStr"/>
+      <c r="XW14" t="inlineStr"/>
+      <c r="XX14" t="inlineStr"/>
+      <c r="XY14" t="inlineStr"/>
+      <c r="XZ14" t="inlineStr"/>
+      <c r="YA14" t="inlineStr"/>
+      <c r="YB14" t="inlineStr"/>
+      <c r="YC14" t="inlineStr"/>
+      <c r="YD14" t="inlineStr"/>
+      <c r="YE14" t="inlineStr"/>
+      <c r="YF14" t="inlineStr"/>
+      <c r="YG14" t="inlineStr"/>
+      <c r="YH14" t="inlineStr"/>
+      <c r="YI14" t="inlineStr"/>
+      <c r="YJ14" t="inlineStr"/>
+      <c r="YK14" t="inlineStr"/>
+      <c r="YL14" t="inlineStr"/>
+      <c r="YM14" t="inlineStr"/>
+      <c r="YN14" t="inlineStr"/>
+      <c r="YO14" t="inlineStr"/>
+      <c r="YP14" t="inlineStr"/>
+      <c r="YQ14" t="inlineStr"/>
+      <c r="YR14" t="inlineStr"/>
+      <c r="YS14" t="inlineStr"/>
+      <c r="YT14" t="inlineStr"/>
+      <c r="YU14" t="inlineStr"/>
+      <c r="YV14" t="inlineStr"/>
+      <c r="YW14" t="inlineStr"/>
+      <c r="YX14" t="inlineStr"/>
+      <c r="YY14" t="inlineStr"/>
+      <c r="YZ14" t="inlineStr"/>
+      <c r="ZA14" t="inlineStr"/>
+      <c r="ZB14" t="inlineStr"/>
+      <c r="ZC14" t="inlineStr"/>
+      <c r="ZD14" t="inlineStr"/>
+      <c r="ZE14" t="inlineStr"/>
+      <c r="ZF14" t="inlineStr"/>
+      <c r="ZG14" t="inlineStr"/>
+      <c r="ZH14" t="inlineStr"/>
+      <c r="ZI14" t="inlineStr"/>
+      <c r="ZJ14" t="inlineStr"/>
+      <c r="ZK14" t="inlineStr"/>
+      <c r="ZL14" t="inlineStr"/>
+      <c r="ZM14" t="inlineStr"/>
+      <c r="ZN14" t="inlineStr"/>
+      <c r="ZO14" t="inlineStr"/>
+      <c r="ZP14" t="inlineStr"/>
+      <c r="ZQ14" t="inlineStr"/>
+      <c r="ZR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -14873,6 +16385,90 @@
       <c r="WJ15" t="inlineStr"/>
       <c r="WK15" t="inlineStr"/>
       <c r="WL15" t="inlineStr"/>
+      <c r="WM15" t="inlineStr"/>
+      <c r="WN15" t="inlineStr"/>
+      <c r="WO15" t="inlineStr"/>
+      <c r="WP15" t="inlineStr"/>
+      <c r="WQ15" t="inlineStr"/>
+      <c r="WR15" t="inlineStr"/>
+      <c r="WS15" t="inlineStr"/>
+      <c r="WT15" t="inlineStr"/>
+      <c r="WU15" t="inlineStr"/>
+      <c r="WV15" t="inlineStr"/>
+      <c r="WW15" t="inlineStr"/>
+      <c r="WX15" t="inlineStr"/>
+      <c r="WY15" t="inlineStr"/>
+      <c r="WZ15" t="inlineStr"/>
+      <c r="XA15" t="inlineStr"/>
+      <c r="XB15" t="inlineStr"/>
+      <c r="XC15" t="inlineStr"/>
+      <c r="XD15" t="inlineStr"/>
+      <c r="XE15" t="inlineStr"/>
+      <c r="XF15" t="inlineStr"/>
+      <c r="XG15" t="inlineStr"/>
+      <c r="XH15" t="inlineStr"/>
+      <c r="XI15" t="inlineStr"/>
+      <c r="XJ15" t="inlineStr"/>
+      <c r="XK15" t="inlineStr"/>
+      <c r="XL15" t="inlineStr"/>
+      <c r="XM15" t="inlineStr"/>
+      <c r="XN15" t="inlineStr"/>
+      <c r="XO15" t="inlineStr"/>
+      <c r="XP15" t="inlineStr"/>
+      <c r="XQ15" t="inlineStr"/>
+      <c r="XR15" t="inlineStr"/>
+      <c r="XS15" t="inlineStr"/>
+      <c r="XT15" t="inlineStr"/>
+      <c r="XU15" t="inlineStr"/>
+      <c r="XV15" t="inlineStr"/>
+      <c r="XW15" t="inlineStr"/>
+      <c r="XX15" t="inlineStr"/>
+      <c r="XY15" t="inlineStr"/>
+      <c r="XZ15" t="inlineStr"/>
+      <c r="YA15" t="inlineStr"/>
+      <c r="YB15" t="inlineStr"/>
+      <c r="YC15" t="inlineStr"/>
+      <c r="YD15" t="inlineStr"/>
+      <c r="YE15" t="inlineStr"/>
+      <c r="YF15" t="inlineStr"/>
+      <c r="YG15" t="inlineStr"/>
+      <c r="YH15" t="inlineStr"/>
+      <c r="YI15" t="inlineStr"/>
+      <c r="YJ15" t="inlineStr"/>
+      <c r="YK15" t="inlineStr"/>
+      <c r="YL15" t="inlineStr"/>
+      <c r="YM15" t="inlineStr"/>
+      <c r="YN15" t="inlineStr"/>
+      <c r="YO15" t="inlineStr"/>
+      <c r="YP15" t="inlineStr"/>
+      <c r="YQ15" t="inlineStr"/>
+      <c r="YR15" t="inlineStr"/>
+      <c r="YS15" t="inlineStr"/>
+      <c r="YT15" t="inlineStr"/>
+      <c r="YU15" t="inlineStr"/>
+      <c r="YV15" t="inlineStr"/>
+      <c r="YW15" t="inlineStr"/>
+      <c r="YX15" t="inlineStr"/>
+      <c r="YY15" t="inlineStr"/>
+      <c r="YZ15" t="inlineStr"/>
+      <c r="ZA15" t="inlineStr"/>
+      <c r="ZB15" t="inlineStr"/>
+      <c r="ZC15" t="inlineStr"/>
+      <c r="ZD15" t="inlineStr"/>
+      <c r="ZE15" t="inlineStr"/>
+      <c r="ZF15" t="inlineStr"/>
+      <c r="ZG15" t="inlineStr"/>
+      <c r="ZH15" t="inlineStr"/>
+      <c r="ZI15" t="inlineStr"/>
+      <c r="ZJ15" t="inlineStr"/>
+      <c r="ZK15" t="inlineStr"/>
+      <c r="ZL15" t="inlineStr"/>
+      <c r="ZM15" t="inlineStr"/>
+      <c r="ZN15" t="inlineStr"/>
+      <c r="ZO15" t="inlineStr"/>
+      <c r="ZP15" t="inlineStr"/>
+      <c r="ZQ15" t="inlineStr"/>
+      <c r="ZR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -15681,6 +17277,90 @@
       <c r="WJ16" t="inlineStr"/>
       <c r="WK16" t="inlineStr"/>
       <c r="WL16" t="inlineStr"/>
+      <c r="WM16" t="inlineStr"/>
+      <c r="WN16" t="inlineStr"/>
+      <c r="WO16" t="inlineStr"/>
+      <c r="WP16" t="inlineStr"/>
+      <c r="WQ16" t="inlineStr"/>
+      <c r="WR16" t="inlineStr"/>
+      <c r="WS16" t="inlineStr"/>
+      <c r="WT16" t="inlineStr"/>
+      <c r="WU16" t="inlineStr"/>
+      <c r="WV16" t="inlineStr"/>
+      <c r="WW16" t="inlineStr"/>
+      <c r="WX16" t="inlineStr"/>
+      <c r="WY16" t="inlineStr"/>
+      <c r="WZ16" t="inlineStr"/>
+      <c r="XA16" t="inlineStr"/>
+      <c r="XB16" t="inlineStr"/>
+      <c r="XC16" t="inlineStr"/>
+      <c r="XD16" t="inlineStr"/>
+      <c r="XE16" t="inlineStr"/>
+      <c r="XF16" t="inlineStr"/>
+      <c r="XG16" t="inlineStr"/>
+      <c r="XH16" t="inlineStr"/>
+      <c r="XI16" t="inlineStr"/>
+      <c r="XJ16" t="inlineStr"/>
+      <c r="XK16" t="inlineStr"/>
+      <c r="XL16" t="inlineStr"/>
+      <c r="XM16" t="inlineStr"/>
+      <c r="XN16" t="inlineStr"/>
+      <c r="XO16" t="inlineStr"/>
+      <c r="XP16" t="inlineStr"/>
+      <c r="XQ16" t="inlineStr"/>
+      <c r="XR16" t="inlineStr"/>
+      <c r="XS16" t="inlineStr"/>
+      <c r="XT16" t="inlineStr"/>
+      <c r="XU16" t="inlineStr"/>
+      <c r="XV16" t="inlineStr"/>
+      <c r="XW16" t="inlineStr"/>
+      <c r="XX16" t="inlineStr"/>
+      <c r="XY16" t="inlineStr"/>
+      <c r="XZ16" t="inlineStr"/>
+      <c r="YA16" t="inlineStr"/>
+      <c r="YB16" t="inlineStr"/>
+      <c r="YC16" t="inlineStr"/>
+      <c r="YD16" t="inlineStr"/>
+      <c r="YE16" t="inlineStr"/>
+      <c r="YF16" t="inlineStr"/>
+      <c r="YG16" t="inlineStr"/>
+      <c r="YH16" t="inlineStr"/>
+      <c r="YI16" t="inlineStr"/>
+      <c r="YJ16" t="inlineStr"/>
+      <c r="YK16" t="inlineStr"/>
+      <c r="YL16" t="inlineStr"/>
+      <c r="YM16" t="inlineStr"/>
+      <c r="YN16" t="inlineStr"/>
+      <c r="YO16" t="inlineStr"/>
+      <c r="YP16" t="inlineStr"/>
+      <c r="YQ16" t="inlineStr"/>
+      <c r="YR16" t="inlineStr"/>
+      <c r="YS16" t="inlineStr"/>
+      <c r="YT16" t="inlineStr"/>
+      <c r="YU16" t="inlineStr"/>
+      <c r="YV16" t="inlineStr"/>
+      <c r="YW16" t="inlineStr"/>
+      <c r="YX16" t="inlineStr"/>
+      <c r="YY16" t="inlineStr"/>
+      <c r="YZ16" t="inlineStr"/>
+      <c r="ZA16" t="inlineStr"/>
+      <c r="ZB16" t="inlineStr"/>
+      <c r="ZC16" t="inlineStr"/>
+      <c r="ZD16" t="inlineStr"/>
+      <c r="ZE16" t="inlineStr"/>
+      <c r="ZF16" t="inlineStr"/>
+      <c r="ZG16" t="inlineStr"/>
+      <c r="ZH16" t="inlineStr"/>
+      <c r="ZI16" t="inlineStr"/>
+      <c r="ZJ16" t="inlineStr"/>
+      <c r="ZK16" t="inlineStr"/>
+      <c r="ZL16" t="inlineStr"/>
+      <c r="ZM16" t="inlineStr"/>
+      <c r="ZN16" t="inlineStr"/>
+      <c r="ZO16" t="inlineStr"/>
+      <c r="ZP16" t="inlineStr"/>
+      <c r="ZQ16" t="inlineStr"/>
+      <c r="ZR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -16601,11 +18281,7 @@
       <c r="UZ17" t="inlineStr"/>
       <c r="VA17" t="inlineStr"/>
       <c r="VB17" t="inlineStr"/>
-      <c r="VC17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC17" t="inlineStr"/>
       <c r="VD17" t="inlineStr"/>
       <c r="VE17" t="inlineStr"/>
       <c r="VF17" t="inlineStr"/>
@@ -16625,7 +18301,11 @@
       <c r="VT17" t="inlineStr"/>
       <c r="VU17" t="inlineStr"/>
       <c r="VV17" t="inlineStr"/>
-      <c r="VW17" t="inlineStr"/>
+      <c r="VW17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX17" t="inlineStr"/>
       <c r="VY17" t="inlineStr"/>
       <c r="VZ17" t="inlineStr"/>
@@ -16641,6 +18321,90 @@
       <c r="WJ17" t="inlineStr"/>
       <c r="WK17" t="inlineStr"/>
       <c r="WL17" t="inlineStr"/>
+      <c r="WM17" t="inlineStr"/>
+      <c r="WN17" t="inlineStr"/>
+      <c r="WO17" t="inlineStr"/>
+      <c r="WP17" t="inlineStr"/>
+      <c r="WQ17" t="inlineStr"/>
+      <c r="WR17" t="inlineStr"/>
+      <c r="WS17" t="inlineStr"/>
+      <c r="WT17" t="inlineStr"/>
+      <c r="WU17" t="inlineStr"/>
+      <c r="WV17" t="inlineStr"/>
+      <c r="WW17" t="inlineStr"/>
+      <c r="WX17" t="inlineStr"/>
+      <c r="WY17" t="inlineStr"/>
+      <c r="WZ17" t="inlineStr"/>
+      <c r="XA17" t="inlineStr"/>
+      <c r="XB17" t="inlineStr"/>
+      <c r="XC17" t="inlineStr"/>
+      <c r="XD17" t="inlineStr"/>
+      <c r="XE17" t="inlineStr"/>
+      <c r="XF17" t="inlineStr"/>
+      <c r="XG17" t="inlineStr"/>
+      <c r="XH17" t="inlineStr"/>
+      <c r="XI17" t="inlineStr"/>
+      <c r="XJ17" t="inlineStr"/>
+      <c r="XK17" t="inlineStr"/>
+      <c r="XL17" t="inlineStr"/>
+      <c r="XM17" t="inlineStr"/>
+      <c r="XN17" t="inlineStr"/>
+      <c r="XO17" t="inlineStr"/>
+      <c r="XP17" t="inlineStr"/>
+      <c r="XQ17" t="inlineStr"/>
+      <c r="XR17" t="inlineStr"/>
+      <c r="XS17" t="inlineStr"/>
+      <c r="XT17" t="inlineStr"/>
+      <c r="XU17" t="inlineStr"/>
+      <c r="XV17" t="inlineStr"/>
+      <c r="XW17" t="inlineStr"/>
+      <c r="XX17" t="inlineStr"/>
+      <c r="XY17" t="inlineStr"/>
+      <c r="XZ17" t="inlineStr"/>
+      <c r="YA17" t="inlineStr"/>
+      <c r="YB17" t="inlineStr"/>
+      <c r="YC17" t="inlineStr"/>
+      <c r="YD17" t="inlineStr"/>
+      <c r="YE17" t="inlineStr"/>
+      <c r="YF17" t="inlineStr"/>
+      <c r="YG17" t="inlineStr"/>
+      <c r="YH17" t="inlineStr"/>
+      <c r="YI17" t="inlineStr"/>
+      <c r="YJ17" t="inlineStr"/>
+      <c r="YK17" t="inlineStr"/>
+      <c r="YL17" t="inlineStr"/>
+      <c r="YM17" t="inlineStr"/>
+      <c r="YN17" t="inlineStr"/>
+      <c r="YO17" t="inlineStr"/>
+      <c r="YP17" t="inlineStr"/>
+      <c r="YQ17" t="inlineStr"/>
+      <c r="YR17" t="inlineStr"/>
+      <c r="YS17" t="inlineStr"/>
+      <c r="YT17" t="inlineStr"/>
+      <c r="YU17" t="inlineStr"/>
+      <c r="YV17" t="inlineStr"/>
+      <c r="YW17" t="inlineStr"/>
+      <c r="YX17" t="inlineStr"/>
+      <c r="YY17" t="inlineStr"/>
+      <c r="YZ17" t="inlineStr"/>
+      <c r="ZA17" t="inlineStr"/>
+      <c r="ZB17" t="inlineStr"/>
+      <c r="ZC17" t="inlineStr"/>
+      <c r="ZD17" t="inlineStr"/>
+      <c r="ZE17" t="inlineStr"/>
+      <c r="ZF17" t="inlineStr"/>
+      <c r="ZG17" t="inlineStr"/>
+      <c r="ZH17" t="inlineStr"/>
+      <c r="ZI17" t="inlineStr"/>
+      <c r="ZJ17" t="inlineStr"/>
+      <c r="ZK17" t="inlineStr"/>
+      <c r="ZL17" t="inlineStr"/>
+      <c r="ZM17" t="inlineStr"/>
+      <c r="ZN17" t="inlineStr"/>
+      <c r="ZO17" t="inlineStr"/>
+      <c r="ZP17" t="inlineStr"/>
+      <c r="ZQ17" t="inlineStr"/>
+      <c r="ZR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -17555,11 +19319,7 @@
       <c r="UZ18" t="inlineStr"/>
       <c r="VA18" t="inlineStr"/>
       <c r="VB18" t="inlineStr"/>
-      <c r="VC18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC18" t="inlineStr"/>
       <c r="VD18" t="inlineStr"/>
       <c r="VE18" t="inlineStr"/>
       <c r="VF18" t="inlineStr"/>
@@ -17579,7 +19339,11 @@
       <c r="VT18" t="inlineStr"/>
       <c r="VU18" t="inlineStr"/>
       <c r="VV18" t="inlineStr"/>
-      <c r="VW18" t="inlineStr"/>
+      <c r="VW18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX18" t="inlineStr"/>
       <c r="VY18" t="inlineStr"/>
       <c r="VZ18" t="inlineStr"/>
@@ -17595,6 +19359,90 @@
       <c r="WJ18" t="inlineStr"/>
       <c r="WK18" t="inlineStr"/>
       <c r="WL18" t="inlineStr"/>
+      <c r="WM18" t="inlineStr"/>
+      <c r="WN18" t="inlineStr"/>
+      <c r="WO18" t="inlineStr"/>
+      <c r="WP18" t="inlineStr"/>
+      <c r="WQ18" t="inlineStr"/>
+      <c r="WR18" t="inlineStr"/>
+      <c r="WS18" t="inlineStr"/>
+      <c r="WT18" t="inlineStr"/>
+      <c r="WU18" t="inlineStr"/>
+      <c r="WV18" t="inlineStr"/>
+      <c r="WW18" t="inlineStr"/>
+      <c r="WX18" t="inlineStr"/>
+      <c r="WY18" t="inlineStr"/>
+      <c r="WZ18" t="inlineStr"/>
+      <c r="XA18" t="inlineStr"/>
+      <c r="XB18" t="inlineStr"/>
+      <c r="XC18" t="inlineStr"/>
+      <c r="XD18" t="inlineStr"/>
+      <c r="XE18" t="inlineStr"/>
+      <c r="XF18" t="inlineStr"/>
+      <c r="XG18" t="inlineStr"/>
+      <c r="XH18" t="inlineStr"/>
+      <c r="XI18" t="inlineStr"/>
+      <c r="XJ18" t="inlineStr"/>
+      <c r="XK18" t="inlineStr"/>
+      <c r="XL18" t="inlineStr"/>
+      <c r="XM18" t="inlineStr"/>
+      <c r="XN18" t="inlineStr"/>
+      <c r="XO18" t="inlineStr"/>
+      <c r="XP18" t="inlineStr"/>
+      <c r="XQ18" t="inlineStr"/>
+      <c r="XR18" t="inlineStr"/>
+      <c r="XS18" t="inlineStr"/>
+      <c r="XT18" t="inlineStr"/>
+      <c r="XU18" t="inlineStr"/>
+      <c r="XV18" t="inlineStr"/>
+      <c r="XW18" t="inlineStr"/>
+      <c r="XX18" t="inlineStr"/>
+      <c r="XY18" t="inlineStr"/>
+      <c r="XZ18" t="inlineStr"/>
+      <c r="YA18" t="inlineStr"/>
+      <c r="YB18" t="inlineStr"/>
+      <c r="YC18" t="inlineStr"/>
+      <c r="YD18" t="inlineStr"/>
+      <c r="YE18" t="inlineStr"/>
+      <c r="YF18" t="inlineStr"/>
+      <c r="YG18" t="inlineStr"/>
+      <c r="YH18" t="inlineStr"/>
+      <c r="YI18" t="inlineStr"/>
+      <c r="YJ18" t="inlineStr"/>
+      <c r="YK18" t="inlineStr"/>
+      <c r="YL18" t="inlineStr"/>
+      <c r="YM18" t="inlineStr"/>
+      <c r="YN18" t="inlineStr"/>
+      <c r="YO18" t="inlineStr"/>
+      <c r="YP18" t="inlineStr"/>
+      <c r="YQ18" t="inlineStr"/>
+      <c r="YR18" t="inlineStr"/>
+      <c r="YS18" t="inlineStr"/>
+      <c r="YT18" t="inlineStr"/>
+      <c r="YU18" t="inlineStr"/>
+      <c r="YV18" t="inlineStr"/>
+      <c r="YW18" t="inlineStr"/>
+      <c r="YX18" t="inlineStr"/>
+      <c r="YY18" t="inlineStr"/>
+      <c r="YZ18" t="inlineStr"/>
+      <c r="ZA18" t="inlineStr"/>
+      <c r="ZB18" t="inlineStr"/>
+      <c r="ZC18" t="inlineStr"/>
+      <c r="ZD18" t="inlineStr"/>
+      <c r="ZE18" t="inlineStr"/>
+      <c r="ZF18" t="inlineStr"/>
+      <c r="ZG18" t="inlineStr"/>
+      <c r="ZH18" t="inlineStr"/>
+      <c r="ZI18" t="inlineStr"/>
+      <c r="ZJ18" t="inlineStr"/>
+      <c r="ZK18" t="inlineStr"/>
+      <c r="ZL18" t="inlineStr"/>
+      <c r="ZM18" t="inlineStr"/>
+      <c r="ZN18" t="inlineStr"/>
+      <c r="ZO18" t="inlineStr"/>
+      <c r="ZP18" t="inlineStr"/>
+      <c r="ZQ18" t="inlineStr"/>
+      <c r="ZR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -18509,11 +20357,7 @@
       <c r="UZ19" t="inlineStr"/>
       <c r="VA19" t="inlineStr"/>
       <c r="VB19" t="inlineStr"/>
-      <c r="VC19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC19" t="inlineStr"/>
       <c r="VD19" t="inlineStr"/>
       <c r="VE19" t="inlineStr"/>
       <c r="VF19" t="inlineStr"/>
@@ -18533,7 +20377,11 @@
       <c r="VT19" t="inlineStr"/>
       <c r="VU19" t="inlineStr"/>
       <c r="VV19" t="inlineStr"/>
-      <c r="VW19" t="inlineStr"/>
+      <c r="VW19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX19" t="inlineStr"/>
       <c r="VY19" t="inlineStr"/>
       <c r="VZ19" t="inlineStr"/>
@@ -18549,6 +20397,90 @@
       <c r="WJ19" t="inlineStr"/>
       <c r="WK19" t="inlineStr"/>
       <c r="WL19" t="inlineStr"/>
+      <c r="WM19" t="inlineStr"/>
+      <c r="WN19" t="inlineStr"/>
+      <c r="WO19" t="inlineStr"/>
+      <c r="WP19" t="inlineStr"/>
+      <c r="WQ19" t="inlineStr"/>
+      <c r="WR19" t="inlineStr"/>
+      <c r="WS19" t="inlineStr"/>
+      <c r="WT19" t="inlineStr"/>
+      <c r="WU19" t="inlineStr"/>
+      <c r="WV19" t="inlineStr"/>
+      <c r="WW19" t="inlineStr"/>
+      <c r="WX19" t="inlineStr"/>
+      <c r="WY19" t="inlineStr"/>
+      <c r="WZ19" t="inlineStr"/>
+      <c r="XA19" t="inlineStr"/>
+      <c r="XB19" t="inlineStr"/>
+      <c r="XC19" t="inlineStr"/>
+      <c r="XD19" t="inlineStr"/>
+      <c r="XE19" t="inlineStr"/>
+      <c r="XF19" t="inlineStr"/>
+      <c r="XG19" t="inlineStr"/>
+      <c r="XH19" t="inlineStr"/>
+      <c r="XI19" t="inlineStr"/>
+      <c r="XJ19" t="inlineStr"/>
+      <c r="XK19" t="inlineStr"/>
+      <c r="XL19" t="inlineStr"/>
+      <c r="XM19" t="inlineStr"/>
+      <c r="XN19" t="inlineStr"/>
+      <c r="XO19" t="inlineStr"/>
+      <c r="XP19" t="inlineStr"/>
+      <c r="XQ19" t="inlineStr"/>
+      <c r="XR19" t="inlineStr"/>
+      <c r="XS19" t="inlineStr"/>
+      <c r="XT19" t="inlineStr"/>
+      <c r="XU19" t="inlineStr"/>
+      <c r="XV19" t="inlineStr"/>
+      <c r="XW19" t="inlineStr"/>
+      <c r="XX19" t="inlineStr"/>
+      <c r="XY19" t="inlineStr"/>
+      <c r="XZ19" t="inlineStr"/>
+      <c r="YA19" t="inlineStr"/>
+      <c r="YB19" t="inlineStr"/>
+      <c r="YC19" t="inlineStr"/>
+      <c r="YD19" t="inlineStr"/>
+      <c r="YE19" t="inlineStr"/>
+      <c r="YF19" t="inlineStr"/>
+      <c r="YG19" t="inlineStr"/>
+      <c r="YH19" t="inlineStr"/>
+      <c r="YI19" t="inlineStr"/>
+      <c r="YJ19" t="inlineStr"/>
+      <c r="YK19" t="inlineStr"/>
+      <c r="YL19" t="inlineStr"/>
+      <c r="YM19" t="inlineStr"/>
+      <c r="YN19" t="inlineStr"/>
+      <c r="YO19" t="inlineStr"/>
+      <c r="YP19" t="inlineStr"/>
+      <c r="YQ19" t="inlineStr"/>
+      <c r="YR19" t="inlineStr"/>
+      <c r="YS19" t="inlineStr"/>
+      <c r="YT19" t="inlineStr"/>
+      <c r="YU19" t="inlineStr"/>
+      <c r="YV19" t="inlineStr"/>
+      <c r="YW19" t="inlineStr"/>
+      <c r="YX19" t="inlineStr"/>
+      <c r="YY19" t="inlineStr"/>
+      <c r="YZ19" t="inlineStr"/>
+      <c r="ZA19" t="inlineStr"/>
+      <c r="ZB19" t="inlineStr"/>
+      <c r="ZC19" t="inlineStr"/>
+      <c r="ZD19" t="inlineStr"/>
+      <c r="ZE19" t="inlineStr"/>
+      <c r="ZF19" t="inlineStr"/>
+      <c r="ZG19" t="inlineStr"/>
+      <c r="ZH19" t="inlineStr"/>
+      <c r="ZI19" t="inlineStr"/>
+      <c r="ZJ19" t="inlineStr"/>
+      <c r="ZK19" t="inlineStr"/>
+      <c r="ZL19" t="inlineStr"/>
+      <c r="ZM19" t="inlineStr"/>
+      <c r="ZN19" t="inlineStr"/>
+      <c r="ZO19" t="inlineStr"/>
+      <c r="ZP19" t="inlineStr"/>
+      <c r="ZQ19" t="inlineStr"/>
+      <c r="ZR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -18853,7 +20785,7 @@
       <c r="DD20" t="inlineStr"/>
       <c r="DE20" t="inlineStr"/>
       <c r="DF20" t="n">
-        <v>0.004832970503648979</v>
+        <v>0.004832970503648978</v>
       </c>
       <c r="DG20" t="n">
         <v>0.0003687115304388325</v>
@@ -18895,7 +20827,7 @@
         <v>0.0001636821790030073</v>
       </c>
       <c r="DT20" t="n">
-        <v>0.004832970503648979</v>
+        <v>0.004832970503648978</v>
       </c>
       <c r="DU20" t="n">
         <v>0.0003687115304388325</v>
@@ -18955,7 +20887,7 @@
         <v>70.50072994865353</v>
       </c>
       <c r="EN20" t="n">
-        <v>0.003238543153477349</v>
+        <v>0.00323854315347735</v>
       </c>
       <c r="EO20" t="n">
         <v>0</v>
@@ -18985,7 +20917,7 @@
         <v>0.1277471358909658</v>
       </c>
       <c r="FF20" t="n">
-        <v>0.09796047447211083</v>
+        <v>0.09796047447211081</v>
       </c>
       <c r="FG20" t="n">
         <v>0.2586991369902635</v>
@@ -19433,11 +21365,7 @@
       <c r="UZ20" t="inlineStr"/>
       <c r="VA20" t="inlineStr"/>
       <c r="VB20" t="inlineStr"/>
-      <c r="VC20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC20" t="inlineStr"/>
       <c r="VD20" t="inlineStr"/>
       <c r="VE20" t="inlineStr"/>
       <c r="VF20" t="inlineStr"/>
@@ -19457,7 +21385,11 @@
       <c r="VT20" t="inlineStr"/>
       <c r="VU20" t="inlineStr"/>
       <c r="VV20" t="inlineStr"/>
-      <c r="VW20" t="inlineStr"/>
+      <c r="VW20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX20" t="inlineStr"/>
       <c r="VY20" t="inlineStr"/>
       <c r="VZ20" t="inlineStr"/>
@@ -19473,6 +21405,90 @@
       <c r="WJ20" t="inlineStr"/>
       <c r="WK20" t="inlineStr"/>
       <c r="WL20" t="inlineStr"/>
+      <c r="WM20" t="inlineStr"/>
+      <c r="WN20" t="inlineStr"/>
+      <c r="WO20" t="inlineStr"/>
+      <c r="WP20" t="inlineStr"/>
+      <c r="WQ20" t="inlineStr"/>
+      <c r="WR20" t="inlineStr"/>
+      <c r="WS20" t="inlineStr"/>
+      <c r="WT20" t="inlineStr"/>
+      <c r="WU20" t="inlineStr"/>
+      <c r="WV20" t="inlineStr"/>
+      <c r="WW20" t="inlineStr"/>
+      <c r="WX20" t="inlineStr"/>
+      <c r="WY20" t="inlineStr"/>
+      <c r="WZ20" t="inlineStr"/>
+      <c r="XA20" t="inlineStr"/>
+      <c r="XB20" t="inlineStr"/>
+      <c r="XC20" t="inlineStr"/>
+      <c r="XD20" t="inlineStr"/>
+      <c r="XE20" t="inlineStr"/>
+      <c r="XF20" t="inlineStr"/>
+      <c r="XG20" t="inlineStr"/>
+      <c r="XH20" t="inlineStr"/>
+      <c r="XI20" t="inlineStr"/>
+      <c r="XJ20" t="inlineStr"/>
+      <c r="XK20" t="inlineStr"/>
+      <c r="XL20" t="inlineStr"/>
+      <c r="XM20" t="inlineStr"/>
+      <c r="XN20" t="inlineStr"/>
+      <c r="XO20" t="inlineStr"/>
+      <c r="XP20" t="inlineStr"/>
+      <c r="XQ20" t="inlineStr"/>
+      <c r="XR20" t="inlineStr"/>
+      <c r="XS20" t="inlineStr"/>
+      <c r="XT20" t="inlineStr"/>
+      <c r="XU20" t="inlineStr"/>
+      <c r="XV20" t="inlineStr"/>
+      <c r="XW20" t="inlineStr"/>
+      <c r="XX20" t="inlineStr"/>
+      <c r="XY20" t="inlineStr"/>
+      <c r="XZ20" t="inlineStr"/>
+      <c r="YA20" t="inlineStr"/>
+      <c r="YB20" t="inlineStr"/>
+      <c r="YC20" t="inlineStr"/>
+      <c r="YD20" t="inlineStr"/>
+      <c r="YE20" t="inlineStr"/>
+      <c r="YF20" t="inlineStr"/>
+      <c r="YG20" t="inlineStr"/>
+      <c r="YH20" t="inlineStr"/>
+      <c r="YI20" t="inlineStr"/>
+      <c r="YJ20" t="inlineStr"/>
+      <c r="YK20" t="inlineStr"/>
+      <c r="YL20" t="inlineStr"/>
+      <c r="YM20" t="inlineStr"/>
+      <c r="YN20" t="inlineStr"/>
+      <c r="YO20" t="inlineStr"/>
+      <c r="YP20" t="inlineStr"/>
+      <c r="YQ20" t="inlineStr"/>
+      <c r="YR20" t="inlineStr"/>
+      <c r="YS20" t="inlineStr"/>
+      <c r="YT20" t="inlineStr"/>
+      <c r="YU20" t="inlineStr"/>
+      <c r="YV20" t="inlineStr"/>
+      <c r="YW20" t="inlineStr"/>
+      <c r="YX20" t="inlineStr"/>
+      <c r="YY20" t="inlineStr"/>
+      <c r="YZ20" t="inlineStr"/>
+      <c r="ZA20" t="inlineStr"/>
+      <c r="ZB20" t="inlineStr"/>
+      <c r="ZC20" t="inlineStr"/>
+      <c r="ZD20" t="inlineStr"/>
+      <c r="ZE20" t="inlineStr"/>
+      <c r="ZF20" t="inlineStr"/>
+      <c r="ZG20" t="inlineStr"/>
+      <c r="ZH20" t="inlineStr"/>
+      <c r="ZI20" t="inlineStr"/>
+      <c r="ZJ20" t="inlineStr"/>
+      <c r="ZK20" t="inlineStr"/>
+      <c r="ZL20" t="inlineStr"/>
+      <c r="ZM20" t="inlineStr"/>
+      <c r="ZN20" t="inlineStr"/>
+      <c r="ZO20" t="inlineStr"/>
+      <c r="ZP20" t="inlineStr"/>
+      <c r="ZQ20" t="inlineStr"/>
+      <c r="ZR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -19870,10 +21886,10 @@
         <v>1.3893404978127</v>
       </c>
       <c r="EG21" t="n">
-        <v>0.01748610600565653</v>
+        <v>0.01748610600565654</v>
       </c>
       <c r="EH21" t="n">
-        <v>0.04330182253267001</v>
+        <v>0.04330182253267002</v>
       </c>
       <c r="EI21" t="n">
         <v>0.002373694822749665</v>
@@ -19945,7 +21961,7 @@
         <v>0.01086755374164359</v>
       </c>
       <c r="FL21" t="n">
-        <v>5.590195512312428e-06</v>
+        <v>5.590195512312427e-06</v>
       </c>
       <c r="FM21" t="n">
         <v>0</v>
@@ -20375,11 +22391,7 @@
       <c r="UZ21" t="inlineStr"/>
       <c r="VA21" t="inlineStr"/>
       <c r="VB21" t="inlineStr"/>
-      <c r="VC21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC21" t="inlineStr"/>
       <c r="VD21" t="inlineStr"/>
       <c r="VE21" t="inlineStr"/>
       <c r="VF21" t="inlineStr"/>
@@ -20399,7 +22411,11 @@
       <c r="VT21" t="inlineStr"/>
       <c r="VU21" t="inlineStr"/>
       <c r="VV21" t="inlineStr"/>
-      <c r="VW21" t="inlineStr"/>
+      <c r="VW21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX21" t="inlineStr"/>
       <c r="VY21" t="inlineStr"/>
       <c r="VZ21" t="inlineStr"/>
@@ -20415,6 +22431,90 @@
       <c r="WJ21" t="inlineStr"/>
       <c r="WK21" t="inlineStr"/>
       <c r="WL21" t="inlineStr"/>
+      <c r="WM21" t="inlineStr"/>
+      <c r="WN21" t="inlineStr"/>
+      <c r="WO21" t="inlineStr"/>
+      <c r="WP21" t="inlineStr"/>
+      <c r="WQ21" t="inlineStr"/>
+      <c r="WR21" t="inlineStr"/>
+      <c r="WS21" t="inlineStr"/>
+      <c r="WT21" t="inlineStr"/>
+      <c r="WU21" t="inlineStr"/>
+      <c r="WV21" t="inlineStr"/>
+      <c r="WW21" t="inlineStr"/>
+      <c r="WX21" t="inlineStr"/>
+      <c r="WY21" t="inlineStr"/>
+      <c r="WZ21" t="inlineStr"/>
+      <c r="XA21" t="inlineStr"/>
+      <c r="XB21" t="inlineStr"/>
+      <c r="XC21" t="inlineStr"/>
+      <c r="XD21" t="inlineStr"/>
+      <c r="XE21" t="inlineStr"/>
+      <c r="XF21" t="inlineStr"/>
+      <c r="XG21" t="inlineStr"/>
+      <c r="XH21" t="inlineStr"/>
+      <c r="XI21" t="inlineStr"/>
+      <c r="XJ21" t="inlineStr"/>
+      <c r="XK21" t="inlineStr"/>
+      <c r="XL21" t="inlineStr"/>
+      <c r="XM21" t="inlineStr"/>
+      <c r="XN21" t="inlineStr"/>
+      <c r="XO21" t="inlineStr"/>
+      <c r="XP21" t="inlineStr"/>
+      <c r="XQ21" t="inlineStr"/>
+      <c r="XR21" t="inlineStr"/>
+      <c r="XS21" t="inlineStr"/>
+      <c r="XT21" t="inlineStr"/>
+      <c r="XU21" t="inlineStr"/>
+      <c r="XV21" t="inlineStr"/>
+      <c r="XW21" t="inlineStr"/>
+      <c r="XX21" t="inlineStr"/>
+      <c r="XY21" t="inlineStr"/>
+      <c r="XZ21" t="inlineStr"/>
+      <c r="YA21" t="inlineStr"/>
+      <c r="YB21" t="inlineStr"/>
+      <c r="YC21" t="inlineStr"/>
+      <c r="YD21" t="inlineStr"/>
+      <c r="YE21" t="inlineStr"/>
+      <c r="YF21" t="inlineStr"/>
+      <c r="YG21" t="inlineStr"/>
+      <c r="YH21" t="inlineStr"/>
+      <c r="YI21" t="inlineStr"/>
+      <c r="YJ21" t="inlineStr"/>
+      <c r="YK21" t="inlineStr"/>
+      <c r="YL21" t="inlineStr"/>
+      <c r="YM21" t="inlineStr"/>
+      <c r="YN21" t="inlineStr"/>
+      <c r="YO21" t="inlineStr"/>
+      <c r="YP21" t="inlineStr"/>
+      <c r="YQ21" t="inlineStr"/>
+      <c r="YR21" t="inlineStr"/>
+      <c r="YS21" t="inlineStr"/>
+      <c r="YT21" t="inlineStr"/>
+      <c r="YU21" t="inlineStr"/>
+      <c r="YV21" t="inlineStr"/>
+      <c r="YW21" t="inlineStr"/>
+      <c r="YX21" t="inlineStr"/>
+      <c r="YY21" t="inlineStr"/>
+      <c r="YZ21" t="inlineStr"/>
+      <c r="ZA21" t="inlineStr"/>
+      <c r="ZB21" t="inlineStr"/>
+      <c r="ZC21" t="inlineStr"/>
+      <c r="ZD21" t="inlineStr"/>
+      <c r="ZE21" t="inlineStr"/>
+      <c r="ZF21" t="inlineStr"/>
+      <c r="ZG21" t="inlineStr"/>
+      <c r="ZH21" t="inlineStr"/>
+      <c r="ZI21" t="inlineStr"/>
+      <c r="ZJ21" t="inlineStr"/>
+      <c r="ZK21" t="inlineStr"/>
+      <c r="ZL21" t="inlineStr"/>
+      <c r="ZM21" t="inlineStr"/>
+      <c r="ZN21" t="inlineStr"/>
+      <c r="ZO21" t="inlineStr"/>
+      <c r="ZP21" t="inlineStr"/>
+      <c r="ZQ21" t="inlineStr"/>
+      <c r="ZR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -20797,7 +22897,7 @@
         <v>0.0002171090930033541</v>
       </c>
       <c r="DZ22" t="n">
-        <v>0.03076061906781653</v>
+        <v>0.03076061906781654</v>
       </c>
       <c r="EA22" t="n">
         <v>0.0001860388314832264</v>
@@ -20806,7 +22906,7 @@
         <v>45.31959509720662</v>
       </c>
       <c r="EC22" t="n">
-        <v>0.03076061906776444</v>
+        <v>0.03076061906776445</v>
       </c>
       <c r="ED22" t="n">
         <v>110.0439629918911</v>
@@ -21335,11 +23435,7 @@
       <c r="UZ22" t="inlineStr"/>
       <c r="VA22" t="inlineStr"/>
       <c r="VB22" t="inlineStr"/>
-      <c r="VC22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC22" t="inlineStr"/>
       <c r="VD22" t="inlineStr"/>
       <c r="VE22" t="inlineStr"/>
       <c r="VF22" t="inlineStr"/>
@@ -21359,7 +23455,11 @@
       <c r="VT22" t="inlineStr"/>
       <c r="VU22" t="inlineStr"/>
       <c r="VV22" t="inlineStr"/>
-      <c r="VW22" t="inlineStr"/>
+      <c r="VW22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX22" t="inlineStr"/>
       <c r="VY22" t="inlineStr"/>
       <c r="VZ22" t="inlineStr"/>
@@ -21375,6 +23475,90 @@
       <c r="WJ22" t="inlineStr"/>
       <c r="WK22" t="inlineStr"/>
       <c r="WL22" t="inlineStr"/>
+      <c r="WM22" t="inlineStr"/>
+      <c r="WN22" t="inlineStr"/>
+      <c r="WO22" t="inlineStr"/>
+      <c r="WP22" t="inlineStr"/>
+      <c r="WQ22" t="inlineStr"/>
+      <c r="WR22" t="inlineStr"/>
+      <c r="WS22" t="inlineStr"/>
+      <c r="WT22" t="inlineStr"/>
+      <c r="WU22" t="inlineStr"/>
+      <c r="WV22" t="inlineStr"/>
+      <c r="WW22" t="inlineStr"/>
+      <c r="WX22" t="inlineStr"/>
+      <c r="WY22" t="inlineStr"/>
+      <c r="WZ22" t="inlineStr"/>
+      <c r="XA22" t="inlineStr"/>
+      <c r="XB22" t="inlineStr"/>
+      <c r="XC22" t="inlineStr"/>
+      <c r="XD22" t="inlineStr"/>
+      <c r="XE22" t="inlineStr"/>
+      <c r="XF22" t="inlineStr"/>
+      <c r="XG22" t="inlineStr"/>
+      <c r="XH22" t="inlineStr"/>
+      <c r="XI22" t="inlineStr"/>
+      <c r="XJ22" t="inlineStr"/>
+      <c r="XK22" t="inlineStr"/>
+      <c r="XL22" t="inlineStr"/>
+      <c r="XM22" t="inlineStr"/>
+      <c r="XN22" t="inlineStr"/>
+      <c r="XO22" t="inlineStr"/>
+      <c r="XP22" t="inlineStr"/>
+      <c r="XQ22" t="inlineStr"/>
+      <c r="XR22" t="inlineStr"/>
+      <c r="XS22" t="inlineStr"/>
+      <c r="XT22" t="inlineStr"/>
+      <c r="XU22" t="inlineStr"/>
+      <c r="XV22" t="inlineStr"/>
+      <c r="XW22" t="inlineStr"/>
+      <c r="XX22" t="inlineStr"/>
+      <c r="XY22" t="inlineStr"/>
+      <c r="XZ22" t="inlineStr"/>
+      <c r="YA22" t="inlineStr"/>
+      <c r="YB22" t="inlineStr"/>
+      <c r="YC22" t="inlineStr"/>
+      <c r="YD22" t="inlineStr"/>
+      <c r="YE22" t="inlineStr"/>
+      <c r="YF22" t="inlineStr"/>
+      <c r="YG22" t="inlineStr"/>
+      <c r="YH22" t="inlineStr"/>
+      <c r="YI22" t="inlineStr"/>
+      <c r="YJ22" t="inlineStr"/>
+      <c r="YK22" t="inlineStr"/>
+      <c r="YL22" t="inlineStr"/>
+      <c r="YM22" t="inlineStr"/>
+      <c r="YN22" t="inlineStr"/>
+      <c r="YO22" t="inlineStr"/>
+      <c r="YP22" t="inlineStr"/>
+      <c r="YQ22" t="inlineStr"/>
+      <c r="YR22" t="inlineStr"/>
+      <c r="YS22" t="inlineStr"/>
+      <c r="YT22" t="inlineStr"/>
+      <c r="YU22" t="inlineStr"/>
+      <c r="YV22" t="inlineStr"/>
+      <c r="YW22" t="inlineStr"/>
+      <c r="YX22" t="inlineStr"/>
+      <c r="YY22" t="inlineStr"/>
+      <c r="YZ22" t="inlineStr"/>
+      <c r="ZA22" t="inlineStr"/>
+      <c r="ZB22" t="inlineStr"/>
+      <c r="ZC22" t="inlineStr"/>
+      <c r="ZD22" t="inlineStr"/>
+      <c r="ZE22" t="inlineStr"/>
+      <c r="ZF22" t="inlineStr"/>
+      <c r="ZG22" t="inlineStr"/>
+      <c r="ZH22" t="inlineStr"/>
+      <c r="ZI22" t="inlineStr"/>
+      <c r="ZJ22" t="inlineStr"/>
+      <c r="ZK22" t="inlineStr"/>
+      <c r="ZL22" t="inlineStr"/>
+      <c r="ZM22" t="inlineStr"/>
+      <c r="ZN22" t="inlineStr"/>
+      <c r="ZO22" t="inlineStr"/>
+      <c r="ZP22" t="inlineStr"/>
+      <c r="ZQ22" t="inlineStr"/>
+      <c r="ZR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -21709,7 +23893,7 @@
         <v>0.002657140020052187</v>
       </c>
       <c r="DN23" t="n">
-        <v>0.009165151389911471</v>
+        <v>0.009165151389911469</v>
       </c>
       <c r="DO23" t="n">
         <v>0</v>
@@ -21745,7 +23929,7 @@
         <v>0.002657140020052187</v>
       </c>
       <c r="DZ23" t="n">
-        <v>0.04363865180453826</v>
+        <v>0.04363865180453827</v>
       </c>
       <c r="EA23" t="n">
         <v>0.002003255814079039</v>
@@ -21754,7 +23938,7 @@
         <v>155.8449420730669</v>
       </c>
       <c r="EC23" t="n">
-        <v>0.04363865180453826</v>
+        <v>0.04363865180453827</v>
       </c>
       <c r="ED23" t="n">
         <v>432.9609650333171</v>
@@ -21769,10 +23953,10 @@
         <v>0.03909668415009844</v>
       </c>
       <c r="EH23" t="n">
-        <v>0.01642036681494804</v>
+        <v>0.01642036681494803</v>
       </c>
       <c r="EI23" t="n">
-        <v>0.02427342317049296</v>
+        <v>0.02427342317049297</v>
       </c>
       <c r="EJ23" t="n">
         <v>0.001984537762946304</v>
@@ -22271,11 +24455,7 @@
       <c r="UZ23" t="inlineStr"/>
       <c r="VA23" t="inlineStr"/>
       <c r="VB23" t="inlineStr"/>
-      <c r="VC23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC23" t="inlineStr"/>
       <c r="VD23" t="inlineStr"/>
       <c r="VE23" t="inlineStr"/>
       <c r="VF23" t="inlineStr"/>
@@ -22295,7 +24475,11 @@
       <c r="VT23" t="inlineStr"/>
       <c r="VU23" t="inlineStr"/>
       <c r="VV23" t="inlineStr"/>
-      <c r="VW23" t="inlineStr"/>
+      <c r="VW23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX23" t="inlineStr"/>
       <c r="VY23" t="inlineStr"/>
       <c r="VZ23" t="inlineStr"/>
@@ -22311,6 +24495,90 @@
       <c r="WJ23" t="inlineStr"/>
       <c r="WK23" t="inlineStr"/>
       <c r="WL23" t="inlineStr"/>
+      <c r="WM23" t="inlineStr"/>
+      <c r="WN23" t="inlineStr"/>
+      <c r="WO23" t="inlineStr"/>
+      <c r="WP23" t="inlineStr"/>
+      <c r="WQ23" t="inlineStr"/>
+      <c r="WR23" t="inlineStr"/>
+      <c r="WS23" t="inlineStr"/>
+      <c r="WT23" t="inlineStr"/>
+      <c r="WU23" t="inlineStr"/>
+      <c r="WV23" t="inlineStr"/>
+      <c r="WW23" t="inlineStr"/>
+      <c r="WX23" t="inlineStr"/>
+      <c r="WY23" t="inlineStr"/>
+      <c r="WZ23" t="inlineStr"/>
+      <c r="XA23" t="inlineStr"/>
+      <c r="XB23" t="inlineStr"/>
+      <c r="XC23" t="inlineStr"/>
+      <c r="XD23" t="inlineStr"/>
+      <c r="XE23" t="inlineStr"/>
+      <c r="XF23" t="inlineStr"/>
+      <c r="XG23" t="inlineStr"/>
+      <c r="XH23" t="inlineStr"/>
+      <c r="XI23" t="inlineStr"/>
+      <c r="XJ23" t="inlineStr"/>
+      <c r="XK23" t="inlineStr"/>
+      <c r="XL23" t="inlineStr"/>
+      <c r="XM23" t="inlineStr"/>
+      <c r="XN23" t="inlineStr"/>
+      <c r="XO23" t="inlineStr"/>
+      <c r="XP23" t="inlineStr"/>
+      <c r="XQ23" t="inlineStr"/>
+      <c r="XR23" t="inlineStr"/>
+      <c r="XS23" t="inlineStr"/>
+      <c r="XT23" t="inlineStr"/>
+      <c r="XU23" t="inlineStr"/>
+      <c r="XV23" t="inlineStr"/>
+      <c r="XW23" t="inlineStr"/>
+      <c r="XX23" t="inlineStr"/>
+      <c r="XY23" t="inlineStr"/>
+      <c r="XZ23" t="inlineStr"/>
+      <c r="YA23" t="inlineStr"/>
+      <c r="YB23" t="inlineStr"/>
+      <c r="YC23" t="inlineStr"/>
+      <c r="YD23" t="inlineStr"/>
+      <c r="YE23" t="inlineStr"/>
+      <c r="YF23" t="inlineStr"/>
+      <c r="YG23" t="inlineStr"/>
+      <c r="YH23" t="inlineStr"/>
+      <c r="YI23" t="inlineStr"/>
+      <c r="YJ23" t="inlineStr"/>
+      <c r="YK23" t="inlineStr"/>
+      <c r="YL23" t="inlineStr"/>
+      <c r="YM23" t="inlineStr"/>
+      <c r="YN23" t="inlineStr"/>
+      <c r="YO23" t="inlineStr"/>
+      <c r="YP23" t="inlineStr"/>
+      <c r="YQ23" t="inlineStr"/>
+      <c r="YR23" t="inlineStr"/>
+      <c r="YS23" t="inlineStr"/>
+      <c r="YT23" t="inlineStr"/>
+      <c r="YU23" t="inlineStr"/>
+      <c r="YV23" t="inlineStr"/>
+      <c r="YW23" t="inlineStr"/>
+      <c r="YX23" t="inlineStr"/>
+      <c r="YY23" t="inlineStr"/>
+      <c r="YZ23" t="inlineStr"/>
+      <c r="ZA23" t="inlineStr"/>
+      <c r="ZB23" t="inlineStr"/>
+      <c r="ZC23" t="inlineStr"/>
+      <c r="ZD23" t="inlineStr"/>
+      <c r="ZE23" t="inlineStr"/>
+      <c r="ZF23" t="inlineStr"/>
+      <c r="ZG23" t="inlineStr"/>
+      <c r="ZH23" t="inlineStr"/>
+      <c r="ZI23" t="inlineStr"/>
+      <c r="ZJ23" t="inlineStr"/>
+      <c r="ZK23" t="inlineStr"/>
+      <c r="ZL23" t="inlineStr"/>
+      <c r="ZM23" t="inlineStr"/>
+      <c r="ZN23" t="inlineStr"/>
+      <c r="ZO23" t="inlineStr"/>
+      <c r="ZP23" t="inlineStr"/>
+      <c r="ZQ23" t="inlineStr"/>
+      <c r="ZR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -22639,7 +24907,7 @@
         <v>9.35129521204048e-07</v>
       </c>
       <c r="DJ24" t="n">
-        <v>0.007210467132182746</v>
+        <v>0.007210467132182745</v>
       </c>
       <c r="DK24" t="n">
         <v>0.0002304850791961425</v>
@@ -22666,7 +24934,7 @@
         <v>0.002857076527787342</v>
       </c>
       <c r="DS24" t="n">
-        <v>5.520229413366629e-05</v>
+        <v>5.52022941336663e-05</v>
       </c>
       <c r="DT24" t="n">
         <v>0.00368009754341232</v>
@@ -22735,7 +25003,7 @@
         <v>0</v>
       </c>
       <c r="EP24" t="n">
-        <v>0.07332998605063305</v>
+        <v>0.07332998605063307</v>
       </c>
       <c r="EQ24" t="n">
         <v>0.009532076860937745</v>
@@ -22762,7 +25030,7 @@
         <v>1.983760221304842</v>
       </c>
       <c r="FC24" t="n">
-        <v>42.18958180234006</v>
+        <v>42.18958180234007</v>
       </c>
       <c r="FD24" t="n">
         <v>1.882053819896045</v>
@@ -22774,7 +25042,7 @@
         <v>0.0139454484470955</v>
       </c>
       <c r="FG24" t="n">
-        <v>0.06750483955959084</v>
+        <v>0.06750483955959083</v>
       </c>
       <c r="FH24" t="n">
         <v>0.0002145247470159356</v>
@@ -23219,11 +25487,7 @@
       <c r="UZ24" t="inlineStr"/>
       <c r="VA24" t="inlineStr"/>
       <c r="VB24" t="inlineStr"/>
-      <c r="VC24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC24" t="inlineStr"/>
       <c r="VD24" t="inlineStr"/>
       <c r="VE24" t="inlineStr"/>
       <c r="VF24" t="inlineStr"/>
@@ -23243,7 +25507,11 @@
       <c r="VT24" t="inlineStr"/>
       <c r="VU24" t="inlineStr"/>
       <c r="VV24" t="inlineStr"/>
-      <c r="VW24" t="inlineStr"/>
+      <c r="VW24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX24" t="inlineStr"/>
       <c r="VY24" t="inlineStr"/>
       <c r="VZ24" t="inlineStr"/>
@@ -23259,6 +25527,90 @@
       <c r="WJ24" t="inlineStr"/>
       <c r="WK24" t="inlineStr"/>
       <c r="WL24" t="inlineStr"/>
+      <c r="WM24" t="inlineStr"/>
+      <c r="WN24" t="inlineStr"/>
+      <c r="WO24" t="inlineStr"/>
+      <c r="WP24" t="inlineStr"/>
+      <c r="WQ24" t="inlineStr"/>
+      <c r="WR24" t="inlineStr"/>
+      <c r="WS24" t="inlineStr"/>
+      <c r="WT24" t="inlineStr"/>
+      <c r="WU24" t="inlineStr"/>
+      <c r="WV24" t="inlineStr"/>
+      <c r="WW24" t="inlineStr"/>
+      <c r="WX24" t="inlineStr"/>
+      <c r="WY24" t="inlineStr"/>
+      <c r="WZ24" t="inlineStr"/>
+      <c r="XA24" t="inlineStr"/>
+      <c r="XB24" t="inlineStr"/>
+      <c r="XC24" t="inlineStr"/>
+      <c r="XD24" t="inlineStr"/>
+      <c r="XE24" t="inlineStr"/>
+      <c r="XF24" t="inlineStr"/>
+      <c r="XG24" t="inlineStr"/>
+      <c r="XH24" t="inlineStr"/>
+      <c r="XI24" t="inlineStr"/>
+      <c r="XJ24" t="inlineStr"/>
+      <c r="XK24" t="inlineStr"/>
+      <c r="XL24" t="inlineStr"/>
+      <c r="XM24" t="inlineStr"/>
+      <c r="XN24" t="inlineStr"/>
+      <c r="XO24" t="inlineStr"/>
+      <c r="XP24" t="inlineStr"/>
+      <c r="XQ24" t="inlineStr"/>
+      <c r="XR24" t="inlineStr"/>
+      <c r="XS24" t="inlineStr"/>
+      <c r="XT24" t="inlineStr"/>
+      <c r="XU24" t="inlineStr"/>
+      <c r="XV24" t="inlineStr"/>
+      <c r="XW24" t="inlineStr"/>
+      <c r="XX24" t="inlineStr"/>
+      <c r="XY24" t="inlineStr"/>
+      <c r="XZ24" t="inlineStr"/>
+      <c r="YA24" t="inlineStr"/>
+      <c r="YB24" t="inlineStr"/>
+      <c r="YC24" t="inlineStr"/>
+      <c r="YD24" t="inlineStr"/>
+      <c r="YE24" t="inlineStr"/>
+      <c r="YF24" t="inlineStr"/>
+      <c r="YG24" t="inlineStr"/>
+      <c r="YH24" t="inlineStr"/>
+      <c r="YI24" t="inlineStr"/>
+      <c r="YJ24" t="inlineStr"/>
+      <c r="YK24" t="inlineStr"/>
+      <c r="YL24" t="inlineStr"/>
+      <c r="YM24" t="inlineStr"/>
+      <c r="YN24" t="inlineStr"/>
+      <c r="YO24" t="inlineStr"/>
+      <c r="YP24" t="inlineStr"/>
+      <c r="YQ24" t="inlineStr"/>
+      <c r="YR24" t="inlineStr"/>
+      <c r="YS24" t="inlineStr"/>
+      <c r="YT24" t="inlineStr"/>
+      <c r="YU24" t="inlineStr"/>
+      <c r="YV24" t="inlineStr"/>
+      <c r="YW24" t="inlineStr"/>
+      <c r="YX24" t="inlineStr"/>
+      <c r="YY24" t="inlineStr"/>
+      <c r="YZ24" t="inlineStr"/>
+      <c r="ZA24" t="inlineStr"/>
+      <c r="ZB24" t="inlineStr"/>
+      <c r="ZC24" t="inlineStr"/>
+      <c r="ZD24" t="inlineStr"/>
+      <c r="ZE24" t="inlineStr"/>
+      <c r="ZF24" t="inlineStr"/>
+      <c r="ZG24" t="inlineStr"/>
+      <c r="ZH24" t="inlineStr"/>
+      <c r="ZI24" t="inlineStr"/>
+      <c r="ZJ24" t="inlineStr"/>
+      <c r="ZK24" t="inlineStr"/>
+      <c r="ZL24" t="inlineStr"/>
+      <c r="ZM24" t="inlineStr"/>
+      <c r="ZN24" t="inlineStr"/>
+      <c r="ZO24" t="inlineStr"/>
+      <c r="ZP24" t="inlineStr"/>
+      <c r="ZQ24" t="inlineStr"/>
+      <c r="ZR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -24175,11 +26527,7 @@
       <c r="UZ25" t="inlineStr"/>
       <c r="VA25" t="inlineStr"/>
       <c r="VB25" t="inlineStr"/>
-      <c r="VC25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC25" t="inlineStr"/>
       <c r="VD25" t="inlineStr"/>
       <c r="VE25" t="inlineStr"/>
       <c r="VF25" t="inlineStr"/>
@@ -24199,7 +26547,11 @@
       <c r="VT25" t="inlineStr"/>
       <c r="VU25" t="inlineStr"/>
       <c r="VV25" t="inlineStr"/>
-      <c r="VW25" t="inlineStr"/>
+      <c r="VW25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX25" t="inlineStr"/>
       <c r="VY25" t="inlineStr"/>
       <c r="VZ25" t="inlineStr"/>
@@ -24215,6 +26567,90 @@
       <c r="WJ25" t="inlineStr"/>
       <c r="WK25" t="inlineStr"/>
       <c r="WL25" t="inlineStr"/>
+      <c r="WM25" t="inlineStr"/>
+      <c r="WN25" t="inlineStr"/>
+      <c r="WO25" t="inlineStr"/>
+      <c r="WP25" t="inlineStr"/>
+      <c r="WQ25" t="inlineStr"/>
+      <c r="WR25" t="inlineStr"/>
+      <c r="WS25" t="inlineStr"/>
+      <c r="WT25" t="inlineStr"/>
+      <c r="WU25" t="inlineStr"/>
+      <c r="WV25" t="inlineStr"/>
+      <c r="WW25" t="inlineStr"/>
+      <c r="WX25" t="inlineStr"/>
+      <c r="WY25" t="inlineStr"/>
+      <c r="WZ25" t="inlineStr"/>
+      <c r="XA25" t="inlineStr"/>
+      <c r="XB25" t="inlineStr"/>
+      <c r="XC25" t="inlineStr"/>
+      <c r="XD25" t="inlineStr"/>
+      <c r="XE25" t="inlineStr"/>
+      <c r="XF25" t="inlineStr"/>
+      <c r="XG25" t="inlineStr"/>
+      <c r="XH25" t="inlineStr"/>
+      <c r="XI25" t="inlineStr"/>
+      <c r="XJ25" t="inlineStr"/>
+      <c r="XK25" t="inlineStr"/>
+      <c r="XL25" t="inlineStr"/>
+      <c r="XM25" t="inlineStr"/>
+      <c r="XN25" t="inlineStr"/>
+      <c r="XO25" t="inlineStr"/>
+      <c r="XP25" t="inlineStr"/>
+      <c r="XQ25" t="inlineStr"/>
+      <c r="XR25" t="inlineStr"/>
+      <c r="XS25" t="inlineStr"/>
+      <c r="XT25" t="inlineStr"/>
+      <c r="XU25" t="inlineStr"/>
+      <c r="XV25" t="inlineStr"/>
+      <c r="XW25" t="inlineStr"/>
+      <c r="XX25" t="inlineStr"/>
+      <c r="XY25" t="inlineStr"/>
+      <c r="XZ25" t="inlineStr"/>
+      <c r="YA25" t="inlineStr"/>
+      <c r="YB25" t="inlineStr"/>
+      <c r="YC25" t="inlineStr"/>
+      <c r="YD25" t="inlineStr"/>
+      <c r="YE25" t="inlineStr"/>
+      <c r="YF25" t="inlineStr"/>
+      <c r="YG25" t="inlineStr"/>
+      <c r="YH25" t="inlineStr"/>
+      <c r="YI25" t="inlineStr"/>
+      <c r="YJ25" t="inlineStr"/>
+      <c r="YK25" t="inlineStr"/>
+      <c r="YL25" t="inlineStr"/>
+      <c r="YM25" t="inlineStr"/>
+      <c r="YN25" t="inlineStr"/>
+      <c r="YO25" t="inlineStr"/>
+      <c r="YP25" t="inlineStr"/>
+      <c r="YQ25" t="inlineStr"/>
+      <c r="YR25" t="inlineStr"/>
+      <c r="YS25" t="inlineStr"/>
+      <c r="YT25" t="inlineStr"/>
+      <c r="YU25" t="inlineStr"/>
+      <c r="YV25" t="inlineStr"/>
+      <c r="YW25" t="inlineStr"/>
+      <c r="YX25" t="inlineStr"/>
+      <c r="YY25" t="inlineStr"/>
+      <c r="YZ25" t="inlineStr"/>
+      <c r="ZA25" t="inlineStr"/>
+      <c r="ZB25" t="inlineStr"/>
+      <c r="ZC25" t="inlineStr"/>
+      <c r="ZD25" t="inlineStr"/>
+      <c r="ZE25" t="inlineStr"/>
+      <c r="ZF25" t="inlineStr"/>
+      <c r="ZG25" t="inlineStr"/>
+      <c r="ZH25" t="inlineStr"/>
+      <c r="ZI25" t="inlineStr"/>
+      <c r="ZJ25" t="inlineStr"/>
+      <c r="ZK25" t="inlineStr"/>
+      <c r="ZL25" t="inlineStr"/>
+      <c r="ZM25" t="inlineStr"/>
+      <c r="ZN25" t="inlineStr"/>
+      <c r="ZO25" t="inlineStr"/>
+      <c r="ZP25" t="inlineStr"/>
+      <c r="ZQ25" t="inlineStr"/>
+      <c r="ZR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -25153,11 +27589,7 @@
       <c r="UZ26" t="inlineStr"/>
       <c r="VA26" t="inlineStr"/>
       <c r="VB26" t="inlineStr"/>
-      <c r="VC26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
+      <c r="VC26" t="inlineStr"/>
       <c r="VD26" t="inlineStr"/>
       <c r="VE26" t="inlineStr"/>
       <c r="VF26" t="inlineStr"/>
@@ -25177,7 +27609,11 @@
       <c r="VT26" t="inlineStr"/>
       <c r="VU26" t="inlineStr"/>
       <c r="VV26" t="inlineStr"/>
-      <c r="VW26" t="inlineStr"/>
+      <c r="VW26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="VX26" t="inlineStr"/>
       <c r="VY26" t="inlineStr"/>
       <c r="VZ26" t="inlineStr"/>
@@ -25193,6 +27629,90 @@
       <c r="WJ26" t="inlineStr"/>
       <c r="WK26" t="inlineStr"/>
       <c r="WL26" t="inlineStr"/>
+      <c r="WM26" t="inlineStr"/>
+      <c r="WN26" t="inlineStr"/>
+      <c r="WO26" t="inlineStr"/>
+      <c r="WP26" t="inlineStr"/>
+      <c r="WQ26" t="inlineStr"/>
+      <c r="WR26" t="inlineStr"/>
+      <c r="WS26" t="inlineStr"/>
+      <c r="WT26" t="inlineStr"/>
+      <c r="WU26" t="inlineStr"/>
+      <c r="WV26" t="inlineStr"/>
+      <c r="WW26" t="inlineStr"/>
+      <c r="WX26" t="inlineStr"/>
+      <c r="WY26" t="inlineStr"/>
+      <c r="WZ26" t="inlineStr"/>
+      <c r="XA26" t="inlineStr"/>
+      <c r="XB26" t="inlineStr"/>
+      <c r="XC26" t="inlineStr"/>
+      <c r="XD26" t="inlineStr"/>
+      <c r="XE26" t="inlineStr"/>
+      <c r="XF26" t="inlineStr"/>
+      <c r="XG26" t="inlineStr"/>
+      <c r="XH26" t="inlineStr"/>
+      <c r="XI26" t="inlineStr"/>
+      <c r="XJ26" t="inlineStr"/>
+      <c r="XK26" t="inlineStr"/>
+      <c r="XL26" t="inlineStr"/>
+      <c r="XM26" t="inlineStr"/>
+      <c r="XN26" t="inlineStr"/>
+      <c r="XO26" t="inlineStr"/>
+      <c r="XP26" t="inlineStr"/>
+      <c r="XQ26" t="inlineStr"/>
+      <c r="XR26" t="inlineStr"/>
+      <c r="XS26" t="inlineStr"/>
+      <c r="XT26" t="inlineStr"/>
+      <c r="XU26" t="inlineStr"/>
+      <c r="XV26" t="inlineStr"/>
+      <c r="XW26" t="inlineStr"/>
+      <c r="XX26" t="inlineStr"/>
+      <c r="XY26" t="inlineStr"/>
+      <c r="XZ26" t="inlineStr"/>
+      <c r="YA26" t="inlineStr"/>
+      <c r="YB26" t="inlineStr"/>
+      <c r="YC26" t="inlineStr"/>
+      <c r="YD26" t="inlineStr"/>
+      <c r="YE26" t="inlineStr"/>
+      <c r="YF26" t="inlineStr"/>
+      <c r="YG26" t="inlineStr"/>
+      <c r="YH26" t="inlineStr"/>
+      <c r="YI26" t="inlineStr"/>
+      <c r="YJ26" t="inlineStr"/>
+      <c r="YK26" t="inlineStr"/>
+      <c r="YL26" t="inlineStr"/>
+      <c r="YM26" t="inlineStr"/>
+      <c r="YN26" t="inlineStr"/>
+      <c r="YO26" t="inlineStr"/>
+      <c r="YP26" t="inlineStr"/>
+      <c r="YQ26" t="inlineStr"/>
+      <c r="YR26" t="inlineStr"/>
+      <c r="YS26" t="inlineStr"/>
+      <c r="YT26" t="inlineStr"/>
+      <c r="YU26" t="inlineStr"/>
+      <c r="YV26" t="inlineStr"/>
+      <c r="YW26" t="inlineStr"/>
+      <c r="YX26" t="inlineStr"/>
+      <c r="YY26" t="inlineStr"/>
+      <c r="YZ26" t="inlineStr"/>
+      <c r="ZA26" t="inlineStr"/>
+      <c r="ZB26" t="inlineStr"/>
+      <c r="ZC26" t="inlineStr"/>
+      <c r="ZD26" t="inlineStr"/>
+      <c r="ZE26" t="inlineStr"/>
+      <c r="ZF26" t="inlineStr"/>
+      <c r="ZG26" t="inlineStr"/>
+      <c r="ZH26" t="inlineStr"/>
+      <c r="ZI26" t="inlineStr"/>
+      <c r="ZJ26" t="inlineStr"/>
+      <c r="ZK26" t="inlineStr"/>
+      <c r="ZL26" t="inlineStr"/>
+      <c r="ZM26" t="inlineStr"/>
+      <c r="ZN26" t="inlineStr"/>
+      <c r="ZO26" t="inlineStr"/>
+      <c r="ZP26" t="inlineStr"/>
+      <c r="ZQ26" t="inlineStr"/>
+      <c r="ZR26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
